--- a/Mod_Korean/Lang/KR/Game/Game.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Game.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5560" uniqueCount="3589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5561" uniqueCount="3590">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">weather_Rain</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.28</t>
+    <t xml:space="preserve">EA 23.29</t>
   </si>
   <si>
     <t xml:space="preserve">It begins to rain.</t>
@@ -2436,7 +2436,7 @@
     <t xml:space="preserve">vopal</t>
   </si>
   <si>
-    <t xml:space="preserve">*vopal*</t>
+    <t xml:space="preserve">*vorpal*</t>
   </si>
   <si>
     <t xml:space="preserve">*シャキーン*</t>
@@ -8335,6 +8335,9 @@
   </si>
   <si>
     <t xml:space="preserve">Beta 22.94 fix 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.28</t>
   </si>
   <si>
     <t xml:space="preserve">비가 내리기 시작했다.</t>
@@ -11097,7 +11100,7 @@
       </c>
       <c r="C3"/>
       <c r="D3" t="s">
-        <v>2727</v>
+        <v>2728</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -11115,7 +11118,7 @@
       </c>
       <c r="C4"/>
       <c r="D4" t="s">
-        <v>2728</v>
+        <v>2729</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
@@ -11133,7 +11136,7 @@
       </c>
       <c r="C5"/>
       <c r="D5" t="s">
-        <v>2729</v>
+        <v>2730</v>
       </c>
       <c r="E5" t="s">
         <v>14</v>
@@ -11151,7 +11154,7 @@
       </c>
       <c r="C6"/>
       <c r="D6" t="s">
-        <v>2730</v>
+        <v>2731</v>
       </c>
       <c r="E6" t="s">
         <v>17</v>
@@ -11169,7 +11172,7 @@
       </c>
       <c r="C7"/>
       <c r="D7" t="s">
-        <v>2731</v>
+        <v>2732</v>
       </c>
       <c r="E7" t="s">
         <v>20</v>
@@ -11187,7 +11190,7 @@
       </c>
       <c r="C8"/>
       <c r="D8" t="s">
-        <v>2732</v>
+        <v>2733</v>
       </c>
       <c r="E8" t="s">
         <v>23</v>
@@ -11205,7 +11208,7 @@
       </c>
       <c r="C9"/>
       <c r="D9" t="s">
-        <v>2733</v>
+        <v>2734</v>
       </c>
       <c r="E9" t="s">
         <v>26</v>
@@ -11223,7 +11226,7 @@
       </c>
       <c r="C10"/>
       <c r="D10" t="s">
-        <v>2734</v>
+        <v>2735</v>
       </c>
       <c r="E10" t="s">
         <v>29</v>
@@ -11277,7 +11280,7 @@
       </c>
       <c r="C13"/>
       <c r="D13" t="s">
-        <v>2735</v>
+        <v>2736</v>
       </c>
       <c r="E13" t="s">
         <v>36</v>
@@ -11295,7 +11298,7 @@
       </c>
       <c r="C14"/>
       <c r="D14" t="s">
-        <v>2736</v>
+        <v>2737</v>
       </c>
       <c r="E14" t="s">
         <v>39</v>
@@ -11313,7 +11316,7 @@
       </c>
       <c r="C15"/>
       <c r="D15" t="s">
-        <v>2737</v>
+        <v>2738</v>
       </c>
       <c r="E15" t="s">
         <v>42</v>
@@ -11331,7 +11334,7 @@
       </c>
       <c r="C16"/>
       <c r="D16" t="s">
-        <v>2738</v>
+        <v>2739</v>
       </c>
       <c r="E16" t="s">
         <v>45</v>
@@ -11349,7 +11352,7 @@
       </c>
       <c r="C17"/>
       <c r="D17" t="s">
-        <v>2739</v>
+        <v>2740</v>
       </c>
       <c r="E17" t="s">
         <v>48</v>
@@ -11367,7 +11370,7 @@
       </c>
       <c r="C18"/>
       <c r="D18" t="s">
-        <v>2740</v>
+        <v>2741</v>
       </c>
       <c r="E18" t="s">
         <v>51</v>
@@ -11385,7 +11388,7 @@
       </c>
       <c r="C19"/>
       <c r="D19" t="s">
-        <v>2741</v>
+        <v>2742</v>
       </c>
       <c r="E19" t="s">
         <v>54</v>
@@ -11403,7 +11406,7 @@
       </c>
       <c r="C20"/>
       <c r="D20" t="s">
-        <v>2742</v>
+        <v>2743</v>
       </c>
       <c r="E20" t="s">
         <v>57</v>
@@ -11421,7 +11424,7 @@
       </c>
       <c r="C21"/>
       <c r="D21" t="s">
-        <v>2743</v>
+        <v>2744</v>
       </c>
       <c r="E21" t="s">
         <v>60</v>
@@ -11439,7 +11442,7 @@
       </c>
       <c r="C22"/>
       <c r="D22" t="s">
-        <v>2744</v>
+        <v>2745</v>
       </c>
       <c r="E22" t="s">
         <v>63</v>
@@ -11457,7 +11460,7 @@
       </c>
       <c r="C23"/>
       <c r="D23" t="s">
-        <v>2745</v>
+        <v>2746</v>
       </c>
       <c r="E23" t="s">
         <v>66</v>
@@ -11475,7 +11478,7 @@
       </c>
       <c r="C24"/>
       <c r="D24" t="s">
-        <v>2746</v>
+        <v>2747</v>
       </c>
       <c r="E24" t="s">
         <v>69</v>
@@ -11493,7 +11496,7 @@
       </c>
       <c r="C25"/>
       <c r="D25" t="s">
-        <v>2747</v>
+        <v>2748</v>
       </c>
       <c r="E25" t="s">
         <v>72</v>
@@ -11511,7 +11514,7 @@
       </c>
       <c r="C26"/>
       <c r="D26" t="s">
-        <v>2748</v>
+        <v>2749</v>
       </c>
       <c r="E26" t="s">
         <v>75</v>
@@ -11529,7 +11532,7 @@
       </c>
       <c r="C27"/>
       <c r="D27" t="s">
-        <v>2749</v>
+        <v>2750</v>
       </c>
       <c r="E27" t="s">
         <v>78</v>
@@ -11547,7 +11550,7 @@
       </c>
       <c r="C28"/>
       <c r="D28" t="s">
-        <v>2750</v>
+        <v>2751</v>
       </c>
       <c r="E28" t="s">
         <v>81</v>
@@ -11565,7 +11568,7 @@
       </c>
       <c r="C29"/>
       <c r="D29" t="s">
-        <v>2751</v>
+        <v>2752</v>
       </c>
       <c r="E29" t="s">
         <v>84</v>
@@ -11583,7 +11586,7 @@
       </c>
       <c r="C30"/>
       <c r="D30" t="s">
-        <v>2752</v>
+        <v>2753</v>
       </c>
       <c r="E30" t="s">
         <v>87</v>
@@ -11601,7 +11604,7 @@
       </c>
       <c r="C31"/>
       <c r="D31" t="s">
-        <v>2753</v>
+        <v>2754</v>
       </c>
       <c r="E31" t="s">
         <v>90</v>
@@ -11619,7 +11622,7 @@
       </c>
       <c r="C32"/>
       <c r="D32" t="s">
-        <v>2754</v>
+        <v>2755</v>
       </c>
       <c r="E32" t="s">
         <v>93</v>
@@ -11637,7 +11640,7 @@
       </c>
       <c r="C33"/>
       <c r="D33" t="s">
-        <v>2755</v>
+        <v>2756</v>
       </c>
       <c r="E33" t="s">
         <v>96</v>
@@ -11655,7 +11658,7 @@
       </c>
       <c r="C34"/>
       <c r="D34" t="s">
-        <v>2756</v>
+        <v>2757</v>
       </c>
       <c r="E34" t="s">
         <v>99</v>
@@ -11673,7 +11676,7 @@
       </c>
       <c r="C35"/>
       <c r="D35" t="s">
-        <v>2757</v>
+        <v>2758</v>
       </c>
       <c r="E35" t="s">
         <v>102</v>
@@ -11691,7 +11694,7 @@
       </c>
       <c r="C36"/>
       <c r="D36" t="s">
-        <v>2758</v>
+        <v>2759</v>
       </c>
       <c r="E36" t="s">
         <v>105</v>
@@ -11709,7 +11712,7 @@
       </c>
       <c r="C37"/>
       <c r="D37" t="s">
-        <v>2759</v>
+        <v>2760</v>
       </c>
       <c r="E37" t="s">
         <v>108</v>
@@ -11729,7 +11732,7 @@
         <v>111</v>
       </c>
       <c r="D38" t="s">
-        <v>2760</v>
+        <v>2761</v>
       </c>
       <c r="E38" t="s">
         <v>112</v>
@@ -11749,7 +11752,7 @@
         <v>111</v>
       </c>
       <c r="D39" t="s">
-        <v>2761</v>
+        <v>2762</v>
       </c>
       <c r="E39" t="s">
         <v>115</v>
@@ -11769,7 +11772,7 @@
         <v>111</v>
       </c>
       <c r="D40" t="s">
-        <v>2762</v>
+        <v>2763</v>
       </c>
       <c r="E40" t="s">
         <v>118</v>
@@ -11789,7 +11792,7 @@
         <v>111</v>
       </c>
       <c r="D41" t="s">
-        <v>2763</v>
+        <v>2764</v>
       </c>
       <c r="E41" t="s">
         <v>121</v>
@@ -11809,7 +11812,7 @@
         <v>111</v>
       </c>
       <c r="D42" t="s">
-        <v>2764</v>
+        <v>2765</v>
       </c>
       <c r="E42" t="s">
         <v>124</v>
@@ -11829,7 +11832,7 @@
         <v>111</v>
       </c>
       <c r="D43" t="s">
-        <v>2765</v>
+        <v>2766</v>
       </c>
       <c r="E43" t="s">
         <v>127</v>
@@ -11847,7 +11850,7 @@
       </c>
       <c r="C44"/>
       <c r="D44" t="s">
-        <v>2766</v>
+        <v>2767</v>
       </c>
       <c r="E44" t="s">
         <v>130</v>
@@ -11865,7 +11868,7 @@
       </c>
       <c r="C45"/>
       <c r="D45" t="s">
-        <v>2767</v>
+        <v>2768</v>
       </c>
       <c r="E45" t="s">
         <v>133</v>
@@ -11885,7 +11888,7 @@
         <v>111</v>
       </c>
       <c r="D46" t="s">
-        <v>2768</v>
+        <v>2769</v>
       </c>
       <c r="E46" t="s">
         <v>136</v>
@@ -11905,7 +11908,7 @@
         <v>111</v>
       </c>
       <c r="D47" t="s">
-        <v>2769</v>
+        <v>2770</v>
       </c>
       <c r="E47" t="s">
         <v>139</v>
@@ -11925,7 +11928,7 @@
         <v>111</v>
       </c>
       <c r="D48" t="s">
-        <v>2770</v>
+        <v>2771</v>
       </c>
       <c r="E48" t="s">
         <v>142</v>
@@ -11945,7 +11948,7 @@
         <v>111</v>
       </c>
       <c r="D49" t="s">
-        <v>2771</v>
+        <v>2772</v>
       </c>
       <c r="E49" t="s">
         <v>145</v>
@@ -11965,7 +11968,7 @@
         <v>111</v>
       </c>
       <c r="D50" t="s">
-        <v>2772</v>
+        <v>2773</v>
       </c>
       <c r="E50" t="s">
         <v>148</v>
@@ -11985,7 +11988,7 @@
         <v>111</v>
       </c>
       <c r="D51" t="s">
-        <v>2773</v>
+        <v>2774</v>
       </c>
       <c r="E51" t="s">
         <v>151</v>
@@ -12005,7 +12008,7 @@
         <v>111</v>
       </c>
       <c r="D52" t="s">
-        <v>2774</v>
+        <v>2775</v>
       </c>
       <c r="E52" t="s">
         <v>154</v>
@@ -12025,7 +12028,7 @@
         <v>111</v>
       </c>
       <c r="D53" t="s">
-        <v>2775</v>
+        <v>2776</v>
       </c>
       <c r="E53" t="s">
         <v>157</v>
@@ -12045,7 +12048,7 @@
         <v>111</v>
       </c>
       <c r="D54" t="s">
-        <v>2776</v>
+        <v>2777</v>
       </c>
       <c r="E54" t="s">
         <v>160</v>
@@ -12065,7 +12068,7 @@
         <v>111</v>
       </c>
       <c r="D55" t="s">
-        <v>2777</v>
+        <v>2778</v>
       </c>
       <c r="E55" t="s">
         <v>163</v>
@@ -12085,7 +12088,7 @@
         <v>111</v>
       </c>
       <c r="D56" t="s">
-        <v>2778</v>
+        <v>2779</v>
       </c>
       <c r="E56" t="s">
         <v>166</v>
@@ -12105,7 +12108,7 @@
         <v>111</v>
       </c>
       <c r="D57" t="s">
-        <v>2779</v>
+        <v>2780</v>
       </c>
       <c r="E57" t="s">
         <v>166</v>
@@ -12125,7 +12128,7 @@
         <v>111</v>
       </c>
       <c r="D58" t="s">
-        <v>2780</v>
+        <v>2781</v>
       </c>
       <c r="E58" t="s">
         <v>171</v>
@@ -12145,7 +12148,7 @@
         <v>111</v>
       </c>
       <c r="D59" t="s">
-        <v>2781</v>
+        <v>2782</v>
       </c>
       <c r="E59" t="s">
         <v>174</v>
@@ -12165,7 +12168,7 @@
         <v>111</v>
       </c>
       <c r="D60" t="s">
-        <v>2782</v>
+        <v>2783</v>
       </c>
       <c r="E60" t="s">
         <v>177</v>
@@ -12183,7 +12186,7 @@
       </c>
       <c r="C61"/>
       <c r="D61" t="s">
-        <v>2783</v>
+        <v>2784</v>
       </c>
       <c r="E61" t="s">
         <v>180</v>
@@ -12203,7 +12206,7 @@
         <v>111</v>
       </c>
       <c r="D62" t="s">
-        <v>2784</v>
+        <v>2785</v>
       </c>
       <c r="E62" t="s">
         <v>183</v>
@@ -12223,7 +12226,7 @@
         <v>111</v>
       </c>
       <c r="D63" t="s">
-        <v>2785</v>
+        <v>2786</v>
       </c>
       <c r="E63" t="s">
         <v>186</v>
@@ -12243,7 +12246,7 @@
         <v>111</v>
       </c>
       <c r="D64" t="s">
-        <v>2786</v>
+        <v>2787</v>
       </c>
       <c r="E64" t="s">
         <v>189</v>
@@ -12263,7 +12266,7 @@
         <v>111</v>
       </c>
       <c r="D65" t="s">
-        <v>2787</v>
+        <v>2788</v>
       </c>
       <c r="E65" t="s">
         <v>192</v>
@@ -12283,7 +12286,7 @@
         <v>111</v>
       </c>
       <c r="D66" t="s">
-        <v>2788</v>
+        <v>2789</v>
       </c>
       <c r="E66" t="s">
         <v>195</v>
@@ -12303,7 +12306,7 @@
         <v>111</v>
       </c>
       <c r="D67" t="s">
-        <v>2789</v>
+        <v>2790</v>
       </c>
       <c r="E67" t="s">
         <v>198</v>
@@ -12323,7 +12326,7 @@
         <v>111</v>
       </c>
       <c r="D68" t="s">
-        <v>2790</v>
+        <v>2791</v>
       </c>
       <c r="E68" t="s">
         <v>201</v>
@@ -12343,7 +12346,7 @@
         <v>111</v>
       </c>
       <c r="D69" t="s">
-        <v>2791</v>
+        <v>2792</v>
       </c>
       <c r="E69" t="s">
         <v>204</v>
@@ -12363,7 +12366,7 @@
         <v>111</v>
       </c>
       <c r="D70" t="s">
-        <v>2792</v>
+        <v>2793</v>
       </c>
       <c r="E70" t="s">
         <v>207</v>
@@ -12383,7 +12386,7 @@
         <v>111</v>
       </c>
       <c r="D71" t="s">
-        <v>2793</v>
+        <v>2794</v>
       </c>
       <c r="E71" t="s">
         <v>210</v>
@@ -12403,7 +12406,7 @@
         <v>111</v>
       </c>
       <c r="D72" t="s">
-        <v>2794</v>
+        <v>2795</v>
       </c>
       <c r="E72" t="s">
         <v>213</v>
@@ -12423,7 +12426,7 @@
         <v>111</v>
       </c>
       <c r="D73" t="s">
-        <v>2795</v>
+        <v>2796</v>
       </c>
       <c r="E73" t="s">
         <v>216</v>
@@ -12443,7 +12446,7 @@
         <v>111</v>
       </c>
       <c r="D74" t="s">
-        <v>2796</v>
+        <v>2797</v>
       </c>
       <c r="E74" t="s">
         <v>219</v>
@@ -12463,7 +12466,7 @@
         <v>111</v>
       </c>
       <c r="D75" t="s">
-        <v>2797</v>
+        <v>2798</v>
       </c>
       <c r="E75" t="s">
         <v>222</v>
@@ -12483,7 +12486,7 @@
         <v>111</v>
       </c>
       <c r="D76" t="s">
-        <v>2798</v>
+        <v>2799</v>
       </c>
       <c r="E76" t="s">
         <v>225</v>
@@ -12503,7 +12506,7 @@
         <v>111</v>
       </c>
       <c r="D77" t="s">
-        <v>2799</v>
+        <v>2800</v>
       </c>
       <c r="E77" t="s">
         <v>228</v>
@@ -12521,7 +12524,7 @@
       </c>
       <c r="C78"/>
       <c r="D78" t="s">
-        <v>2800</v>
+        <v>2801</v>
       </c>
       <c r="E78" t="s">
         <v>231</v>
@@ -12541,7 +12544,7 @@
         <v>111</v>
       </c>
       <c r="D79" t="s">
-        <v>2801</v>
+        <v>2802</v>
       </c>
       <c r="E79" t="s">
         <v>234</v>
@@ -12561,7 +12564,7 @@
         <v>111</v>
       </c>
       <c r="D80" t="s">
-        <v>2802</v>
+        <v>2803</v>
       </c>
       <c r="E80" t="s">
         <v>237</v>
@@ -12579,7 +12582,7 @@
       </c>
       <c r="C81"/>
       <c r="D81" t="s">
-        <v>2803</v>
+        <v>2804</v>
       </c>
       <c r="E81" t="s">
         <v>240</v>
@@ -12597,7 +12600,7 @@
       </c>
       <c r="C82"/>
       <c r="D82" t="s">
-        <v>2804</v>
+        <v>2805</v>
       </c>
       <c r="E82" t="s">
         <v>243</v>
@@ -12615,7 +12618,7 @@
       </c>
       <c r="C83"/>
       <c r="D83" t="s">
-        <v>2805</v>
+        <v>2806</v>
       </c>
       <c r="E83" t="s">
         <v>246</v>
@@ -12633,7 +12636,7 @@
       </c>
       <c r="C84"/>
       <c r="D84" t="s">
-        <v>2806</v>
+        <v>2807</v>
       </c>
       <c r="E84" t="s">
         <v>249</v>
@@ -12651,7 +12654,7 @@
       </c>
       <c r="C85"/>
       <c r="D85" t="s">
-        <v>2807</v>
+        <v>2808</v>
       </c>
       <c r="E85" t="s">
         <v>252</v>
@@ -12669,7 +12672,7 @@
       </c>
       <c r="C86"/>
       <c r="D86" t="s">
-        <v>2808</v>
+        <v>2809</v>
       </c>
       <c r="E86" t="s">
         <v>255</v>
@@ -12687,7 +12690,7 @@
       </c>
       <c r="C87"/>
       <c r="D87" t="s">
-        <v>2809</v>
+        <v>2810</v>
       </c>
       <c r="E87" t="s">
         <v>258</v>
@@ -12705,7 +12708,7 @@
       </c>
       <c r="C88"/>
       <c r="D88" t="s">
-        <v>2810</v>
+        <v>2811</v>
       </c>
       <c r="E88" t="s">
         <v>261</v>
@@ -12723,7 +12726,7 @@
       </c>
       <c r="C89"/>
       <c r="D89" t="s">
-        <v>2811</v>
+        <v>2812</v>
       </c>
       <c r="E89" t="s">
         <v>264</v>
@@ -12741,7 +12744,7 @@
       </c>
       <c r="C90"/>
       <c r="D90" t="s">
-        <v>2812</v>
+        <v>2813</v>
       </c>
       <c r="E90" t="s">
         <v>267</v>
@@ -12759,7 +12762,7 @@
       </c>
       <c r="C91"/>
       <c r="D91" t="s">
-        <v>2813</v>
+        <v>2814</v>
       </c>
       <c r="E91" t="s">
         <v>270</v>
@@ -12777,7 +12780,7 @@
       </c>
       <c r="C92"/>
       <c r="D92" t="s">
-        <v>2814</v>
+        <v>2815</v>
       </c>
       <c r="E92" t="s">
         <v>273</v>
@@ -12795,7 +12798,7 @@
       </c>
       <c r="C93"/>
       <c r="D93" t="s">
-        <v>2815</v>
+        <v>2816</v>
       </c>
       <c r="E93" t="s">
         <v>276</v>
@@ -12813,7 +12816,7 @@
       </c>
       <c r="C94"/>
       <c r="D94" t="s">
-        <v>2816</v>
+        <v>2817</v>
       </c>
       <c r="E94" t="s">
         <v>279</v>
@@ -12831,7 +12834,7 @@
       </c>
       <c r="C95"/>
       <c r="D95" t="s">
-        <v>2817</v>
+        <v>2818</v>
       </c>
       <c r="E95" t="s">
         <v>282</v>
@@ -12849,7 +12852,7 @@
       </c>
       <c r="C96"/>
       <c r="D96" t="s">
-        <v>2818</v>
+        <v>2819</v>
       </c>
       <c r="E96" t="s">
         <v>285</v>
@@ -12867,7 +12870,7 @@
       </c>
       <c r="C97"/>
       <c r="D97" t="s">
-        <v>2819</v>
+        <v>2820</v>
       </c>
       <c r="E97" t="s">
         <v>288</v>
@@ -12885,7 +12888,7 @@
       </c>
       <c r="C98"/>
       <c r="D98" t="s">
-        <v>2820</v>
+        <v>2821</v>
       </c>
       <c r="E98" t="s">
         <v>291</v>
@@ -12903,7 +12906,7 @@
       </c>
       <c r="C99"/>
       <c r="D99" t="s">
-        <v>2821</v>
+        <v>2822</v>
       </c>
       <c r="E99" t="s">
         <v>294</v>
@@ -12921,7 +12924,7 @@
       </c>
       <c r="C100"/>
       <c r="D100" t="s">
-        <v>2822</v>
+        <v>2823</v>
       </c>
       <c r="E100" t="s">
         <v>297</v>
@@ -12939,7 +12942,7 @@
       </c>
       <c r="C101"/>
       <c r="D101" t="s">
-        <v>2823</v>
+        <v>2824</v>
       </c>
       <c r="E101" t="s">
         <v>300</v>
@@ -12957,7 +12960,7 @@
       </c>
       <c r="C102"/>
       <c r="D102" t="s">
-        <v>2824</v>
+        <v>2825</v>
       </c>
       <c r="E102" t="s">
         <v>303</v>
@@ -12975,7 +12978,7 @@
       </c>
       <c r="C103"/>
       <c r="D103" t="s">
-        <v>2825</v>
+        <v>2826</v>
       </c>
       <c r="E103" t="s">
         <v>306</v>
@@ -12993,7 +12996,7 @@
       </c>
       <c r="C104"/>
       <c r="D104" t="s">
-        <v>2826</v>
+        <v>2827</v>
       </c>
       <c r="E104" t="s">
         <v>309</v>
@@ -13011,7 +13014,7 @@
       </c>
       <c r="C105"/>
       <c r="D105" t="s">
-        <v>2827</v>
+        <v>2828</v>
       </c>
       <c r="E105" t="s">
         <v>312</v>
@@ -13031,7 +13034,7 @@
         <v>315</v>
       </c>
       <c r="D106" t="s">
-        <v>2828</v>
+        <v>2829</v>
       </c>
       <c r="E106" t="s">
         <v>316</v>
@@ -13051,7 +13054,7 @@
         <v>315</v>
       </c>
       <c r="D107" t="s">
-        <v>2829</v>
+        <v>2830</v>
       </c>
       <c r="E107" t="s">
         <v>319</v>
@@ -13071,7 +13074,7 @@
         <v>315</v>
       </c>
       <c r="D108" t="s">
-        <v>2830</v>
+        <v>2831</v>
       </c>
       <c r="E108" t="s">
         <v>322</v>
@@ -13091,7 +13094,7 @@
         <v>315</v>
       </c>
       <c r="D109" t="s">
-        <v>2831</v>
+        <v>2832</v>
       </c>
       <c r="E109" t="s">
         <v>325</v>
@@ -13111,7 +13114,7 @@
         <v>315</v>
       </c>
       <c r="D110" t="s">
-        <v>2832</v>
+        <v>2833</v>
       </c>
       <c r="E110" t="s">
         <v>328</v>
@@ -13131,7 +13134,7 @@
         <v>315</v>
       </c>
       <c r="D111" t="s">
-        <v>2833</v>
+        <v>2834</v>
       </c>
       <c r="E111" t="s">
         <v>331</v>
@@ -13151,7 +13154,7 @@
         <v>315</v>
       </c>
       <c r="D112" t="s">
-        <v>2834</v>
+        <v>2835</v>
       </c>
       <c r="E112" t="s">
         <v>334</v>
@@ -13171,7 +13174,7 @@
         <v>315</v>
       </c>
       <c r="D113" t="s">
-        <v>2835</v>
+        <v>2836</v>
       </c>
       <c r="E113" t="s">
         <v>337</v>
@@ -13191,7 +13194,7 @@
         <v>315</v>
       </c>
       <c r="D114" t="s">
-        <v>2836</v>
+        <v>2837</v>
       </c>
       <c r="E114" t="s">
         <v>340</v>
@@ -13211,7 +13214,7 @@
         <v>315</v>
       </c>
       <c r="D115" t="s">
-        <v>2837</v>
+        <v>2838</v>
       </c>
       <c r="E115" t="s">
         <v>343</v>
@@ -13229,7 +13232,7 @@
       </c>
       <c r="C116"/>
       <c r="D116" t="s">
-        <v>2838</v>
+        <v>2839</v>
       </c>
       <c r="E116" t="s">
         <v>346</v>
@@ -13247,7 +13250,7 @@
       </c>
       <c r="C117"/>
       <c r="D117" t="s">
-        <v>2839</v>
+        <v>2840</v>
       </c>
       <c r="E117" t="s">
         <v>349</v>
@@ -13265,7 +13268,7 @@
       </c>
       <c r="C118"/>
       <c r="D118" t="s">
-        <v>2840</v>
+        <v>2841</v>
       </c>
       <c r="E118" t="s">
         <v>352</v>
@@ -13283,7 +13286,7 @@
       </c>
       <c r="C119"/>
       <c r="D119" t="s">
-        <v>2841</v>
+        <v>2842</v>
       </c>
       <c r="E119" t="s">
         <v>355</v>
@@ -13301,7 +13304,7 @@
       </c>
       <c r="C120"/>
       <c r="D120" t="s">
-        <v>2842</v>
+        <v>2843</v>
       </c>
       <c r="E120" t="s">
         <v>358</v>
@@ -13319,7 +13322,7 @@
       </c>
       <c r="C121"/>
       <c r="D121" t="s">
-        <v>2843</v>
+        <v>2844</v>
       </c>
       <c r="E121" t="s">
         <v>361</v>
@@ -13337,7 +13340,7 @@
       </c>
       <c r="C122"/>
       <c r="D122" t="s">
-        <v>2844</v>
+        <v>2845</v>
       </c>
       <c r="E122" t="s">
         <v>364</v>
@@ -13357,7 +13360,7 @@
         <v>367</v>
       </c>
       <c r="D123" t="s">
-        <v>2845</v>
+        <v>2846</v>
       </c>
       <c r="E123" t="s">
         <v>368</v>
@@ -13377,7 +13380,7 @@
         <v>367</v>
       </c>
       <c r="D124" t="s">
-        <v>2846</v>
+        <v>2847</v>
       </c>
       <c r="E124" t="s">
         <v>371</v>
@@ -13397,7 +13400,7 @@
         <v>367</v>
       </c>
       <c r="D125" t="s">
-        <v>2847</v>
+        <v>2848</v>
       </c>
       <c r="E125" t="s">
         <v>371</v>
@@ -13417,7 +13420,7 @@
         <v>367</v>
       </c>
       <c r="D126" t="s">
-        <v>2848</v>
+        <v>2849</v>
       </c>
       <c r="E126" t="s">
         <v>376</v>
@@ -13437,7 +13440,7 @@
         <v>367</v>
       </c>
       <c r="D127" t="s">
-        <v>2849</v>
+        <v>2850</v>
       </c>
       <c r="E127" t="s">
         <v>379</v>
@@ -13457,7 +13460,7 @@
         <v>367</v>
       </c>
       <c r="D128" t="s">
-        <v>2850</v>
+        <v>2851</v>
       </c>
       <c r="E128" t="s">
         <v>382</v>
@@ -13477,7 +13480,7 @@
         <v>367</v>
       </c>
       <c r="D129" t="s">
-        <v>2851</v>
+        <v>2852</v>
       </c>
       <c r="E129" t="s">
         <v>385</v>
@@ -13497,7 +13500,7 @@
         <v>367</v>
       </c>
       <c r="D130" t="s">
-        <v>2852</v>
+        <v>2853</v>
       </c>
       <c r="E130" t="s">
         <v>388</v>
@@ -13517,7 +13520,7 @@
         <v>367</v>
       </c>
       <c r="D131" t="s">
-        <v>2853</v>
+        <v>2854</v>
       </c>
       <c r="E131" t="s">
         <v>391</v>
@@ -13537,7 +13540,7 @@
         <v>367</v>
       </c>
       <c r="D132" t="s">
-        <v>2854</v>
+        <v>2855</v>
       </c>
       <c r="E132" t="s">
         <v>394</v>
@@ -13557,7 +13560,7 @@
         <v>367</v>
       </c>
       <c r="D133" t="s">
-        <v>2855</v>
+        <v>2856</v>
       </c>
       <c r="E133" t="s">
         <v>397</v>
@@ -13577,7 +13580,7 @@
         <v>367</v>
       </c>
       <c r="D134" t="s">
-        <v>2856</v>
+        <v>2857</v>
       </c>
       <c r="E134" t="s">
         <v>400</v>
@@ -13597,7 +13600,7 @@
         <v>367</v>
       </c>
       <c r="D135" t="s">
-        <v>2857</v>
+        <v>2858</v>
       </c>
       <c r="E135" t="s">
         <v>403</v>
@@ -13617,7 +13620,7 @@
         <v>367</v>
       </c>
       <c r="D136" t="s">
-        <v>2858</v>
+        <v>2859</v>
       </c>
       <c r="E136" t="s">
         <v>406</v>
@@ -13637,7 +13640,7 @@
         <v>367</v>
       </c>
       <c r="D137" t="s">
-        <v>2859</v>
+        <v>2860</v>
       </c>
       <c r="E137" t="s">
         <v>409</v>
@@ -13657,7 +13660,7 @@
         <v>367</v>
       </c>
       <c r="D138" t="s">
-        <v>2860</v>
+        <v>2861</v>
       </c>
       <c r="E138" t="s">
         <v>412</v>
@@ -13677,7 +13680,7 @@
         <v>367</v>
       </c>
       <c r="D139" t="s">
-        <v>2861</v>
+        <v>2862</v>
       </c>
       <c r="E139" t="s">
         <v>415</v>
@@ -13697,7 +13700,7 @@
         <v>367</v>
       </c>
       <c r="D140" t="s">
-        <v>2862</v>
+        <v>2863</v>
       </c>
       <c r="E140" t="s">
         <v>418</v>
@@ -13717,7 +13720,7 @@
         <v>367</v>
       </c>
       <c r="D141" t="s">
-        <v>2863</v>
+        <v>2864</v>
       </c>
       <c r="E141" t="s">
         <v>421</v>
@@ -13737,7 +13740,7 @@
         <v>367</v>
       </c>
       <c r="D142" t="s">
-        <v>2864</v>
+        <v>2865</v>
       </c>
       <c r="E142" t="s">
         <v>424</v>
@@ -13757,7 +13760,7 @@
         <v>367</v>
       </c>
       <c r="D143" t="s">
-        <v>2865</v>
+        <v>2866</v>
       </c>
       <c r="E143" t="s">
         <v>427</v>
@@ -13777,7 +13780,7 @@
         <v>367</v>
       </c>
       <c r="D144" t="s">
-        <v>2866</v>
+        <v>2867</v>
       </c>
       <c r="E144" t="s">
         <v>430</v>
@@ -13797,7 +13800,7 @@
         <v>367</v>
       </c>
       <c r="D145" t="s">
-        <v>2867</v>
+        <v>2868</v>
       </c>
       <c r="E145" t="s">
         <v>433</v>
@@ -13817,7 +13820,7 @@
         <v>367</v>
       </c>
       <c r="D146" t="s">
-        <v>2868</v>
+        <v>2869</v>
       </c>
       <c r="E146" t="s">
         <v>436</v>
@@ -13837,7 +13840,7 @@
         <v>367</v>
       </c>
       <c r="D147" t="s">
-        <v>2869</v>
+        <v>2870</v>
       </c>
       <c r="E147" t="s">
         <v>439</v>
@@ -13857,7 +13860,7 @@
         <v>367</v>
       </c>
       <c r="D148" t="s">
-        <v>2870</v>
+        <v>2871</v>
       </c>
       <c r="E148" t="s">
         <v>442</v>
@@ -13877,7 +13880,7 @@
         <v>367</v>
       </c>
       <c r="D149" t="s">
-        <v>2871</v>
+        <v>2872</v>
       </c>
       <c r="E149" t="s">
         <v>445</v>
@@ -13897,7 +13900,7 @@
         <v>367</v>
       </c>
       <c r="D150" t="s">
-        <v>2872</v>
+        <v>2873</v>
       </c>
       <c r="E150" t="s">
         <v>448</v>
@@ -13915,7 +13918,7 @@
       </c>
       <c r="C151"/>
       <c r="D151" t="s">
-        <v>2873</v>
+        <v>2874</v>
       </c>
       <c r="E151" t="s">
         <v>451</v>
@@ -13933,7 +13936,7 @@
       </c>
       <c r="C152"/>
       <c r="D152" t="s">
-        <v>2874</v>
+        <v>2875</v>
       </c>
       <c r="E152" t="s">
         <v>454</v>
@@ -13953,7 +13956,7 @@
         <v>367</v>
       </c>
       <c r="D153" t="s">
-        <v>2875</v>
+        <v>2876</v>
       </c>
       <c r="E153" t="s">
         <v>457</v>
@@ -13971,7 +13974,7 @@
       </c>
       <c r="C154"/>
       <c r="D154" t="s">
-        <v>2876</v>
+        <v>2877</v>
       </c>
       <c r="E154" t="s">
         <v>460</v>
@@ -13989,7 +13992,7 @@
       </c>
       <c r="C155"/>
       <c r="D155" t="s">
-        <v>2877</v>
+        <v>2878</v>
       </c>
       <c r="E155" t="s">
         <v>463</v>
@@ -14007,7 +14010,7 @@
       </c>
       <c r="C156"/>
       <c r="D156" t="s">
-        <v>2878</v>
+        <v>2879</v>
       </c>
       <c r="E156" t="s">
         <v>466</v>
@@ -14025,7 +14028,7 @@
       </c>
       <c r="C157"/>
       <c r="D157" t="s">
-        <v>2879</v>
+        <v>2880</v>
       </c>
       <c r="E157" t="s">
         <v>469</v>
@@ -14043,7 +14046,7 @@
       </c>
       <c r="C158"/>
       <c r="D158" t="s">
-        <v>2880</v>
+        <v>2881</v>
       </c>
       <c r="E158" t="s">
         <v>472</v>
@@ -14061,7 +14064,7 @@
       </c>
       <c r="C159"/>
       <c r="D159" t="s">
-        <v>2881</v>
+        <v>2882</v>
       </c>
       <c r="E159" t="s">
         <v>475</v>
@@ -14079,7 +14082,7 @@
       </c>
       <c r="C160"/>
       <c r="D160" t="s">
-        <v>2882</v>
+        <v>2883</v>
       </c>
       <c r="E160" t="s">
         <v>478</v>
@@ -14097,7 +14100,7 @@
       </c>
       <c r="C161"/>
       <c r="D161" t="s">
-        <v>2883</v>
+        <v>2884</v>
       </c>
       <c r="E161" t="s">
         <v>481</v>
@@ -14115,7 +14118,7 @@
       </c>
       <c r="C162"/>
       <c r="D162" t="s">
-        <v>2884</v>
+        <v>2885</v>
       </c>
       <c r="E162" t="s">
         <v>484</v>
@@ -14133,7 +14136,7 @@
       </c>
       <c r="C163"/>
       <c r="D163" t="s">
-        <v>2885</v>
+        <v>2886</v>
       </c>
       <c r="E163" t="s">
         <v>487</v>
@@ -14151,7 +14154,7 @@
       </c>
       <c r="C164"/>
       <c r="D164" t="s">
-        <v>2886</v>
+        <v>2887</v>
       </c>
       <c r="E164" t="s">
         <v>490</v>
@@ -14169,7 +14172,7 @@
       </c>
       <c r="C165"/>
       <c r="D165" t="s">
-        <v>2887</v>
+        <v>2888</v>
       </c>
       <c r="E165" t="s">
         <v>493</v>
@@ -14187,7 +14190,7 @@
       </c>
       <c r="C166"/>
       <c r="D166" t="s">
-        <v>2888</v>
+        <v>2889</v>
       </c>
       <c r="E166" t="s">
         <v>496</v>
@@ -14205,7 +14208,7 @@
       </c>
       <c r="C167"/>
       <c r="D167" t="s">
-        <v>2889</v>
+        <v>2890</v>
       </c>
       <c r="E167" t="s">
         <v>499</v>
@@ -14223,7 +14226,7 @@
       </c>
       <c r="C168"/>
       <c r="D168" t="s">
-        <v>2890</v>
+        <v>2891</v>
       </c>
       <c r="E168" t="s">
         <v>502</v>
@@ -14241,7 +14244,7 @@
       </c>
       <c r="C169"/>
       <c r="D169" t="s">
-        <v>2891</v>
+        <v>2892</v>
       </c>
       <c r="E169" t="s">
         <v>505</v>
@@ -14259,7 +14262,7 @@
       </c>
       <c r="C170"/>
       <c r="D170" t="s">
-        <v>2892</v>
+        <v>2893</v>
       </c>
       <c r="E170" t="s">
         <v>508</v>
@@ -14277,7 +14280,7 @@
       </c>
       <c r="C171"/>
       <c r="D171" t="s">
-        <v>2855</v>
+        <v>2856</v>
       </c>
       <c r="E171" t="s">
         <v>511</v>
@@ -14295,7 +14298,7 @@
       </c>
       <c r="C172"/>
       <c r="D172" t="s">
-        <v>2893</v>
+        <v>2894</v>
       </c>
       <c r="E172" t="s">
         <v>513</v>
@@ -14313,7 +14316,7 @@
       </c>
       <c r="C173"/>
       <c r="D173" t="s">
-        <v>2894</v>
+        <v>2895</v>
       </c>
       <c r="E173" t="s">
         <v>516</v>
@@ -14331,7 +14334,7 @@
       </c>
       <c r="C174"/>
       <c r="D174" t="s">
-        <v>2895</v>
+        <v>2896</v>
       </c>
       <c r="E174" t="s">
         <v>519</v>
@@ -14349,7 +14352,7 @@
       </c>
       <c r="C175"/>
       <c r="D175" t="s">
-        <v>2896</v>
+        <v>2897</v>
       </c>
       <c r="E175" t="s">
         <v>522</v>
@@ -14367,7 +14370,7 @@
       </c>
       <c r="C176"/>
       <c r="D176" t="s">
-        <v>2897</v>
+        <v>2898</v>
       </c>
       <c r="E176" t="s">
         <v>525</v>
@@ -14385,7 +14388,7 @@
       </c>
       <c r="C177"/>
       <c r="D177" t="s">
-        <v>2898</v>
+        <v>2899</v>
       </c>
       <c r="E177" t="s">
         <v>528</v>
@@ -14403,7 +14406,7 @@
       </c>
       <c r="C178"/>
       <c r="D178" t="s">
-        <v>2899</v>
+        <v>2900</v>
       </c>
       <c r="E178" t="s">
         <v>531</v>
@@ -14421,7 +14424,7 @@
       </c>
       <c r="C179"/>
       <c r="D179" t="s">
-        <v>2900</v>
+        <v>2901</v>
       </c>
       <c r="E179" t="s">
         <v>534</v>
@@ -14441,7 +14444,7 @@
         <v>367</v>
       </c>
       <c r="D180" t="s">
-        <v>2901</v>
+        <v>2902</v>
       </c>
       <c r="E180" t="s">
         <v>537</v>
@@ -14461,7 +14464,7 @@
         <v>367</v>
       </c>
       <c r="D181" t="s">
-        <v>2902</v>
+        <v>2903</v>
       </c>
       <c r="E181" t="s">
         <v>540</v>
@@ -14481,7 +14484,7 @@
         <v>367</v>
       </c>
       <c r="D182" t="s">
-        <v>2903</v>
+        <v>2904</v>
       </c>
       <c r="E182" t="s">
         <v>543</v>
@@ -14501,7 +14504,7 @@
         <v>367</v>
       </c>
       <c r="D183" t="s">
-        <v>2904</v>
+        <v>2905</v>
       </c>
       <c r="E183" t="s">
         <v>546</v>
@@ -14521,7 +14524,7 @@
         <v>367</v>
       </c>
       <c r="D184" t="s">
-        <v>2905</v>
+        <v>2906</v>
       </c>
       <c r="E184" t="s">
         <v>549</v>
@@ -14541,7 +14544,7 @@
         <v>367</v>
       </c>
       <c r="D185" t="s">
-        <v>2906</v>
+        <v>2907</v>
       </c>
       <c r="E185" t="s">
         <v>549</v>
@@ -14561,7 +14564,7 @@
         <v>367</v>
       </c>
       <c r="D186" t="s">
-        <v>2907</v>
+        <v>2908</v>
       </c>
       <c r="E186" t="s">
         <v>554</v>
@@ -14581,7 +14584,7 @@
         <v>367</v>
       </c>
       <c r="D187" t="s">
-        <v>2908</v>
+        <v>2909</v>
       </c>
       <c r="E187" t="s">
         <v>554</v>
@@ -14601,7 +14604,7 @@
         <v>367</v>
       </c>
       <c r="D188" t="s">
-        <v>2909</v>
+        <v>2910</v>
       </c>
       <c r="E188" t="s">
         <v>559</v>
@@ -14621,7 +14624,7 @@
         <v>367</v>
       </c>
       <c r="D189" t="s">
-        <v>2910</v>
+        <v>2911</v>
       </c>
       <c r="E189" t="s">
         <v>559</v>
@@ -14641,7 +14644,7 @@
         <v>367</v>
       </c>
       <c r="D190" t="s">
-        <v>2911</v>
+        <v>2912</v>
       </c>
       <c r="E190" t="s">
         <v>559</v>
@@ -14661,7 +14664,7 @@
         <v>367</v>
       </c>
       <c r="D191" t="s">
-        <v>2912</v>
+        <v>2913</v>
       </c>
       <c r="E191" t="s">
         <v>566</v>
@@ -14681,7 +14684,7 @@
         <v>367</v>
       </c>
       <c r="D192" t="s">
-        <v>2913</v>
+        <v>2914</v>
       </c>
       <c r="E192" t="s">
         <v>569</v>
@@ -14701,7 +14704,7 @@
         <v>367</v>
       </c>
       <c r="D193" t="s">
-        <v>2914</v>
+        <v>2915</v>
       </c>
       <c r="E193" t="s">
         <v>572</v>
@@ -14721,7 +14724,7 @@
         <v>367</v>
       </c>
       <c r="D194" t="s">
-        <v>2915</v>
+        <v>2916</v>
       </c>
       <c r="E194" t="s">
         <v>575</v>
@@ -14741,7 +14744,7 @@
         <v>367</v>
       </c>
       <c r="D195" t="s">
-        <v>2916</v>
+        <v>2917</v>
       </c>
       <c r="E195" t="s">
         <v>578</v>
@@ -14761,7 +14764,7 @@
         <v>367</v>
       </c>
       <c r="D196" t="s">
-        <v>2917</v>
+        <v>2918</v>
       </c>
       <c r="E196" t="s">
         <v>581</v>
@@ -14781,7 +14784,7 @@
         <v>367</v>
       </c>
       <c r="D197" t="s">
-        <v>2918</v>
+        <v>2919</v>
       </c>
       <c r="E197" t="s">
         <v>584</v>
@@ -14801,7 +14804,7 @@
         <v>367</v>
       </c>
       <c r="D198" t="s">
-        <v>2919</v>
+        <v>2920</v>
       </c>
       <c r="E198" t="s">
         <v>587</v>
@@ -14821,7 +14824,7 @@
         <v>367</v>
       </c>
       <c r="D199" t="s">
-        <v>2914</v>
+        <v>2915</v>
       </c>
       <c r="E199" t="s">
         <v>572</v>
@@ -14841,7 +14844,7 @@
         <v>367</v>
       </c>
       <c r="D200" t="s">
-        <v>2915</v>
+        <v>2916</v>
       </c>
       <c r="E200" t="s">
         <v>575</v>
@@ -14861,7 +14864,7 @@
         <v>367</v>
       </c>
       <c r="D201" t="s">
-        <v>2916</v>
+        <v>2917</v>
       </c>
       <c r="E201" t="s">
         <v>578</v>
@@ -14881,7 +14884,7 @@
         <v>367</v>
       </c>
       <c r="D202" t="s">
-        <v>2917</v>
+        <v>2918</v>
       </c>
       <c r="E202" t="s">
         <v>581</v>
@@ -14901,7 +14904,7 @@
         <v>367</v>
       </c>
       <c r="D203" t="s">
-        <v>2918</v>
+        <v>2919</v>
       </c>
       <c r="E203" t="s">
         <v>584</v>
@@ -14921,7 +14924,7 @@
         <v>367</v>
       </c>
       <c r="D204" t="s">
-        <v>2919</v>
+        <v>2920</v>
       </c>
       <c r="E204" t="s">
         <v>587</v>
@@ -14961,7 +14964,7 @@
         <v>367</v>
       </c>
       <c r="D206" t="s">
-        <v>2920</v>
+        <v>2921</v>
       </c>
       <c r="E206" t="s">
         <v>604</v>
@@ -14981,7 +14984,7 @@
         <v>367</v>
       </c>
       <c r="D207" t="s">
-        <v>2921</v>
+        <v>2922</v>
       </c>
       <c r="E207" t="s">
         <v>607</v>
@@ -15001,7 +15004,7 @@
         <v>367</v>
       </c>
       <c r="D208" t="s">
-        <v>2922</v>
+        <v>2923</v>
       </c>
       <c r="E208" t="s">
         <v>610</v>
@@ -15021,7 +15024,7 @@
         <v>367</v>
       </c>
       <c r="D209" t="s">
-        <v>2923</v>
+        <v>2924</v>
       </c>
       <c r="E209" t="s">
         <v>613</v>
@@ -15041,7 +15044,7 @@
         <v>367</v>
       </c>
       <c r="D210" t="s">
-        <v>2923</v>
+        <v>2924</v>
       </c>
       <c r="E210" t="s">
         <v>613</v>
@@ -15061,7 +15064,7 @@
         <v>367</v>
       </c>
       <c r="D211" t="s">
-        <v>2924</v>
+        <v>2925</v>
       </c>
       <c r="E211" t="s">
         <v>617</v>
@@ -15081,7 +15084,7 @@
         <v>367</v>
       </c>
       <c r="D212" t="s">
-        <v>2925</v>
+        <v>2926</v>
       </c>
       <c r="E212" t="s">
         <v>620</v>
@@ -15101,7 +15104,7 @@
         <v>367</v>
       </c>
       <c r="D213" t="s">
-        <v>2926</v>
+        <v>2927</v>
       </c>
       <c r="E213" t="s">
         <v>623</v>
@@ -15121,7 +15124,7 @@
         <v>367</v>
       </c>
       <c r="D214" t="s">
-        <v>2927</v>
+        <v>2928</v>
       </c>
       <c r="E214" t="s">
         <v>626</v>
@@ -15141,7 +15144,7 @@
         <v>367</v>
       </c>
       <c r="D215" t="s">
-        <v>2928</v>
+        <v>2929</v>
       </c>
       <c r="E215" t="s">
         <v>629</v>
@@ -15161,7 +15164,7 @@
         <v>367</v>
       </c>
       <c r="D216" t="s">
-        <v>2929</v>
+        <v>2930</v>
       </c>
       <c r="E216" t="s">
         <v>632</v>
@@ -15181,7 +15184,7 @@
         <v>367</v>
       </c>
       <c r="D217" t="s">
-        <v>2930</v>
+        <v>2931</v>
       </c>
       <c r="E217" t="s">
         <v>635</v>
@@ -15201,7 +15204,7 @@
         <v>367</v>
       </c>
       <c r="D218" t="s">
-        <v>2931</v>
+        <v>2932</v>
       </c>
       <c r="E218" t="s">
         <v>638</v>
@@ -15221,7 +15224,7 @@
         <v>367</v>
       </c>
       <c r="D219" t="s">
-        <v>2932</v>
+        <v>2933</v>
       </c>
       <c r="E219" t="s">
         <v>641</v>
@@ -15241,7 +15244,7 @@
         <v>367</v>
       </c>
       <c r="D220" t="s">
-        <v>2933</v>
+        <v>2934</v>
       </c>
       <c r="E220" t="s">
         <v>644</v>
@@ -15261,7 +15264,7 @@
         <v>367</v>
       </c>
       <c r="D221" t="s">
-        <v>2934</v>
+        <v>2935</v>
       </c>
       <c r="E221" t="s">
         <v>647</v>
@@ -15281,7 +15284,7 @@
         <v>367</v>
       </c>
       <c r="D222" t="s">
-        <v>2935</v>
+        <v>2936</v>
       </c>
       <c r="E222" t="s">
         <v>650</v>
@@ -15301,7 +15304,7 @@
         <v>367</v>
       </c>
       <c r="D223" t="s">
-        <v>2936</v>
+        <v>2937</v>
       </c>
       <c r="E223" t="s">
         <v>653</v>
@@ -15321,7 +15324,7 @@
         <v>367</v>
       </c>
       <c r="D224" t="s">
-        <v>2937</v>
+        <v>2938</v>
       </c>
       <c r="E224" t="s">
         <v>656</v>
@@ -15341,7 +15344,7 @@
         <v>367</v>
       </c>
       <c r="D225" t="s">
-        <v>2938</v>
+        <v>2939</v>
       </c>
       <c r="E225" t="s">
         <v>659</v>
@@ -15374,7 +15377,7 @@
         <v>367</v>
       </c>
       <c r="D227" t="s">
-        <v>2939</v>
+        <v>2940</v>
       </c>
       <c r="E227" t="s">
         <v>663</v>
@@ -15394,7 +15397,7 @@
         <v>367</v>
       </c>
       <c r="D228" t="s">
-        <v>2940</v>
+        <v>2941</v>
       </c>
       <c r="E228" t="s">
         <v>666</v>
@@ -15414,7 +15417,7 @@
         <v>367</v>
       </c>
       <c r="D229" t="s">
-        <v>2941</v>
+        <v>2942</v>
       </c>
       <c r="E229" t="s">
         <v>669</v>
@@ -15434,7 +15437,7 @@
         <v>367</v>
       </c>
       <c r="D230" t="s">
-        <v>2942</v>
+        <v>2943</v>
       </c>
       <c r="E230" t="s">
         <v>672</v>
@@ -15454,7 +15457,7 @@
         <v>367</v>
       </c>
       <c r="D231" t="s">
-        <v>2943</v>
+        <v>2944</v>
       </c>
       <c r="E231" t="s">
         <v>675</v>
@@ -15474,7 +15477,7 @@
         <v>367</v>
       </c>
       <c r="D232" t="s">
-        <v>2944</v>
+        <v>2945</v>
       </c>
       <c r="E232" t="s">
         <v>678</v>
@@ -15494,7 +15497,7 @@
         <v>367</v>
       </c>
       <c r="D233" t="s">
-        <v>2945</v>
+        <v>2946</v>
       </c>
       <c r="E233" t="s">
         <v>681</v>
@@ -15514,7 +15517,7 @@
         <v>367</v>
       </c>
       <c r="D234" t="s">
-        <v>2946</v>
+        <v>2947</v>
       </c>
       <c r="E234" t="s">
         <v>684</v>
@@ -15534,7 +15537,7 @@
         <v>367</v>
       </c>
       <c r="D235" t="s">
-        <v>2947</v>
+        <v>2948</v>
       </c>
       <c r="E235" t="s">
         <v>687</v>
@@ -15554,7 +15557,7 @@
         <v>367</v>
       </c>
       <c r="D236" t="s">
-        <v>2948</v>
+        <v>2949</v>
       </c>
       <c r="E236" t="s">
         <v>690</v>
@@ -15574,7 +15577,7 @@
         <v>367</v>
       </c>
       <c r="D237" t="s">
-        <v>2949</v>
+        <v>2950</v>
       </c>
       <c r="E237" t="s">
         <v>693</v>
@@ -15594,7 +15597,7 @@
         <v>367</v>
       </c>
       <c r="D238" t="s">
-        <v>2950</v>
+        <v>2951</v>
       </c>
       <c r="E238" t="s">
         <v>696</v>
@@ -15614,7 +15617,7 @@
         <v>367</v>
       </c>
       <c r="D239" t="s">
-        <v>2951</v>
+        <v>2952</v>
       </c>
       <c r="E239" t="s">
         <v>699</v>
@@ -15634,7 +15637,7 @@
         <v>367</v>
       </c>
       <c r="D240" t="s">
-        <v>2952</v>
+        <v>2953</v>
       </c>
       <c r="E240" t="s">
         <v>702</v>
@@ -15654,7 +15657,7 @@
         <v>367</v>
       </c>
       <c r="D241" t="s">
-        <v>2953</v>
+        <v>2954</v>
       </c>
       <c r="E241" t="s">
         <v>705</v>
@@ -15674,7 +15677,7 @@
         <v>367</v>
       </c>
       <c r="D242" t="s">
-        <v>2954</v>
+        <v>2955</v>
       </c>
       <c r="E242" t="s">
         <v>708</v>
@@ -15694,7 +15697,7 @@
         <v>367</v>
       </c>
       <c r="D243" t="s">
-        <v>2955</v>
+        <v>2956</v>
       </c>
       <c r="E243" t="s">
         <v>711</v>
@@ -15714,7 +15717,7 @@
         <v>367</v>
       </c>
       <c r="D244" t="s">
-        <v>2956</v>
+        <v>2957</v>
       </c>
       <c r="E244" t="s">
         <v>714</v>
@@ -15734,7 +15737,7 @@
         <v>367</v>
       </c>
       <c r="D245" t="s">
-        <v>2957</v>
+        <v>2958</v>
       </c>
       <c r="E245" t="s">
         <v>717</v>
@@ -15754,7 +15757,7 @@
         <v>367</v>
       </c>
       <c r="D246" t="s">
-        <v>2958</v>
+        <v>2959</v>
       </c>
       <c r="E246" t="s">
         <v>720</v>
@@ -15774,7 +15777,7 @@
         <v>367</v>
       </c>
       <c r="D247" t="s">
-        <v>2959</v>
+        <v>2960</v>
       </c>
       <c r="E247" t="s">
         <v>723</v>
@@ -15794,7 +15797,7 @@
         <v>367</v>
       </c>
       <c r="D248" t="s">
-        <v>2960</v>
+        <v>2961</v>
       </c>
       <c r="E248" t="s">
         <v>726</v>
@@ -15814,7 +15817,7 @@
         <v>367</v>
       </c>
       <c r="D249" t="s">
-        <v>2961</v>
+        <v>2962</v>
       </c>
       <c r="E249" t="s">
         <v>729</v>
@@ -15834,7 +15837,7 @@
         <v>367</v>
       </c>
       <c r="D250" t="s">
-        <v>2962</v>
+        <v>2963</v>
       </c>
       <c r="E250" t="s">
         <v>732</v>
@@ -15854,7 +15857,7 @@
         <v>367</v>
       </c>
       <c r="D251" t="s">
-        <v>2963</v>
+        <v>2964</v>
       </c>
       <c r="E251" t="s">
         <v>735</v>
@@ -15874,7 +15877,7 @@
         <v>367</v>
       </c>
       <c r="D252" t="s">
-        <v>2964</v>
+        <v>2965</v>
       </c>
       <c r="E252" t="s">
         <v>738</v>
@@ -15894,7 +15897,7 @@
         <v>367</v>
       </c>
       <c r="D253" t="s">
-        <v>2965</v>
+        <v>2966</v>
       </c>
       <c r="E253" t="s">
         <v>741</v>
@@ -15914,7 +15917,7 @@
         <v>367</v>
       </c>
       <c r="D254" t="s">
-        <v>2966</v>
+        <v>2967</v>
       </c>
       <c r="E254" t="s">
         <v>744</v>
@@ -15934,7 +15937,7 @@
         <v>367</v>
       </c>
       <c r="D255" t="s">
-        <v>2967</v>
+        <v>2968</v>
       </c>
       <c r="E255" t="s">
         <v>747</v>
@@ -15954,7 +15957,7 @@
         <v>367</v>
       </c>
       <c r="D256" t="s">
-        <v>2968</v>
+        <v>2969</v>
       </c>
       <c r="E256" t="s">
         <v>750</v>
@@ -15974,7 +15977,7 @@
         <v>367</v>
       </c>
       <c r="D257" t="s">
-        <v>2969</v>
+        <v>2970</v>
       </c>
       <c r="E257" t="s">
         <v>753</v>
@@ -15994,7 +15997,7 @@
         <v>367</v>
       </c>
       <c r="D258" t="s">
-        <v>2970</v>
+        <v>2971</v>
       </c>
       <c r="E258" t="s">
         <v>756</v>
@@ -16014,7 +16017,7 @@
         <v>367</v>
       </c>
       <c r="D259" t="s">
-        <v>2971</v>
+        <v>2972</v>
       </c>
       <c r="E259" t="s">
         <v>759</v>
@@ -16034,7 +16037,7 @@
         <v>367</v>
       </c>
       <c r="D260" t="s">
-        <v>2972</v>
+        <v>2973</v>
       </c>
       <c r="E260" t="s">
         <v>762</v>
@@ -16054,7 +16057,7 @@
         <v>367</v>
       </c>
       <c r="D261" t="s">
-        <v>2973</v>
+        <v>2974</v>
       </c>
       <c r="E261" t="s">
         <v>765</v>
@@ -16074,7 +16077,7 @@
         <v>367</v>
       </c>
       <c r="D262" t="s">
-        <v>2974</v>
+        <v>2975</v>
       </c>
       <c r="E262" t="s">
         <v>768</v>
@@ -16094,7 +16097,7 @@
         <v>367</v>
       </c>
       <c r="D263" t="s">
-        <v>2975</v>
+        <v>2976</v>
       </c>
       <c r="E263" t="s">
         <v>771</v>
@@ -16114,7 +16117,7 @@
         <v>367</v>
       </c>
       <c r="D264" t="s">
-        <v>2976</v>
+        <v>2977</v>
       </c>
       <c r="E264" t="s">
         <v>774</v>
@@ -16134,7 +16137,7 @@
         <v>367</v>
       </c>
       <c r="D265" t="s">
-        <v>2977</v>
+        <v>2978</v>
       </c>
       <c r="E265" t="s">
         <v>777</v>
@@ -16154,7 +16157,7 @@
         <v>367</v>
       </c>
       <c r="D266" t="s">
-        <v>2978</v>
+        <v>2979</v>
       </c>
       <c r="E266" t="s">
         <v>780</v>
@@ -16174,7 +16177,7 @@
         <v>367</v>
       </c>
       <c r="D267" t="s">
-        <v>2979</v>
+        <v>2980</v>
       </c>
       <c r="E267" t="s">
         <v>783</v>
@@ -16194,7 +16197,7 @@
         <v>367</v>
       </c>
       <c r="D268" t="s">
-        <v>2980</v>
+        <v>2981</v>
       </c>
       <c r="E268" t="s">
         <v>786</v>
@@ -16214,7 +16217,7 @@
         <v>367</v>
       </c>
       <c r="D269" t="s">
-        <v>2981</v>
+        <v>2982</v>
       </c>
       <c r="E269" t="s">
         <v>789</v>
@@ -16234,7 +16237,7 @@
         <v>367</v>
       </c>
       <c r="D270" t="s">
-        <v>2982</v>
+        <v>2983</v>
       </c>
       <c r="E270" t="s">
         <v>792</v>
@@ -16254,7 +16257,7 @@
         <v>367</v>
       </c>
       <c r="D271" t="s">
-        <v>2983</v>
+        <v>2984</v>
       </c>
       <c r="E271" t="s">
         <v>795</v>
@@ -16272,7 +16275,7 @@
       </c>
       <c r="C272"/>
       <c r="D272" t="s">
-        <v>2984</v>
+        <v>2985</v>
       </c>
       <c r="E272" t="s">
         <v>798</v>
@@ -16290,7 +16293,7 @@
       </c>
       <c r="C273"/>
       <c r="D273" t="s">
-        <v>2985</v>
+        <v>2986</v>
       </c>
       <c r="E273" t="s">
         <v>801</v>
@@ -16308,7 +16311,7 @@
       </c>
       <c r="C274"/>
       <c r="D274" t="s">
-        <v>2986</v>
+        <v>2987</v>
       </c>
       <c r="E274" t="s">
         <v>804</v>
@@ -16326,7 +16329,7 @@
       </c>
       <c r="C275"/>
       <c r="D275" t="s">
-        <v>2987</v>
+        <v>2988</v>
       </c>
       <c r="E275" t="s">
         <v>807</v>
@@ -16344,7 +16347,7 @@
       </c>
       <c r="C276"/>
       <c r="D276" t="s">
-        <v>2988</v>
+        <v>2989</v>
       </c>
       <c r="E276" t="s">
         <v>810</v>
@@ -16362,7 +16365,7 @@
       </c>
       <c r="C277"/>
       <c r="D277" t="s">
-        <v>2989</v>
+        <v>2990</v>
       </c>
       <c r="E277" t="s">
         <v>813</v>
@@ -16380,7 +16383,7 @@
       </c>
       <c r="C278"/>
       <c r="D278" t="s">
-        <v>2990</v>
+        <v>2991</v>
       </c>
       <c r="E278" t="s">
         <v>816</v>
@@ -16398,7 +16401,7 @@
       </c>
       <c r="C279"/>
       <c r="D279" t="s">
-        <v>2991</v>
+        <v>2992</v>
       </c>
       <c r="E279" t="s">
         <v>819</v>
@@ -16416,7 +16419,7 @@
       </c>
       <c r="C280"/>
       <c r="D280" t="s">
-        <v>2992</v>
+        <v>2993</v>
       </c>
       <c r="E280" t="s">
         <v>822</v>
@@ -16434,7 +16437,7 @@
       </c>
       <c r="C281"/>
       <c r="D281" t="s">
-        <v>2993</v>
+        <v>2994</v>
       </c>
       <c r="E281" t="s">
         <v>825</v>
@@ -16452,7 +16455,7 @@
       </c>
       <c r="C282"/>
       <c r="D282" t="s">
-        <v>2994</v>
+        <v>2995</v>
       </c>
       <c r="E282" t="s">
         <v>828</v>
@@ -16470,7 +16473,7 @@
       </c>
       <c r="C283"/>
       <c r="D283" t="s">
-        <v>2995</v>
+        <v>2996</v>
       </c>
       <c r="E283" t="s">
         <v>831</v>
@@ -16488,7 +16491,7 @@
       </c>
       <c r="C284"/>
       <c r="D284" t="s">
-        <v>2996</v>
+        <v>2997</v>
       </c>
       <c r="E284" t="s">
         <v>834</v>
@@ -16506,7 +16509,7 @@
       </c>
       <c r="C285"/>
       <c r="D285" t="s">
-        <v>2997</v>
+        <v>2998</v>
       </c>
       <c r="E285" t="s">
         <v>837</v>
@@ -16524,7 +16527,7 @@
       </c>
       <c r="C286"/>
       <c r="D286" t="s">
-        <v>2998</v>
+        <v>2999</v>
       </c>
       <c r="E286" t="s">
         <v>840</v>
@@ -16542,7 +16545,7 @@
       </c>
       <c r="C287"/>
       <c r="D287" t="s">
-        <v>2999</v>
+        <v>3000</v>
       </c>
       <c r="E287" t="s">
         <v>843</v>
@@ -16562,7 +16565,7 @@
         <v>846</v>
       </c>
       <c r="D288" t="s">
-        <v>3000</v>
+        <v>3001</v>
       </c>
       <c r="E288" t="s">
         <v>847</v>
@@ -16582,7 +16585,7 @@
         <v>846</v>
       </c>
       <c r="D289" t="s">
-        <v>3001</v>
+        <v>3002</v>
       </c>
       <c r="E289" t="s">
         <v>850</v>
@@ -16600,7 +16603,7 @@
       </c>
       <c r="C290"/>
       <c r="D290" t="s">
-        <v>3002</v>
+        <v>3003</v>
       </c>
       <c r="E290" t="s">
         <v>853</v>
@@ -16620,7 +16623,7 @@
         <v>856</v>
       </c>
       <c r="D291" t="s">
-        <v>3003</v>
+        <v>3004</v>
       </c>
       <c r="E291" t="s">
         <v>857</v>
@@ -16638,7 +16641,7 @@
       </c>
       <c r="C292"/>
       <c r="D292" t="s">
-        <v>3004</v>
+        <v>3005</v>
       </c>
       <c r="E292" t="s">
         <v>860</v>
@@ -16656,7 +16659,7 @@
       </c>
       <c r="C293"/>
       <c r="D293" t="s">
-        <v>3005</v>
+        <v>3006</v>
       </c>
       <c r="E293" t="s">
         <v>863</v>
@@ -16674,7 +16677,7 @@
       </c>
       <c r="C294"/>
       <c r="D294" t="s">
-        <v>3006</v>
+        <v>3007</v>
       </c>
       <c r="E294" t="s">
         <v>866</v>
@@ -16692,7 +16695,7 @@
       </c>
       <c r="C295"/>
       <c r="D295" t="s">
-        <v>3007</v>
+        <v>3008</v>
       </c>
       <c r="E295" t="s">
         <v>869</v>
@@ -16710,7 +16713,7 @@
       </c>
       <c r="C296"/>
       <c r="D296" t="s">
-        <v>3008</v>
+        <v>3009</v>
       </c>
       <c r="E296" t="s">
         <v>872</v>
@@ -16728,7 +16731,7 @@
       </c>
       <c r="C297"/>
       <c r="D297" t="s">
-        <v>3009</v>
+        <v>3010</v>
       </c>
       <c r="E297" t="s">
         <v>875</v>
@@ -16746,7 +16749,7 @@
       </c>
       <c r="C298"/>
       <c r="D298" t="s">
-        <v>3010</v>
+        <v>3011</v>
       </c>
       <c r="E298" t="s">
         <v>878</v>
@@ -16764,7 +16767,7 @@
       </c>
       <c r="C299"/>
       <c r="D299" t="s">
-        <v>3011</v>
+        <v>3012</v>
       </c>
       <c r="E299" t="s">
         <v>881</v>
@@ -16782,7 +16785,7 @@
       </c>
       <c r="C300"/>
       <c r="D300" t="s">
-        <v>3012</v>
+        <v>3013</v>
       </c>
       <c r="E300" t="s">
         <v>884</v>
@@ -16800,7 +16803,7 @@
       </c>
       <c r="C301"/>
       <c r="D301" t="s">
-        <v>3013</v>
+        <v>3014</v>
       </c>
       <c r="E301" t="s">
         <v>887</v>
@@ -16818,7 +16821,7 @@
       </c>
       <c r="C302"/>
       <c r="D302" t="s">
-        <v>3014</v>
+        <v>3015</v>
       </c>
       <c r="E302" t="s">
         <v>890</v>
@@ -16836,7 +16839,7 @@
       </c>
       <c r="C303"/>
       <c r="D303" t="s">
-        <v>3015</v>
+        <v>3016</v>
       </c>
       <c r="E303" t="s">
         <v>893</v>
@@ -16854,7 +16857,7 @@
       </c>
       <c r="C304"/>
       <c r="D304" t="s">
-        <v>3016</v>
+        <v>3017</v>
       </c>
       <c r="E304" t="s">
         <v>896</v>
@@ -16872,7 +16875,7 @@
       </c>
       <c r="C305"/>
       <c r="D305" t="s">
-        <v>3017</v>
+        <v>3018</v>
       </c>
       <c r="E305" t="s">
         <v>899</v>
@@ -16890,7 +16893,7 @@
       </c>
       <c r="C306"/>
       <c r="D306" t="s">
-        <v>3018</v>
+        <v>3019</v>
       </c>
       <c r="E306" t="s">
         <v>902</v>
@@ -16908,7 +16911,7 @@
       </c>
       <c r="C307"/>
       <c r="D307" t="s">
-        <v>3019</v>
+        <v>3020</v>
       </c>
       <c r="E307" t="s">
         <v>905</v>
@@ -16926,7 +16929,7 @@
       </c>
       <c r="C308"/>
       <c r="D308" t="s">
-        <v>3020</v>
+        <v>3021</v>
       </c>
       <c r="E308" t="s">
         <v>908</v>
@@ -16944,7 +16947,7 @@
       </c>
       <c r="C309"/>
       <c r="D309" t="s">
-        <v>3021</v>
+        <v>3022</v>
       </c>
       <c r="E309" t="s">
         <v>911</v>
@@ -16962,7 +16965,7 @@
       </c>
       <c r="C310"/>
       <c r="D310" t="s">
-        <v>3022</v>
+        <v>3023</v>
       </c>
       <c r="E310" t="s">
         <v>914</v>
@@ -16980,7 +16983,7 @@
       </c>
       <c r="C311"/>
       <c r="D311" t="s">
-        <v>3023</v>
+        <v>3024</v>
       </c>
       <c r="E311" t="s">
         <v>917</v>
@@ -16998,7 +17001,7 @@
       </c>
       <c r="C312"/>
       <c r="D312" t="s">
-        <v>3024</v>
+        <v>3025</v>
       </c>
       <c r="E312" t="s">
         <v>920</v>
@@ -17016,7 +17019,7 @@
       </c>
       <c r="C313"/>
       <c r="D313" t="s">
-        <v>3025</v>
+        <v>3026</v>
       </c>
       <c r="E313" t="s">
         <v>923</v>
@@ -17034,7 +17037,7 @@
       </c>
       <c r="C314"/>
       <c r="D314" t="s">
-        <v>3026</v>
+        <v>3027</v>
       </c>
       <c r="E314" t="s">
         <v>926</v>
@@ -17052,7 +17055,7 @@
       </c>
       <c r="C315"/>
       <c r="D315" t="s">
-        <v>3027</v>
+        <v>3028</v>
       </c>
       <c r="E315" t="s">
         <v>929</v>
@@ -17070,7 +17073,7 @@
       </c>
       <c r="C316"/>
       <c r="D316" t="s">
-        <v>3028</v>
+        <v>3029</v>
       </c>
       <c r="E316" t="s">
         <v>932</v>
@@ -17088,7 +17091,7 @@
       </c>
       <c r="C317"/>
       <c r="D317" t="s">
-        <v>3029</v>
+        <v>3030</v>
       </c>
       <c r="E317" t="s">
         <v>935</v>
@@ -17106,7 +17109,7 @@
       </c>
       <c r="C318"/>
       <c r="D318" t="s">
-        <v>3030</v>
+        <v>3031</v>
       </c>
       <c r="E318" t="s">
         <v>938</v>
@@ -17124,7 +17127,7 @@
       </c>
       <c r="C319"/>
       <c r="D319" t="s">
-        <v>3031</v>
+        <v>3032</v>
       </c>
       <c r="E319" t="s">
         <v>941</v>
@@ -17142,7 +17145,7 @@
       </c>
       <c r="C320"/>
       <c r="D320" t="s">
-        <v>3032</v>
+        <v>3033</v>
       </c>
       <c r="E320" t="s">
         <v>944</v>
@@ -17160,7 +17163,7 @@
       </c>
       <c r="C321"/>
       <c r="D321" t="s">
-        <v>3033</v>
+        <v>3034</v>
       </c>
       <c r="E321" t="s">
         <v>947</v>
@@ -17178,7 +17181,7 @@
       </c>
       <c r="C322"/>
       <c r="D322" t="s">
-        <v>3034</v>
+        <v>3035</v>
       </c>
       <c r="E322" t="s">
         <v>950</v>
@@ -17196,7 +17199,7 @@
       </c>
       <c r="C323"/>
       <c r="D323" t="s">
-        <v>3035</v>
+        <v>3036</v>
       </c>
       <c r="E323" t="s">
         <v>953</v>
@@ -17214,7 +17217,7 @@
       </c>
       <c r="C324"/>
       <c r="D324" t="s">
-        <v>3036</v>
+        <v>3037</v>
       </c>
       <c r="E324" t="s">
         <v>956</v>
@@ -17232,7 +17235,7 @@
       </c>
       <c r="C325"/>
       <c r="D325" t="s">
-        <v>3037</v>
+        <v>3038</v>
       </c>
       <c r="E325" t="s">
         <v>959</v>
@@ -17250,7 +17253,7 @@
       </c>
       <c r="C326"/>
       <c r="D326" t="s">
-        <v>3038</v>
+        <v>3039</v>
       </c>
       <c r="E326" t="s">
         <v>962</v>
@@ -17268,7 +17271,7 @@
       </c>
       <c r="C327"/>
       <c r="D327" t="s">
-        <v>3039</v>
+        <v>3040</v>
       </c>
       <c r="E327" t="s">
         <v>965</v>
@@ -17286,7 +17289,7 @@
       </c>
       <c r="C328"/>
       <c r="D328" t="s">
-        <v>3040</v>
+        <v>3041</v>
       </c>
       <c r="E328" t="s">
         <v>968</v>
@@ -17304,7 +17307,7 @@
       </c>
       <c r="C329"/>
       <c r="D329" t="s">
-        <v>3041</v>
+        <v>3042</v>
       </c>
       <c r="E329" t="s">
         <v>971</v>
@@ -17322,7 +17325,7 @@
       </c>
       <c r="C330"/>
       <c r="D330" t="s">
-        <v>3041</v>
+        <v>3042</v>
       </c>
       <c r="E330" t="s">
         <v>974</v>
@@ -17340,7 +17343,7 @@
       </c>
       <c r="C331"/>
       <c r="D331" t="s">
-        <v>3042</v>
+        <v>3043</v>
       </c>
       <c r="E331" t="s">
         <v>976</v>
@@ -17358,7 +17361,7 @@
       </c>
       <c r="C332"/>
       <c r="D332" t="s">
-        <v>3043</v>
+        <v>3044</v>
       </c>
       <c r="E332" t="s">
         <v>979</v>
@@ -17376,7 +17379,7 @@
       </c>
       <c r="C333"/>
       <c r="D333" t="s">
-        <v>3044</v>
+        <v>3045</v>
       </c>
       <c r="E333" t="s">
         <v>982</v>
@@ -17394,7 +17397,7 @@
       </c>
       <c r="C334"/>
       <c r="D334" t="s">
-        <v>3045</v>
+        <v>3046</v>
       </c>
       <c r="E334" t="s">
         <v>985</v>
@@ -17412,7 +17415,7 @@
       </c>
       <c r="C335"/>
       <c r="D335" t="s">
-        <v>3046</v>
+        <v>3047</v>
       </c>
       <c r="E335" t="s">
         <v>988</v>
@@ -17430,7 +17433,7 @@
       </c>
       <c r="C336"/>
       <c r="D336" t="s">
-        <v>3047</v>
+        <v>3048</v>
       </c>
       <c r="E336" t="s">
         <v>988</v>
@@ -17448,7 +17451,7 @@
       </c>
       <c r="C337"/>
       <c r="D337" t="s">
-        <v>3048</v>
+        <v>3049</v>
       </c>
       <c r="E337" t="s">
         <v>993</v>
@@ -17466,7 +17469,7 @@
       </c>
       <c r="C338"/>
       <c r="D338" t="s">
-        <v>3049</v>
+        <v>3050</v>
       </c>
       <c r="E338" t="s">
         <v>996</v>
@@ -17484,7 +17487,7 @@
       </c>
       <c r="C339"/>
       <c r="D339" t="s">
-        <v>3050</v>
+        <v>3051</v>
       </c>
       <c r="E339" t="s">
         <v>999</v>
@@ -17502,7 +17505,7 @@
       </c>
       <c r="C340"/>
       <c r="D340" t="s">
-        <v>3051</v>
+        <v>3052</v>
       </c>
       <c r="E340" t="s">
         <v>1002</v>
@@ -17520,7 +17523,7 @@
       </c>
       <c r="C341"/>
       <c r="D341" t="s">
-        <v>3052</v>
+        <v>3053</v>
       </c>
       <c r="E341" t="s">
         <v>1005</v>
@@ -17538,7 +17541,7 @@
       </c>
       <c r="C342"/>
       <c r="D342" t="s">
-        <v>3053</v>
+        <v>3054</v>
       </c>
       <c r="E342" t="s">
         <v>1008</v>
@@ -17558,7 +17561,7 @@
         <v>1011</v>
       </c>
       <c r="D343" t="s">
-        <v>3054</v>
+        <v>3055</v>
       </c>
       <c r="E343" t="s">
         <v>1012</v>
@@ -17578,7 +17581,7 @@
         <v>1011</v>
       </c>
       <c r="D344" t="s">
-        <v>3055</v>
+        <v>3056</v>
       </c>
       <c r="E344" t="s">
         <v>1015</v>
@@ -17598,7 +17601,7 @@
         <v>1011</v>
       </c>
       <c r="D345" t="s">
-        <v>3056</v>
+        <v>3057</v>
       </c>
       <c r="E345" t="s">
         <v>1018</v>
@@ -17618,7 +17621,7 @@
         <v>1011</v>
       </c>
       <c r="D346" t="s">
-        <v>3057</v>
+        <v>3058</v>
       </c>
       <c r="E346" t="s">
         <v>1021</v>
@@ -17638,7 +17641,7 @@
         <v>1011</v>
       </c>
       <c r="D347" t="s">
-        <v>3058</v>
+        <v>3059</v>
       </c>
       <c r="E347" t="s">
         <v>1024</v>
@@ -17658,7 +17661,7 @@
         <v>1011</v>
       </c>
       <c r="D348" t="s">
-        <v>3059</v>
+        <v>3060</v>
       </c>
       <c r="E348" t="s">
         <v>1027</v>
@@ -17678,7 +17681,7 @@
         <v>1011</v>
       </c>
       <c r="D349" t="s">
-        <v>3060</v>
+        <v>3061</v>
       </c>
       <c r="E349" t="s">
         <v>1030</v>
@@ -17698,7 +17701,7 @@
         <v>1011</v>
       </c>
       <c r="D350" t="s">
-        <v>3061</v>
+        <v>3062</v>
       </c>
       <c r="E350" t="s">
         <v>1033</v>
@@ -17716,7 +17719,7 @@
       </c>
       <c r="C351"/>
       <c r="D351" t="s">
-        <v>3062</v>
+        <v>3063</v>
       </c>
       <c r="E351" t="s">
         <v>1036</v>
@@ -17734,7 +17737,7 @@
       </c>
       <c r="C352"/>
       <c r="D352" t="s">
-        <v>3063</v>
+        <v>3064</v>
       </c>
       <c r="E352" t="s">
         <v>1039</v>
@@ -17752,7 +17755,7 @@
       </c>
       <c r="C353"/>
       <c r="D353" t="s">
-        <v>3064</v>
+        <v>3065</v>
       </c>
       <c r="E353" t="s">
         <v>1042</v>
@@ -17770,7 +17773,7 @@
       </c>
       <c r="C354"/>
       <c r="D354" t="s">
-        <v>3065</v>
+        <v>3066</v>
       </c>
       <c r="E354" t="s">
         <v>1045</v>
@@ -17788,7 +17791,7 @@
       </c>
       <c r="C355"/>
       <c r="D355" t="s">
-        <v>3066</v>
+        <v>3067</v>
       </c>
       <c r="E355" t="s">
         <v>1048</v>
@@ -17806,7 +17809,7 @@
       </c>
       <c r="C356"/>
       <c r="D356" t="s">
-        <v>3067</v>
+        <v>3068</v>
       </c>
       <c r="E356" t="s">
         <v>1051</v>
@@ -17824,7 +17827,7 @@
       </c>
       <c r="C357"/>
       <c r="D357" t="s">
-        <v>3068</v>
+        <v>3069</v>
       </c>
       <c r="E357" t="s">
         <v>1054</v>
@@ -17842,7 +17845,7 @@
       </c>
       <c r="C358"/>
       <c r="D358" t="s">
-        <v>3069</v>
+        <v>3070</v>
       </c>
       <c r="E358" t="s">
         <v>1057</v>
@@ -17860,7 +17863,7 @@
       </c>
       <c r="C359"/>
       <c r="D359" t="s">
-        <v>3070</v>
+        <v>3071</v>
       </c>
       <c r="E359" t="s">
         <v>1060</v>
@@ -17878,7 +17881,7 @@
       </c>
       <c r="C360"/>
       <c r="D360" t="s">
-        <v>3071</v>
+        <v>3072</v>
       </c>
       <c r="E360" t="s">
         <v>1063</v>
@@ -17896,7 +17899,7 @@
       </c>
       <c r="C361"/>
       <c r="D361" t="s">
-        <v>3026</v>
+        <v>3027</v>
       </c>
       <c r="E361" t="s">
         <v>1066</v>
@@ -17914,7 +17917,7 @@
       </c>
       <c r="C362"/>
       <c r="D362" t="s">
-        <v>3072</v>
+        <v>3073</v>
       </c>
       <c r="E362" t="s">
         <v>1068</v>
@@ -17932,7 +17935,7 @@
       </c>
       <c r="C363"/>
       <c r="D363" t="s">
-        <v>3073</v>
+        <v>3074</v>
       </c>
       <c r="E363" t="s">
         <v>1071</v>
@@ -17950,7 +17953,7 @@
       </c>
       <c r="C364"/>
       <c r="D364" t="s">
-        <v>2844</v>
+        <v>2845</v>
       </c>
       <c r="E364" t="s">
         <v>364</v>
@@ -17968,7 +17971,7 @@
       </c>
       <c r="C365"/>
       <c r="D365" t="s">
-        <v>3074</v>
+        <v>3075</v>
       </c>
       <c r="E365" t="s">
         <v>1075</v>
@@ -17986,7 +17989,7 @@
       </c>
       <c r="C366"/>
       <c r="D366" t="s">
-        <v>3075</v>
+        <v>3076</v>
       </c>
       <c r="E366" t="s">
         <v>1078</v>
@@ -18004,7 +18007,7 @@
       </c>
       <c r="C367"/>
       <c r="D367" t="s">
-        <v>3076</v>
+        <v>3077</v>
       </c>
       <c r="E367" t="s">
         <v>1081</v>
@@ -18022,7 +18025,7 @@
       </c>
       <c r="C368"/>
       <c r="D368" t="s">
-        <v>3077</v>
+        <v>3078</v>
       </c>
       <c r="E368" t="s">
         <v>1084</v>
@@ -18040,7 +18043,7 @@
       </c>
       <c r="C369"/>
       <c r="D369" t="s">
-        <v>3078</v>
+        <v>3079</v>
       </c>
       <c r="E369" t="s">
         <v>1087</v>
@@ -18058,7 +18061,7 @@
       </c>
       <c r="C370"/>
       <c r="D370" t="s">
-        <v>3079</v>
+        <v>3080</v>
       </c>
       <c r="E370" t="s">
         <v>1090</v>
@@ -18076,7 +18079,7 @@
       </c>
       <c r="C371"/>
       <c r="D371" t="s">
-        <v>3080</v>
+        <v>3081</v>
       </c>
       <c r="E371" t="s">
         <v>1093</v>
@@ -18094,7 +18097,7 @@
       </c>
       <c r="C372"/>
       <c r="D372" t="s">
-        <v>3081</v>
+        <v>3082</v>
       </c>
       <c r="E372" t="s">
         <v>1096</v>
@@ -18112,7 +18115,7 @@
       </c>
       <c r="C373"/>
       <c r="D373" t="s">
-        <v>3082</v>
+        <v>3083</v>
       </c>
       <c r="E373" t="s">
         <v>1099</v>
@@ -18130,7 +18133,7 @@
       </c>
       <c r="C374"/>
       <c r="D374" t="s">
-        <v>3083</v>
+        <v>3084</v>
       </c>
       <c r="E374" t="s">
         <v>1102</v>
@@ -18148,7 +18151,7 @@
       </c>
       <c r="C375"/>
       <c r="D375" t="s">
-        <v>3084</v>
+        <v>3085</v>
       </c>
       <c r="E375" t="s">
         <v>1105</v>
@@ -18166,7 +18169,7 @@
       </c>
       <c r="C376"/>
       <c r="D376" t="s">
-        <v>3085</v>
+        <v>3086</v>
       </c>
       <c r="E376" t="s">
         <v>1108</v>
@@ -18184,7 +18187,7 @@
       </c>
       <c r="C377"/>
       <c r="D377" t="s">
-        <v>3086</v>
+        <v>3087</v>
       </c>
       <c r="E377" t="s">
         <v>1111</v>
@@ -18202,7 +18205,7 @@
       </c>
       <c r="C378"/>
       <c r="D378" t="s">
-        <v>3087</v>
+        <v>3088</v>
       </c>
       <c r="E378" t="s">
         <v>1114</v>
@@ -18220,7 +18223,7 @@
       </c>
       <c r="C379"/>
       <c r="D379" t="s">
-        <v>3088</v>
+        <v>3089</v>
       </c>
       <c r="E379" t="s">
         <v>1117</v>
@@ -18238,7 +18241,7 @@
       </c>
       <c r="C380"/>
       <c r="D380" t="s">
-        <v>3089</v>
+        <v>3090</v>
       </c>
       <c r="E380" t="s">
         <v>1120</v>
@@ -18256,7 +18259,7 @@
       </c>
       <c r="C381"/>
       <c r="D381" t="s">
-        <v>3090</v>
+        <v>3091</v>
       </c>
       <c r="E381" t="s">
         <v>1123</v>
@@ -18274,7 +18277,7 @@
       </c>
       <c r="C382"/>
       <c r="D382" t="s">
-        <v>3091</v>
+        <v>3092</v>
       </c>
       <c r="E382" t="s">
         <v>1126</v>
@@ -18292,7 +18295,7 @@
       </c>
       <c r="C383"/>
       <c r="D383" t="s">
-        <v>3092</v>
+        <v>3093</v>
       </c>
       <c r="E383" t="s">
         <v>1129</v>
@@ -18310,7 +18313,7 @@
       </c>
       <c r="C384"/>
       <c r="D384" t="s">
-        <v>3093</v>
+        <v>3094</v>
       </c>
       <c r="E384" t="s">
         <v>1132</v>
@@ -18328,7 +18331,7 @@
       </c>
       <c r="C385"/>
       <c r="D385" t="s">
-        <v>3094</v>
+        <v>3095</v>
       </c>
       <c r="E385" t="s">
         <v>1135</v>
@@ -18346,7 +18349,7 @@
       </c>
       <c r="C386"/>
       <c r="D386" t="s">
-        <v>3095</v>
+        <v>3096</v>
       </c>
       <c r="E386" t="s">
         <v>1138</v>
@@ -18364,7 +18367,7 @@
       </c>
       <c r="C387"/>
       <c r="D387" t="s">
-        <v>3096</v>
+        <v>3097</v>
       </c>
       <c r="E387" t="s">
         <v>1141</v>
@@ -18382,7 +18385,7 @@
       </c>
       <c r="C388"/>
       <c r="D388" t="s">
-        <v>3097</v>
+        <v>3098</v>
       </c>
       <c r="E388" t="s">
         <v>1144</v>
@@ -18400,7 +18403,7 @@
       </c>
       <c r="C389"/>
       <c r="D389" t="s">
-        <v>3098</v>
+        <v>3099</v>
       </c>
       <c r="E389" t="s">
         <v>1147</v>
@@ -18418,7 +18421,7 @@
       </c>
       <c r="C390"/>
       <c r="D390" t="s">
-        <v>3099</v>
+        <v>3100</v>
       </c>
       <c r="E390" t="s">
         <v>1150</v>
@@ -18436,7 +18439,7 @@
       </c>
       <c r="C391"/>
       <c r="D391" t="s">
-        <v>3100</v>
+        <v>3101</v>
       </c>
       <c r="E391" t="s">
         <v>1153</v>
@@ -18454,7 +18457,7 @@
       </c>
       <c r="C392"/>
       <c r="D392" t="s">
-        <v>3101</v>
+        <v>3102</v>
       </c>
       <c r="E392" t="s">
         <v>1156</v>
@@ -18472,7 +18475,7 @@
       </c>
       <c r="C393"/>
       <c r="D393" t="s">
-        <v>3102</v>
+        <v>3103</v>
       </c>
       <c r="E393" t="s">
         <v>1159</v>
@@ -18490,7 +18493,7 @@
       </c>
       <c r="C394"/>
       <c r="D394" t="s">
-        <v>3103</v>
+        <v>3104</v>
       </c>
       <c r="E394" t="s">
         <v>1162</v>
@@ -18508,7 +18511,7 @@
       </c>
       <c r="C395"/>
       <c r="D395" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="E395" t="s">
         <v>1165</v>
@@ -18526,7 +18529,7 @@
       </c>
       <c r="C396"/>
       <c r="D396" t="s">
-        <v>3105</v>
+        <v>3106</v>
       </c>
       <c r="E396" t="s">
         <v>1168</v>
@@ -18544,7 +18547,7 @@
       </c>
       <c r="C397"/>
       <c r="D397" t="s">
-        <v>3106</v>
+        <v>3107</v>
       </c>
       <c r="E397" t="s">
         <v>1171</v>
@@ -18562,7 +18565,7 @@
       </c>
       <c r="C398"/>
       <c r="D398" t="s">
-        <v>3107</v>
+        <v>3108</v>
       </c>
       <c r="E398" t="s">
         <v>1174</v>
@@ -18580,7 +18583,7 @@
       </c>
       <c r="C399"/>
       <c r="D399" t="s">
-        <v>3108</v>
+        <v>3109</v>
       </c>
       <c r="E399" t="s">
         <v>1177</v>
@@ -18598,7 +18601,7 @@
       </c>
       <c r="C400"/>
       <c r="D400" t="s">
-        <v>3109</v>
+        <v>3110</v>
       </c>
       <c r="E400" t="s">
         <v>1180</v>
@@ -18616,7 +18619,7 @@
       </c>
       <c r="C401"/>
       <c r="D401" t="s">
-        <v>3110</v>
+        <v>3111</v>
       </c>
       <c r="E401" t="s">
         <v>1183</v>
@@ -18634,7 +18637,7 @@
       </c>
       <c r="C402"/>
       <c r="D402" t="s">
-        <v>3111</v>
+        <v>3112</v>
       </c>
       <c r="E402" t="s">
         <v>1186</v>
@@ -18652,7 +18655,7 @@
       </c>
       <c r="C403"/>
       <c r="D403" t="s">
-        <v>3112</v>
+        <v>3113</v>
       </c>
       <c r="E403" t="s">
         <v>1189</v>
@@ -18670,7 +18673,7 @@
       </c>
       <c r="C404"/>
       <c r="D404" t="s">
-        <v>3113</v>
+        <v>3114</v>
       </c>
       <c r="E404" t="s">
         <v>1192</v>
@@ -18688,7 +18691,7 @@
       </c>
       <c r="C405"/>
       <c r="D405" t="s">
-        <v>3114</v>
+        <v>3115</v>
       </c>
       <c r="E405" t="s">
         <v>1195</v>
@@ -18706,7 +18709,7 @@
       </c>
       <c r="C406"/>
       <c r="D406" t="s">
-        <v>3115</v>
+        <v>3116</v>
       </c>
       <c r="E406" t="s">
         <v>1198</v>
@@ -18724,7 +18727,7 @@
       </c>
       <c r="C407"/>
       <c r="D407" t="s">
-        <v>3116</v>
+        <v>3117</v>
       </c>
       <c r="E407" t="s">
         <v>1201</v>
@@ -18742,7 +18745,7 @@
       </c>
       <c r="C408"/>
       <c r="D408" t="s">
-        <v>3117</v>
+        <v>3118</v>
       </c>
       <c r="E408" t="s">
         <v>1204</v>
@@ -18760,7 +18763,7 @@
       </c>
       <c r="C409"/>
       <c r="D409" t="s">
-        <v>3118</v>
+        <v>3119</v>
       </c>
       <c r="E409" t="s">
         <v>1207</v>
@@ -18778,7 +18781,7 @@
       </c>
       <c r="C410"/>
       <c r="D410" t="s">
-        <v>3119</v>
+        <v>3120</v>
       </c>
       <c r="E410" t="s">
         <v>1210</v>
@@ -18796,7 +18799,7 @@
       </c>
       <c r="C411"/>
       <c r="D411" t="s">
-        <v>3120</v>
+        <v>3121</v>
       </c>
       <c r="E411" t="s">
         <v>1213</v>
@@ -18814,7 +18817,7 @@
       </c>
       <c r="C412"/>
       <c r="D412" t="s">
-        <v>3121</v>
+        <v>3122</v>
       </c>
       <c r="E412" t="s">
         <v>1216</v>
@@ -18832,7 +18835,7 @@
       </c>
       <c r="C413"/>
       <c r="D413" t="s">
-        <v>3122</v>
+        <v>3123</v>
       </c>
       <c r="E413" t="s">
         <v>1219</v>
@@ -18850,7 +18853,7 @@
       </c>
       <c r="C414"/>
       <c r="D414" t="s">
-        <v>3123</v>
+        <v>3124</v>
       </c>
       <c r="E414" t="s">
         <v>1222</v>
@@ -18868,7 +18871,7 @@
       </c>
       <c r="C415"/>
       <c r="D415" t="s">
-        <v>3124</v>
+        <v>3125</v>
       </c>
       <c r="E415" t="s">
         <v>1225</v>
@@ -18886,7 +18889,7 @@
       </c>
       <c r="C416"/>
       <c r="D416" t="s">
-        <v>3125</v>
+        <v>3126</v>
       </c>
       <c r="E416" t="s">
         <v>1228</v>
@@ -18904,7 +18907,7 @@
       </c>
       <c r="C417"/>
       <c r="D417" t="s">
-        <v>3126</v>
+        <v>3127</v>
       </c>
       <c r="E417" t="s">
         <v>1231</v>
@@ -18922,7 +18925,7 @@
       </c>
       <c r="C418"/>
       <c r="D418" t="s">
-        <v>3127</v>
+        <v>3128</v>
       </c>
       <c r="E418" t="s">
         <v>1234</v>
@@ -18940,7 +18943,7 @@
       </c>
       <c r="C419"/>
       <c r="D419" t="s">
-        <v>3128</v>
+        <v>3129</v>
       </c>
       <c r="E419" t="s">
         <v>1237</v>
@@ -18958,7 +18961,7 @@
       </c>
       <c r="C420"/>
       <c r="D420" t="s">
-        <v>3129</v>
+        <v>3130</v>
       </c>
       <c r="E420" t="s">
         <v>1240</v>
@@ -18976,7 +18979,7 @@
       </c>
       <c r="C421"/>
       <c r="D421" t="s">
-        <v>3130</v>
+        <v>3131</v>
       </c>
       <c r="E421" t="s">
         <v>1243</v>
@@ -18994,7 +18997,7 @@
       </c>
       <c r="C422"/>
       <c r="D422" t="s">
-        <v>3131</v>
+        <v>3132</v>
       </c>
       <c r="E422" t="s">
         <v>1243</v>
@@ -19012,7 +19015,7 @@
       </c>
       <c r="C423"/>
       <c r="D423" t="s">
-        <v>3132</v>
+        <v>3133</v>
       </c>
       <c r="E423" t="s">
         <v>1248</v>
@@ -19030,7 +19033,7 @@
       </c>
       <c r="C424"/>
       <c r="D424" t="s">
-        <v>3133</v>
+        <v>3134</v>
       </c>
       <c r="E424" t="s">
         <v>1251</v>
@@ -19048,7 +19051,7 @@
       </c>
       <c r="C425"/>
       <c r="D425" t="s">
-        <v>3134</v>
+        <v>3135</v>
       </c>
       <c r="E425" t="s">
         <v>1254</v>
@@ -19066,7 +19069,7 @@
       </c>
       <c r="C426"/>
       <c r="D426" t="s">
-        <v>3135</v>
+        <v>3136</v>
       </c>
       <c r="E426" t="s">
         <v>1257</v>
@@ -19084,7 +19087,7 @@
       </c>
       <c r="C427"/>
       <c r="D427" t="s">
-        <v>3136</v>
+        <v>3137</v>
       </c>
       <c r="E427" t="s">
         <v>1260</v>
@@ -19102,7 +19105,7 @@
       </c>
       <c r="C428"/>
       <c r="D428" t="s">
-        <v>3137</v>
+        <v>3138</v>
       </c>
       <c r="E428" t="s">
         <v>1263</v>
@@ -19120,7 +19123,7 @@
       </c>
       <c r="C429"/>
       <c r="D429" t="s">
-        <v>3138</v>
+        <v>3139</v>
       </c>
       <c r="E429" t="s">
         <v>1266</v>
@@ -19138,7 +19141,7 @@
       </c>
       <c r="C430"/>
       <c r="D430" t="s">
-        <v>3139</v>
+        <v>3140</v>
       </c>
       <c r="E430" t="s">
         <v>1269</v>
@@ -19156,7 +19159,7 @@
       </c>
       <c r="C431"/>
       <c r="D431" t="s">
-        <v>3140</v>
+        <v>3141</v>
       </c>
       <c r="E431" t="s">
         <v>1272</v>
@@ -19174,7 +19177,7 @@
       </c>
       <c r="C432"/>
       <c r="D432" t="s">
-        <v>3141</v>
+        <v>3142</v>
       </c>
       <c r="E432" t="s">
         <v>1275</v>
@@ -19192,7 +19195,7 @@
       </c>
       <c r="C433"/>
       <c r="D433" t="s">
-        <v>3142</v>
+        <v>3143</v>
       </c>
       <c r="E433" t="s">
         <v>1275</v>
@@ -19210,7 +19213,7 @@
       </c>
       <c r="C434"/>
       <c r="D434" t="s">
-        <v>3142</v>
+        <v>3143</v>
       </c>
       <c r="E434" t="s">
         <v>1275</v>
@@ -19228,7 +19231,7 @@
       </c>
       <c r="C435"/>
       <c r="D435" t="s">
-        <v>3143</v>
+        <v>3144</v>
       </c>
       <c r="E435" t="s">
         <v>1281</v>
@@ -19246,7 +19249,7 @@
       </c>
       <c r="C436"/>
       <c r="D436" t="s">
-        <v>3144</v>
+        <v>3145</v>
       </c>
       <c r="E436" t="s">
         <v>1284</v>
@@ -19264,7 +19267,7 @@
       </c>
       <c r="C437"/>
       <c r="D437" t="s">
-        <v>3145</v>
+        <v>3146</v>
       </c>
       <c r="E437" t="s">
         <v>1287</v>
@@ -19282,7 +19285,7 @@
       </c>
       <c r="C438"/>
       <c r="D438" t="s">
-        <v>3146</v>
+        <v>3147</v>
       </c>
       <c r="E438" t="s">
         <v>1290</v>
@@ -19300,7 +19303,7 @@
       </c>
       <c r="C439"/>
       <c r="D439" t="s">
-        <v>3147</v>
+        <v>3148</v>
       </c>
       <c r="E439" t="s">
         <v>1293</v>
@@ -19318,7 +19321,7 @@
       </c>
       <c r="C440"/>
       <c r="D440" t="s">
-        <v>3148</v>
+        <v>3149</v>
       </c>
       <c r="E440" t="s">
         <v>1296</v>
@@ -19336,7 +19339,7 @@
       </c>
       <c r="C441"/>
       <c r="D441" t="s">
-        <v>3149</v>
+        <v>3150</v>
       </c>
       <c r="E441" t="s">
         <v>1281</v>
@@ -19354,7 +19357,7 @@
       </c>
       <c r="C442"/>
       <c r="D442" t="s">
-        <v>3150</v>
+        <v>3151</v>
       </c>
       <c r="E442" t="s">
         <v>1301</v>
@@ -19372,7 +19375,7 @@
       </c>
       <c r="C443"/>
       <c r="D443" t="s">
-        <v>3151</v>
+        <v>3152</v>
       </c>
       <c r="E443" t="s">
         <v>1304</v>
@@ -19390,7 +19393,7 @@
       </c>
       <c r="C444"/>
       <c r="D444" t="s">
-        <v>3152</v>
+        <v>3153</v>
       </c>
       <c r="E444" t="s">
         <v>1307</v>
@@ -19408,7 +19411,7 @@
       </c>
       <c r="C445"/>
       <c r="D445" t="s">
-        <v>3153</v>
+        <v>3154</v>
       </c>
       <c r="E445" t="s">
         <v>1310</v>
@@ -19426,7 +19429,7 @@
       </c>
       <c r="C446"/>
       <c r="D446" t="s">
-        <v>3154</v>
+        <v>3155</v>
       </c>
       <c r="E446" t="s">
         <v>1313</v>
@@ -19444,7 +19447,7 @@
       </c>
       <c r="C447"/>
       <c r="D447" t="s">
-        <v>3155</v>
+        <v>3156</v>
       </c>
       <c r="E447" t="s">
         <v>1316</v>
@@ -19462,7 +19465,7 @@
       </c>
       <c r="C448"/>
       <c r="D448" t="s">
-        <v>3156</v>
+        <v>3157</v>
       </c>
       <c r="E448" t="s">
         <v>1319</v>
@@ -19480,7 +19483,7 @@
       </c>
       <c r="C449"/>
       <c r="D449" t="s">
-        <v>3157</v>
+        <v>3158</v>
       </c>
       <c r="E449" t="s">
         <v>1319</v>
@@ -19498,7 +19501,7 @@
       </c>
       <c r="C450"/>
       <c r="D450" t="s">
-        <v>3158</v>
+        <v>3159</v>
       </c>
       <c r="E450" t="s">
         <v>1324</v>
@@ -19516,7 +19519,7 @@
       </c>
       <c r="C451"/>
       <c r="D451" t="s">
-        <v>3159</v>
+        <v>3160</v>
       </c>
       <c r="E451" t="s">
         <v>1327</v>
@@ -19534,7 +19537,7 @@
       </c>
       <c r="C452"/>
       <c r="D452" t="s">
-        <v>3160</v>
+        <v>3161</v>
       </c>
       <c r="E452" t="s">
         <v>1330</v>
@@ -19552,7 +19555,7 @@
       </c>
       <c r="C453"/>
       <c r="D453" t="s">
-        <v>3161</v>
+        <v>3162</v>
       </c>
       <c r="E453" t="s">
         <v>1333</v>
@@ -19570,7 +19573,7 @@
       </c>
       <c r="C454"/>
       <c r="D454" t="s">
-        <v>3162</v>
+        <v>3163</v>
       </c>
       <c r="E454" t="s">
         <v>1336</v>
@@ -19588,7 +19591,7 @@
       </c>
       <c r="C455"/>
       <c r="D455" t="s">
-        <v>3163</v>
+        <v>3164</v>
       </c>
       <c r="E455" t="s">
         <v>1339</v>
@@ -19606,7 +19609,7 @@
       </c>
       <c r="C456"/>
       <c r="D456" t="s">
-        <v>3164</v>
+        <v>3165</v>
       </c>
       <c r="E456" t="s">
         <v>1342</v>
@@ -19624,7 +19627,7 @@
       </c>
       <c r="C457"/>
       <c r="D457" t="s">
-        <v>3165</v>
+        <v>3166</v>
       </c>
       <c r="E457" t="s">
         <v>1345</v>
@@ -19642,7 +19645,7 @@
       </c>
       <c r="C458"/>
       <c r="D458" t="s">
-        <v>3166</v>
+        <v>3167</v>
       </c>
       <c r="E458" t="s">
         <v>1348</v>
@@ -19660,7 +19663,7 @@
       </c>
       <c r="C459"/>
       <c r="D459" t="s">
-        <v>3167</v>
+        <v>3168</v>
       </c>
       <c r="E459" t="s">
         <v>1351</v>
@@ -19678,7 +19681,7 @@
       </c>
       <c r="C460"/>
       <c r="D460" t="s">
-        <v>3168</v>
+        <v>3169</v>
       </c>
       <c r="E460" t="s">
         <v>1354</v>
@@ -19696,7 +19699,7 @@
       </c>
       <c r="C461"/>
       <c r="D461" t="s">
-        <v>3169</v>
+        <v>3170</v>
       </c>
       <c r="E461" t="s">
         <v>1357</v>
@@ -19714,7 +19717,7 @@
       </c>
       <c r="C462"/>
       <c r="D462" t="s">
-        <v>3170</v>
+        <v>3171</v>
       </c>
       <c r="E462" t="s">
         <v>1360</v>
@@ -19732,7 +19735,7 @@
       </c>
       <c r="C463"/>
       <c r="D463" t="s">
-        <v>3171</v>
+        <v>3172</v>
       </c>
       <c r="E463" t="s">
         <v>1363</v>
@@ -19750,7 +19753,7 @@
       </c>
       <c r="C464"/>
       <c r="D464" t="s">
-        <v>3172</v>
+        <v>3173</v>
       </c>
       <c r="E464" t="s">
         <v>1366</v>
@@ -19768,7 +19771,7 @@
       </c>
       <c r="C465"/>
       <c r="D465" t="s">
-        <v>3173</v>
+        <v>3174</v>
       </c>
       <c r="E465" t="s">
         <v>1369</v>
@@ -19786,7 +19789,7 @@
       </c>
       <c r="C466"/>
       <c r="D466" t="s">
-        <v>3174</v>
+        <v>3175</v>
       </c>
       <c r="E466" t="s">
         <v>1372</v>
@@ -19804,7 +19807,7 @@
       </c>
       <c r="C467"/>
       <c r="D467" t="s">
-        <v>3175</v>
+        <v>3176</v>
       </c>
       <c r="E467" t="s">
         <v>1375</v>
@@ -19822,7 +19825,7 @@
       </c>
       <c r="C468"/>
       <c r="D468" t="s">
-        <v>3176</v>
+        <v>3177</v>
       </c>
       <c r="E468" t="s">
         <v>1378</v>
@@ -19840,7 +19843,7 @@
       </c>
       <c r="C469"/>
       <c r="D469" t="s">
-        <v>3177</v>
+        <v>3178</v>
       </c>
       <c r="E469" t="s">
         <v>1381</v>
@@ -19858,7 +19861,7 @@
       </c>
       <c r="C470"/>
       <c r="D470" t="s">
-        <v>3178</v>
+        <v>3179</v>
       </c>
       <c r="E470" t="s">
         <v>1384</v>
@@ -19876,7 +19879,7 @@
       </c>
       <c r="C471"/>
       <c r="D471" t="s">
-        <v>3179</v>
+        <v>3180</v>
       </c>
       <c r="E471" t="s">
         <v>1387</v>
@@ -19894,7 +19897,7 @@
       </c>
       <c r="C472"/>
       <c r="D472" t="s">
-        <v>3180</v>
+        <v>3181</v>
       </c>
       <c r="E472" t="s">
         <v>1390</v>
@@ -19912,7 +19915,7 @@
       </c>
       <c r="C473"/>
       <c r="D473" t="s">
-        <v>3181</v>
+        <v>3182</v>
       </c>
       <c r="E473" t="s">
         <v>1393</v>
@@ -19930,7 +19933,7 @@
       </c>
       <c r="C474"/>
       <c r="D474" t="s">
-        <v>3182</v>
+        <v>3183</v>
       </c>
       <c r="E474" t="s">
         <v>1396</v>
@@ -19948,7 +19951,7 @@
       </c>
       <c r="C475"/>
       <c r="D475" t="s">
-        <v>3183</v>
+        <v>3184</v>
       </c>
       <c r="E475" t="s">
         <v>1399</v>
@@ -19966,7 +19969,7 @@
       </c>
       <c r="C476"/>
       <c r="D476" t="s">
-        <v>3184</v>
+        <v>3185</v>
       </c>
       <c r="E476" t="s">
         <v>1402</v>
@@ -19984,7 +19987,7 @@
       </c>
       <c r="C477"/>
       <c r="D477" t="s">
-        <v>3185</v>
+        <v>3186</v>
       </c>
       <c r="E477" t="s">
         <v>1405</v>
@@ -20002,7 +20005,7 @@
       </c>
       <c r="C478"/>
       <c r="D478" t="s">
-        <v>3186</v>
+        <v>3187</v>
       </c>
       <c r="E478" t="s">
         <v>1408</v>
@@ -20020,7 +20023,7 @@
       </c>
       <c r="C479"/>
       <c r="D479" t="s">
-        <v>3187</v>
+        <v>3188</v>
       </c>
       <c r="E479" t="s">
         <v>1411</v>
@@ -20038,7 +20041,7 @@
       </c>
       <c r="C480"/>
       <c r="D480" t="s">
-        <v>3188</v>
+        <v>3189</v>
       </c>
       <c r="E480" t="s">
         <v>1414</v>
@@ -20056,7 +20059,7 @@
       </c>
       <c r="C481"/>
       <c r="D481" t="s">
-        <v>3189</v>
+        <v>3190</v>
       </c>
       <c r="E481" t="s">
         <v>1417</v>
@@ -20074,7 +20077,7 @@
       </c>
       <c r="C482"/>
       <c r="D482" t="s">
-        <v>3190</v>
+        <v>3191</v>
       </c>
       <c r="E482" t="s">
         <v>1420</v>
@@ -20092,7 +20095,7 @@
       </c>
       <c r="C483"/>
       <c r="D483" t="s">
-        <v>3191</v>
+        <v>3192</v>
       </c>
       <c r="E483" t="s">
         <v>1423</v>
@@ -20110,7 +20113,7 @@
       </c>
       <c r="C484"/>
       <c r="D484" t="s">
-        <v>3192</v>
+        <v>3193</v>
       </c>
       <c r="E484" t="s">
         <v>1426</v>
@@ -20128,7 +20131,7 @@
       </c>
       <c r="C485"/>
       <c r="D485" t="s">
-        <v>3193</v>
+        <v>3194</v>
       </c>
       <c r="E485" t="s">
         <v>1429</v>
@@ -20146,7 +20149,7 @@
       </c>
       <c r="C486"/>
       <c r="D486" t="s">
-        <v>3194</v>
+        <v>3195</v>
       </c>
       <c r="E486" t="s">
         <v>1432</v>
@@ -20164,7 +20167,7 @@
       </c>
       <c r="C487"/>
       <c r="D487" t="s">
-        <v>3195</v>
+        <v>3196</v>
       </c>
       <c r="E487" t="s">
         <v>1435</v>
@@ -20182,7 +20185,7 @@
       </c>
       <c r="C488"/>
       <c r="D488" t="s">
-        <v>3196</v>
+        <v>3197</v>
       </c>
       <c r="E488" t="s">
         <v>1438</v>
@@ -20200,7 +20203,7 @@
       </c>
       <c r="C489"/>
       <c r="D489" t="s">
-        <v>3197</v>
+        <v>3198</v>
       </c>
       <c r="E489" t="s">
         <v>1441</v>
@@ -20218,7 +20221,7 @@
       </c>
       <c r="C490"/>
       <c r="D490" t="s">
-        <v>3198</v>
+        <v>3199</v>
       </c>
       <c r="E490" t="s">
         <v>1444</v>
@@ -20236,7 +20239,7 @@
       </c>
       <c r="C491"/>
       <c r="D491" t="s">
-        <v>3199</v>
+        <v>3200</v>
       </c>
       <c r="E491" t="s">
         <v>1447</v>
@@ -20254,7 +20257,7 @@
       </c>
       <c r="C492"/>
       <c r="D492" t="s">
-        <v>3200</v>
+        <v>3201</v>
       </c>
       <c r="E492" t="s">
         <v>1450</v>
@@ -20272,7 +20275,7 @@
       </c>
       <c r="C493"/>
       <c r="D493" t="s">
-        <v>3201</v>
+        <v>3202</v>
       </c>
       <c r="E493" t="s">
         <v>1453</v>
@@ -20292,7 +20295,7 @@
         <v>367</v>
       </c>
       <c r="D494" t="s">
-        <v>3202</v>
+        <v>3203</v>
       </c>
       <c r="E494" t="s">
         <v>1456</v>
@@ -20312,7 +20315,7 @@
         <v>367</v>
       </c>
       <c r="D495" t="s">
-        <v>3203</v>
+        <v>3204</v>
       </c>
       <c r="E495" t="s">
         <v>1459</v>
@@ -20330,7 +20333,7 @@
       </c>
       <c r="C496"/>
       <c r="D496" t="s">
-        <v>3204</v>
+        <v>3205</v>
       </c>
       <c r="E496" t="s">
         <v>1462</v>
@@ -20348,7 +20351,7 @@
       </c>
       <c r="C497"/>
       <c r="D497" t="s">
-        <v>3205</v>
+        <v>3206</v>
       </c>
       <c r="E497" t="s">
         <v>1465</v>
@@ -20366,7 +20369,7 @@
       </c>
       <c r="C498"/>
       <c r="D498" t="s">
-        <v>3206</v>
+        <v>3207</v>
       </c>
       <c r="E498" t="s">
         <v>1468</v>
@@ -20384,7 +20387,7 @@
       </c>
       <c r="C499"/>
       <c r="D499" t="s">
-        <v>3207</v>
+        <v>3208</v>
       </c>
       <c r="E499" t="s">
         <v>1471</v>
@@ -20402,7 +20405,7 @@
       </c>
       <c r="C500"/>
       <c r="D500" t="s">
-        <v>3208</v>
+        <v>3209</v>
       </c>
       <c r="E500" t="s">
         <v>1474</v>
@@ -20420,7 +20423,7 @@
       </c>
       <c r="C501"/>
       <c r="D501" t="s">
-        <v>3209</v>
+        <v>3210</v>
       </c>
       <c r="E501" t="s">
         <v>1477</v>
@@ -20438,7 +20441,7 @@
       </c>
       <c r="C502"/>
       <c r="D502" t="s">
-        <v>3210</v>
+        <v>3211</v>
       </c>
       <c r="E502" t="s">
         <v>1480</v>
@@ -20456,7 +20459,7 @@
       </c>
       <c r="C503"/>
       <c r="D503" t="s">
-        <v>3211</v>
+        <v>3212</v>
       </c>
       <c r="E503" t="s">
         <v>1483</v>
@@ -20476,7 +20479,7 @@
         <v>1486</v>
       </c>
       <c r="D504" t="s">
-        <v>3212</v>
+        <v>3213</v>
       </c>
       <c r="E504" t="s">
         <v>1487</v>
@@ -20494,7 +20497,7 @@
       </c>
       <c r="C505"/>
       <c r="D505" t="s">
-        <v>3213</v>
+        <v>3214</v>
       </c>
       <c r="E505" t="s">
         <v>1490</v>
@@ -20512,7 +20515,7 @@
       </c>
       <c r="C506"/>
       <c r="D506" t="s">
-        <v>3214</v>
+        <v>3215</v>
       </c>
       <c r="E506" t="s">
         <v>1493</v>
@@ -20530,7 +20533,7 @@
       </c>
       <c r="C507"/>
       <c r="D507" t="s">
-        <v>2844</v>
+        <v>2845</v>
       </c>
       <c r="E507" t="s">
         <v>364</v>
@@ -20548,7 +20551,7 @@
       </c>
       <c r="C508"/>
       <c r="D508" t="s">
-        <v>3215</v>
+        <v>3216</v>
       </c>
       <c r="E508" t="s">
         <v>1497</v>
@@ -20566,7 +20569,7 @@
       </c>
       <c r="C509"/>
       <c r="D509" t="s">
-        <v>3216</v>
+        <v>3217</v>
       </c>
       <c r="E509" t="s">
         <v>1500</v>
@@ -20584,7 +20587,7 @@
       </c>
       <c r="C510"/>
       <c r="D510" t="s">
-        <v>3217</v>
+        <v>3218</v>
       </c>
       <c r="E510" t="s">
         <v>1503</v>
@@ -20602,7 +20605,7 @@
       </c>
       <c r="C511"/>
       <c r="D511" t="s">
-        <v>3218</v>
+        <v>3219</v>
       </c>
       <c r="E511" t="s">
         <v>1506</v>
@@ -20620,7 +20623,7 @@
       </c>
       <c r="C512"/>
       <c r="D512" t="s">
-        <v>3219</v>
+        <v>3220</v>
       </c>
       <c r="E512" t="s">
         <v>1509</v>
@@ -20638,7 +20641,7 @@
       </c>
       <c r="C513"/>
       <c r="D513" t="s">
-        <v>3220</v>
+        <v>3221</v>
       </c>
       <c r="E513" t="s">
         <v>1512</v>
@@ -20656,7 +20659,7 @@
       </c>
       <c r="C514"/>
       <c r="D514" t="s">
-        <v>3221</v>
+        <v>3222</v>
       </c>
       <c r="E514" t="s">
         <v>1515</v>
@@ -20674,7 +20677,7 @@
       </c>
       <c r="C515"/>
       <c r="D515" t="s">
-        <v>3222</v>
+        <v>3223</v>
       </c>
       <c r="E515" t="s">
         <v>1518</v>
@@ -20692,7 +20695,7 @@
       </c>
       <c r="C516"/>
       <c r="D516" t="s">
-        <v>3223</v>
+        <v>3224</v>
       </c>
       <c r="E516" t="s">
         <v>1521</v>
@@ -20710,7 +20713,7 @@
       </c>
       <c r="C517"/>
       <c r="D517" t="s">
-        <v>3224</v>
+        <v>3225</v>
       </c>
       <c r="E517" t="s">
         <v>1524</v>
@@ -20728,7 +20731,7 @@
       </c>
       <c r="C518"/>
       <c r="D518" t="s">
-        <v>3225</v>
+        <v>3226</v>
       </c>
       <c r="E518" t="s">
         <v>1527</v>
@@ -20746,7 +20749,7 @@
       </c>
       <c r="C519"/>
       <c r="D519" t="s">
-        <v>3226</v>
+        <v>3227</v>
       </c>
       <c r="E519" t="s">
         <v>1530</v>
@@ -20764,7 +20767,7 @@
       </c>
       <c r="C520"/>
       <c r="D520" t="s">
-        <v>3227</v>
+        <v>3228</v>
       </c>
       <c r="E520" t="s">
         <v>1533</v>
@@ -20782,7 +20785,7 @@
       </c>
       <c r="C521"/>
       <c r="D521" t="s">
-        <v>3228</v>
+        <v>3229</v>
       </c>
       <c r="E521" t="s">
         <v>1177</v>
@@ -20800,7 +20803,7 @@
       </c>
       <c r="C522"/>
       <c r="D522" t="s">
-        <v>3229</v>
+        <v>3230</v>
       </c>
       <c r="E522" t="s">
         <v>1538</v>
@@ -20818,7 +20821,7 @@
       </c>
       <c r="C523"/>
       <c r="D523" t="s">
-        <v>3230</v>
+        <v>3231</v>
       </c>
       <c r="E523" t="s">
         <v>1541</v>
@@ -20836,7 +20839,7 @@
       </c>
       <c r="C524"/>
       <c r="D524" t="s">
-        <v>3231</v>
+        <v>3232</v>
       </c>
       <c r="E524" t="s">
         <v>1544</v>
@@ -20854,7 +20857,7 @@
       </c>
       <c r="C525"/>
       <c r="D525" t="s">
-        <v>3232</v>
+        <v>3233</v>
       </c>
       <c r="E525" t="s">
         <v>1547</v>
@@ -20872,7 +20875,7 @@
       </c>
       <c r="C526"/>
       <c r="D526" t="s">
-        <v>3233</v>
+        <v>3234</v>
       </c>
       <c r="E526" t="s">
         <v>1550</v>
@@ -20890,7 +20893,7 @@
       </c>
       <c r="C527"/>
       <c r="D527" t="s">
-        <v>3234</v>
+        <v>3235</v>
       </c>
       <c r="E527" t="s">
         <v>1553</v>
@@ -20908,7 +20911,7 @@
       </c>
       <c r="C528"/>
       <c r="D528" t="s">
-        <v>3235</v>
+        <v>3236</v>
       </c>
       <c r="E528" t="s">
         <v>1556</v>
@@ -20926,7 +20929,7 @@
       </c>
       <c r="C529"/>
       <c r="D529" t="s">
-        <v>3236</v>
+        <v>3237</v>
       </c>
       <c r="E529" t="s">
         <v>1559</v>
@@ -20944,7 +20947,7 @@
       </c>
       <c r="C530"/>
       <c r="D530" t="s">
-        <v>3237</v>
+        <v>3238</v>
       </c>
       <c r="E530" t="s">
         <v>1562</v>
@@ -20962,7 +20965,7 @@
       </c>
       <c r="C531"/>
       <c r="D531" t="s">
-        <v>3238</v>
+        <v>3239</v>
       </c>
       <c r="E531" t="s">
         <v>1565</v>
@@ -20980,7 +20983,7 @@
       </c>
       <c r="C532"/>
       <c r="D532" t="s">
-        <v>3239</v>
+        <v>3240</v>
       </c>
       <c r="E532" t="s">
         <v>1568</v>
@@ -20998,7 +21001,7 @@
       </c>
       <c r="C533"/>
       <c r="D533" t="s">
-        <v>3240</v>
+        <v>3241</v>
       </c>
       <c r="E533" t="s">
         <v>1571</v>
@@ -21018,7 +21021,7 @@
         <v>1574</v>
       </c>
       <c r="D534" t="s">
-        <v>3241</v>
+        <v>3242</v>
       </c>
       <c r="E534" t="s">
         <v>1575</v>
@@ -21038,7 +21041,7 @@
         <v>1574</v>
       </c>
       <c r="D535" t="s">
-        <v>3242</v>
+        <v>3243</v>
       </c>
       <c r="E535" t="s">
         <v>1578</v>
@@ -21058,7 +21061,7 @@
         <v>1574</v>
       </c>
       <c r="D536" t="s">
-        <v>3243</v>
+        <v>3244</v>
       </c>
       <c r="E536" t="s">
         <v>1581</v>
@@ -21078,7 +21081,7 @@
         <v>1574</v>
       </c>
       <c r="D537" t="s">
-        <v>3244</v>
+        <v>3245</v>
       </c>
       <c r="E537" t="s">
         <v>1584</v>
@@ -21098,7 +21101,7 @@
         <v>1574</v>
       </c>
       <c r="D538" t="s">
-        <v>3245</v>
+        <v>3246</v>
       </c>
       <c r="E538" t="s">
         <v>1587</v>
@@ -21118,7 +21121,7 @@
         <v>1574</v>
       </c>
       <c r="D539" t="s">
-        <v>3246</v>
+        <v>3247</v>
       </c>
       <c r="E539" t="s">
         <v>1590</v>
@@ -21138,7 +21141,7 @@
         <v>1574</v>
       </c>
       <c r="D540" t="s">
-        <v>3247</v>
+        <v>3248</v>
       </c>
       <c r="E540" t="s">
         <v>1593</v>
@@ -21158,7 +21161,7 @@
         <v>1574</v>
       </c>
       <c r="D541" t="s">
-        <v>3248</v>
+        <v>3249</v>
       </c>
       <c r="E541" t="s">
         <v>1596</v>
@@ -21178,7 +21181,7 @@
         <v>1574</v>
       </c>
       <c r="D542" t="s">
-        <v>3249</v>
+        <v>3250</v>
       </c>
       <c r="E542" t="s">
         <v>1599</v>
@@ -21198,7 +21201,7 @@
         <v>1574</v>
       </c>
       <c r="D543" t="s">
-        <v>3250</v>
+        <v>3251</v>
       </c>
       <c r="E543" t="s">
         <v>1602</v>
@@ -21218,7 +21221,7 @@
         <v>1574</v>
       </c>
       <c r="D544" t="s">
-        <v>3251</v>
+        <v>3252</v>
       </c>
       <c r="E544" t="s">
         <v>1605</v>
@@ -21238,7 +21241,7 @@
         <v>1574</v>
       </c>
       <c r="D545" t="s">
-        <v>3252</v>
+        <v>3253</v>
       </c>
       <c r="E545" t="s">
         <v>1608</v>
@@ -21258,7 +21261,7 @@
         <v>1574</v>
       </c>
       <c r="D546" t="s">
-        <v>3253</v>
+        <v>3254</v>
       </c>
       <c r="E546" t="s">
         <v>1611</v>
@@ -21278,7 +21281,7 @@
         <v>1574</v>
       </c>
       <c r="D547" t="s">
-        <v>3254</v>
+        <v>3255</v>
       </c>
       <c r="E547" t="s">
         <v>1614</v>
@@ -21298,7 +21301,7 @@
         <v>1574</v>
       </c>
       <c r="D548" t="s">
-        <v>3255</v>
+        <v>3256</v>
       </c>
       <c r="E548" t="s">
         <v>1617</v>
@@ -21318,7 +21321,7 @@
         <v>1574</v>
       </c>
       <c r="D549" t="s">
-        <v>3256</v>
+        <v>3257</v>
       </c>
       <c r="E549" t="s">
         <v>1620</v>
@@ -21338,7 +21341,7 @@
         <v>1623</v>
       </c>
       <c r="D550" t="s">
-        <v>3257</v>
+        <v>3258</v>
       </c>
       <c r="E550" t="s">
         <v>1624</v>
@@ -21358,7 +21361,7 @@
         <v>1574</v>
       </c>
       <c r="D551" t="s">
-        <v>3258</v>
+        <v>3259</v>
       </c>
       <c r="E551" t="s">
         <v>1627</v>
@@ -21378,7 +21381,7 @@
         <v>1574</v>
       </c>
       <c r="D552" t="s">
-        <v>3259</v>
+        <v>3260</v>
       </c>
       <c r="E552" t="s">
         <v>1630</v>
@@ -21398,7 +21401,7 @@
         <v>1574</v>
       </c>
       <c r="D553" t="s">
-        <v>3260</v>
+        <v>3261</v>
       </c>
       <c r="E553" t="s">
         <v>1633</v>
@@ -21416,7 +21419,7 @@
       </c>
       <c r="C554"/>
       <c r="D554" t="s">
-        <v>3261</v>
+        <v>3262</v>
       </c>
       <c r="E554" t="s">
         <v>1636</v>
@@ -21434,7 +21437,7 @@
       </c>
       <c r="C555"/>
       <c r="D555" t="s">
-        <v>3262</v>
+        <v>3263</v>
       </c>
       <c r="E555" t="s">
         <v>1639</v>
@@ -21452,7 +21455,7 @@
       </c>
       <c r="C556"/>
       <c r="D556" t="s">
-        <v>3263</v>
+        <v>3264</v>
       </c>
       <c r="E556" t="s">
         <v>1642</v>
@@ -21470,7 +21473,7 @@
       </c>
       <c r="C557"/>
       <c r="D557" t="s">
-        <v>3264</v>
+        <v>3265</v>
       </c>
       <c r="E557" t="s">
         <v>1645</v>
@@ -21488,7 +21491,7 @@
       </c>
       <c r="C558"/>
       <c r="D558" t="s">
-        <v>3265</v>
+        <v>3266</v>
       </c>
       <c r="E558" t="s">
         <v>1648</v>
@@ -21506,7 +21509,7 @@
       </c>
       <c r="C559"/>
       <c r="D559" t="s">
-        <v>3266</v>
+        <v>3267</v>
       </c>
       <c r="E559" t="s">
         <v>1651</v>
@@ -21524,7 +21527,7 @@
       </c>
       <c r="C560"/>
       <c r="D560" t="s">
-        <v>3267</v>
+        <v>3268</v>
       </c>
       <c r="E560" t="s">
         <v>1654</v>
@@ -21542,7 +21545,7 @@
       </c>
       <c r="C561"/>
       <c r="D561" t="s">
-        <v>3268</v>
+        <v>3269</v>
       </c>
       <c r="E561" t="s">
         <v>1657</v>
@@ -21560,7 +21563,7 @@
       </c>
       <c r="C562"/>
       <c r="D562" t="s">
-        <v>3269</v>
+        <v>3270</v>
       </c>
       <c r="E562" t="s">
         <v>1660</v>
@@ -21578,7 +21581,7 @@
       </c>
       <c r="C563"/>
       <c r="D563" t="s">
-        <v>3270</v>
+        <v>3271</v>
       </c>
       <c r="E563" t="s">
         <v>1663</v>
@@ -21596,7 +21599,7 @@
       </c>
       <c r="C564"/>
       <c r="D564" t="s">
-        <v>3271</v>
+        <v>3272</v>
       </c>
       <c r="E564" t="s">
         <v>1666</v>
@@ -21614,7 +21617,7 @@
       </c>
       <c r="C565"/>
       <c r="D565" t="s">
-        <v>3272</v>
+        <v>3273</v>
       </c>
       <c r="E565" t="s">
         <v>1669</v>
@@ -21632,7 +21635,7 @@
       </c>
       <c r="C566"/>
       <c r="D566" t="s">
-        <v>3273</v>
+        <v>3274</v>
       </c>
       <c r="E566" t="s">
         <v>1672</v>
@@ -21650,7 +21653,7 @@
       </c>
       <c r="C567"/>
       <c r="D567" t="s">
-        <v>3274</v>
+        <v>3275</v>
       </c>
       <c r="E567" t="s">
         <v>1675</v>
@@ -21668,7 +21671,7 @@
       </c>
       <c r="C568"/>
       <c r="D568" t="s">
-        <v>2836</v>
+        <v>2837</v>
       </c>
       <c r="E568" t="s">
         <v>1678</v>
@@ -21686,7 +21689,7 @@
       </c>
       <c r="C569"/>
       <c r="D569" t="s">
-        <v>3275</v>
+        <v>3276</v>
       </c>
       <c r="E569" t="s">
         <v>1681</v>
@@ -21704,7 +21707,7 @@
       </c>
       <c r="C570"/>
       <c r="D570" t="s">
-        <v>3276</v>
+        <v>3277</v>
       </c>
       <c r="E570" t="s">
         <v>1684</v>
@@ -21722,7 +21725,7 @@
       </c>
       <c r="C571"/>
       <c r="D571" t="s">
-        <v>3277</v>
+        <v>3278</v>
       </c>
       <c r="E571" t="s">
         <v>1687</v>
@@ -21740,7 +21743,7 @@
       </c>
       <c r="C572"/>
       <c r="D572" t="s">
-        <v>3278</v>
+        <v>3279</v>
       </c>
       <c r="E572" t="s">
         <v>1690</v>
@@ -21758,7 +21761,7 @@
       </c>
       <c r="C573"/>
       <c r="D573" t="s">
-        <v>3279</v>
+        <v>3280</v>
       </c>
       <c r="E573" t="s">
         <v>1693</v>
@@ -21776,7 +21779,7 @@
       </c>
       <c r="C574"/>
       <c r="D574" t="s">
-        <v>2900</v>
+        <v>2901</v>
       </c>
       <c r="E574" t="s">
         <v>1696</v>
@@ -21794,7 +21797,7 @@
       </c>
       <c r="C575"/>
       <c r="D575" t="s">
-        <v>3280</v>
+        <v>3281</v>
       </c>
       <c r="E575" t="s">
         <v>1698</v>
@@ -21812,7 +21815,7 @@
       </c>
       <c r="C576"/>
       <c r="D576" t="s">
-        <v>3281</v>
+        <v>3282</v>
       </c>
       <c r="E576" t="s">
         <v>1701</v>
@@ -21830,7 +21833,7 @@
       </c>
       <c r="C577"/>
       <c r="D577" t="s">
-        <v>3282</v>
+        <v>3283</v>
       </c>
       <c r="E577" t="s">
         <v>1704</v>
@@ -21848,7 +21851,7 @@
       </c>
       <c r="C578"/>
       <c r="D578" t="s">
-        <v>3283</v>
+        <v>3284</v>
       </c>
       <c r="E578" t="s">
         <v>1707</v>
@@ -21866,7 +21869,7 @@
       </c>
       <c r="C579"/>
       <c r="D579" t="s">
-        <v>3284</v>
+        <v>3285</v>
       </c>
       <c r="E579" t="s">
         <v>1710</v>
@@ -21884,7 +21887,7 @@
       </c>
       <c r="C580"/>
       <c r="D580" t="s">
-        <v>3285</v>
+        <v>3286</v>
       </c>
       <c r="E580" t="s">
         <v>1713</v>
@@ -21902,7 +21905,7 @@
       </c>
       <c r="C581"/>
       <c r="D581" t="s">
-        <v>3286</v>
+        <v>3287</v>
       </c>
       <c r="E581" t="s">
         <v>1716</v>
@@ -21920,7 +21923,7 @@
       </c>
       <c r="C582"/>
       <c r="D582" t="s">
-        <v>3287</v>
+        <v>3288</v>
       </c>
       <c r="E582" t="s">
         <v>1719</v>
@@ -21938,7 +21941,7 @@
       </c>
       <c r="C583"/>
       <c r="D583" t="s">
-        <v>3288</v>
+        <v>3289</v>
       </c>
       <c r="E583" t="s">
         <v>1722</v>
@@ -21956,7 +21959,7 @@
       </c>
       <c r="C584"/>
       <c r="D584" t="s">
-        <v>3289</v>
+        <v>3290</v>
       </c>
       <c r="E584" t="s">
         <v>1725</v>
@@ -21974,7 +21977,7 @@
       </c>
       <c r="C585"/>
       <c r="D585" t="s">
-        <v>3290</v>
+        <v>3291</v>
       </c>
       <c r="E585" t="s">
         <v>1728</v>
@@ -21992,7 +21995,7 @@
       </c>
       <c r="C586"/>
       <c r="D586" t="s">
-        <v>3291</v>
+        <v>3292</v>
       </c>
       <c r="E586" t="s">
         <v>1731</v>
@@ -22010,7 +22013,7 @@
       </c>
       <c r="C587"/>
       <c r="D587" t="s">
-        <v>3292</v>
+        <v>3293</v>
       </c>
       <c r="E587" t="s">
         <v>1734</v>
@@ -22030,7 +22033,7 @@
         <v>1737</v>
       </c>
       <c r="D588" t="s">
-        <v>3293</v>
+        <v>3294</v>
       </c>
       <c r="E588" t="s">
         <v>1738</v>
@@ -22070,7 +22073,7 @@
         <v>1737</v>
       </c>
       <c r="D590" t="s">
-        <v>3294</v>
+        <v>3295</v>
       </c>
       <c r="E590" t="s">
         <v>1744</v>
@@ -22110,7 +22113,7 @@
         <v>1737</v>
       </c>
       <c r="D592" t="s">
-        <v>3295</v>
+        <v>3296</v>
       </c>
       <c r="E592" t="s">
         <v>1748</v>
@@ -22150,7 +22153,7 @@
         <v>1737</v>
       </c>
       <c r="D594" t="s">
-        <v>3296</v>
+        <v>3297</v>
       </c>
       <c r="E594" t="s">
         <v>1752</v>
@@ -22168,7 +22171,7 @@
       </c>
       <c r="C595"/>
       <c r="D595" t="s">
-        <v>3297</v>
+        <v>3298</v>
       </c>
       <c r="E595" t="s">
         <v>1755</v>
@@ -22186,7 +22189,7 @@
       </c>
       <c r="C596"/>
       <c r="D596" t="s">
-        <v>3298</v>
+        <v>3299</v>
       </c>
       <c r="E596" t="s">
         <v>1758</v>
@@ -22204,7 +22207,7 @@
       </c>
       <c r="C597"/>
       <c r="D597" t="s">
-        <v>3130</v>
+        <v>3131</v>
       </c>
       <c r="E597" t="s">
         <v>1761</v>
@@ -22222,7 +22225,7 @@
       </c>
       <c r="C598"/>
       <c r="D598" t="s">
-        <v>3299</v>
+        <v>3300</v>
       </c>
       <c r="E598" t="s">
         <v>1764</v>
@@ -22240,7 +22243,7 @@
       </c>
       <c r="C599"/>
       <c r="D599" t="s">
-        <v>3300</v>
+        <v>3301</v>
       </c>
       <c r="E599" t="s">
         <v>1767</v>
@@ -22258,7 +22261,7 @@
       </c>
       <c r="C600"/>
       <c r="D600" t="s">
-        <v>3301</v>
+        <v>3302</v>
       </c>
       <c r="E600" t="s">
         <v>1770</v>
@@ -22276,7 +22279,7 @@
       </c>
       <c r="C601"/>
       <c r="D601" t="s">
-        <v>3302</v>
+        <v>3303</v>
       </c>
       <c r="E601" t="s">
         <v>1773</v>
@@ -22294,7 +22297,7 @@
       </c>
       <c r="C602"/>
       <c r="D602" t="s">
-        <v>3303</v>
+        <v>3304</v>
       </c>
       <c r="E602" t="s">
         <v>1776</v>
@@ -22312,7 +22315,7 @@
       </c>
       <c r="C603"/>
       <c r="D603" t="s">
-        <v>3304</v>
+        <v>3305</v>
       </c>
       <c r="E603" t="s">
         <v>1779</v>
@@ -22330,7 +22333,7 @@
       </c>
       <c r="C604"/>
       <c r="D604" t="s">
-        <v>3305</v>
+        <v>3306</v>
       </c>
       <c r="E604" t="s">
         <v>1782</v>
@@ -22348,7 +22351,7 @@
       </c>
       <c r="C605"/>
       <c r="D605" t="s">
-        <v>3306</v>
+        <v>3307</v>
       </c>
       <c r="E605" t="s">
         <v>1785</v>
@@ -22366,7 +22369,7 @@
       </c>
       <c r="C606"/>
       <c r="D606" t="s">
-        <v>3307</v>
+        <v>3308</v>
       </c>
       <c r="E606" t="s">
         <v>1788</v>
@@ -22384,7 +22387,7 @@
       </c>
       <c r="C607"/>
       <c r="D607" t="s">
-        <v>3308</v>
+        <v>3309</v>
       </c>
       <c r="E607" t="s">
         <v>1791</v>
@@ -22402,7 +22405,7 @@
       </c>
       <c r="C608"/>
       <c r="D608" t="s">
-        <v>3309</v>
+        <v>3310</v>
       </c>
       <c r="E608" t="s">
         <v>1794</v>
@@ -22420,7 +22423,7 @@
       </c>
       <c r="C609"/>
       <c r="D609" t="s">
-        <v>3310</v>
+        <v>3311</v>
       </c>
       <c r="E609" t="s">
         <v>1797</v>
@@ -22438,7 +22441,7 @@
       </c>
       <c r="C610"/>
       <c r="D610" t="s">
-        <v>3311</v>
+        <v>3312</v>
       </c>
       <c r="E610" t="s">
         <v>1800</v>
@@ -22456,7 +22459,7 @@
       </c>
       <c r="C611"/>
       <c r="D611" t="s">
-        <v>3312</v>
+        <v>3313</v>
       </c>
       <c r="E611" t="s">
         <v>1803</v>
@@ -22474,7 +22477,7 @@
       </c>
       <c r="C612"/>
       <c r="D612" t="s">
-        <v>3313</v>
+        <v>3314</v>
       </c>
       <c r="E612" t="s">
         <v>1806</v>
@@ -22492,7 +22495,7 @@
       </c>
       <c r="C613"/>
       <c r="D613" t="s">
-        <v>3314</v>
+        <v>3315</v>
       </c>
       <c r="E613" t="s">
         <v>1809</v>
@@ -22510,7 +22513,7 @@
       </c>
       <c r="C614"/>
       <c r="D614" t="s">
-        <v>3315</v>
+        <v>3316</v>
       </c>
       <c r="E614" t="s">
         <v>1812</v>
@@ -22528,7 +22531,7 @@
       </c>
       <c r="C615"/>
       <c r="D615" t="s">
-        <v>3316</v>
+        <v>3317</v>
       </c>
       <c r="E615" t="s">
         <v>1815</v>
@@ -22546,7 +22549,7 @@
       </c>
       <c r="C616"/>
       <c r="D616" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
       <c r="E616" t="s">
         <v>1818</v>
@@ -22564,7 +22567,7 @@
       </c>
       <c r="C617"/>
       <c r="D617" t="s">
-        <v>3318</v>
+        <v>3319</v>
       </c>
       <c r="E617" t="s">
         <v>1821</v>
@@ -22582,7 +22585,7 @@
       </c>
       <c r="C618"/>
       <c r="D618" t="s">
-        <v>3319</v>
+        <v>3320</v>
       </c>
       <c r="E618" t="s">
         <v>1824</v>
@@ -22600,7 +22603,7 @@
       </c>
       <c r="C619"/>
       <c r="D619" t="s">
-        <v>3320</v>
+        <v>3321</v>
       </c>
       <c r="E619" t="s">
         <v>1827</v>
@@ -22618,7 +22621,7 @@
       </c>
       <c r="C620"/>
       <c r="D620" t="s">
-        <v>3321</v>
+        <v>3322</v>
       </c>
       <c r="E620" t="s">
         <v>1830</v>
@@ -22636,7 +22639,7 @@
       </c>
       <c r="C621"/>
       <c r="D621" t="s">
-        <v>3322</v>
+        <v>3323</v>
       </c>
       <c r="E621" t="s">
         <v>1833</v>
@@ -22654,7 +22657,7 @@
       </c>
       <c r="C622"/>
       <c r="D622" t="s">
-        <v>3323</v>
+        <v>3324</v>
       </c>
       <c r="E622" t="s">
         <v>1836</v>
@@ -22672,7 +22675,7 @@
       </c>
       <c r="C623"/>
       <c r="D623" t="s">
-        <v>3324</v>
+        <v>3325</v>
       </c>
       <c r="E623" t="s">
         <v>1839</v>
@@ -22690,7 +22693,7 @@
       </c>
       <c r="C624"/>
       <c r="D624" t="s">
-        <v>3325</v>
+        <v>3326</v>
       </c>
       <c r="E624" t="s">
         <v>1842</v>
@@ -22708,7 +22711,7 @@
       </c>
       <c r="C625"/>
       <c r="D625" t="s">
-        <v>3326</v>
+        <v>3327</v>
       </c>
       <c r="E625" t="s">
         <v>1845</v>
@@ -22726,7 +22729,7 @@
       </c>
       <c r="C626"/>
       <c r="D626" t="s">
-        <v>3327</v>
+        <v>3328</v>
       </c>
       <c r="E626" t="s">
         <v>1848</v>
@@ -22744,7 +22747,7 @@
       </c>
       <c r="C627"/>
       <c r="D627" t="s">
-        <v>3328</v>
+        <v>3329</v>
       </c>
       <c r="E627" t="s">
         <v>1851</v>
@@ -22762,7 +22765,7 @@
       </c>
       <c r="C628"/>
       <c r="D628" t="s">
-        <v>3329</v>
+        <v>3330</v>
       </c>
       <c r="E628" t="s">
         <v>1854</v>
@@ -22780,7 +22783,7 @@
       </c>
       <c r="C629"/>
       <c r="D629" t="s">
-        <v>3330</v>
+        <v>3331</v>
       </c>
       <c r="E629" t="s">
         <v>1857</v>
@@ -22798,7 +22801,7 @@
       </c>
       <c r="C630"/>
       <c r="D630" t="s">
-        <v>3331</v>
+        <v>3332</v>
       </c>
       <c r="E630" t="s">
         <v>1860</v>
@@ -22816,7 +22819,7 @@
       </c>
       <c r="C631"/>
       <c r="D631" t="s">
-        <v>3332</v>
+        <v>3333</v>
       </c>
       <c r="E631" t="s">
         <v>1863</v>
@@ -22834,7 +22837,7 @@
       </c>
       <c r="C632"/>
       <c r="D632" t="s">
-        <v>3333</v>
+        <v>3334</v>
       </c>
       <c r="E632" t="s">
         <v>1866</v>
@@ -22852,7 +22855,7 @@
       </c>
       <c r="C633"/>
       <c r="D633" t="s">
-        <v>3334</v>
+        <v>3335</v>
       </c>
       <c r="E633" t="s">
         <v>1869</v>
@@ -22870,7 +22873,7 @@
       </c>
       <c r="C634"/>
       <c r="D634" t="s">
-        <v>3335</v>
+        <v>3336</v>
       </c>
       <c r="E634" t="s">
         <v>1872</v>
@@ -22888,7 +22891,7 @@
       </c>
       <c r="C635"/>
       <c r="D635" t="s">
-        <v>3336</v>
+        <v>3337</v>
       </c>
       <c r="E635" t="s">
         <v>1875</v>
@@ -22906,7 +22909,7 @@
       </c>
       <c r="C636"/>
       <c r="D636" t="s">
-        <v>3337</v>
+        <v>3338</v>
       </c>
       <c r="E636" t="s">
         <v>1878</v>
@@ -22924,7 +22927,7 @@
       </c>
       <c r="C637"/>
       <c r="D637" t="s">
-        <v>3338</v>
+        <v>3339</v>
       </c>
       <c r="E637" t="s">
         <v>1881</v>
@@ -22942,7 +22945,7 @@
       </c>
       <c r="C638"/>
       <c r="D638" t="s">
-        <v>3339</v>
+        <v>3340</v>
       </c>
       <c r="E638" t="s">
         <v>1884</v>
@@ -22960,7 +22963,7 @@
       </c>
       <c r="C639"/>
       <c r="D639" t="s">
-        <v>3340</v>
+        <v>3341</v>
       </c>
       <c r="E639" t="s">
         <v>1887</v>
@@ -22978,7 +22981,7 @@
       </c>
       <c r="C640"/>
       <c r="D640" t="s">
-        <v>3341</v>
+        <v>3342</v>
       </c>
       <c r="E640" t="s">
         <v>1890</v>
@@ -22996,7 +22999,7 @@
       </c>
       <c r="C641"/>
       <c r="D641" t="s">
-        <v>3342</v>
+        <v>3343</v>
       </c>
       <c r="E641" t="s">
         <v>1893</v>
@@ -23014,7 +23017,7 @@
       </c>
       <c r="C642"/>
       <c r="D642" t="s">
-        <v>3343</v>
+        <v>3344</v>
       </c>
       <c r="E642" t="s">
         <v>1896</v>
@@ -23032,7 +23035,7 @@
       </c>
       <c r="C643"/>
       <c r="D643" t="s">
-        <v>3344</v>
+        <v>3345</v>
       </c>
       <c r="E643" t="s">
         <v>1899</v>
@@ -23050,7 +23053,7 @@
       </c>
       <c r="C644"/>
       <c r="D644" t="s">
-        <v>3345</v>
+        <v>3346</v>
       </c>
       <c r="E644" t="s">
         <v>1902</v>
@@ -23068,7 +23071,7 @@
       </c>
       <c r="C645"/>
       <c r="D645" t="s">
-        <v>3346</v>
+        <v>3347</v>
       </c>
       <c r="E645" t="s">
         <v>1905</v>
@@ -23086,7 +23089,7 @@
       </c>
       <c r="C646"/>
       <c r="D646" t="s">
-        <v>3347</v>
+        <v>3348</v>
       </c>
       <c r="E646" t="s">
         <v>1908</v>
@@ -23104,7 +23107,7 @@
       </c>
       <c r="C647"/>
       <c r="D647" t="s">
-        <v>3348</v>
+        <v>3349</v>
       </c>
       <c r="E647" t="s">
         <v>1911</v>
@@ -23122,7 +23125,7 @@
       </c>
       <c r="C648"/>
       <c r="D648" t="s">
-        <v>3349</v>
+        <v>3350</v>
       </c>
       <c r="E648" t="s">
         <v>1914</v>
@@ -23140,7 +23143,7 @@
       </c>
       <c r="C649"/>
       <c r="D649" t="s">
-        <v>3350</v>
+        <v>3351</v>
       </c>
       <c r="E649" t="s">
         <v>1917</v>
@@ -23158,7 +23161,7 @@
       </c>
       <c r="C650"/>
       <c r="D650" t="s">
-        <v>3351</v>
+        <v>3352</v>
       </c>
       <c r="E650" t="s">
         <v>1920</v>
@@ -23176,7 +23179,7 @@
       </c>
       <c r="C651"/>
       <c r="D651" t="s">
-        <v>3352</v>
+        <v>3353</v>
       </c>
       <c r="E651" t="s">
         <v>1923</v>
@@ -23194,7 +23197,7 @@
       </c>
       <c r="C652"/>
       <c r="D652" t="s">
-        <v>3353</v>
+        <v>3354</v>
       </c>
       <c r="E652" t="s">
         <v>1926</v>
@@ -23212,7 +23215,7 @@
       </c>
       <c r="C653"/>
       <c r="D653" t="s">
-        <v>3354</v>
+        <v>3355</v>
       </c>
       <c r="E653" t="s">
         <v>1929</v>
@@ -23230,7 +23233,7 @@
       </c>
       <c r="C654"/>
       <c r="D654" t="s">
-        <v>3355</v>
+        <v>3356</v>
       </c>
       <c r="E654" t="s">
         <v>1932</v>
@@ -23248,7 +23251,7 @@
       </c>
       <c r="C655"/>
       <c r="D655" t="s">
-        <v>3356</v>
+        <v>3357</v>
       </c>
       <c r="E655" t="s">
         <v>1935</v>
@@ -23266,7 +23269,7 @@
       </c>
       <c r="C656"/>
       <c r="D656" t="s">
-        <v>3357</v>
+        <v>3358</v>
       </c>
       <c r="E656" t="s">
         <v>1938</v>
@@ -23284,7 +23287,7 @@
       </c>
       <c r="C657"/>
       <c r="D657" t="s">
-        <v>3358</v>
+        <v>3359</v>
       </c>
       <c r="E657" t="s">
         <v>1941</v>
@@ -23302,7 +23305,7 @@
       </c>
       <c r="C658"/>
       <c r="D658" t="s">
-        <v>3359</v>
+        <v>3360</v>
       </c>
       <c r="E658" t="s">
         <v>1944</v>
@@ -23320,7 +23323,7 @@
       </c>
       <c r="C659"/>
       <c r="D659" t="s">
-        <v>3360</v>
+        <v>3361</v>
       </c>
       <c r="E659" t="s">
         <v>1947</v>
@@ -23338,7 +23341,7 @@
       </c>
       <c r="C660"/>
       <c r="D660" t="s">
-        <v>3361</v>
+        <v>3362</v>
       </c>
       <c r="E660" t="s">
         <v>1950</v>
@@ -23356,7 +23359,7 @@
       </c>
       <c r="C661"/>
       <c r="D661" t="s">
-        <v>3362</v>
+        <v>3363</v>
       </c>
       <c r="E661" t="s">
         <v>1953</v>
@@ -23374,7 +23377,7 @@
       </c>
       <c r="C662"/>
       <c r="D662" t="s">
-        <v>3363</v>
+        <v>3364</v>
       </c>
       <c r="E662" t="s">
         <v>1956</v>
@@ -23392,7 +23395,7 @@
       </c>
       <c r="C663"/>
       <c r="D663" t="s">
-        <v>3364</v>
+        <v>3365</v>
       </c>
       <c r="E663" t="s">
         <v>1959</v>
@@ -23410,7 +23413,7 @@
       </c>
       <c r="C664"/>
       <c r="D664" t="s">
-        <v>3365</v>
+        <v>3366</v>
       </c>
       <c r="E664" t="s">
         <v>1962</v>
@@ -23428,7 +23431,7 @@
       </c>
       <c r="C665"/>
       <c r="D665" t="s">
-        <v>3366</v>
+        <v>3367</v>
       </c>
       <c r="E665" t="s">
         <v>1965</v>
@@ -23446,7 +23449,7 @@
       </c>
       <c r="C666"/>
       <c r="D666" t="s">
-        <v>3367</v>
+        <v>3368</v>
       </c>
       <c r="E666" t="s">
         <v>1968</v>
@@ -23464,7 +23467,7 @@
       </c>
       <c r="C667"/>
       <c r="D667" t="s">
-        <v>3368</v>
+        <v>3369</v>
       </c>
       <c r="E667" t="s">
         <v>1971</v>
@@ -23482,7 +23485,7 @@
       </c>
       <c r="C668"/>
       <c r="D668" t="s">
-        <v>3369</v>
+        <v>3370</v>
       </c>
       <c r="E668" t="s">
         <v>1974</v>
@@ -23500,7 +23503,7 @@
       </c>
       <c r="C669"/>
       <c r="D669" t="s">
-        <v>3370</v>
+        <v>3371</v>
       </c>
       <c r="E669" t="s">
         <v>1977</v>
@@ -23518,7 +23521,7 @@
       </c>
       <c r="C670"/>
       <c r="D670" t="s">
-        <v>3371</v>
+        <v>3372</v>
       </c>
       <c r="E670" t="s">
         <v>1980</v>
@@ -23536,7 +23539,7 @@
       </c>
       <c r="C671"/>
       <c r="D671" t="s">
-        <v>3372</v>
+        <v>3373</v>
       </c>
       <c r="E671" t="s">
         <v>1983</v>
@@ -23554,7 +23557,7 @@
       </c>
       <c r="C672"/>
       <c r="D672" t="s">
-        <v>3373</v>
+        <v>3374</v>
       </c>
       <c r="E672" t="s">
         <v>1986</v>
@@ -23572,7 +23575,7 @@
       </c>
       <c r="C673"/>
       <c r="D673" t="s">
-        <v>3374</v>
+        <v>3375</v>
       </c>
       <c r="E673" t="s">
         <v>1989</v>
@@ -23590,7 +23593,7 @@
       </c>
       <c r="C674"/>
       <c r="D674" t="s">
-        <v>3375</v>
+        <v>3376</v>
       </c>
       <c r="E674" t="s">
         <v>1992</v>
@@ -23608,7 +23611,7 @@
       </c>
       <c r="C675"/>
       <c r="D675" t="s">
-        <v>3376</v>
+        <v>3377</v>
       </c>
       <c r="E675" t="s">
         <v>1995</v>
@@ -23626,7 +23629,7 @@
       </c>
       <c r="C676"/>
       <c r="D676" t="s">
-        <v>3377</v>
+        <v>3378</v>
       </c>
       <c r="E676" t="s">
         <v>1998</v>
@@ -23644,7 +23647,7 @@
       </c>
       <c r="C677"/>
       <c r="D677" t="s">
-        <v>3374</v>
+        <v>3375</v>
       </c>
       <c r="E677" t="s">
         <v>1989</v>
@@ -23662,7 +23665,7 @@
       </c>
       <c r="C678"/>
       <c r="D678" t="s">
-        <v>3378</v>
+        <v>3379</v>
       </c>
       <c r="E678" t="s">
         <v>2002</v>
@@ -23680,7 +23683,7 @@
       </c>
       <c r="C679"/>
       <c r="D679" t="s">
-        <v>3379</v>
+        <v>3380</v>
       </c>
       <c r="E679" t="s">
         <v>2005</v>
@@ -23698,7 +23701,7 @@
       </c>
       <c r="C680"/>
       <c r="D680" t="s">
-        <v>3380</v>
+        <v>3381</v>
       </c>
       <c r="E680" t="s">
         <v>2008</v>
@@ -23716,7 +23719,7 @@
       </c>
       <c r="C681"/>
       <c r="D681" t="s">
-        <v>3381</v>
+        <v>3382</v>
       </c>
       <c r="E681" t="s">
         <v>2011</v>
@@ -23734,7 +23737,7 @@
       </c>
       <c r="C682"/>
       <c r="D682" t="s">
-        <v>3382</v>
+        <v>3383</v>
       </c>
       <c r="E682" t="s">
         <v>2014</v>
@@ -23752,7 +23755,7 @@
       </c>
       <c r="C683"/>
       <c r="D683" t="s">
-        <v>3383</v>
+        <v>3384</v>
       </c>
       <c r="E683" t="s">
         <v>2017</v>
@@ -23770,7 +23773,7 @@
       </c>
       <c r="C684"/>
       <c r="D684" t="s">
-        <v>3384</v>
+        <v>3385</v>
       </c>
       <c r="E684" t="s">
         <v>2020</v>
@@ -23788,7 +23791,7 @@
       </c>
       <c r="C685"/>
       <c r="D685" t="s">
-        <v>3385</v>
+        <v>3386</v>
       </c>
       <c r="E685" t="s">
         <v>2023</v>
@@ -23806,7 +23809,7 @@
       </c>
       <c r="C686"/>
       <c r="D686" t="s">
-        <v>3386</v>
+        <v>3387</v>
       </c>
       <c r="E686" t="s">
         <v>2026</v>
@@ -23824,7 +23827,7 @@
       </c>
       <c r="C687"/>
       <c r="D687" t="s">
-        <v>3387</v>
+        <v>3388</v>
       </c>
       <c r="E687" t="s">
         <v>2029</v>
@@ -23842,7 +23845,7 @@
       </c>
       <c r="C688"/>
       <c r="D688" t="s">
-        <v>3388</v>
+        <v>3389</v>
       </c>
       <c r="E688" t="s">
         <v>2032</v>
@@ -23860,7 +23863,7 @@
       </c>
       <c r="C689"/>
       <c r="D689" t="s">
-        <v>3389</v>
+        <v>3390</v>
       </c>
       <c r="E689" t="s">
         <v>2035</v>
@@ -23878,7 +23881,7 @@
       </c>
       <c r="C690"/>
       <c r="D690" t="s">
-        <v>3390</v>
+        <v>3391</v>
       </c>
       <c r="E690" t="s">
         <v>2038</v>
@@ -23896,7 +23899,7 @@
       </c>
       <c r="C691"/>
       <c r="D691" t="s">
-        <v>3391</v>
+        <v>3392</v>
       </c>
       <c r="E691" t="s">
         <v>2041</v>
@@ -23914,7 +23917,7 @@
       </c>
       <c r="C692"/>
       <c r="D692" t="s">
-        <v>3392</v>
+        <v>3393</v>
       </c>
       <c r="E692" t="s">
         <v>2044</v>
@@ -23932,7 +23935,7 @@
       </c>
       <c r="C693"/>
       <c r="D693" t="s">
-        <v>3393</v>
+        <v>3394</v>
       </c>
       <c r="E693" t="s">
         <v>2047</v>
@@ -23950,7 +23953,7 @@
       </c>
       <c r="C694"/>
       <c r="D694" t="s">
-        <v>3394</v>
+        <v>3395</v>
       </c>
       <c r="E694" t="s">
         <v>2050</v>
@@ -23968,7 +23971,7 @@
       </c>
       <c r="C695"/>
       <c r="D695" t="s">
-        <v>3395</v>
+        <v>3396</v>
       </c>
       <c r="E695" t="s">
         <v>2053</v>
@@ -23986,7 +23989,7 @@
       </c>
       <c r="C696"/>
       <c r="D696" t="s">
-        <v>3396</v>
+        <v>3397</v>
       </c>
       <c r="E696" t="s">
         <v>2056</v>
@@ -24004,7 +24007,7 @@
       </c>
       <c r="C697"/>
       <c r="D697" t="s">
-        <v>3397</v>
+        <v>3398</v>
       </c>
       <c r="E697" t="s">
         <v>2059</v>
@@ -24022,7 +24025,7 @@
       </c>
       <c r="C698"/>
       <c r="D698" t="s">
-        <v>3398</v>
+        <v>3399</v>
       </c>
       <c r="E698" t="s">
         <v>2062</v>
@@ -24040,7 +24043,7 @@
       </c>
       <c r="C699"/>
       <c r="D699" t="s">
-        <v>3399</v>
+        <v>3400</v>
       </c>
       <c r="E699" t="s">
         <v>2065</v>
@@ -24058,7 +24061,7 @@
       </c>
       <c r="C700"/>
       <c r="D700" t="s">
-        <v>3400</v>
+        <v>3401</v>
       </c>
       <c r="E700" t="s">
         <v>2068</v>
@@ -24076,7 +24079,7 @@
       </c>
       <c r="C701"/>
       <c r="D701" t="s">
-        <v>3401</v>
+        <v>3402</v>
       </c>
       <c r="E701" t="s">
         <v>2071</v>
@@ -24094,7 +24097,7 @@
       </c>
       <c r="C702"/>
       <c r="D702" t="s">
-        <v>3402</v>
+        <v>3403</v>
       </c>
       <c r="E702" t="s">
         <v>2074</v>
@@ -24112,7 +24115,7 @@
       </c>
       <c r="C703"/>
       <c r="D703" t="s">
-        <v>3403</v>
+        <v>3404</v>
       </c>
       <c r="E703" t="s">
         <v>2077</v>
@@ -24130,7 +24133,7 @@
       </c>
       <c r="C704"/>
       <c r="D704" t="s">
-        <v>3404</v>
+        <v>3405</v>
       </c>
       <c r="E704" t="s">
         <v>2080</v>
@@ -24148,7 +24151,7 @@
       </c>
       <c r="C705"/>
       <c r="D705" t="s">
-        <v>3405</v>
+        <v>3406</v>
       </c>
       <c r="E705" t="s">
         <v>2083</v>
@@ -24166,7 +24169,7 @@
       </c>
       <c r="C706"/>
       <c r="D706" t="s">
-        <v>3406</v>
+        <v>3407</v>
       </c>
       <c r="E706" t="s">
         <v>2086</v>
@@ -24184,7 +24187,7 @@
       </c>
       <c r="C707"/>
       <c r="D707" t="s">
-        <v>3407</v>
+        <v>3408</v>
       </c>
       <c r="E707" t="s">
         <v>2088</v>
@@ -24202,7 +24205,7 @@
       </c>
       <c r="C708"/>
       <c r="D708" t="s">
-        <v>3408</v>
+        <v>3409</v>
       </c>
       <c r="E708" t="s">
         <v>2091</v>
@@ -24220,7 +24223,7 @@
       </c>
       <c r="C709"/>
       <c r="D709" t="s">
-        <v>3409</v>
+        <v>3410</v>
       </c>
       <c r="E709" t="s">
         <v>2094</v>
@@ -24238,7 +24241,7 @@
       </c>
       <c r="C710"/>
       <c r="D710" t="s">
-        <v>3410</v>
+        <v>3411</v>
       </c>
       <c r="E710" t="s">
         <v>2097</v>
@@ -24256,7 +24259,7 @@
       </c>
       <c r="C711"/>
       <c r="D711" t="s">
-        <v>3411</v>
+        <v>3412</v>
       </c>
       <c r="E711" t="s">
         <v>2100</v>
@@ -24274,7 +24277,7 @@
       </c>
       <c r="C712"/>
       <c r="D712" t="s">
-        <v>3412</v>
+        <v>3413</v>
       </c>
       <c r="E712" t="s">
         <v>2103</v>
@@ -24292,7 +24295,7 @@
       </c>
       <c r="C713"/>
       <c r="D713" t="s">
-        <v>3413</v>
+        <v>3414</v>
       </c>
       <c r="E713" t="s">
         <v>2106</v>
@@ -24310,7 +24313,7 @@
       </c>
       <c r="C714"/>
       <c r="D714" t="s">
-        <v>3414</v>
+        <v>3415</v>
       </c>
       <c r="E714" t="s">
         <v>2109</v>
@@ -24328,7 +24331,7 @@
       </c>
       <c r="C715"/>
       <c r="D715" t="s">
-        <v>3415</v>
+        <v>3416</v>
       </c>
       <c r="E715" t="s">
         <v>2112</v>
@@ -24346,7 +24349,7 @@
       </c>
       <c r="C716"/>
       <c r="D716" t="s">
-        <v>3416</v>
+        <v>3417</v>
       </c>
       <c r="E716" t="s">
         <v>2115</v>
@@ -24364,7 +24367,7 @@
       </c>
       <c r="C717"/>
       <c r="D717" t="s">
-        <v>3417</v>
+        <v>3418</v>
       </c>
       <c r="E717" t="s">
         <v>2118</v>
@@ -24382,7 +24385,7 @@
       </c>
       <c r="C718"/>
       <c r="D718" t="s">
-        <v>3418</v>
+        <v>3419</v>
       </c>
       <c r="E718" t="s">
         <v>2121</v>
@@ -24400,7 +24403,7 @@
       </c>
       <c r="C719"/>
       <c r="D719" t="s">
-        <v>3419</v>
+        <v>3420</v>
       </c>
       <c r="E719" t="s">
         <v>2124</v>
@@ -24418,7 +24421,7 @@
       </c>
       <c r="C720"/>
       <c r="D720" t="s">
-        <v>3420</v>
+        <v>3421</v>
       </c>
       <c r="E720" t="s">
         <v>2127</v>
@@ -24436,7 +24439,7 @@
       </c>
       <c r="C721"/>
       <c r="D721" t="s">
-        <v>3421</v>
+        <v>3422</v>
       </c>
       <c r="E721" t="s">
         <v>2130</v>
@@ -24454,7 +24457,7 @@
       </c>
       <c r="C722"/>
       <c r="D722" t="s">
-        <v>3422</v>
+        <v>3423</v>
       </c>
       <c r="E722" t="s">
         <v>2133</v>
@@ -24472,7 +24475,7 @@
       </c>
       <c r="C723"/>
       <c r="D723" t="s">
-        <v>3423</v>
+        <v>3424</v>
       </c>
       <c r="E723" t="s">
         <v>2136</v>
@@ -24490,7 +24493,7 @@
       </c>
       <c r="C724"/>
       <c r="D724" t="s">
-        <v>3424</v>
+        <v>3425</v>
       </c>
       <c r="E724" t="s">
         <v>2139</v>
@@ -24508,7 +24511,7 @@
       </c>
       <c r="C725"/>
       <c r="D725" t="s">
-        <v>3425</v>
+        <v>3426</v>
       </c>
       <c r="E725" t="s">
         <v>2142</v>
@@ -24526,7 +24529,7 @@
       </c>
       <c r="C726"/>
       <c r="D726" t="s">
-        <v>3426</v>
+        <v>3427</v>
       </c>
       <c r="E726" t="s">
         <v>2145</v>
@@ -24544,7 +24547,7 @@
       </c>
       <c r="C727"/>
       <c r="D727" t="s">
-        <v>3427</v>
+        <v>3428</v>
       </c>
       <c r="E727" t="s">
         <v>2148</v>
@@ -24562,7 +24565,7 @@
       </c>
       <c r="C728"/>
       <c r="D728" t="s">
-        <v>3428</v>
+        <v>3429</v>
       </c>
       <c r="E728" t="s">
         <v>2151</v>
@@ -24580,7 +24583,7 @@
       </c>
       <c r="C729"/>
       <c r="D729" t="s">
-        <v>3429</v>
+        <v>3430</v>
       </c>
       <c r="E729" t="s">
         <v>2154</v>
@@ -24598,7 +24601,7 @@
       </c>
       <c r="C730"/>
       <c r="D730" t="s">
-        <v>3430</v>
+        <v>3431</v>
       </c>
       <c r="E730" t="s">
         <v>2157</v>
@@ -24616,7 +24619,7 @@
       </c>
       <c r="C731"/>
       <c r="D731" t="s">
-        <v>3431</v>
+        <v>3432</v>
       </c>
       <c r="E731" t="s">
         <v>2160</v>
@@ -24634,7 +24637,7 @@
       </c>
       <c r="C732"/>
       <c r="D732" t="s">
-        <v>3432</v>
+        <v>3433</v>
       </c>
       <c r="E732" t="s">
         <v>2163</v>
@@ -24652,7 +24655,7 @@
       </c>
       <c r="C733"/>
       <c r="D733" t="s">
-        <v>3433</v>
+        <v>3434</v>
       </c>
       <c r="E733" t="s">
         <v>2166</v>
@@ -24670,7 +24673,7 @@
       </c>
       <c r="C734"/>
       <c r="D734" t="s">
-        <v>3434</v>
+        <v>3435</v>
       </c>
       <c r="E734" t="s">
         <v>2169</v>
@@ -24688,7 +24691,7 @@
       </c>
       <c r="C735"/>
       <c r="D735" t="s">
-        <v>3435</v>
+        <v>3436</v>
       </c>
       <c r="E735" t="s">
         <v>2172</v>
@@ -24706,7 +24709,7 @@
       </c>
       <c r="C736"/>
       <c r="D736" t="s">
-        <v>3436</v>
+        <v>3437</v>
       </c>
       <c r="E736" t="s">
         <v>2175</v>
@@ -24724,7 +24727,7 @@
       </c>
       <c r="C737"/>
       <c r="D737" t="s">
-        <v>3437</v>
+        <v>3438</v>
       </c>
       <c r="E737" t="s">
         <v>2178</v>
@@ -24742,7 +24745,7 @@
       </c>
       <c r="C738"/>
       <c r="D738" t="s">
-        <v>3438</v>
+        <v>3439</v>
       </c>
       <c r="E738" t="s">
         <v>2181</v>
@@ -24760,7 +24763,7 @@
       </c>
       <c r="C739"/>
       <c r="D739" t="s">
-        <v>3439</v>
+        <v>3440</v>
       </c>
       <c r="E739" t="s">
         <v>2184</v>
@@ -24778,7 +24781,7 @@
       </c>
       <c r="C740"/>
       <c r="D740" t="s">
-        <v>3440</v>
+        <v>3441</v>
       </c>
       <c r="E740" t="s">
         <v>2187</v>
@@ -24796,7 +24799,7 @@
       </c>
       <c r="C741"/>
       <c r="D741" t="s">
-        <v>3441</v>
+        <v>3442</v>
       </c>
       <c r="E741" t="s">
         <v>2190</v>
@@ -24814,7 +24817,7 @@
       </c>
       <c r="C742"/>
       <c r="D742" t="s">
-        <v>3442</v>
+        <v>3443</v>
       </c>
       <c r="E742" t="s">
         <v>2193</v>
@@ -24832,7 +24835,7 @@
       </c>
       <c r="C743"/>
       <c r="D743" t="s">
-        <v>3443</v>
+        <v>3444</v>
       </c>
       <c r="E743" t="s">
         <v>2196</v>
@@ -24850,7 +24853,7 @@
       </c>
       <c r="C744"/>
       <c r="D744" t="s">
-        <v>3444</v>
+        <v>3445</v>
       </c>
       <c r="E744" t="s">
         <v>2199</v>
@@ -24868,7 +24871,7 @@
       </c>
       <c r="C745"/>
       <c r="D745" t="s">
-        <v>3445</v>
+        <v>3446</v>
       </c>
       <c r="E745" t="s">
         <v>2202</v>
@@ -24886,7 +24889,7 @@
       </c>
       <c r="C746"/>
       <c r="D746" t="s">
-        <v>3446</v>
+        <v>3447</v>
       </c>
       <c r="E746" t="s">
         <v>2205</v>
@@ -24904,7 +24907,7 @@
       </c>
       <c r="C747"/>
       <c r="D747" t="s">
-        <v>3447</v>
+        <v>3448</v>
       </c>
       <c r="E747" t="s">
         <v>2208</v>
@@ -24922,7 +24925,7 @@
       </c>
       <c r="C748"/>
       <c r="D748" t="s">
-        <v>3448</v>
+        <v>3449</v>
       </c>
       <c r="E748" t="s">
         <v>2211</v>
@@ -24940,7 +24943,7 @@
       </c>
       <c r="C749"/>
       <c r="D749" t="s">
-        <v>3449</v>
+        <v>3450</v>
       </c>
       <c r="E749" t="s">
         <v>2214</v>
@@ -24958,7 +24961,7 @@
       </c>
       <c r="C750"/>
       <c r="D750" t="s">
-        <v>3450</v>
+        <v>3451</v>
       </c>
       <c r="E750" t="s">
         <v>2217</v>
@@ -24976,7 +24979,7 @@
       </c>
       <c r="C751"/>
       <c r="D751" t="s">
-        <v>3451</v>
+        <v>3452</v>
       </c>
       <c r="E751" t="s">
         <v>2220</v>
@@ -24994,7 +24997,7 @@
       </c>
       <c r="C752"/>
       <c r="D752" t="s">
-        <v>3452</v>
+        <v>3453</v>
       </c>
       <c r="E752" t="s">
         <v>2223</v>
@@ -25012,7 +25015,7 @@
       </c>
       <c r="C753"/>
       <c r="D753" t="s">
-        <v>3453</v>
+        <v>3454</v>
       </c>
       <c r="E753" t="s">
         <v>2226</v>
@@ -25030,7 +25033,7 @@
       </c>
       <c r="C754"/>
       <c r="D754" t="s">
-        <v>3454</v>
+        <v>3455</v>
       </c>
       <c r="E754" t="s">
         <v>2229</v>
@@ -25048,7 +25051,7 @@
       </c>
       <c r="C755"/>
       <c r="D755" t="s">
-        <v>3455</v>
+        <v>3456</v>
       </c>
       <c r="E755" t="s">
         <v>2232</v>
@@ -25066,7 +25069,7 @@
       </c>
       <c r="C756"/>
       <c r="D756" t="s">
-        <v>3456</v>
+        <v>3457</v>
       </c>
       <c r="E756" t="s">
         <v>2235</v>
@@ -25084,7 +25087,7 @@
       </c>
       <c r="C757"/>
       <c r="D757" t="s">
-        <v>3457</v>
+        <v>3458</v>
       </c>
       <c r="E757" t="s">
         <v>2238</v>
@@ -25102,7 +25105,7 @@
       </c>
       <c r="C758"/>
       <c r="D758" t="s">
-        <v>3458</v>
+        <v>3459</v>
       </c>
       <c r="E758" t="s">
         <v>2241</v>
@@ -25120,7 +25123,7 @@
       </c>
       <c r="C759"/>
       <c r="D759" t="s">
-        <v>3459</v>
+        <v>3460</v>
       </c>
       <c r="E759" t="s">
         <v>2244</v>
@@ -25138,7 +25141,7 @@
       </c>
       <c r="C760"/>
       <c r="D760" t="s">
-        <v>3460</v>
+        <v>3461</v>
       </c>
       <c r="E760" t="s">
         <v>2247</v>
@@ -25156,7 +25159,7 @@
       </c>
       <c r="C761"/>
       <c r="D761" t="s">
-        <v>3461</v>
+        <v>3462</v>
       </c>
       <c r="E761" t="s">
         <v>2250</v>
@@ -25174,7 +25177,7 @@
       </c>
       <c r="C762"/>
       <c r="D762" t="s">
-        <v>3462</v>
+        <v>3463</v>
       </c>
       <c r="E762" t="s">
         <v>2253</v>
@@ -25192,7 +25195,7 @@
       </c>
       <c r="C763"/>
       <c r="D763" t="s">
-        <v>3444</v>
+        <v>3445</v>
       </c>
       <c r="E763" t="s">
         <v>2199</v>
@@ -25210,7 +25213,7 @@
       </c>
       <c r="C764"/>
       <c r="D764" t="s">
-        <v>3463</v>
+        <v>3464</v>
       </c>
       <c r="E764" t="s">
         <v>2257</v>
@@ -25228,7 +25231,7 @@
       </c>
       <c r="C765"/>
       <c r="D765" t="s">
-        <v>3464</v>
+        <v>3465</v>
       </c>
       <c r="E765" t="s">
         <v>2260</v>
@@ -25246,7 +25249,7 @@
       </c>
       <c r="C766"/>
       <c r="D766" t="s">
-        <v>3465</v>
+        <v>3466</v>
       </c>
       <c r="E766" t="s">
         <v>2263</v>
@@ -25264,7 +25267,7 @@
       </c>
       <c r="C767"/>
       <c r="D767" t="s">
-        <v>3466</v>
+        <v>3467</v>
       </c>
       <c r="E767" t="s">
         <v>2266</v>
@@ -25282,7 +25285,7 @@
       </c>
       <c r="C768"/>
       <c r="D768" t="s">
-        <v>3467</v>
+        <v>3468</v>
       </c>
       <c r="E768" t="s">
         <v>2269</v>
@@ -25300,7 +25303,7 @@
       </c>
       <c r="C769"/>
       <c r="D769" t="s">
-        <v>3468</v>
+        <v>3469</v>
       </c>
       <c r="E769" t="s">
         <v>2272</v>
@@ -25318,7 +25321,7 @@
       </c>
       <c r="C770"/>
       <c r="D770" t="s">
-        <v>3469</v>
+        <v>3470</v>
       </c>
       <c r="E770" t="s">
         <v>2275</v>
@@ -25336,7 +25339,7 @@
       </c>
       <c r="C771"/>
       <c r="D771" t="s">
-        <v>3470</v>
+        <v>3471</v>
       </c>
       <c r="E771" t="s">
         <v>2278</v>
@@ -25354,7 +25357,7 @@
       </c>
       <c r="C772"/>
       <c r="D772" t="s">
-        <v>3471</v>
+        <v>3472</v>
       </c>
       <c r="E772" t="s">
         <v>2281</v>
@@ -25372,7 +25375,7 @@
       </c>
       <c r="C773"/>
       <c r="D773" t="s">
-        <v>3472</v>
+        <v>3473</v>
       </c>
       <c r="E773" t="s">
         <v>2284</v>
@@ -25390,7 +25393,7 @@
       </c>
       <c r="C774"/>
       <c r="D774" t="s">
-        <v>3473</v>
+        <v>3474</v>
       </c>
       <c r="E774" t="s">
         <v>2287</v>
@@ -25408,7 +25411,7 @@
       </c>
       <c r="C775"/>
       <c r="D775" t="s">
-        <v>3474</v>
+        <v>3475</v>
       </c>
       <c r="E775" t="s">
         <v>2290</v>
@@ -25428,7 +25431,7 @@
         <v>367</v>
       </c>
       <c r="D776" t="s">
-        <v>3475</v>
+        <v>3476</v>
       </c>
       <c r="E776" t="s">
         <v>2293</v>
@@ -25448,7 +25451,7 @@
         <v>367</v>
       </c>
       <c r="D777" t="s">
-        <v>3476</v>
+        <v>3477</v>
       </c>
       <c r="E777" t="s">
         <v>2296</v>
@@ -25466,7 +25469,7 @@
       </c>
       <c r="C778"/>
       <c r="D778" t="s">
-        <v>3477</v>
+        <v>3478</v>
       </c>
       <c r="E778" t="s">
         <v>2299</v>
@@ -25484,7 +25487,7 @@
       </c>
       <c r="C779"/>
       <c r="D779" t="s">
-        <v>3478</v>
+        <v>3479</v>
       </c>
       <c r="E779" t="s">
         <v>2302</v>
@@ -25502,7 +25505,7 @@
       </c>
       <c r="C780"/>
       <c r="D780" t="s">
-        <v>3263</v>
+        <v>3264</v>
       </c>
       <c r="E780" t="s">
         <v>1642</v>
@@ -25520,7 +25523,7 @@
       </c>
       <c r="C781"/>
       <c r="D781" t="s">
-        <v>3479</v>
+        <v>3480</v>
       </c>
       <c r="E781" t="s">
         <v>2307</v>
@@ -25538,7 +25541,7 @@
       </c>
       <c r="C782"/>
       <c r="D782" t="s">
-        <v>3480</v>
+        <v>3481</v>
       </c>
       <c r="E782" t="s">
         <v>2310</v>
@@ -25556,7 +25559,7 @@
       </c>
       <c r="C783"/>
       <c r="D783" t="s">
-        <v>3481</v>
+        <v>3482</v>
       </c>
       <c r="E783" t="s">
         <v>2313</v>
@@ -25574,7 +25577,7 @@
       </c>
       <c r="C784"/>
       <c r="D784" t="s">
-        <v>3482</v>
+        <v>3483</v>
       </c>
       <c r="E784" t="s">
         <v>2316</v>
@@ -25592,7 +25595,7 @@
       </c>
       <c r="C785"/>
       <c r="D785" t="s">
-        <v>3483</v>
+        <v>3484</v>
       </c>
       <c r="E785" t="s">
         <v>2319</v>
@@ -25610,7 +25613,7 @@
       </c>
       <c r="C786"/>
       <c r="D786" t="s">
-        <v>3484</v>
+        <v>3485</v>
       </c>
       <c r="E786" t="s">
         <v>2322</v>
@@ -25628,7 +25631,7 @@
       </c>
       <c r="C787"/>
       <c r="D787" t="s">
-        <v>3485</v>
+        <v>3486</v>
       </c>
       <c r="E787" t="s">
         <v>2325</v>
@@ -25646,7 +25649,7 @@
       </c>
       <c r="C788"/>
       <c r="D788" t="s">
-        <v>3486</v>
+        <v>3487</v>
       </c>
       <c r="E788" t="s">
         <v>2328</v>
@@ -25664,7 +25667,7 @@
       </c>
       <c r="C789"/>
       <c r="D789" t="s">
-        <v>3487</v>
+        <v>3488</v>
       </c>
       <c r="E789" t="s">
         <v>2331</v>
@@ -25682,7 +25685,7 @@
       </c>
       <c r="C790"/>
       <c r="D790" t="s">
-        <v>3488</v>
+        <v>3489</v>
       </c>
       <c r="E790" t="s">
         <v>2334</v>
@@ -25700,7 +25703,7 @@
       </c>
       <c r="C791"/>
       <c r="D791" t="s">
-        <v>3489</v>
+        <v>3490</v>
       </c>
       <c r="E791" t="s">
         <v>2337</v>
@@ -25718,7 +25721,7 @@
       </c>
       <c r="C792"/>
       <c r="D792" t="s">
-        <v>3490</v>
+        <v>3491</v>
       </c>
       <c r="E792" t="s">
         <v>2340</v>
@@ -25736,7 +25739,7 @@
       </c>
       <c r="C793"/>
       <c r="D793" t="s">
-        <v>3491</v>
+        <v>3492</v>
       </c>
       <c r="E793" t="s">
         <v>2343</v>
@@ -25754,7 +25757,7 @@
       </c>
       <c r="C794"/>
       <c r="D794" t="s">
-        <v>3492</v>
+        <v>3493</v>
       </c>
       <c r="E794" t="s">
         <v>2346</v>
@@ -25772,7 +25775,7 @@
       </c>
       <c r="C795"/>
       <c r="D795" t="s">
-        <v>3493</v>
+        <v>3494</v>
       </c>
       <c r="E795" t="s">
         <v>2349</v>
@@ -25790,7 +25793,7 @@
       </c>
       <c r="C796"/>
       <c r="D796" t="s">
-        <v>3494</v>
+        <v>3495</v>
       </c>
       <c r="E796" t="s">
         <v>2352</v>
@@ -25808,7 +25811,7 @@
       </c>
       <c r="C797"/>
       <c r="D797" t="s">
-        <v>3495</v>
+        <v>3496</v>
       </c>
       <c r="E797" t="s">
         <v>2355</v>
@@ -25826,7 +25829,7 @@
       </c>
       <c r="C798"/>
       <c r="D798" t="s">
-        <v>3496</v>
+        <v>3497</v>
       </c>
       <c r="E798" t="s">
         <v>2358</v>
@@ -25844,7 +25847,7 @@
       </c>
       <c r="C799"/>
       <c r="D799" t="s">
-        <v>3497</v>
+        <v>3498</v>
       </c>
       <c r="E799" t="s">
         <v>2361</v>
@@ -25862,7 +25865,7 @@
       </c>
       <c r="C800"/>
       <c r="D800" t="s">
-        <v>3498</v>
+        <v>3499</v>
       </c>
       <c r="E800" t="s">
         <v>2364</v>
@@ -25880,7 +25883,7 @@
       </c>
       <c r="C801"/>
       <c r="D801" t="s">
-        <v>3499</v>
+        <v>3500</v>
       </c>
       <c r="E801" t="s">
         <v>2367</v>
@@ -25898,7 +25901,7 @@
       </c>
       <c r="C802"/>
       <c r="D802" t="s">
-        <v>3500</v>
+        <v>3501</v>
       </c>
       <c r="E802" t="s">
         <v>2370</v>
@@ -25916,7 +25919,7 @@
       </c>
       <c r="C803"/>
       <c r="D803" t="s">
-        <v>3501</v>
+        <v>3502</v>
       </c>
       <c r="E803" t="s">
         <v>2373</v>
@@ -25934,7 +25937,7 @@
       </c>
       <c r="C804"/>
       <c r="D804" t="s">
-        <v>3502</v>
+        <v>3503</v>
       </c>
       <c r="E804" t="s">
         <v>2376</v>
@@ -25952,7 +25955,7 @@
       </c>
       <c r="C805"/>
       <c r="D805" t="s">
-        <v>3503</v>
+        <v>3504</v>
       </c>
       <c r="E805" t="s">
         <v>2379</v>
@@ -25970,7 +25973,7 @@
       </c>
       <c r="C806"/>
       <c r="D806" t="s">
-        <v>3504</v>
+        <v>3505</v>
       </c>
       <c r="E806" t="s">
         <v>2382</v>
@@ -25988,7 +25991,7 @@
       </c>
       <c r="C807"/>
       <c r="D807" t="s">
-        <v>3505</v>
+        <v>3506</v>
       </c>
       <c r="E807" t="s">
         <v>2385</v>
@@ -26006,7 +26009,7 @@
       </c>
       <c r="C808"/>
       <c r="D808" t="s">
-        <v>3506</v>
+        <v>3507</v>
       </c>
       <c r="E808" t="s">
         <v>2388</v>
@@ -26024,7 +26027,7 @@
       </c>
       <c r="C809"/>
       <c r="D809" t="s">
-        <v>3507</v>
+        <v>3508</v>
       </c>
       <c r="E809" t="s">
         <v>2391</v>
@@ -26042,7 +26045,7 @@
       </c>
       <c r="C810"/>
       <c r="D810" t="s">
-        <v>3508</v>
+        <v>3509</v>
       </c>
       <c r="E810" t="s">
         <v>2394</v>
@@ -26060,7 +26063,7 @@
       </c>
       <c r="C811"/>
       <c r="D811" t="s">
-        <v>3509</v>
+        <v>3510</v>
       </c>
       <c r="E811" t="s">
         <v>2397</v>
@@ -26078,7 +26081,7 @@
       </c>
       <c r="C812"/>
       <c r="D812" t="s">
-        <v>3510</v>
+        <v>3511</v>
       </c>
       <c r="E812" t="s">
         <v>2400</v>
@@ -26096,7 +26099,7 @@
       </c>
       <c r="C813"/>
       <c r="D813" t="s">
-        <v>3511</v>
+        <v>3512</v>
       </c>
       <c r="E813" t="s">
         <v>2403</v>
@@ -26114,7 +26117,7 @@
       </c>
       <c r="C814"/>
       <c r="D814" t="s">
-        <v>3512</v>
+        <v>3513</v>
       </c>
       <c r="E814" t="s">
         <v>2406</v>
@@ -26132,7 +26135,7 @@
       </c>
       <c r="C815"/>
       <c r="D815" t="s">
-        <v>3513</v>
+        <v>3514</v>
       </c>
       <c r="E815" t="s">
         <v>2409</v>
@@ -26150,7 +26153,7 @@
       </c>
       <c r="C816"/>
       <c r="D816" t="s">
-        <v>3514</v>
+        <v>3515</v>
       </c>
       <c r="E816" t="s">
         <v>2412</v>
@@ -26168,7 +26171,7 @@
       </c>
       <c r="C817"/>
       <c r="D817" t="s">
-        <v>3515</v>
+        <v>3516</v>
       </c>
       <c r="E817" t="s">
         <v>2415</v>
@@ -26186,7 +26189,7 @@
       </c>
       <c r="C818"/>
       <c r="D818" t="s">
-        <v>3516</v>
+        <v>3517</v>
       </c>
       <c r="E818" t="s">
         <v>2418</v>
@@ -26204,7 +26207,7 @@
       </c>
       <c r="C819"/>
       <c r="D819" t="s">
-        <v>3517</v>
+        <v>3518</v>
       </c>
       <c r="E819" t="s">
         <v>2421</v>
@@ -26222,7 +26225,7 @@
       </c>
       <c r="C820"/>
       <c r="D820" t="s">
-        <v>3518</v>
+        <v>3519</v>
       </c>
       <c r="E820" t="s">
         <v>2424</v>
@@ -26240,7 +26243,7 @@
       </c>
       <c r="C821"/>
       <c r="D821" t="s">
-        <v>3519</v>
+        <v>3520</v>
       </c>
       <c r="E821" t="s">
         <v>2427</v>
@@ -26258,7 +26261,7 @@
       </c>
       <c r="C822"/>
       <c r="D822" t="s">
-        <v>3520</v>
+        <v>3521</v>
       </c>
       <c r="E822" t="s">
         <v>2430</v>
@@ -26276,7 +26279,7 @@
       </c>
       <c r="C823"/>
       <c r="D823" t="s">
-        <v>3521</v>
+        <v>3522</v>
       </c>
       <c r="E823" t="s">
         <v>2433</v>
@@ -26294,7 +26297,7 @@
       </c>
       <c r="C824"/>
       <c r="D824" t="s">
-        <v>3522</v>
+        <v>3523</v>
       </c>
       <c r="E824" t="s">
         <v>2436</v>
@@ -26312,7 +26315,7 @@
       </c>
       <c r="C825"/>
       <c r="D825" t="s">
-        <v>3523</v>
+        <v>3524</v>
       </c>
       <c r="E825" t="s">
         <v>2439</v>
@@ -26330,7 +26333,7 @@
       </c>
       <c r="C826"/>
       <c r="D826" t="s">
-        <v>3524</v>
+        <v>3525</v>
       </c>
       <c r="E826" t="s">
         <v>2442</v>
@@ -26348,7 +26351,7 @@
       </c>
       <c r="C827"/>
       <c r="D827" t="s">
-        <v>3525</v>
+        <v>3526</v>
       </c>
       <c r="E827" t="s">
         <v>2445</v>
@@ -26366,7 +26369,7 @@
       </c>
       <c r="C828"/>
       <c r="D828" t="s">
-        <v>3526</v>
+        <v>3527</v>
       </c>
       <c r="E828" t="s">
         <v>2448</v>
@@ -26384,7 +26387,7 @@
       </c>
       <c r="C829"/>
       <c r="D829" t="s">
-        <v>3527</v>
+        <v>3528</v>
       </c>
       <c r="E829" t="s">
         <v>2451</v>
@@ -26402,7 +26405,7 @@
       </c>
       <c r="C830"/>
       <c r="D830" t="s">
-        <v>3528</v>
+        <v>3529</v>
       </c>
       <c r="E830" t="s">
         <v>2454</v>
@@ -26420,7 +26423,7 @@
       </c>
       <c r="C831"/>
       <c r="D831" t="s">
-        <v>3529</v>
+        <v>3530</v>
       </c>
       <c r="E831" t="s">
         <v>2457</v>
@@ -26438,7 +26441,7 @@
       </c>
       <c r="C832"/>
       <c r="D832" t="s">
-        <v>3530</v>
+        <v>3531</v>
       </c>
       <c r="E832" t="s">
         <v>2460</v>
@@ -26456,7 +26459,7 @@
       </c>
       <c r="C833"/>
       <c r="D833" t="s">
-        <v>3531</v>
+        <v>3532</v>
       </c>
       <c r="E833" t="s">
         <v>2463</v>
@@ -26474,7 +26477,7 @@
       </c>
       <c r="C834"/>
       <c r="D834" t="s">
-        <v>3532</v>
+        <v>3533</v>
       </c>
       <c r="E834" t="s">
         <v>2466</v>
@@ -26492,7 +26495,7 @@
       </c>
       <c r="C835"/>
       <c r="D835" t="s">
-        <v>3533</v>
+        <v>3534</v>
       </c>
       <c r="E835" t="s">
         <v>2469</v>
@@ -26510,7 +26513,7 @@
       </c>
       <c r="C836"/>
       <c r="D836" t="s">
-        <v>3534</v>
+        <v>3535</v>
       </c>
       <c r="E836" t="s">
         <v>2472</v>
@@ -26528,7 +26531,7 @@
       </c>
       <c r="C837"/>
       <c r="D837" t="s">
-        <v>3535</v>
+        <v>3536</v>
       </c>
       <c r="E837" t="s">
         <v>2475</v>
@@ -26546,7 +26549,7 @@
       </c>
       <c r="C838"/>
       <c r="D838" t="s">
-        <v>3536</v>
+        <v>3537</v>
       </c>
       <c r="E838" t="s">
         <v>2478</v>
@@ -26564,7 +26567,7 @@
       </c>
       <c r="C839"/>
       <c r="D839" t="s">
-        <v>3537</v>
+        <v>3538</v>
       </c>
       <c r="E839" t="s">
         <v>2481</v>
@@ -26582,7 +26585,7 @@
       </c>
       <c r="C840"/>
       <c r="D840" t="s">
-        <v>3538</v>
+        <v>3539</v>
       </c>
       <c r="E840" t="s">
         <v>2484</v>
@@ -26600,7 +26603,7 @@
       </c>
       <c r="C841"/>
       <c r="D841" t="s">
-        <v>3539</v>
+        <v>3540</v>
       </c>
       <c r="E841" t="s">
         <v>2487</v>
@@ -26618,7 +26621,7 @@
       </c>
       <c r="C842"/>
       <c r="D842" t="s">
-        <v>3540</v>
+        <v>3541</v>
       </c>
       <c r="E842" t="s">
         <v>2490</v>
@@ -26636,7 +26639,7 @@
       </c>
       <c r="C843"/>
       <c r="D843" t="s">
-        <v>3541</v>
+        <v>3542</v>
       </c>
       <c r="E843" t="s">
         <v>2493</v>
@@ -26654,7 +26657,7 @@
       </c>
       <c r="C844"/>
       <c r="D844" t="s">
-        <v>3542</v>
+        <v>3543</v>
       </c>
       <c r="E844" t="s">
         <v>2496</v>
@@ -26672,7 +26675,7 @@
       </c>
       <c r="C845"/>
       <c r="D845" t="s">
-        <v>3543</v>
+        <v>3544</v>
       </c>
       <c r="E845" t="s">
         <v>2499</v>
@@ -26690,7 +26693,7 @@
       </c>
       <c r="C846"/>
       <c r="D846" t="s">
-        <v>3544</v>
+        <v>3545</v>
       </c>
       <c r="E846" t="s">
         <v>2502</v>
@@ -26708,7 +26711,7 @@
       </c>
       <c r="C847"/>
       <c r="D847" t="s">
-        <v>3545</v>
+        <v>3546</v>
       </c>
       <c r="E847" t="s">
         <v>2505</v>
@@ -26726,7 +26729,7 @@
       </c>
       <c r="C848"/>
       <c r="D848" t="s">
-        <v>3546</v>
+        <v>3547</v>
       </c>
       <c r="E848" t="s">
         <v>2508</v>
@@ -26744,7 +26747,7 @@
       </c>
       <c r="C849"/>
       <c r="D849" t="s">
-        <v>3547</v>
+        <v>3548</v>
       </c>
       <c r="E849" t="s">
         <v>2511</v>
@@ -26762,7 +26765,7 @@
       </c>
       <c r="C850"/>
       <c r="D850" t="s">
-        <v>3548</v>
+        <v>3549</v>
       </c>
       <c r="E850" t="s">
         <v>2514</v>
@@ -26780,7 +26783,7 @@
       </c>
       <c r="C851"/>
       <c r="D851" t="s">
-        <v>3549</v>
+        <v>3550</v>
       </c>
       <c r="E851" t="s">
         <v>2517</v>
@@ -26798,7 +26801,7 @@
       </c>
       <c r="C852"/>
       <c r="D852" t="s">
-        <v>3550</v>
+        <v>3551</v>
       </c>
       <c r="E852" t="s">
         <v>2520</v>
@@ -26816,7 +26819,7 @@
       </c>
       <c r="C853"/>
       <c r="D853" t="s">
-        <v>3551</v>
+        <v>3552</v>
       </c>
       <c r="E853" t="s">
         <v>2523</v>
@@ -26834,7 +26837,7 @@
       </c>
       <c r="C854"/>
       <c r="D854" t="s">
-        <v>3552</v>
+        <v>3553</v>
       </c>
       <c r="E854" t="s">
         <v>2526</v>
@@ -26852,7 +26855,7 @@
       </c>
       <c r="C855"/>
       <c r="D855" t="s">
-        <v>3553</v>
+        <v>3554</v>
       </c>
       <c r="E855" t="s">
         <v>2529</v>
@@ -26870,7 +26873,7 @@
       </c>
       <c r="C856"/>
       <c r="D856" t="s">
-        <v>3554</v>
+        <v>3555</v>
       </c>
       <c r="E856" t="s">
         <v>2532</v>
@@ -26888,7 +26891,7 @@
       </c>
       <c r="C857"/>
       <c r="D857" t="s">
-        <v>3555</v>
+        <v>3556</v>
       </c>
       <c r="E857" t="s">
         <v>2535</v>
@@ -26906,7 +26909,7 @@
       </c>
       <c r="C858"/>
       <c r="D858" t="s">
-        <v>3556</v>
+        <v>3557</v>
       </c>
       <c r="E858" t="s">
         <v>2538</v>
@@ -26924,7 +26927,7 @@
       </c>
       <c r="C859"/>
       <c r="D859" t="s">
-        <v>3557</v>
+        <v>3558</v>
       </c>
       <c r="E859" t="s">
         <v>2541</v>
@@ -26942,7 +26945,7 @@
       </c>
       <c r="C860"/>
       <c r="D860" t="s">
-        <v>3557</v>
+        <v>3558</v>
       </c>
       <c r="E860" t="s">
         <v>2541</v>
@@ -26960,7 +26963,7 @@
       </c>
       <c r="C861"/>
       <c r="D861" t="s">
-        <v>3558</v>
+        <v>3559</v>
       </c>
       <c r="E861" t="s">
         <v>2546</v>
@@ -26978,7 +26981,7 @@
       </c>
       <c r="C862"/>
       <c r="D862" t="s">
-        <v>3559</v>
+        <v>3560</v>
       </c>
       <c r="E862" t="s">
         <v>2549</v>
@@ -26996,7 +26999,7 @@
       </c>
       <c r="C863"/>
       <c r="D863" t="s">
-        <v>3560</v>
+        <v>3561</v>
       </c>
       <c r="E863" t="s">
         <v>2552</v>
@@ -27014,7 +27017,7 @@
       </c>
       <c r="C864"/>
       <c r="D864" t="s">
-        <v>3561</v>
+        <v>3562</v>
       </c>
       <c r="E864" t="s">
         <v>2555</v>
@@ -27032,7 +27035,7 @@
       </c>
       <c r="C865"/>
       <c r="D865" t="s">
-        <v>3562</v>
+        <v>3563</v>
       </c>
       <c r="E865" t="s">
         <v>2558</v>
@@ -27050,7 +27053,7 @@
       </c>
       <c r="C866"/>
       <c r="D866" t="s">
-        <v>3563</v>
+        <v>3564</v>
       </c>
       <c r="E866" t="s">
         <v>2561</v>
@@ -27068,7 +27071,7 @@
       </c>
       <c r="C867"/>
       <c r="D867" t="s">
-        <v>3564</v>
+        <v>3565</v>
       </c>
       <c r="E867" t="s">
         <v>2564</v>
@@ -27086,7 +27089,7 @@
       </c>
       <c r="C868"/>
       <c r="D868" t="s">
-        <v>3565</v>
+        <v>3566</v>
       </c>
       <c r="E868" t="s">
         <v>2567</v>
@@ -27104,7 +27107,7 @@
       </c>
       <c r="C869"/>
       <c r="D869" t="s">
-        <v>3566</v>
+        <v>3567</v>
       </c>
       <c r="E869" t="s">
         <v>2570</v>
@@ -27122,7 +27125,7 @@
       </c>
       <c r="C870"/>
       <c r="D870" t="s">
-        <v>3567</v>
+        <v>3568</v>
       </c>
       <c r="E870" t="s">
         <v>2573</v>
@@ -27140,7 +27143,7 @@
       </c>
       <c r="C871"/>
       <c r="D871" t="s">
-        <v>3568</v>
+        <v>3569</v>
       </c>
       <c r="E871" t="s">
         <v>2576</v>
@@ -27158,7 +27161,7 @@
       </c>
       <c r="C872"/>
       <c r="D872" t="s">
-        <v>3141</v>
+        <v>3142</v>
       </c>
       <c r="E872" t="s">
         <v>2579</v>
@@ -27176,7 +27179,7 @@
       </c>
       <c r="C873"/>
       <c r="D873" t="s">
-        <v>3569</v>
+        <v>3570</v>
       </c>
       <c r="E873" t="s">
         <v>2581</v>
@@ -27194,7 +27197,7 @@
       </c>
       <c r="C874"/>
       <c r="D874" t="s">
-        <v>3570</v>
+        <v>3571</v>
       </c>
       <c r="E874" t="s">
         <v>2584</v>
@@ -27212,7 +27215,7 @@
       </c>
       <c r="C875"/>
       <c r="D875" t="s">
-        <v>3571</v>
+        <v>3572</v>
       </c>
       <c r="E875" t="s">
         <v>2587</v>
@@ -27230,7 +27233,7 @@
       </c>
       <c r="C876"/>
       <c r="D876" t="s">
-        <v>3572</v>
+        <v>3573</v>
       </c>
       <c r="E876" t="s">
         <v>2590</v>
@@ -27248,7 +27251,7 @@
       </c>
       <c r="C877"/>
       <c r="D877" t="s">
-        <v>3573</v>
+        <v>3574</v>
       </c>
       <c r="E877" t="s">
         <v>2593</v>
@@ -27266,7 +27269,7 @@
       </c>
       <c r="C878"/>
       <c r="D878" t="s">
-        <v>3574</v>
+        <v>3575</v>
       </c>
       <c r="E878" t="s">
         <v>2596</v>
@@ -27284,7 +27287,7 @@
       </c>
       <c r="C879"/>
       <c r="D879" t="s">
-        <v>3575</v>
+        <v>3576</v>
       </c>
       <c r="E879" t="s">
         <v>2599</v>
@@ -27302,7 +27305,7 @@
       </c>
       <c r="C880"/>
       <c r="D880" t="s">
-        <v>3576</v>
+        <v>3577</v>
       </c>
       <c r="E880" t="s">
         <v>2602</v>
@@ -27320,7 +27323,7 @@
       </c>
       <c r="C881"/>
       <c r="D881" t="s">
-        <v>3577</v>
+        <v>3578</v>
       </c>
       <c r="E881" t="s">
         <v>2605</v>
@@ -27338,7 +27341,7 @@
       </c>
       <c r="C882"/>
       <c r="D882" t="s">
-        <v>3578</v>
+        <v>3579</v>
       </c>
       <c r="E882" t="s">
         <v>2608</v>
@@ -27356,7 +27359,7 @@
       </c>
       <c r="C883"/>
       <c r="D883" t="s">
-        <v>3579</v>
+        <v>3580</v>
       </c>
       <c r="E883" t="s">
         <v>2611</v>
@@ -27374,7 +27377,7 @@
       </c>
       <c r="C884"/>
       <c r="D884" t="s">
-        <v>3580</v>
+        <v>3581</v>
       </c>
       <c r="E884" t="s">
         <v>2614</v>
@@ -27392,7 +27395,7 @@
       </c>
       <c r="C885"/>
       <c r="D885" t="s">
-        <v>3581</v>
+        <v>3582</v>
       </c>
       <c r="E885" t="s">
         <v>2617</v>
@@ -27410,7 +27413,7 @@
       </c>
       <c r="C886"/>
       <c r="D886" t="s">
-        <v>3582</v>
+        <v>3583</v>
       </c>
       <c r="E886" t="s">
         <v>2620</v>
@@ -27428,7 +27431,7 @@
       </c>
       <c r="C887"/>
       <c r="D887" t="s">
-        <v>3583</v>
+        <v>3584</v>
       </c>
       <c r="E887" t="s">
         <v>2623</v>
@@ -27446,7 +27449,7 @@
       </c>
       <c r="C888"/>
       <c r="D888" t="s">
-        <v>3584</v>
+        <v>3585</v>
       </c>
       <c r="E888" t="s">
         <v>2626</v>
@@ -27464,7 +27467,7 @@
       </c>
       <c r="C889"/>
       <c r="D889" t="s">
-        <v>3585</v>
+        <v>3586</v>
       </c>
       <c r="E889" t="s">
         <v>2629</v>
@@ -27482,7 +27485,7 @@
       </c>
       <c r="C890"/>
       <c r="D890" t="s">
-        <v>3586</v>
+        <v>3587</v>
       </c>
       <c r="E890" t="s">
         <v>2632</v>
@@ -27500,7 +27503,7 @@
       </c>
       <c r="C891"/>
       <c r="D891" t="s">
-        <v>3587</v>
+        <v>3588</v>
       </c>
       <c r="E891" t="s">
         <v>2635</v>
@@ -27518,7 +27521,7 @@
       </c>
       <c r="C892"/>
       <c r="D892" t="s">
-        <v>3588</v>
+        <v>3589</v>
       </c>
       <c r="E892" t="s">
         <v>2638</v>
@@ -27532,7 +27535,7 @@
         <v>2640</v>
       </c>
       <c r="B893" t="s">
-        <v>7</v>
+        <v>2727</v>
       </c>
       <c r="C893"/>
       <c r="E893" t="s">

--- a/Mod_Korean/Lang/KR/Game/Game.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Game.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5584" uniqueCount="3608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5588" uniqueCount="3609">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">weather_Rain</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.32</t>
+    <t xml:space="preserve">EA 23.33</t>
   </si>
   <si>
     <t xml:space="preserve">It begins to rain.</t>
@@ -8284,6 +8284,9 @@
   </si>
   <si>
     <t xml:space="preserve">Alpha 20.70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.32</t>
   </si>
   <si>
     <t xml:space="preserve">Alpha 21.0</t>
@@ -11154,7 +11157,7 @@
       </c>
       <c r="C3"/>
       <c r="D3" t="s">
-        <v>2744</v>
+        <v>2745</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -11172,7 +11175,7 @@
       </c>
       <c r="C4"/>
       <c r="D4" t="s">
-        <v>2745</v>
+        <v>2746</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
@@ -11190,7 +11193,7 @@
       </c>
       <c r="C5"/>
       <c r="D5" t="s">
-        <v>2746</v>
+        <v>2747</v>
       </c>
       <c r="E5" t="s">
         <v>14</v>
@@ -11208,7 +11211,7 @@
       </c>
       <c r="C6"/>
       <c r="D6" t="s">
-        <v>2747</v>
+        <v>2748</v>
       </c>
       <c r="E6" t="s">
         <v>17</v>
@@ -11226,7 +11229,7 @@
       </c>
       <c r="C7"/>
       <c r="D7" t="s">
-        <v>2748</v>
+        <v>2749</v>
       </c>
       <c r="E7" t="s">
         <v>20</v>
@@ -11244,7 +11247,7 @@
       </c>
       <c r="C8"/>
       <c r="D8" t="s">
-        <v>2749</v>
+        <v>2750</v>
       </c>
       <c r="E8" t="s">
         <v>23</v>
@@ -11262,7 +11265,7 @@
       </c>
       <c r="C9"/>
       <c r="D9" t="s">
-        <v>2750</v>
+        <v>2751</v>
       </c>
       <c r="E9" t="s">
         <v>26</v>
@@ -11280,7 +11283,7 @@
       </c>
       <c r="C10"/>
       <c r="D10" t="s">
-        <v>2751</v>
+        <v>2752</v>
       </c>
       <c r="E10" t="s">
         <v>29</v>
@@ -11334,7 +11337,7 @@
       </c>
       <c r="C13"/>
       <c r="D13" t="s">
-        <v>2752</v>
+        <v>2753</v>
       </c>
       <c r="E13" t="s">
         <v>36</v>
@@ -11352,7 +11355,7 @@
       </c>
       <c r="C14"/>
       <c r="D14" t="s">
-        <v>2753</v>
+        <v>2754</v>
       </c>
       <c r="E14" t="s">
         <v>39</v>
@@ -11370,7 +11373,7 @@
       </c>
       <c r="C15"/>
       <c r="D15" t="s">
-        <v>2754</v>
+        <v>2755</v>
       </c>
       <c r="E15" t="s">
         <v>42</v>
@@ -11388,7 +11391,7 @@
       </c>
       <c r="C16"/>
       <c r="D16" t="s">
-        <v>2755</v>
+        <v>2756</v>
       </c>
       <c r="E16" t="s">
         <v>45</v>
@@ -11406,7 +11409,7 @@
       </c>
       <c r="C17"/>
       <c r="D17" t="s">
-        <v>2756</v>
+        <v>2757</v>
       </c>
       <c r="E17" t="s">
         <v>48</v>
@@ -11424,7 +11427,7 @@
       </c>
       <c r="C18"/>
       <c r="D18" t="s">
-        <v>2757</v>
+        <v>2758</v>
       </c>
       <c r="E18" t="s">
         <v>51</v>
@@ -11442,7 +11445,7 @@
       </c>
       <c r="C19"/>
       <c r="D19" t="s">
-        <v>2758</v>
+        <v>2759</v>
       </c>
       <c r="E19" t="s">
         <v>54</v>
@@ -11460,7 +11463,7 @@
       </c>
       <c r="C20"/>
       <c r="D20" t="s">
-        <v>2759</v>
+        <v>2760</v>
       </c>
       <c r="E20" t="s">
         <v>57</v>
@@ -11478,7 +11481,7 @@
       </c>
       <c r="C21"/>
       <c r="D21" t="s">
-        <v>2760</v>
+        <v>2761</v>
       </c>
       <c r="E21" t="s">
         <v>60</v>
@@ -11496,7 +11499,7 @@
       </c>
       <c r="C22"/>
       <c r="D22" t="s">
-        <v>2761</v>
+        <v>2762</v>
       </c>
       <c r="E22" t="s">
         <v>63</v>
@@ -11514,7 +11517,7 @@
       </c>
       <c r="C23"/>
       <c r="D23" t="s">
-        <v>2762</v>
+        <v>2763</v>
       </c>
       <c r="E23" t="s">
         <v>66</v>
@@ -11532,7 +11535,7 @@
       </c>
       <c r="C24"/>
       <c r="D24" t="s">
-        <v>2763</v>
+        <v>2764</v>
       </c>
       <c r="E24" t="s">
         <v>69</v>
@@ -11550,7 +11553,7 @@
       </c>
       <c r="C25"/>
       <c r="D25" t="s">
-        <v>2764</v>
+        <v>2765</v>
       </c>
       <c r="E25" t="s">
         <v>72</v>
@@ -11568,7 +11571,7 @@
       </c>
       <c r="C26"/>
       <c r="D26" t="s">
-        <v>2765</v>
+        <v>2766</v>
       </c>
       <c r="E26" t="s">
         <v>75</v>
@@ -11586,7 +11589,7 @@
       </c>
       <c r="C27"/>
       <c r="D27" t="s">
-        <v>2766</v>
+        <v>2767</v>
       </c>
       <c r="E27" t="s">
         <v>78</v>
@@ -11604,7 +11607,7 @@
       </c>
       <c r="C28"/>
       <c r="D28" t="s">
-        <v>2767</v>
+        <v>2768</v>
       </c>
       <c r="E28" t="s">
         <v>81</v>
@@ -11622,7 +11625,7 @@
       </c>
       <c r="C29"/>
       <c r="D29" t="s">
-        <v>2768</v>
+        <v>2769</v>
       </c>
       <c r="E29" t="s">
         <v>84</v>
@@ -11640,7 +11643,7 @@
       </c>
       <c r="C30"/>
       <c r="D30" t="s">
-        <v>2769</v>
+        <v>2770</v>
       </c>
       <c r="E30" t="s">
         <v>87</v>
@@ -11658,7 +11661,7 @@
       </c>
       <c r="C31"/>
       <c r="D31" t="s">
-        <v>2770</v>
+        <v>2771</v>
       </c>
       <c r="E31" t="s">
         <v>90</v>
@@ -11676,7 +11679,7 @@
       </c>
       <c r="C32"/>
       <c r="D32" t="s">
-        <v>2771</v>
+        <v>2772</v>
       </c>
       <c r="E32" t="s">
         <v>93</v>
@@ -11694,7 +11697,7 @@
       </c>
       <c r="C33"/>
       <c r="D33" t="s">
-        <v>2772</v>
+        <v>2773</v>
       </c>
       <c r="E33" t="s">
         <v>96</v>
@@ -11712,7 +11715,7 @@
       </c>
       <c r="C34"/>
       <c r="D34" t="s">
-        <v>2773</v>
+        <v>2774</v>
       </c>
       <c r="E34" t="s">
         <v>99</v>
@@ -11730,7 +11733,7 @@
       </c>
       <c r="C35"/>
       <c r="D35" t="s">
-        <v>2774</v>
+        <v>2775</v>
       </c>
       <c r="E35" t="s">
         <v>102</v>
@@ -11748,7 +11751,7 @@
       </c>
       <c r="C36"/>
       <c r="D36" t="s">
-        <v>2775</v>
+        <v>2776</v>
       </c>
       <c r="E36" t="s">
         <v>105</v>
@@ -11766,7 +11769,7 @@
       </c>
       <c r="C37"/>
       <c r="D37" t="s">
-        <v>2776</v>
+        <v>2777</v>
       </c>
       <c r="E37" t="s">
         <v>108</v>
@@ -11786,7 +11789,7 @@
         <v>111</v>
       </c>
       <c r="D38" t="s">
-        <v>2777</v>
+        <v>2778</v>
       </c>
       <c r="E38" t="s">
         <v>112</v>
@@ -11806,7 +11809,7 @@
         <v>111</v>
       </c>
       <c r="D39" t="s">
-        <v>2778</v>
+        <v>2779</v>
       </c>
       <c r="E39" t="s">
         <v>115</v>
@@ -11826,7 +11829,7 @@
         <v>111</v>
       </c>
       <c r="D40" t="s">
-        <v>2779</v>
+        <v>2780</v>
       </c>
       <c r="E40" t="s">
         <v>118</v>
@@ -11846,7 +11849,7 @@
         <v>111</v>
       </c>
       <c r="D41" t="s">
-        <v>2780</v>
+        <v>2781</v>
       </c>
       <c r="E41" t="s">
         <v>121</v>
@@ -11866,7 +11869,7 @@
         <v>111</v>
       </c>
       <c r="D42" t="s">
-        <v>2781</v>
+        <v>2782</v>
       </c>
       <c r="E42" t="s">
         <v>124</v>
@@ -11886,7 +11889,7 @@
         <v>111</v>
       </c>
       <c r="D43" t="s">
-        <v>2782</v>
+        <v>2783</v>
       </c>
       <c r="E43" t="s">
         <v>127</v>
@@ -11904,7 +11907,7 @@
       </c>
       <c r="C44"/>
       <c r="D44" t="s">
-        <v>2783</v>
+        <v>2784</v>
       </c>
       <c r="E44" t="s">
         <v>130</v>
@@ -11922,7 +11925,7 @@
       </c>
       <c r="C45"/>
       <c r="D45" t="s">
-        <v>2784</v>
+        <v>2785</v>
       </c>
       <c r="E45" t="s">
         <v>133</v>
@@ -11942,7 +11945,7 @@
         <v>111</v>
       </c>
       <c r="D46" t="s">
-        <v>2785</v>
+        <v>2786</v>
       </c>
       <c r="E46" t="s">
         <v>136</v>
@@ -11962,7 +11965,7 @@
         <v>111</v>
       </c>
       <c r="D47" t="s">
-        <v>2786</v>
+        <v>2787</v>
       </c>
       <c r="E47" t="s">
         <v>139</v>
@@ -11982,7 +11985,7 @@
         <v>111</v>
       </c>
       <c r="D48" t="s">
-        <v>2787</v>
+        <v>2788</v>
       </c>
       <c r="E48" t="s">
         <v>142</v>
@@ -12002,7 +12005,7 @@
         <v>111</v>
       </c>
       <c r="D49" t="s">
-        <v>2788</v>
+        <v>2789</v>
       </c>
       <c r="E49" t="s">
         <v>145</v>
@@ -12022,7 +12025,7 @@
         <v>111</v>
       </c>
       <c r="D50" t="s">
-        <v>2789</v>
+        <v>2790</v>
       </c>
       <c r="E50" t="s">
         <v>148</v>
@@ -12042,7 +12045,7 @@
         <v>111</v>
       </c>
       <c r="D51" t="s">
-        <v>2790</v>
+        <v>2791</v>
       </c>
       <c r="E51" t="s">
         <v>151</v>
@@ -12062,7 +12065,7 @@
         <v>111</v>
       </c>
       <c r="D52" t="s">
-        <v>2791</v>
+        <v>2792</v>
       </c>
       <c r="E52" t="s">
         <v>154</v>
@@ -12082,7 +12085,7 @@
         <v>111</v>
       </c>
       <c r="D53" t="s">
-        <v>2792</v>
+        <v>2793</v>
       </c>
       <c r="E53" t="s">
         <v>157</v>
@@ -12102,7 +12105,7 @@
         <v>111</v>
       </c>
       <c r="D54" t="s">
-        <v>2793</v>
+        <v>2794</v>
       </c>
       <c r="E54" t="s">
         <v>160</v>
@@ -12122,7 +12125,7 @@
         <v>111</v>
       </c>
       <c r="D55" t="s">
-        <v>2794</v>
+        <v>2795</v>
       </c>
       <c r="E55" t="s">
         <v>163</v>
@@ -12142,7 +12145,7 @@
         <v>111</v>
       </c>
       <c r="D56" t="s">
-        <v>2795</v>
+        <v>2796</v>
       </c>
       <c r="E56" t="s">
         <v>166</v>
@@ -12162,7 +12165,7 @@
         <v>111</v>
       </c>
       <c r="D57" t="s">
-        <v>2796</v>
+        <v>2797</v>
       </c>
       <c r="E57" t="s">
         <v>166</v>
@@ -12182,7 +12185,7 @@
         <v>111</v>
       </c>
       <c r="D58" t="s">
-        <v>2797</v>
+        <v>2798</v>
       </c>
       <c r="E58" t="s">
         <v>171</v>
@@ -12202,7 +12205,7 @@
         <v>111</v>
       </c>
       <c r="D59" t="s">
-        <v>2798</v>
+        <v>2799</v>
       </c>
       <c r="E59" t="s">
         <v>174</v>
@@ -12222,7 +12225,7 @@
         <v>111</v>
       </c>
       <c r="D60" t="s">
-        <v>2799</v>
+        <v>2800</v>
       </c>
       <c r="E60" t="s">
         <v>177</v>
@@ -12240,7 +12243,7 @@
       </c>
       <c r="C61"/>
       <c r="D61" t="s">
-        <v>2800</v>
+        <v>2801</v>
       </c>
       <c r="E61" t="s">
         <v>180</v>
@@ -12260,7 +12263,7 @@
         <v>111</v>
       </c>
       <c r="D62" t="s">
-        <v>2801</v>
+        <v>2802</v>
       </c>
       <c r="E62" t="s">
         <v>183</v>
@@ -12280,7 +12283,7 @@
         <v>111</v>
       </c>
       <c r="D63" t="s">
-        <v>2802</v>
+        <v>2803</v>
       </c>
       <c r="E63" t="s">
         <v>186</v>
@@ -12300,7 +12303,7 @@
         <v>111</v>
       </c>
       <c r="D64" t="s">
-        <v>2803</v>
+        <v>2804</v>
       </c>
       <c r="E64" t="s">
         <v>189</v>
@@ -12320,7 +12323,7 @@
         <v>111</v>
       </c>
       <c r="D65" t="s">
-        <v>2804</v>
+        <v>2805</v>
       </c>
       <c r="E65" t="s">
         <v>192</v>
@@ -12340,7 +12343,7 @@
         <v>111</v>
       </c>
       <c r="D66" t="s">
-        <v>2805</v>
+        <v>2806</v>
       </c>
       <c r="E66" t="s">
         <v>195</v>
@@ -12360,7 +12363,7 @@
         <v>111</v>
       </c>
       <c r="D67" t="s">
-        <v>2806</v>
+        <v>2807</v>
       </c>
       <c r="E67" t="s">
         <v>198</v>
@@ -12380,7 +12383,7 @@
         <v>111</v>
       </c>
       <c r="D68" t="s">
-        <v>2807</v>
+        <v>2808</v>
       </c>
       <c r="E68" t="s">
         <v>201</v>
@@ -12400,7 +12403,7 @@
         <v>111</v>
       </c>
       <c r="D69" t="s">
-        <v>2808</v>
+        <v>2809</v>
       </c>
       <c r="E69" t="s">
         <v>204</v>
@@ -12420,7 +12423,7 @@
         <v>111</v>
       </c>
       <c r="D70" t="s">
-        <v>2809</v>
+        <v>2810</v>
       </c>
       <c r="E70" t="s">
         <v>207</v>
@@ -12440,7 +12443,7 @@
         <v>111</v>
       </c>
       <c r="D71" t="s">
-        <v>2810</v>
+        <v>2811</v>
       </c>
       <c r="E71" t="s">
         <v>210</v>
@@ -12460,7 +12463,7 @@
         <v>111</v>
       </c>
       <c r="D72" t="s">
-        <v>2811</v>
+        <v>2812</v>
       </c>
       <c r="E72" t="s">
         <v>213</v>
@@ -12480,7 +12483,7 @@
         <v>111</v>
       </c>
       <c r="D73" t="s">
-        <v>2812</v>
+        <v>2813</v>
       </c>
       <c r="E73" t="s">
         <v>216</v>
@@ -12500,7 +12503,7 @@
         <v>111</v>
       </c>
       <c r="D74" t="s">
-        <v>2813</v>
+        <v>2814</v>
       </c>
       <c r="E74" t="s">
         <v>219</v>
@@ -12520,7 +12523,7 @@
         <v>111</v>
       </c>
       <c r="D75" t="s">
-        <v>2814</v>
+        <v>2815</v>
       </c>
       <c r="E75" t="s">
         <v>222</v>
@@ -12540,7 +12543,7 @@
         <v>111</v>
       </c>
       <c r="D76" t="s">
-        <v>2815</v>
+        <v>2816</v>
       </c>
       <c r="E76" t="s">
         <v>225</v>
@@ -12560,7 +12563,7 @@
         <v>111</v>
       </c>
       <c r="D77" t="s">
-        <v>2816</v>
+        <v>2817</v>
       </c>
       <c r="E77" t="s">
         <v>228</v>
@@ -12578,7 +12581,7 @@
       </c>
       <c r="C78"/>
       <c r="D78" t="s">
-        <v>2817</v>
+        <v>2818</v>
       </c>
       <c r="E78" t="s">
         <v>231</v>
@@ -12598,7 +12601,7 @@
         <v>111</v>
       </c>
       <c r="D79" t="s">
-        <v>2818</v>
+        <v>2819</v>
       </c>
       <c r="E79" t="s">
         <v>234</v>
@@ -12618,7 +12621,7 @@
         <v>111</v>
       </c>
       <c r="D80" t="s">
-        <v>2819</v>
+        <v>2820</v>
       </c>
       <c r="E80" t="s">
         <v>237</v>
@@ -12636,7 +12639,7 @@
       </c>
       <c r="C81"/>
       <c r="D81" t="s">
-        <v>2820</v>
+        <v>2821</v>
       </c>
       <c r="E81" t="s">
         <v>240</v>
@@ -12654,7 +12657,7 @@
       </c>
       <c r="C82"/>
       <c r="D82" t="s">
-        <v>2821</v>
+        <v>2822</v>
       </c>
       <c r="E82" t="s">
         <v>243</v>
@@ -12672,7 +12675,7 @@
       </c>
       <c r="C83"/>
       <c r="D83" t="s">
-        <v>2822</v>
+        <v>2823</v>
       </c>
       <c r="E83" t="s">
         <v>246</v>
@@ -12690,7 +12693,7 @@
       </c>
       <c r="C84"/>
       <c r="D84" t="s">
-        <v>2823</v>
+        <v>2824</v>
       </c>
       <c r="E84" t="s">
         <v>249</v>
@@ -12708,7 +12711,7 @@
       </c>
       <c r="C85"/>
       <c r="D85" t="s">
-        <v>2824</v>
+        <v>2825</v>
       </c>
       <c r="E85" t="s">
         <v>252</v>
@@ -12726,7 +12729,7 @@
       </c>
       <c r="C86"/>
       <c r="D86" t="s">
-        <v>2825</v>
+        <v>2826</v>
       </c>
       <c r="E86" t="s">
         <v>255</v>
@@ -12744,7 +12747,7 @@
       </c>
       <c r="C87"/>
       <c r="D87" t="s">
-        <v>2826</v>
+        <v>2827</v>
       </c>
       <c r="E87" t="s">
         <v>258</v>
@@ -12762,7 +12765,7 @@
       </c>
       <c r="C88"/>
       <c r="D88" t="s">
-        <v>2827</v>
+        <v>2828</v>
       </c>
       <c r="E88" t="s">
         <v>261</v>
@@ -12780,7 +12783,7 @@
       </c>
       <c r="C89"/>
       <c r="D89" t="s">
-        <v>2828</v>
+        <v>2829</v>
       </c>
       <c r="E89" t="s">
         <v>264</v>
@@ -12798,7 +12801,7 @@
       </c>
       <c r="C90"/>
       <c r="D90" t="s">
-        <v>2829</v>
+        <v>2830</v>
       </c>
       <c r="E90" t="s">
         <v>267</v>
@@ -12816,7 +12819,7 @@
       </c>
       <c r="C91"/>
       <c r="D91" t="s">
-        <v>2830</v>
+        <v>2831</v>
       </c>
       <c r="E91" t="s">
         <v>270</v>
@@ -12834,7 +12837,7 @@
       </c>
       <c r="C92"/>
       <c r="D92" t="s">
-        <v>2831</v>
+        <v>2832</v>
       </c>
       <c r="E92" t="s">
         <v>273</v>
@@ -12852,7 +12855,7 @@
       </c>
       <c r="C93"/>
       <c r="D93" t="s">
-        <v>2832</v>
+        <v>2833</v>
       </c>
       <c r="E93" t="s">
         <v>276</v>
@@ -12870,7 +12873,7 @@
       </c>
       <c r="C94"/>
       <c r="D94" t="s">
-        <v>2833</v>
+        <v>2834</v>
       </c>
       <c r="E94" t="s">
         <v>279</v>
@@ -12888,7 +12891,7 @@
       </c>
       <c r="C95"/>
       <c r="D95" t="s">
-        <v>2834</v>
+        <v>2835</v>
       </c>
       <c r="E95" t="s">
         <v>282</v>
@@ -12906,7 +12909,7 @@
       </c>
       <c r="C96"/>
       <c r="D96" t="s">
-        <v>2835</v>
+        <v>2836</v>
       </c>
       <c r="E96" t="s">
         <v>285</v>
@@ -12924,7 +12927,7 @@
       </c>
       <c r="C97"/>
       <c r="D97" t="s">
-        <v>2836</v>
+        <v>2837</v>
       </c>
       <c r="E97" t="s">
         <v>288</v>
@@ -12942,7 +12945,7 @@
       </c>
       <c r="C98"/>
       <c r="D98" t="s">
-        <v>2837</v>
+        <v>2838</v>
       </c>
       <c r="E98" t="s">
         <v>291</v>
@@ -12960,7 +12963,7 @@
       </c>
       <c r="C99"/>
       <c r="D99" t="s">
-        <v>2838</v>
+        <v>2839</v>
       </c>
       <c r="E99" t="s">
         <v>294</v>
@@ -12978,7 +12981,7 @@
       </c>
       <c r="C100"/>
       <c r="D100" t="s">
-        <v>2839</v>
+        <v>2840</v>
       </c>
       <c r="E100" t="s">
         <v>297</v>
@@ -12996,7 +12999,7 @@
       </c>
       <c r="C101"/>
       <c r="D101" t="s">
-        <v>2840</v>
+        <v>2841</v>
       </c>
       <c r="E101" t="s">
         <v>300</v>
@@ -13014,7 +13017,7 @@
       </c>
       <c r="C102"/>
       <c r="D102" t="s">
-        <v>2841</v>
+        <v>2842</v>
       </c>
       <c r="E102" t="s">
         <v>303</v>
@@ -13032,7 +13035,7 @@
       </c>
       <c r="C103"/>
       <c r="D103" t="s">
-        <v>2842</v>
+        <v>2843</v>
       </c>
       <c r="E103" t="s">
         <v>306</v>
@@ -13050,7 +13053,7 @@
       </c>
       <c r="C104"/>
       <c r="D104" t="s">
-        <v>2843</v>
+        <v>2844</v>
       </c>
       <c r="E104" t="s">
         <v>309</v>
@@ -13068,7 +13071,7 @@
       </c>
       <c r="C105"/>
       <c r="D105" t="s">
-        <v>2844</v>
+        <v>2845</v>
       </c>
       <c r="E105" t="s">
         <v>312</v>
@@ -13088,7 +13091,7 @@
         <v>315</v>
       </c>
       <c r="D106" t="s">
-        <v>2845</v>
+        <v>2846</v>
       </c>
       <c r="E106" t="s">
         <v>316</v>
@@ -13108,7 +13111,7 @@
         <v>315</v>
       </c>
       <c r="D107" t="s">
-        <v>2846</v>
+        <v>2847</v>
       </c>
       <c r="E107" t="s">
         <v>319</v>
@@ -13128,7 +13131,7 @@
         <v>315</v>
       </c>
       <c r="D108" t="s">
-        <v>2847</v>
+        <v>2848</v>
       </c>
       <c r="E108" t="s">
         <v>322</v>
@@ -13148,7 +13151,7 @@
         <v>315</v>
       </c>
       <c r="D109" t="s">
-        <v>2848</v>
+        <v>2849</v>
       </c>
       <c r="E109" t="s">
         <v>325</v>
@@ -13168,7 +13171,7 @@
         <v>315</v>
       </c>
       <c r="D110" t="s">
-        <v>2849</v>
+        <v>2850</v>
       </c>
       <c r="E110" t="s">
         <v>328</v>
@@ -13188,7 +13191,7 @@
         <v>315</v>
       </c>
       <c r="D111" t="s">
-        <v>2850</v>
+        <v>2851</v>
       </c>
       <c r="E111" t="s">
         <v>331</v>
@@ -13208,7 +13211,7 @@
         <v>315</v>
       </c>
       <c r="D112" t="s">
-        <v>2851</v>
+        <v>2852</v>
       </c>
       <c r="E112" t="s">
         <v>334</v>
@@ -13228,7 +13231,7 @@
         <v>315</v>
       </c>
       <c r="D113" t="s">
-        <v>2852</v>
+        <v>2853</v>
       </c>
       <c r="E113" t="s">
         <v>337</v>
@@ -13248,7 +13251,7 @@
         <v>315</v>
       </c>
       <c r="D114" t="s">
-        <v>2853</v>
+        <v>2854</v>
       </c>
       <c r="E114" t="s">
         <v>340</v>
@@ -13268,7 +13271,7 @@
         <v>315</v>
       </c>
       <c r="D115" t="s">
-        <v>2854</v>
+        <v>2855</v>
       </c>
       <c r="E115" t="s">
         <v>343</v>
@@ -13286,7 +13289,7 @@
       </c>
       <c r="C116"/>
       <c r="D116" t="s">
-        <v>2855</v>
+        <v>2856</v>
       </c>
       <c r="E116" t="s">
         <v>346</v>
@@ -13304,7 +13307,7 @@
       </c>
       <c r="C117"/>
       <c r="D117" t="s">
-        <v>2856</v>
+        <v>2857</v>
       </c>
       <c r="E117" t="s">
         <v>349</v>
@@ -13322,7 +13325,7 @@
       </c>
       <c r="C118"/>
       <c r="D118" t="s">
-        <v>2857</v>
+        <v>2858</v>
       </c>
       <c r="E118" t="s">
         <v>352</v>
@@ -13340,7 +13343,7 @@
       </c>
       <c r="C119"/>
       <c r="D119" t="s">
-        <v>2858</v>
+        <v>2859</v>
       </c>
       <c r="E119" t="s">
         <v>355</v>
@@ -13358,7 +13361,7 @@
       </c>
       <c r="C120"/>
       <c r="D120" t="s">
-        <v>2859</v>
+        <v>2860</v>
       </c>
       <c r="E120" t="s">
         <v>358</v>
@@ -13376,7 +13379,7 @@
       </c>
       <c r="C121"/>
       <c r="D121" t="s">
-        <v>2860</v>
+        <v>2861</v>
       </c>
       <c r="E121" t="s">
         <v>361</v>
@@ -13394,7 +13397,7 @@
       </c>
       <c r="C122"/>
       <c r="D122" t="s">
-        <v>2861</v>
+        <v>2862</v>
       </c>
       <c r="E122" t="s">
         <v>364</v>
@@ -13414,7 +13417,7 @@
         <v>367</v>
       </c>
       <c r="D123" t="s">
-        <v>2862</v>
+        <v>2863</v>
       </c>
       <c r="E123" t="s">
         <v>368</v>
@@ -13434,7 +13437,7 @@
         <v>367</v>
       </c>
       <c r="D124" t="s">
-        <v>2863</v>
+        <v>2864</v>
       </c>
       <c r="E124" t="s">
         <v>371</v>
@@ -13454,7 +13457,7 @@
         <v>367</v>
       </c>
       <c r="D125" t="s">
-        <v>2864</v>
+        <v>2865</v>
       </c>
       <c r="E125" t="s">
         <v>371</v>
@@ -13474,7 +13477,7 @@
         <v>367</v>
       </c>
       <c r="D126" t="s">
-        <v>2865</v>
+        <v>2866</v>
       </c>
       <c r="E126" t="s">
         <v>376</v>
@@ -13494,7 +13497,7 @@
         <v>367</v>
       </c>
       <c r="D127" t="s">
-        <v>2866</v>
+        <v>2867</v>
       </c>
       <c r="E127" t="s">
         <v>379</v>
@@ -13514,7 +13517,7 @@
         <v>367</v>
       </c>
       <c r="D128" t="s">
-        <v>2867</v>
+        <v>2868</v>
       </c>
       <c r="E128" t="s">
         <v>382</v>
@@ -13534,7 +13537,7 @@
         <v>367</v>
       </c>
       <c r="D129" t="s">
-        <v>2868</v>
+        <v>2869</v>
       </c>
       <c r="E129" t="s">
         <v>385</v>
@@ -13554,7 +13557,7 @@
         <v>367</v>
       </c>
       <c r="D130" t="s">
-        <v>2869</v>
+        <v>2870</v>
       </c>
       <c r="E130" t="s">
         <v>388</v>
@@ -13574,7 +13577,7 @@
         <v>367</v>
       </c>
       <c r="D131" t="s">
-        <v>2870</v>
+        <v>2871</v>
       </c>
       <c r="E131" t="s">
         <v>391</v>
@@ -13594,7 +13597,7 @@
         <v>367</v>
       </c>
       <c r="D132" t="s">
-        <v>2871</v>
+        <v>2872</v>
       </c>
       <c r="E132" t="s">
         <v>394</v>
@@ -13614,7 +13617,7 @@
         <v>367</v>
       </c>
       <c r="D133" t="s">
-        <v>2872</v>
+        <v>2873</v>
       </c>
       <c r="E133" t="s">
         <v>397</v>
@@ -13634,7 +13637,7 @@
         <v>367</v>
       </c>
       <c r="D134" t="s">
-        <v>2873</v>
+        <v>2874</v>
       </c>
       <c r="E134" t="s">
         <v>400</v>
@@ -13654,7 +13657,7 @@
         <v>367</v>
       </c>
       <c r="D135" t="s">
-        <v>2874</v>
+        <v>2875</v>
       </c>
       <c r="E135" t="s">
         <v>403</v>
@@ -13674,7 +13677,7 @@
         <v>367</v>
       </c>
       <c r="D136" t="s">
-        <v>2875</v>
+        <v>2876</v>
       </c>
       <c r="E136" t="s">
         <v>406</v>
@@ -13694,7 +13697,7 @@
         <v>367</v>
       </c>
       <c r="D137" t="s">
-        <v>2876</v>
+        <v>2877</v>
       </c>
       <c r="E137" t="s">
         <v>409</v>
@@ -13714,7 +13717,7 @@
         <v>367</v>
       </c>
       <c r="D138" t="s">
-        <v>2877</v>
+        <v>2878</v>
       </c>
       <c r="E138" t="s">
         <v>412</v>
@@ -13734,7 +13737,7 @@
         <v>367</v>
       </c>
       <c r="D139" t="s">
-        <v>2878</v>
+        <v>2879</v>
       </c>
       <c r="E139" t="s">
         <v>415</v>
@@ -13754,7 +13757,7 @@
         <v>367</v>
       </c>
       <c r="D140" t="s">
-        <v>2879</v>
+        <v>2880</v>
       </c>
       <c r="E140" t="s">
         <v>418</v>
@@ -13774,7 +13777,7 @@
         <v>367</v>
       </c>
       <c r="D141" t="s">
-        <v>2880</v>
+        <v>2881</v>
       </c>
       <c r="E141" t="s">
         <v>421</v>
@@ -13794,7 +13797,7 @@
         <v>367</v>
       </c>
       <c r="D142" t="s">
-        <v>2881</v>
+        <v>2882</v>
       </c>
       <c r="E142" t="s">
         <v>424</v>
@@ -13814,7 +13817,7 @@
         <v>367</v>
       </c>
       <c r="D143" t="s">
-        <v>2882</v>
+        <v>2883</v>
       </c>
       <c r="E143" t="s">
         <v>427</v>
@@ -13834,7 +13837,7 @@
         <v>367</v>
       </c>
       <c r="D144" t="s">
-        <v>2883</v>
+        <v>2884</v>
       </c>
       <c r="E144" t="s">
         <v>430</v>
@@ -13854,7 +13857,7 @@
         <v>367</v>
       </c>
       <c r="D145" t="s">
-        <v>2884</v>
+        <v>2885</v>
       </c>
       <c r="E145" t="s">
         <v>433</v>
@@ -13874,7 +13877,7 @@
         <v>367</v>
       </c>
       <c r="D146" t="s">
-        <v>2885</v>
+        <v>2886</v>
       </c>
       <c r="E146" t="s">
         <v>436</v>
@@ -13894,7 +13897,7 @@
         <v>367</v>
       </c>
       <c r="D147" t="s">
-        <v>2886</v>
+        <v>2887</v>
       </c>
       <c r="E147" t="s">
         <v>439</v>
@@ -13914,7 +13917,7 @@
         <v>367</v>
       </c>
       <c r="D148" t="s">
-        <v>2887</v>
+        <v>2888</v>
       </c>
       <c r="E148" t="s">
         <v>442</v>
@@ -13934,7 +13937,7 @@
         <v>367</v>
       </c>
       <c r="D149" t="s">
-        <v>2888</v>
+        <v>2889</v>
       </c>
       <c r="E149" t="s">
         <v>445</v>
@@ -13954,7 +13957,7 @@
         <v>367</v>
       </c>
       <c r="D150" t="s">
-        <v>2889</v>
+        <v>2890</v>
       </c>
       <c r="E150" t="s">
         <v>448</v>
@@ -13972,7 +13975,7 @@
       </c>
       <c r="C151"/>
       <c r="D151" t="s">
-        <v>2890</v>
+        <v>2891</v>
       </c>
       <c r="E151" t="s">
         <v>451</v>
@@ -13990,7 +13993,7 @@
       </c>
       <c r="C152"/>
       <c r="D152" t="s">
-        <v>2891</v>
+        <v>2892</v>
       </c>
       <c r="E152" t="s">
         <v>454</v>
@@ -14010,7 +14013,7 @@
         <v>367</v>
       </c>
       <c r="D153" t="s">
-        <v>2892</v>
+        <v>2893</v>
       </c>
       <c r="E153" t="s">
         <v>457</v>
@@ -14028,7 +14031,7 @@
       </c>
       <c r="C154"/>
       <c r="D154" t="s">
-        <v>2893</v>
+        <v>2894</v>
       </c>
       <c r="E154" t="s">
         <v>460</v>
@@ -14046,7 +14049,7 @@
       </c>
       <c r="C155"/>
       <c r="D155" t="s">
-        <v>2894</v>
+        <v>2895</v>
       </c>
       <c r="E155" t="s">
         <v>463</v>
@@ -14064,7 +14067,7 @@
       </c>
       <c r="C156"/>
       <c r="D156" t="s">
-        <v>2895</v>
+        <v>2896</v>
       </c>
       <c r="E156" t="s">
         <v>466</v>
@@ -14082,7 +14085,7 @@
       </c>
       <c r="C157"/>
       <c r="D157" t="s">
-        <v>2896</v>
+        <v>2897</v>
       </c>
       <c r="E157" t="s">
         <v>469</v>
@@ -14100,7 +14103,7 @@
       </c>
       <c r="C158"/>
       <c r="D158" t="s">
-        <v>2897</v>
+        <v>2898</v>
       </c>
       <c r="E158" t="s">
         <v>472</v>
@@ -14118,7 +14121,7 @@
       </c>
       <c r="C159"/>
       <c r="D159" t="s">
-        <v>2898</v>
+        <v>2899</v>
       </c>
       <c r="E159" t="s">
         <v>475</v>
@@ -14136,7 +14139,7 @@
       </c>
       <c r="C160"/>
       <c r="D160" t="s">
-        <v>2899</v>
+        <v>2900</v>
       </c>
       <c r="E160" t="s">
         <v>478</v>
@@ -14154,7 +14157,7 @@
       </c>
       <c r="C161"/>
       <c r="D161" t="s">
-        <v>2900</v>
+        <v>2901</v>
       </c>
       <c r="E161" t="s">
         <v>481</v>
@@ -14172,7 +14175,7 @@
       </c>
       <c r="C162"/>
       <c r="D162" t="s">
-        <v>2901</v>
+        <v>2902</v>
       </c>
       <c r="E162" t="s">
         <v>484</v>
@@ -14190,7 +14193,7 @@
       </c>
       <c r="C163"/>
       <c r="D163" t="s">
-        <v>2902</v>
+        <v>2903</v>
       </c>
       <c r="E163" t="s">
         <v>487</v>
@@ -14208,7 +14211,7 @@
       </c>
       <c r="C164"/>
       <c r="D164" t="s">
-        <v>2903</v>
+        <v>2904</v>
       </c>
       <c r="E164" t="s">
         <v>490</v>
@@ -14226,7 +14229,7 @@
       </c>
       <c r="C165"/>
       <c r="D165" t="s">
-        <v>2904</v>
+        <v>2905</v>
       </c>
       <c r="E165" t="s">
         <v>493</v>
@@ -14244,7 +14247,7 @@
       </c>
       <c r="C166"/>
       <c r="D166" t="s">
-        <v>2905</v>
+        <v>2906</v>
       </c>
       <c r="E166" t="s">
         <v>496</v>
@@ -14262,7 +14265,7 @@
       </c>
       <c r="C167"/>
       <c r="D167" t="s">
-        <v>2906</v>
+        <v>2907</v>
       </c>
       <c r="E167" t="s">
         <v>499</v>
@@ -14280,7 +14283,7 @@
       </c>
       <c r="C168"/>
       <c r="D168" t="s">
-        <v>2907</v>
+        <v>2908</v>
       </c>
       <c r="E168" t="s">
         <v>502</v>
@@ -14298,7 +14301,7 @@
       </c>
       <c r="C169"/>
       <c r="D169" t="s">
-        <v>2908</v>
+        <v>2909</v>
       </c>
       <c r="E169" t="s">
         <v>505</v>
@@ -14316,7 +14319,7 @@
       </c>
       <c r="C170"/>
       <c r="D170" t="s">
-        <v>2909</v>
+        <v>2910</v>
       </c>
       <c r="E170" t="s">
         <v>508</v>
@@ -14334,7 +14337,7 @@
       </c>
       <c r="C171"/>
       <c r="D171" t="s">
-        <v>2872</v>
+        <v>2873</v>
       </c>
       <c r="E171" t="s">
         <v>511</v>
@@ -14352,7 +14355,7 @@
       </c>
       <c r="C172"/>
       <c r="D172" t="s">
-        <v>2910</v>
+        <v>2911</v>
       </c>
       <c r="E172" t="s">
         <v>513</v>
@@ -14370,7 +14373,7 @@
       </c>
       <c r="C173"/>
       <c r="D173" t="s">
-        <v>2911</v>
+        <v>2912</v>
       </c>
       <c r="E173" t="s">
         <v>516</v>
@@ -14388,7 +14391,7 @@
       </c>
       <c r="C174"/>
       <c r="D174" t="s">
-        <v>2912</v>
+        <v>2913</v>
       </c>
       <c r="E174" t="s">
         <v>519</v>
@@ -14406,7 +14409,7 @@
       </c>
       <c r="C175"/>
       <c r="D175" t="s">
-        <v>2913</v>
+        <v>2914</v>
       </c>
       <c r="E175" t="s">
         <v>522</v>
@@ -14424,7 +14427,7 @@
       </c>
       <c r="C176"/>
       <c r="D176" t="s">
-        <v>2914</v>
+        <v>2915</v>
       </c>
       <c r="E176" t="s">
         <v>525</v>
@@ -14442,7 +14445,7 @@
       </c>
       <c r="C177"/>
       <c r="D177" t="s">
-        <v>2915</v>
+        <v>2916</v>
       </c>
       <c r="E177" t="s">
         <v>528</v>
@@ -14460,7 +14463,7 @@
       </c>
       <c r="C178"/>
       <c r="D178" t="s">
-        <v>2916</v>
+        <v>2917</v>
       </c>
       <c r="E178" t="s">
         <v>531</v>
@@ -14478,7 +14481,7 @@
       </c>
       <c r="C179"/>
       <c r="D179" t="s">
-        <v>2917</v>
+        <v>2918</v>
       </c>
       <c r="E179" t="s">
         <v>534</v>
@@ -14498,7 +14501,7 @@
         <v>367</v>
       </c>
       <c r="D180" t="s">
-        <v>2918</v>
+        <v>2919</v>
       </c>
       <c r="E180" t="s">
         <v>537</v>
@@ -14518,7 +14521,7 @@
         <v>367</v>
       </c>
       <c r="D181" t="s">
-        <v>2919</v>
+        <v>2920</v>
       </c>
       <c r="E181" t="s">
         <v>540</v>
@@ -14538,7 +14541,7 @@
         <v>367</v>
       </c>
       <c r="D182" t="s">
-        <v>2920</v>
+        <v>2921</v>
       </c>
       <c r="E182" t="s">
         <v>543</v>
@@ -14558,7 +14561,7 @@
         <v>367</v>
       </c>
       <c r="D183" t="s">
-        <v>2921</v>
+        <v>2922</v>
       </c>
       <c r="E183" t="s">
         <v>546</v>
@@ -14578,7 +14581,7 @@
         <v>367</v>
       </c>
       <c r="D184" t="s">
-        <v>2922</v>
+        <v>2923</v>
       </c>
       <c r="E184" t="s">
         <v>549</v>
@@ -14598,7 +14601,7 @@
         <v>367</v>
       </c>
       <c r="D185" t="s">
-        <v>2923</v>
+        <v>2924</v>
       </c>
       <c r="E185" t="s">
         <v>549</v>
@@ -14618,7 +14621,7 @@
         <v>367</v>
       </c>
       <c r="D186" t="s">
-        <v>2924</v>
+        <v>2925</v>
       </c>
       <c r="E186" t="s">
         <v>554</v>
@@ -14638,7 +14641,7 @@
         <v>367</v>
       </c>
       <c r="D187" t="s">
-        <v>2925</v>
+        <v>2926</v>
       </c>
       <c r="E187" t="s">
         <v>554</v>
@@ -14658,7 +14661,7 @@
         <v>367</v>
       </c>
       <c r="D188" t="s">
-        <v>2926</v>
+        <v>2927</v>
       </c>
       <c r="E188" t="s">
         <v>559</v>
@@ -14678,7 +14681,7 @@
         <v>367</v>
       </c>
       <c r="D189" t="s">
-        <v>2927</v>
+        <v>2928</v>
       </c>
       <c r="E189" t="s">
         <v>559</v>
@@ -14698,7 +14701,7 @@
         <v>367</v>
       </c>
       <c r="D190" t="s">
-        <v>2928</v>
+        <v>2929</v>
       </c>
       <c r="E190" t="s">
         <v>559</v>
@@ -14718,7 +14721,7 @@
         <v>367</v>
       </c>
       <c r="D191" t="s">
-        <v>2929</v>
+        <v>2930</v>
       </c>
       <c r="E191" t="s">
         <v>566</v>
@@ -14738,7 +14741,7 @@
         <v>367</v>
       </c>
       <c r="D192" t="s">
-        <v>2930</v>
+        <v>2931</v>
       </c>
       <c r="E192" t="s">
         <v>569</v>
@@ -14758,7 +14761,7 @@
         <v>367</v>
       </c>
       <c r="D193" t="s">
-        <v>2931</v>
+        <v>2932</v>
       </c>
       <c r="E193" t="s">
         <v>572</v>
@@ -14778,7 +14781,7 @@
         <v>367</v>
       </c>
       <c r="D194" t="s">
-        <v>2932</v>
+        <v>2933</v>
       </c>
       <c r="E194" t="s">
         <v>575</v>
@@ -14798,7 +14801,7 @@
         <v>367</v>
       </c>
       <c r="D195" t="s">
-        <v>2933</v>
+        <v>2934</v>
       </c>
       <c r="E195" t="s">
         <v>578</v>
@@ -14818,7 +14821,7 @@
         <v>367</v>
       </c>
       <c r="D196" t="s">
-        <v>2934</v>
+        <v>2935</v>
       </c>
       <c r="E196" t="s">
         <v>581</v>
@@ -14838,7 +14841,7 @@
         <v>367</v>
       </c>
       <c r="D197" t="s">
-        <v>2935</v>
+        <v>2936</v>
       </c>
       <c r="E197" t="s">
         <v>584</v>
@@ -14858,7 +14861,7 @@
         <v>367</v>
       </c>
       <c r="D198" t="s">
-        <v>2936</v>
+        <v>2937</v>
       </c>
       <c r="E198" t="s">
         <v>587</v>
@@ -14878,7 +14881,7 @@
         <v>367</v>
       </c>
       <c r="D199" t="s">
-        <v>2931</v>
+        <v>2932</v>
       </c>
       <c r="E199" t="s">
         <v>572</v>
@@ -14898,7 +14901,7 @@
         <v>367</v>
       </c>
       <c r="D200" t="s">
-        <v>2932</v>
+        <v>2933</v>
       </c>
       <c r="E200" t="s">
         <v>575</v>
@@ -14918,7 +14921,7 @@
         <v>367</v>
       </c>
       <c r="D201" t="s">
-        <v>2933</v>
+        <v>2934</v>
       </c>
       <c r="E201" t="s">
         <v>578</v>
@@ -14938,7 +14941,7 @@
         <v>367</v>
       </c>
       <c r="D202" t="s">
-        <v>2934</v>
+        <v>2935</v>
       </c>
       <c r="E202" t="s">
         <v>581</v>
@@ -14958,7 +14961,7 @@
         <v>367</v>
       </c>
       <c r="D203" t="s">
-        <v>2935</v>
+        <v>2936</v>
       </c>
       <c r="E203" t="s">
         <v>584</v>
@@ -14978,7 +14981,7 @@
         <v>367</v>
       </c>
       <c r="D204" t="s">
-        <v>2936</v>
+        <v>2937</v>
       </c>
       <c r="E204" t="s">
         <v>587</v>
@@ -15018,7 +15021,7 @@
         <v>367</v>
       </c>
       <c r="D206" t="s">
-        <v>2937</v>
+        <v>2938</v>
       </c>
       <c r="E206" t="s">
         <v>604</v>
@@ -15038,7 +15041,7 @@
         <v>367</v>
       </c>
       <c r="D207" t="s">
-        <v>2938</v>
+        <v>2939</v>
       </c>
       <c r="E207" t="s">
         <v>607</v>
@@ -15058,7 +15061,7 @@
         <v>367</v>
       </c>
       <c r="D208" t="s">
-        <v>2939</v>
+        <v>2940</v>
       </c>
       <c r="E208" t="s">
         <v>610</v>
@@ -15078,7 +15081,7 @@
         <v>367</v>
       </c>
       <c r="D209" t="s">
-        <v>2940</v>
+        <v>2941</v>
       </c>
       <c r="E209" t="s">
         <v>613</v>
@@ -15098,7 +15101,7 @@
         <v>367</v>
       </c>
       <c r="D210" t="s">
-        <v>2940</v>
+        <v>2941</v>
       </c>
       <c r="E210" t="s">
         <v>613</v>
@@ -15118,7 +15121,7 @@
         <v>367</v>
       </c>
       <c r="D211" t="s">
-        <v>2941</v>
+        <v>2942</v>
       </c>
       <c r="E211" t="s">
         <v>617</v>
@@ -15138,7 +15141,7 @@
         <v>367</v>
       </c>
       <c r="D212" t="s">
-        <v>2942</v>
+        <v>2943</v>
       </c>
       <c r="E212" t="s">
         <v>620</v>
@@ -15158,7 +15161,7 @@
         <v>367</v>
       </c>
       <c r="D213" t="s">
-        <v>2943</v>
+        <v>2944</v>
       </c>
       <c r="E213" t="s">
         <v>623</v>
@@ -15178,7 +15181,7 @@
         <v>367</v>
       </c>
       <c r="D214" t="s">
-        <v>2944</v>
+        <v>2945</v>
       </c>
       <c r="E214" t="s">
         <v>626</v>
@@ -15198,7 +15201,7 @@
         <v>367</v>
       </c>
       <c r="D215" t="s">
-        <v>2945</v>
+        <v>2946</v>
       </c>
       <c r="E215" t="s">
         <v>629</v>
@@ -15218,7 +15221,7 @@
         <v>367</v>
       </c>
       <c r="D216" t="s">
-        <v>2946</v>
+        <v>2947</v>
       </c>
       <c r="E216" t="s">
         <v>632</v>
@@ -15238,7 +15241,7 @@
         <v>367</v>
       </c>
       <c r="D217" t="s">
-        <v>2947</v>
+        <v>2948</v>
       </c>
       <c r="E217" t="s">
         <v>635</v>
@@ -15258,7 +15261,7 @@
         <v>367</v>
       </c>
       <c r="D218" t="s">
-        <v>2948</v>
+        <v>2949</v>
       </c>
       <c r="E218" t="s">
         <v>638</v>
@@ -15278,7 +15281,7 @@
         <v>367</v>
       </c>
       <c r="D219" t="s">
-        <v>2949</v>
+        <v>2950</v>
       </c>
       <c r="E219" t="s">
         <v>641</v>
@@ -15298,7 +15301,7 @@
         <v>367</v>
       </c>
       <c r="D220" t="s">
-        <v>2950</v>
+        <v>2951</v>
       </c>
       <c r="E220" t="s">
         <v>644</v>
@@ -15318,7 +15321,7 @@
         <v>367</v>
       </c>
       <c r="D221" t="s">
-        <v>2951</v>
+        <v>2952</v>
       </c>
       <c r="E221" t="s">
         <v>647</v>
@@ -15338,7 +15341,7 @@
         <v>367</v>
       </c>
       <c r="D222" t="s">
-        <v>2952</v>
+        <v>2953</v>
       </c>
       <c r="E222" t="s">
         <v>650</v>
@@ -15358,7 +15361,7 @@
         <v>367</v>
       </c>
       <c r="D223" t="s">
-        <v>2953</v>
+        <v>2954</v>
       </c>
       <c r="E223" t="s">
         <v>653</v>
@@ -15378,7 +15381,7 @@
         <v>367</v>
       </c>
       <c r="D224" t="s">
-        <v>2954</v>
+        <v>2955</v>
       </c>
       <c r="E224" t="s">
         <v>656</v>
@@ -15398,7 +15401,7 @@
         <v>367</v>
       </c>
       <c r="D225" t="s">
-        <v>2955</v>
+        <v>2956</v>
       </c>
       <c r="E225" t="s">
         <v>659</v>
@@ -15431,7 +15434,7 @@
         <v>367</v>
       </c>
       <c r="D227" t="s">
-        <v>2956</v>
+        <v>2957</v>
       </c>
       <c r="E227" t="s">
         <v>663</v>
@@ -15451,7 +15454,7 @@
         <v>367</v>
       </c>
       <c r="D228" t="s">
-        <v>2957</v>
+        <v>2958</v>
       </c>
       <c r="E228" t="s">
         <v>666</v>
@@ -15471,7 +15474,7 @@
         <v>367</v>
       </c>
       <c r="D229" t="s">
-        <v>2958</v>
+        <v>2959</v>
       </c>
       <c r="E229" t="s">
         <v>669</v>
@@ -15491,7 +15494,7 @@
         <v>367</v>
       </c>
       <c r="D230" t="s">
-        <v>2959</v>
+        <v>2960</v>
       </c>
       <c r="E230" t="s">
         <v>672</v>
@@ -15511,7 +15514,7 @@
         <v>367</v>
       </c>
       <c r="D231" t="s">
-        <v>2960</v>
+        <v>2961</v>
       </c>
       <c r="E231" t="s">
         <v>675</v>
@@ -15531,7 +15534,7 @@
         <v>367</v>
       </c>
       <c r="D232" t="s">
-        <v>2961</v>
+        <v>2962</v>
       </c>
       <c r="E232" t="s">
         <v>678</v>
@@ -15551,7 +15554,7 @@
         <v>367</v>
       </c>
       <c r="D233" t="s">
-        <v>2962</v>
+        <v>2963</v>
       </c>
       <c r="E233" t="s">
         <v>681</v>
@@ -15571,7 +15574,7 @@
         <v>367</v>
       </c>
       <c r="D234" t="s">
-        <v>2963</v>
+        <v>2964</v>
       </c>
       <c r="E234" t="s">
         <v>684</v>
@@ -15591,7 +15594,7 @@
         <v>367</v>
       </c>
       <c r="D235" t="s">
-        <v>2964</v>
+        <v>2965</v>
       </c>
       <c r="E235" t="s">
         <v>687</v>
@@ -15611,7 +15614,7 @@
         <v>367</v>
       </c>
       <c r="D236" t="s">
-        <v>2965</v>
+        <v>2966</v>
       </c>
       <c r="E236" t="s">
         <v>690</v>
@@ -15631,7 +15634,7 @@
         <v>367</v>
       </c>
       <c r="D237" t="s">
-        <v>2966</v>
+        <v>2967</v>
       </c>
       <c r="E237" t="s">
         <v>693</v>
@@ -15651,7 +15654,7 @@
         <v>367</v>
       </c>
       <c r="D238" t="s">
-        <v>2967</v>
+        <v>2968</v>
       </c>
       <c r="E238" t="s">
         <v>696</v>
@@ -15671,7 +15674,7 @@
         <v>367</v>
       </c>
       <c r="D239" t="s">
-        <v>2968</v>
+        <v>2969</v>
       </c>
       <c r="E239" t="s">
         <v>699</v>
@@ -15691,7 +15694,7 @@
         <v>367</v>
       </c>
       <c r="D240" t="s">
-        <v>2969</v>
+        <v>2970</v>
       </c>
       <c r="E240" t="s">
         <v>702</v>
@@ -15711,7 +15714,7 @@
         <v>367</v>
       </c>
       <c r="D241" t="s">
-        <v>2970</v>
+        <v>2971</v>
       </c>
       <c r="E241" t="s">
         <v>705</v>
@@ -15731,7 +15734,7 @@
         <v>367</v>
       </c>
       <c r="D242" t="s">
-        <v>2971</v>
+        <v>2972</v>
       </c>
       <c r="E242" t="s">
         <v>708</v>
@@ -15751,7 +15754,7 @@
         <v>367</v>
       </c>
       <c r="D243" t="s">
-        <v>2972</v>
+        <v>2973</v>
       </c>
       <c r="E243" t="s">
         <v>711</v>
@@ -15771,7 +15774,7 @@
         <v>367</v>
       </c>
       <c r="D244" t="s">
-        <v>2973</v>
+        <v>2974</v>
       </c>
       <c r="E244" t="s">
         <v>714</v>
@@ -15791,7 +15794,7 @@
         <v>367</v>
       </c>
       <c r="D245" t="s">
-        <v>2974</v>
+        <v>2975</v>
       </c>
       <c r="E245" t="s">
         <v>717</v>
@@ -15811,7 +15814,7 @@
         <v>367</v>
       </c>
       <c r="D246" t="s">
-        <v>2975</v>
+        <v>2976</v>
       </c>
       <c r="E246" t="s">
         <v>720</v>
@@ -15831,7 +15834,7 @@
         <v>367</v>
       </c>
       <c r="D247" t="s">
-        <v>2976</v>
+        <v>2977</v>
       </c>
       <c r="E247" t="s">
         <v>723</v>
@@ -15851,7 +15854,7 @@
         <v>367</v>
       </c>
       <c r="D248" t="s">
-        <v>2977</v>
+        <v>2978</v>
       </c>
       <c r="E248" t="s">
         <v>726</v>
@@ -15871,7 +15874,7 @@
         <v>367</v>
       </c>
       <c r="D249" t="s">
-        <v>2978</v>
+        <v>2979</v>
       </c>
       <c r="E249" t="s">
         <v>729</v>
@@ -15891,7 +15894,7 @@
         <v>367</v>
       </c>
       <c r="D250" t="s">
-        <v>2979</v>
+        <v>2980</v>
       </c>
       <c r="E250" t="s">
         <v>732</v>
@@ -15911,7 +15914,7 @@
         <v>367</v>
       </c>
       <c r="D251" t="s">
-        <v>2980</v>
+        <v>2981</v>
       </c>
       <c r="E251" t="s">
         <v>735</v>
@@ -15931,7 +15934,7 @@
         <v>367</v>
       </c>
       <c r="D252" t="s">
-        <v>2981</v>
+        <v>2982</v>
       </c>
       <c r="E252" t="s">
         <v>738</v>
@@ -15951,7 +15954,7 @@
         <v>367</v>
       </c>
       <c r="D253" t="s">
-        <v>2982</v>
+        <v>2983</v>
       </c>
       <c r="E253" t="s">
         <v>741</v>
@@ -15971,7 +15974,7 @@
         <v>367</v>
       </c>
       <c r="D254" t="s">
-        <v>2983</v>
+        <v>2984</v>
       </c>
       <c r="E254" t="s">
         <v>744</v>
@@ -15991,7 +15994,7 @@
         <v>367</v>
       </c>
       <c r="D255" t="s">
-        <v>2984</v>
+        <v>2985</v>
       </c>
       <c r="E255" t="s">
         <v>747</v>
@@ -16011,7 +16014,7 @@
         <v>367</v>
       </c>
       <c r="D256" t="s">
-        <v>2985</v>
+        <v>2986</v>
       </c>
       <c r="E256" t="s">
         <v>750</v>
@@ -16031,7 +16034,7 @@
         <v>367</v>
       </c>
       <c r="D257" t="s">
-        <v>2986</v>
+        <v>2987</v>
       </c>
       <c r="E257" t="s">
         <v>753</v>
@@ -16051,7 +16054,7 @@
         <v>367</v>
       </c>
       <c r="D258" t="s">
-        <v>2987</v>
+        <v>2988</v>
       </c>
       <c r="E258" t="s">
         <v>756</v>
@@ -16071,7 +16074,7 @@
         <v>367</v>
       </c>
       <c r="D259" t="s">
-        <v>2988</v>
+        <v>2989</v>
       </c>
       <c r="E259" t="s">
         <v>759</v>
@@ -16091,7 +16094,7 @@
         <v>367</v>
       </c>
       <c r="D260" t="s">
-        <v>2989</v>
+        <v>2990</v>
       </c>
       <c r="E260" t="s">
         <v>762</v>
@@ -16111,7 +16114,7 @@
         <v>367</v>
       </c>
       <c r="D261" t="s">
-        <v>2990</v>
+        <v>2991</v>
       </c>
       <c r="E261" t="s">
         <v>765</v>
@@ -16131,7 +16134,7 @@
         <v>367</v>
       </c>
       <c r="D262" t="s">
-        <v>2991</v>
+        <v>2992</v>
       </c>
       <c r="E262" t="s">
         <v>768</v>
@@ -16151,7 +16154,7 @@
         <v>367</v>
       </c>
       <c r="D263" t="s">
-        <v>2992</v>
+        <v>2993</v>
       </c>
       <c r="E263" t="s">
         <v>771</v>
@@ -16171,7 +16174,7 @@
         <v>367</v>
       </c>
       <c r="D264" t="s">
-        <v>2993</v>
+        <v>2994</v>
       </c>
       <c r="E264" t="s">
         <v>774</v>
@@ -16191,7 +16194,7 @@
         <v>367</v>
       </c>
       <c r="D265" t="s">
-        <v>2994</v>
+        <v>2995</v>
       </c>
       <c r="E265" t="s">
         <v>777</v>
@@ -16211,7 +16214,7 @@
         <v>367</v>
       </c>
       <c r="D266" t="s">
-        <v>2995</v>
+        <v>2996</v>
       </c>
       <c r="E266" t="s">
         <v>780</v>
@@ -16231,7 +16234,7 @@
         <v>367</v>
       </c>
       <c r="D267" t="s">
-        <v>2996</v>
+        <v>2997</v>
       </c>
       <c r="E267" t="s">
         <v>783</v>
@@ -16251,7 +16254,7 @@
         <v>367</v>
       </c>
       <c r="D268" t="s">
-        <v>2997</v>
+        <v>2998</v>
       </c>
       <c r="E268" t="s">
         <v>786</v>
@@ -16271,7 +16274,7 @@
         <v>367</v>
       </c>
       <c r="D269" t="s">
-        <v>2998</v>
+        <v>2999</v>
       </c>
       <c r="E269" t="s">
         <v>789</v>
@@ -16291,7 +16294,7 @@
         <v>367</v>
       </c>
       <c r="D270" t="s">
-        <v>2999</v>
+        <v>3000</v>
       </c>
       <c r="E270" t="s">
         <v>792</v>
@@ -16311,7 +16314,7 @@
         <v>367</v>
       </c>
       <c r="D271" t="s">
-        <v>3000</v>
+        <v>3001</v>
       </c>
       <c r="E271" t="s">
         <v>795</v>
@@ -16329,7 +16332,7 @@
       </c>
       <c r="C272"/>
       <c r="D272" t="s">
-        <v>3001</v>
+        <v>3002</v>
       </c>
       <c r="E272" t="s">
         <v>798</v>
@@ -16347,7 +16350,7 @@
       </c>
       <c r="C273"/>
       <c r="D273" t="s">
-        <v>3002</v>
+        <v>3003</v>
       </c>
       <c r="E273" t="s">
         <v>801</v>
@@ -16365,7 +16368,7 @@
       </c>
       <c r="C274"/>
       <c r="D274" t="s">
-        <v>3003</v>
+        <v>3004</v>
       </c>
       <c r="E274" t="s">
         <v>804</v>
@@ -16383,7 +16386,7 @@
       </c>
       <c r="C275"/>
       <c r="D275" t="s">
-        <v>3004</v>
+        <v>3005</v>
       </c>
       <c r="E275" t="s">
         <v>807</v>
@@ -16401,7 +16404,7 @@
       </c>
       <c r="C276"/>
       <c r="D276" t="s">
-        <v>3005</v>
+        <v>3006</v>
       </c>
       <c r="E276" t="s">
         <v>810</v>
@@ -16419,7 +16422,7 @@
       </c>
       <c r="C277"/>
       <c r="D277" t="s">
-        <v>3006</v>
+        <v>3007</v>
       </c>
       <c r="E277" t="s">
         <v>813</v>
@@ -16437,7 +16440,7 @@
       </c>
       <c r="C278"/>
       <c r="D278" t="s">
-        <v>3007</v>
+        <v>3008</v>
       </c>
       <c r="E278" t="s">
         <v>816</v>
@@ -16455,7 +16458,7 @@
       </c>
       <c r="C279"/>
       <c r="D279" t="s">
-        <v>3008</v>
+        <v>3009</v>
       </c>
       <c r="E279" t="s">
         <v>819</v>
@@ -16473,7 +16476,7 @@
       </c>
       <c r="C280"/>
       <c r="D280" t="s">
-        <v>3009</v>
+        <v>3010</v>
       </c>
       <c r="E280" t="s">
         <v>822</v>
@@ -16491,7 +16494,7 @@
       </c>
       <c r="C281"/>
       <c r="D281" t="s">
-        <v>3010</v>
+        <v>3011</v>
       </c>
       <c r="E281" t="s">
         <v>825</v>
@@ -16509,7 +16512,7 @@
       </c>
       <c r="C282"/>
       <c r="D282" t="s">
-        <v>3011</v>
+        <v>3012</v>
       </c>
       <c r="E282" t="s">
         <v>828</v>
@@ -16527,7 +16530,7 @@
       </c>
       <c r="C283"/>
       <c r="D283" t="s">
-        <v>3012</v>
+        <v>3013</v>
       </c>
       <c r="E283" t="s">
         <v>831</v>
@@ -16545,7 +16548,7 @@
       </c>
       <c r="C284"/>
       <c r="D284" t="s">
-        <v>3013</v>
+        <v>3014</v>
       </c>
       <c r="E284" t="s">
         <v>834</v>
@@ -16563,7 +16566,7 @@
       </c>
       <c r="C285"/>
       <c r="D285" t="s">
-        <v>3014</v>
+        <v>3015</v>
       </c>
       <c r="E285" t="s">
         <v>837</v>
@@ -16581,7 +16584,7 @@
       </c>
       <c r="C286"/>
       <c r="D286" t="s">
-        <v>3015</v>
+        <v>3016</v>
       </c>
       <c r="E286" t="s">
         <v>840</v>
@@ -16599,7 +16602,7 @@
       </c>
       <c r="C287"/>
       <c r="D287" t="s">
-        <v>3016</v>
+        <v>3017</v>
       </c>
       <c r="E287" t="s">
         <v>843</v>
@@ -16619,7 +16622,7 @@
         <v>846</v>
       </c>
       <c r="D288" t="s">
-        <v>3017</v>
+        <v>3018</v>
       </c>
       <c r="E288" t="s">
         <v>847</v>
@@ -16639,7 +16642,7 @@
         <v>846</v>
       </c>
       <c r="D289" t="s">
-        <v>3018</v>
+        <v>3019</v>
       </c>
       <c r="E289" t="s">
         <v>850</v>
@@ -16657,7 +16660,7 @@
       </c>
       <c r="C290"/>
       <c r="D290" t="s">
-        <v>3019</v>
+        <v>3020</v>
       </c>
       <c r="E290" t="s">
         <v>853</v>
@@ -16677,7 +16680,7 @@
         <v>856</v>
       </c>
       <c r="D291" t="s">
-        <v>3020</v>
+        <v>3021</v>
       </c>
       <c r="E291" t="s">
         <v>857</v>
@@ -16695,7 +16698,7 @@
       </c>
       <c r="C292"/>
       <c r="D292" t="s">
-        <v>3021</v>
+        <v>3022</v>
       </c>
       <c r="E292" t="s">
         <v>860</v>
@@ -16713,7 +16716,7 @@
       </c>
       <c r="C293"/>
       <c r="D293" t="s">
-        <v>3022</v>
+        <v>3023</v>
       </c>
       <c r="E293" t="s">
         <v>863</v>
@@ -16731,7 +16734,7 @@
       </c>
       <c r="C294"/>
       <c r="D294" t="s">
-        <v>3023</v>
+        <v>3024</v>
       </c>
       <c r="E294" t="s">
         <v>866</v>
@@ -16749,7 +16752,7 @@
       </c>
       <c r="C295"/>
       <c r="D295" t="s">
-        <v>3024</v>
+        <v>3025</v>
       </c>
       <c r="E295" t="s">
         <v>869</v>
@@ -16767,7 +16770,7 @@
       </c>
       <c r="C296"/>
       <c r="D296" t="s">
-        <v>3025</v>
+        <v>3026</v>
       </c>
       <c r="E296" t="s">
         <v>872</v>
@@ -16785,7 +16788,7 @@
       </c>
       <c r="C297"/>
       <c r="D297" t="s">
-        <v>3026</v>
+        <v>3027</v>
       </c>
       <c r="E297" t="s">
         <v>875</v>
@@ -16803,7 +16806,7 @@
       </c>
       <c r="C298"/>
       <c r="D298" t="s">
-        <v>3027</v>
+        <v>3028</v>
       </c>
       <c r="E298" t="s">
         <v>878</v>
@@ -16821,7 +16824,7 @@
       </c>
       <c r="C299"/>
       <c r="D299" t="s">
-        <v>3028</v>
+        <v>3029</v>
       </c>
       <c r="E299" t="s">
         <v>881</v>
@@ -16839,7 +16842,7 @@
       </c>
       <c r="C300"/>
       <c r="D300" t="s">
-        <v>3029</v>
+        <v>3030</v>
       </c>
       <c r="E300" t="s">
         <v>884</v>
@@ -16857,7 +16860,7 @@
       </c>
       <c r="C301"/>
       <c r="D301" t="s">
-        <v>3030</v>
+        <v>3031</v>
       </c>
       <c r="E301" t="s">
         <v>887</v>
@@ -16875,7 +16878,7 @@
       </c>
       <c r="C302"/>
       <c r="D302" t="s">
-        <v>3031</v>
+        <v>3032</v>
       </c>
       <c r="E302" t="s">
         <v>890</v>
@@ -16893,7 +16896,7 @@
       </c>
       <c r="C303"/>
       <c r="D303" t="s">
-        <v>3032</v>
+        <v>3033</v>
       </c>
       <c r="E303" t="s">
         <v>893</v>
@@ -16911,7 +16914,7 @@
       </c>
       <c r="C304"/>
       <c r="D304" t="s">
-        <v>3033</v>
+        <v>3034</v>
       </c>
       <c r="E304" t="s">
         <v>896</v>
@@ -16929,7 +16932,7 @@
       </c>
       <c r="C305"/>
       <c r="D305" t="s">
-        <v>3034</v>
+        <v>3035</v>
       </c>
       <c r="E305" t="s">
         <v>899</v>
@@ -16947,7 +16950,7 @@
       </c>
       <c r="C306"/>
       <c r="D306" t="s">
-        <v>3035</v>
+        <v>3036</v>
       </c>
       <c r="E306" t="s">
         <v>902</v>
@@ -16965,7 +16968,7 @@
       </c>
       <c r="C307"/>
       <c r="D307" t="s">
-        <v>3036</v>
+        <v>3037</v>
       </c>
       <c r="E307" t="s">
         <v>905</v>
@@ -16983,7 +16986,7 @@
       </c>
       <c r="C308"/>
       <c r="D308" t="s">
-        <v>3037</v>
+        <v>3038</v>
       </c>
       <c r="E308" t="s">
         <v>908</v>
@@ -17001,7 +17004,7 @@
       </c>
       <c r="C309"/>
       <c r="D309" t="s">
-        <v>3038</v>
+        <v>3039</v>
       </c>
       <c r="E309" t="s">
         <v>911</v>
@@ -17019,7 +17022,7 @@
       </c>
       <c r="C310"/>
       <c r="D310" t="s">
-        <v>3039</v>
+        <v>3040</v>
       </c>
       <c r="E310" t="s">
         <v>914</v>
@@ -17037,7 +17040,7 @@
       </c>
       <c r="C311"/>
       <c r="D311" t="s">
-        <v>3040</v>
+        <v>3041</v>
       </c>
       <c r="E311" t="s">
         <v>917</v>
@@ -17055,7 +17058,7 @@
       </c>
       <c r="C312"/>
       <c r="D312" t="s">
-        <v>3041</v>
+        <v>3042</v>
       </c>
       <c r="E312" t="s">
         <v>920</v>
@@ -17073,7 +17076,7 @@
       </c>
       <c r="C313"/>
       <c r="D313" t="s">
-        <v>3042</v>
+        <v>3043</v>
       </c>
       <c r="E313" t="s">
         <v>923</v>
@@ -17091,7 +17094,7 @@
       </c>
       <c r="C314"/>
       <c r="D314" t="s">
-        <v>3043</v>
+        <v>3044</v>
       </c>
       <c r="E314" t="s">
         <v>926</v>
@@ -17109,7 +17112,7 @@
       </c>
       <c r="C315"/>
       <c r="D315" t="s">
-        <v>3044</v>
+        <v>3045</v>
       </c>
       <c r="E315" t="s">
         <v>929</v>
@@ -17127,7 +17130,7 @@
       </c>
       <c r="C316"/>
       <c r="D316" t="s">
-        <v>3045</v>
+        <v>3046</v>
       </c>
       <c r="E316" t="s">
         <v>932</v>
@@ -17145,7 +17148,7 @@
       </c>
       <c r="C317"/>
       <c r="D317" t="s">
-        <v>3046</v>
+        <v>3047</v>
       </c>
       <c r="E317" t="s">
         <v>935</v>
@@ -17163,7 +17166,7 @@
       </c>
       <c r="C318"/>
       <c r="D318" t="s">
-        <v>3047</v>
+        <v>3048</v>
       </c>
       <c r="E318" t="s">
         <v>938</v>
@@ -17181,7 +17184,7 @@
       </c>
       <c r="C319"/>
       <c r="D319" t="s">
-        <v>3048</v>
+        <v>3049</v>
       </c>
       <c r="E319" t="s">
         <v>941</v>
@@ -17199,7 +17202,7 @@
       </c>
       <c r="C320"/>
       <c r="D320" t="s">
-        <v>3049</v>
+        <v>3050</v>
       </c>
       <c r="E320" t="s">
         <v>944</v>
@@ -17217,7 +17220,7 @@
       </c>
       <c r="C321"/>
       <c r="D321" t="s">
-        <v>3050</v>
+        <v>3051</v>
       </c>
       <c r="E321" t="s">
         <v>947</v>
@@ -17235,7 +17238,7 @@
       </c>
       <c r="C322"/>
       <c r="D322" t="s">
-        <v>3051</v>
+        <v>3052</v>
       </c>
       <c r="E322" t="s">
         <v>950</v>
@@ -17253,7 +17256,7 @@
       </c>
       <c r="C323"/>
       <c r="D323" t="s">
-        <v>3052</v>
+        <v>3053</v>
       </c>
       <c r="E323" t="s">
         <v>953</v>
@@ -17271,7 +17274,7 @@
       </c>
       <c r="C324"/>
       <c r="D324" t="s">
-        <v>3053</v>
+        <v>3054</v>
       </c>
       <c r="E324" t="s">
         <v>956</v>
@@ -17289,7 +17292,7 @@
       </c>
       <c r="C325"/>
       <c r="D325" t="s">
-        <v>3054</v>
+        <v>3055</v>
       </c>
       <c r="E325" t="s">
         <v>959</v>
@@ -17307,7 +17310,7 @@
       </c>
       <c r="C326"/>
       <c r="D326" t="s">
-        <v>3055</v>
+        <v>3056</v>
       </c>
       <c r="E326" t="s">
         <v>962</v>
@@ -17325,7 +17328,7 @@
       </c>
       <c r="C327"/>
       <c r="D327" t="s">
-        <v>3056</v>
+        <v>3057</v>
       </c>
       <c r="E327" t="s">
         <v>965</v>
@@ -17343,7 +17346,7 @@
       </c>
       <c r="C328"/>
       <c r="D328" t="s">
-        <v>3057</v>
+        <v>3058</v>
       </c>
       <c r="E328" t="s">
         <v>968</v>
@@ -17361,7 +17364,7 @@
       </c>
       <c r="C329"/>
       <c r="D329" t="s">
-        <v>3058</v>
+        <v>3059</v>
       </c>
       <c r="E329" t="s">
         <v>971</v>
@@ -17379,7 +17382,7 @@
       </c>
       <c r="C330"/>
       <c r="D330" t="s">
-        <v>3058</v>
+        <v>3059</v>
       </c>
       <c r="E330" t="s">
         <v>974</v>
@@ -17397,7 +17400,7 @@
       </c>
       <c r="C331"/>
       <c r="D331" t="s">
-        <v>3059</v>
+        <v>3060</v>
       </c>
       <c r="E331" t="s">
         <v>976</v>
@@ -17415,7 +17418,7 @@
       </c>
       <c r="C332"/>
       <c r="D332" t="s">
-        <v>3060</v>
+        <v>3061</v>
       </c>
       <c r="E332" t="s">
         <v>979</v>
@@ -17433,7 +17436,7 @@
       </c>
       <c r="C333"/>
       <c r="D333" t="s">
-        <v>3061</v>
+        <v>3062</v>
       </c>
       <c r="E333" t="s">
         <v>982</v>
@@ -17451,7 +17454,7 @@
       </c>
       <c r="C334"/>
       <c r="D334" t="s">
-        <v>3062</v>
+        <v>3063</v>
       </c>
       <c r="E334" t="s">
         <v>985</v>
@@ -17469,7 +17472,7 @@
       </c>
       <c r="C335"/>
       <c r="D335" t="s">
-        <v>3063</v>
+        <v>3064</v>
       </c>
       <c r="E335" t="s">
         <v>988</v>
@@ -17487,7 +17490,7 @@
       </c>
       <c r="C336"/>
       <c r="D336" t="s">
-        <v>3064</v>
+        <v>3065</v>
       </c>
       <c r="E336" t="s">
         <v>988</v>
@@ -17505,7 +17508,7 @@
       </c>
       <c r="C337"/>
       <c r="D337" t="s">
-        <v>3065</v>
+        <v>3066</v>
       </c>
       <c r="E337" t="s">
         <v>993</v>
@@ -17523,7 +17526,7 @@
       </c>
       <c r="C338"/>
       <c r="D338" t="s">
-        <v>3066</v>
+        <v>3067</v>
       </c>
       <c r="E338" t="s">
         <v>996</v>
@@ -17541,7 +17544,7 @@
       </c>
       <c r="C339"/>
       <c r="D339" t="s">
-        <v>3067</v>
+        <v>3068</v>
       </c>
       <c r="E339" t="s">
         <v>999</v>
@@ -17559,7 +17562,7 @@
       </c>
       <c r="C340"/>
       <c r="D340" t="s">
-        <v>3068</v>
+        <v>3069</v>
       </c>
       <c r="E340" t="s">
         <v>1002</v>
@@ -17577,7 +17580,7 @@
       </c>
       <c r="C341"/>
       <c r="D341" t="s">
-        <v>3069</v>
+        <v>3070</v>
       </c>
       <c r="E341" t="s">
         <v>1005</v>
@@ -17595,7 +17598,7 @@
       </c>
       <c r="C342"/>
       <c r="D342" t="s">
-        <v>3070</v>
+        <v>3071</v>
       </c>
       <c r="E342" t="s">
         <v>1008</v>
@@ -17615,7 +17618,7 @@
         <v>1011</v>
       </c>
       <c r="D343" t="s">
-        <v>3071</v>
+        <v>3072</v>
       </c>
       <c r="E343" t="s">
         <v>1012</v>
@@ -17635,7 +17638,7 @@
         <v>1011</v>
       </c>
       <c r="D344" t="s">
-        <v>3072</v>
+        <v>3073</v>
       </c>
       <c r="E344" t="s">
         <v>1015</v>
@@ -17655,7 +17658,7 @@
         <v>1011</v>
       </c>
       <c r="D345" t="s">
-        <v>3073</v>
+        <v>3074</v>
       </c>
       <c r="E345" t="s">
         <v>1018</v>
@@ -17675,7 +17678,7 @@
         <v>1011</v>
       </c>
       <c r="D346" t="s">
-        <v>3074</v>
+        <v>3075</v>
       </c>
       <c r="E346" t="s">
         <v>1021</v>
@@ -17695,7 +17698,7 @@
         <v>1011</v>
       </c>
       <c r="D347" t="s">
-        <v>3075</v>
+        <v>3076</v>
       </c>
       <c r="E347" t="s">
         <v>1024</v>
@@ -17715,7 +17718,7 @@
         <v>1011</v>
       </c>
       <c r="D348" t="s">
-        <v>3076</v>
+        <v>3077</v>
       </c>
       <c r="E348" t="s">
         <v>1027</v>
@@ -17735,7 +17738,7 @@
         <v>1011</v>
       </c>
       <c r="D349" t="s">
-        <v>3077</v>
+        <v>3078</v>
       </c>
       <c r="E349" t="s">
         <v>1030</v>
@@ -17755,7 +17758,7 @@
         <v>1011</v>
       </c>
       <c r="D350" t="s">
-        <v>3078</v>
+        <v>3079</v>
       </c>
       <c r="E350" t="s">
         <v>1033</v>
@@ -17773,7 +17776,7 @@
       </c>
       <c r="C351"/>
       <c r="D351" t="s">
-        <v>3079</v>
+        <v>3080</v>
       </c>
       <c r="E351" t="s">
         <v>1036</v>
@@ -17791,7 +17794,7 @@
       </c>
       <c r="C352"/>
       <c r="D352" t="s">
-        <v>3080</v>
+        <v>3081</v>
       </c>
       <c r="E352" t="s">
         <v>1039</v>
@@ -17809,7 +17812,7 @@
       </c>
       <c r="C353"/>
       <c r="D353" t="s">
-        <v>3081</v>
+        <v>3082</v>
       </c>
       <c r="E353" t="s">
         <v>1042</v>
@@ -17827,7 +17830,7 @@
       </c>
       <c r="C354"/>
       <c r="D354" t="s">
-        <v>3082</v>
+        <v>3083</v>
       </c>
       <c r="E354" t="s">
         <v>1045</v>
@@ -17845,7 +17848,7 @@
       </c>
       <c r="C355"/>
       <c r="D355" t="s">
-        <v>3083</v>
+        <v>3084</v>
       </c>
       <c r="E355" t="s">
         <v>1048</v>
@@ -17863,7 +17866,7 @@
       </c>
       <c r="C356"/>
       <c r="D356" t="s">
-        <v>3084</v>
+        <v>3085</v>
       </c>
       <c r="E356" t="s">
         <v>1051</v>
@@ -17881,7 +17884,7 @@
       </c>
       <c r="C357"/>
       <c r="D357" t="s">
-        <v>3085</v>
+        <v>3086</v>
       </c>
       <c r="E357" t="s">
         <v>1054</v>
@@ -17899,7 +17902,7 @@
       </c>
       <c r="C358"/>
       <c r="D358" t="s">
-        <v>3086</v>
+        <v>3087</v>
       </c>
       <c r="E358" t="s">
         <v>1057</v>
@@ -17917,7 +17920,7 @@
       </c>
       <c r="C359"/>
       <c r="D359" t="s">
-        <v>3087</v>
+        <v>3088</v>
       </c>
       <c r="E359" t="s">
         <v>1060</v>
@@ -17935,7 +17938,7 @@
       </c>
       <c r="C360"/>
       <c r="D360" t="s">
-        <v>3088</v>
+        <v>3089</v>
       </c>
       <c r="E360" t="s">
         <v>1063</v>
@@ -17953,7 +17956,7 @@
       </c>
       <c r="C361"/>
       <c r="D361" t="s">
-        <v>3043</v>
+        <v>3044</v>
       </c>
       <c r="E361" t="s">
         <v>1066</v>
@@ -17971,7 +17974,7 @@
       </c>
       <c r="C362"/>
       <c r="D362" t="s">
-        <v>3089</v>
+        <v>3090</v>
       </c>
       <c r="E362" t="s">
         <v>1068</v>
@@ -17989,7 +17992,7 @@
       </c>
       <c r="C363"/>
       <c r="D363" t="s">
-        <v>3090</v>
+        <v>3091</v>
       </c>
       <c r="E363" t="s">
         <v>1071</v>
@@ -18007,7 +18010,7 @@
       </c>
       <c r="C364"/>
       <c r="D364" t="s">
-        <v>2861</v>
+        <v>2862</v>
       </c>
       <c r="E364" t="s">
         <v>364</v>
@@ -18025,7 +18028,7 @@
       </c>
       <c r="C365"/>
       <c r="D365" t="s">
-        <v>3091</v>
+        <v>3092</v>
       </c>
       <c r="E365" t="s">
         <v>1075</v>
@@ -18043,7 +18046,7 @@
       </c>
       <c r="C366"/>
       <c r="D366" t="s">
-        <v>3092</v>
+        <v>3093</v>
       </c>
       <c r="E366" t="s">
         <v>1078</v>
@@ -18061,7 +18064,7 @@
       </c>
       <c r="C367"/>
       <c r="D367" t="s">
-        <v>3093</v>
+        <v>3094</v>
       </c>
       <c r="E367" t="s">
         <v>1081</v>
@@ -18079,7 +18082,7 @@
       </c>
       <c r="C368"/>
       <c r="D368" t="s">
-        <v>3094</v>
+        <v>3095</v>
       </c>
       <c r="E368" t="s">
         <v>1084</v>
@@ -18097,7 +18100,7 @@
       </c>
       <c r="C369"/>
       <c r="D369" t="s">
-        <v>3095</v>
+        <v>3096</v>
       </c>
       <c r="E369" t="s">
         <v>1087</v>
@@ -18115,7 +18118,7 @@
       </c>
       <c r="C370"/>
       <c r="D370" t="s">
-        <v>3096</v>
+        <v>3097</v>
       </c>
       <c r="E370" t="s">
         <v>1090</v>
@@ -18133,7 +18136,7 @@
       </c>
       <c r="C371"/>
       <c r="D371" t="s">
-        <v>3097</v>
+        <v>3098</v>
       </c>
       <c r="E371" t="s">
         <v>1093</v>
@@ -18151,7 +18154,7 @@
       </c>
       <c r="C372"/>
       <c r="D372" t="s">
-        <v>3098</v>
+        <v>3099</v>
       </c>
       <c r="E372" t="s">
         <v>1096</v>
@@ -18169,7 +18172,7 @@
       </c>
       <c r="C373"/>
       <c r="D373" t="s">
-        <v>3099</v>
+        <v>3100</v>
       </c>
       <c r="E373" t="s">
         <v>1099</v>
@@ -18187,7 +18190,7 @@
       </c>
       <c r="C374"/>
       <c r="D374" t="s">
-        <v>3100</v>
+        <v>3101</v>
       </c>
       <c r="E374" t="s">
         <v>1102</v>
@@ -18205,7 +18208,7 @@
       </c>
       <c r="C375"/>
       <c r="D375" t="s">
-        <v>3101</v>
+        <v>3102</v>
       </c>
       <c r="E375" t="s">
         <v>1105</v>
@@ -18223,7 +18226,7 @@
       </c>
       <c r="C376"/>
       <c r="D376" t="s">
-        <v>3102</v>
+        <v>3103</v>
       </c>
       <c r="E376" t="s">
         <v>1108</v>
@@ -18241,7 +18244,7 @@
       </c>
       <c r="C377"/>
       <c r="D377" t="s">
-        <v>3103</v>
+        <v>3104</v>
       </c>
       <c r="E377" t="s">
         <v>1111</v>
@@ -18259,7 +18262,7 @@
       </c>
       <c r="C378"/>
       <c r="D378" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="E378" t="s">
         <v>1114</v>
@@ -18277,7 +18280,7 @@
       </c>
       <c r="C379"/>
       <c r="D379" t="s">
-        <v>3105</v>
+        <v>3106</v>
       </c>
       <c r="E379" t="s">
         <v>1117</v>
@@ -18295,7 +18298,7 @@
       </c>
       <c r="C380"/>
       <c r="D380" t="s">
-        <v>3106</v>
+        <v>3107</v>
       </c>
       <c r="E380" t="s">
         <v>1120</v>
@@ -18313,7 +18316,7 @@
       </c>
       <c r="C381"/>
       <c r="D381" t="s">
-        <v>3107</v>
+        <v>3108</v>
       </c>
       <c r="E381" t="s">
         <v>1123</v>
@@ -18331,7 +18334,7 @@
       </c>
       <c r="C382"/>
       <c r="D382" t="s">
-        <v>3108</v>
+        <v>3109</v>
       </c>
       <c r="E382" t="s">
         <v>1126</v>
@@ -18349,7 +18352,7 @@
       </c>
       <c r="C383"/>
       <c r="D383" t="s">
-        <v>3109</v>
+        <v>3110</v>
       </c>
       <c r="E383" t="s">
         <v>1129</v>
@@ -18367,7 +18370,7 @@
       </c>
       <c r="C384"/>
       <c r="D384" t="s">
-        <v>3110</v>
+        <v>3111</v>
       </c>
       <c r="E384" t="s">
         <v>1132</v>
@@ -18385,7 +18388,7 @@
       </c>
       <c r="C385"/>
       <c r="D385" t="s">
-        <v>3111</v>
+        <v>3112</v>
       </c>
       <c r="E385" t="s">
         <v>1135</v>
@@ -18403,7 +18406,7 @@
       </c>
       <c r="C386"/>
       <c r="D386" t="s">
-        <v>3112</v>
+        <v>3113</v>
       </c>
       <c r="E386" t="s">
         <v>1138</v>
@@ -18421,7 +18424,7 @@
       </c>
       <c r="C387"/>
       <c r="D387" t="s">
-        <v>3113</v>
+        <v>3114</v>
       </c>
       <c r="E387" t="s">
         <v>1141</v>
@@ -18439,7 +18442,7 @@
       </c>
       <c r="C388"/>
       <c r="D388" t="s">
-        <v>3114</v>
+        <v>3115</v>
       </c>
       <c r="E388" t="s">
         <v>1144</v>
@@ -18457,7 +18460,7 @@
       </c>
       <c r="C389"/>
       <c r="D389" t="s">
-        <v>3115</v>
+        <v>3116</v>
       </c>
       <c r="E389" t="s">
         <v>1147</v>
@@ -18475,7 +18478,7 @@
       </c>
       <c r="C390"/>
       <c r="D390" t="s">
-        <v>3116</v>
+        <v>3117</v>
       </c>
       <c r="E390" t="s">
         <v>1150</v>
@@ -18493,7 +18496,7 @@
       </c>
       <c r="C391"/>
       <c r="D391" t="s">
-        <v>3117</v>
+        <v>3118</v>
       </c>
       <c r="E391" t="s">
         <v>1153</v>
@@ -18511,7 +18514,7 @@
       </c>
       <c r="C392"/>
       <c r="D392" t="s">
-        <v>3118</v>
+        <v>3119</v>
       </c>
       <c r="E392" t="s">
         <v>1156</v>
@@ -18529,7 +18532,7 @@
       </c>
       <c r="C393"/>
       <c r="D393" t="s">
-        <v>3119</v>
+        <v>3120</v>
       </c>
       <c r="E393" t="s">
         <v>1159</v>
@@ -18547,7 +18550,7 @@
       </c>
       <c r="C394"/>
       <c r="D394" t="s">
-        <v>3120</v>
+        <v>3121</v>
       </c>
       <c r="E394" t="s">
         <v>1162</v>
@@ -18565,7 +18568,7 @@
       </c>
       <c r="C395"/>
       <c r="D395" t="s">
-        <v>3121</v>
+        <v>3122</v>
       </c>
       <c r="E395" t="s">
         <v>1165</v>
@@ -18583,7 +18586,7 @@
       </c>
       <c r="C396"/>
       <c r="D396" t="s">
-        <v>3122</v>
+        <v>3123</v>
       </c>
       <c r="E396" t="s">
         <v>1168</v>
@@ -18601,7 +18604,7 @@
       </c>
       <c r="C397"/>
       <c r="D397" t="s">
-        <v>3123</v>
+        <v>3124</v>
       </c>
       <c r="E397" t="s">
         <v>1171</v>
@@ -18619,7 +18622,7 @@
       </c>
       <c r="C398"/>
       <c r="D398" t="s">
-        <v>3124</v>
+        <v>3125</v>
       </c>
       <c r="E398" t="s">
         <v>1174</v>
@@ -18637,7 +18640,7 @@
       </c>
       <c r="C399"/>
       <c r="D399" t="s">
-        <v>3125</v>
+        <v>3126</v>
       </c>
       <c r="E399" t="s">
         <v>1177</v>
@@ -18655,7 +18658,7 @@
       </c>
       <c r="C400"/>
       <c r="D400" t="s">
-        <v>3126</v>
+        <v>3127</v>
       </c>
       <c r="E400" t="s">
         <v>1180</v>
@@ -18673,7 +18676,7 @@
       </c>
       <c r="C401"/>
       <c r="D401" t="s">
-        <v>3127</v>
+        <v>3128</v>
       </c>
       <c r="E401" t="s">
         <v>1183</v>
@@ -18691,7 +18694,7 @@
       </c>
       <c r="C402"/>
       <c r="D402" t="s">
-        <v>3128</v>
+        <v>3129</v>
       </c>
       <c r="E402" t="s">
         <v>1186</v>
@@ -18709,7 +18712,7 @@
       </c>
       <c r="C403"/>
       <c r="D403" t="s">
-        <v>3129</v>
+        <v>3130</v>
       </c>
       <c r="E403" t="s">
         <v>1189</v>
@@ -18727,7 +18730,7 @@
       </c>
       <c r="C404"/>
       <c r="D404" t="s">
-        <v>3130</v>
+        <v>3131</v>
       </c>
       <c r="E404" t="s">
         <v>1192</v>
@@ -18745,7 +18748,7 @@
       </c>
       <c r="C405"/>
       <c r="D405" t="s">
-        <v>3131</v>
+        <v>3132</v>
       </c>
       <c r="E405" t="s">
         <v>1195</v>
@@ -18763,7 +18766,7 @@
       </c>
       <c r="C406"/>
       <c r="D406" t="s">
-        <v>3132</v>
+        <v>3133</v>
       </c>
       <c r="E406" t="s">
         <v>1198</v>
@@ -18781,7 +18784,7 @@
       </c>
       <c r="C407"/>
       <c r="D407" t="s">
-        <v>3133</v>
+        <v>3134</v>
       </c>
       <c r="E407" t="s">
         <v>1201</v>
@@ -18799,7 +18802,7 @@
       </c>
       <c r="C408"/>
       <c r="D408" t="s">
-        <v>3134</v>
+        <v>3135</v>
       </c>
       <c r="E408" t="s">
         <v>1204</v>
@@ -18817,7 +18820,7 @@
       </c>
       <c r="C409"/>
       <c r="D409" t="s">
-        <v>3135</v>
+        <v>3136</v>
       </c>
       <c r="E409" t="s">
         <v>1207</v>
@@ -18835,7 +18838,7 @@
       </c>
       <c r="C410"/>
       <c r="D410" t="s">
-        <v>3136</v>
+        <v>3137</v>
       </c>
       <c r="E410" t="s">
         <v>1210</v>
@@ -18853,7 +18856,7 @@
       </c>
       <c r="C411"/>
       <c r="D411" t="s">
-        <v>3137</v>
+        <v>3138</v>
       </c>
       <c r="E411" t="s">
         <v>1213</v>
@@ -18871,7 +18874,7 @@
       </c>
       <c r="C412"/>
       <c r="D412" t="s">
-        <v>3138</v>
+        <v>3139</v>
       </c>
       <c r="E412" t="s">
         <v>1216</v>
@@ -18889,7 +18892,7 @@
       </c>
       <c r="C413"/>
       <c r="D413" t="s">
-        <v>3139</v>
+        <v>3140</v>
       </c>
       <c r="E413" t="s">
         <v>1219</v>
@@ -18907,7 +18910,7 @@
       </c>
       <c r="C414"/>
       <c r="D414" t="s">
-        <v>3140</v>
+        <v>3141</v>
       </c>
       <c r="E414" t="s">
         <v>1222</v>
@@ -18925,7 +18928,7 @@
       </c>
       <c r="C415"/>
       <c r="D415" t="s">
-        <v>3141</v>
+        <v>3142</v>
       </c>
       <c r="E415" t="s">
         <v>1225</v>
@@ -18943,7 +18946,7 @@
       </c>
       <c r="C416"/>
       <c r="D416" t="s">
-        <v>3142</v>
+        <v>3143</v>
       </c>
       <c r="E416" t="s">
         <v>1228</v>
@@ -18961,7 +18964,7 @@
       </c>
       <c r="C417"/>
       <c r="D417" t="s">
-        <v>3143</v>
+        <v>3144</v>
       </c>
       <c r="E417" t="s">
         <v>1231</v>
@@ -18979,7 +18982,7 @@
       </c>
       <c r="C418"/>
       <c r="D418" t="s">
-        <v>3144</v>
+        <v>3145</v>
       </c>
       <c r="E418" t="s">
         <v>1234</v>
@@ -18997,7 +19000,7 @@
       </c>
       <c r="C419"/>
       <c r="D419" t="s">
-        <v>3145</v>
+        <v>3146</v>
       </c>
       <c r="E419" t="s">
         <v>1237</v>
@@ -19015,7 +19018,7 @@
       </c>
       <c r="C420"/>
       <c r="D420" t="s">
-        <v>3146</v>
+        <v>3147</v>
       </c>
       <c r="E420" t="s">
         <v>1240</v>
@@ -19033,7 +19036,7 @@
       </c>
       <c r="C421"/>
       <c r="D421" t="s">
-        <v>3147</v>
+        <v>3148</v>
       </c>
       <c r="E421" t="s">
         <v>1243</v>
@@ -19051,7 +19054,7 @@
       </c>
       <c r="C422"/>
       <c r="D422" t="s">
-        <v>3148</v>
+        <v>3149</v>
       </c>
       <c r="E422" t="s">
         <v>1243</v>
@@ -19069,7 +19072,7 @@
       </c>
       <c r="C423"/>
       <c r="D423" t="s">
-        <v>3149</v>
+        <v>3150</v>
       </c>
       <c r="E423" t="s">
         <v>1248</v>
@@ -19087,7 +19090,7 @@
       </c>
       <c r="C424"/>
       <c r="D424" t="s">
-        <v>3150</v>
+        <v>3151</v>
       </c>
       <c r="E424" t="s">
         <v>1251</v>
@@ -19105,7 +19108,7 @@
       </c>
       <c r="C425"/>
       <c r="D425" t="s">
-        <v>3151</v>
+        <v>3152</v>
       </c>
       <c r="E425" t="s">
         <v>1254</v>
@@ -19123,7 +19126,7 @@
       </c>
       <c r="C426"/>
       <c r="D426" t="s">
-        <v>3152</v>
+        <v>3153</v>
       </c>
       <c r="E426" t="s">
         <v>1257</v>
@@ -19141,7 +19144,7 @@
       </c>
       <c r="C427"/>
       <c r="D427" t="s">
-        <v>3153</v>
+        <v>3154</v>
       </c>
       <c r="E427" t="s">
         <v>1260</v>
@@ -19159,7 +19162,7 @@
       </c>
       <c r="C428"/>
       <c r="D428" t="s">
-        <v>3154</v>
+        <v>3155</v>
       </c>
       <c r="E428" t="s">
         <v>1263</v>
@@ -19177,7 +19180,7 @@
       </c>
       <c r="C429"/>
       <c r="D429" t="s">
-        <v>3155</v>
+        <v>3156</v>
       </c>
       <c r="E429" t="s">
         <v>1266</v>
@@ -19195,7 +19198,7 @@
       </c>
       <c r="C430"/>
       <c r="D430" t="s">
-        <v>3156</v>
+        <v>3157</v>
       </c>
       <c r="E430" t="s">
         <v>1269</v>
@@ -19213,7 +19216,7 @@
       </c>
       <c r="C431"/>
       <c r="D431" t="s">
-        <v>3157</v>
+        <v>3158</v>
       </c>
       <c r="E431" t="s">
         <v>1272</v>
@@ -19231,7 +19234,7 @@
       </c>
       <c r="C432"/>
       <c r="D432" t="s">
-        <v>3158</v>
+        <v>3159</v>
       </c>
       <c r="E432" t="s">
         <v>1275</v>
@@ -19249,7 +19252,7 @@
       </c>
       <c r="C433"/>
       <c r="D433" t="s">
-        <v>3159</v>
+        <v>3160</v>
       </c>
       <c r="E433" t="s">
         <v>1275</v>
@@ -19267,7 +19270,7 @@
       </c>
       <c r="C434"/>
       <c r="D434" t="s">
-        <v>3159</v>
+        <v>3160</v>
       </c>
       <c r="E434" t="s">
         <v>1275</v>
@@ -19285,7 +19288,7 @@
       </c>
       <c r="C435"/>
       <c r="D435" t="s">
-        <v>3160</v>
+        <v>3161</v>
       </c>
       <c r="E435" t="s">
         <v>1281</v>
@@ -19303,7 +19306,7 @@
       </c>
       <c r="C436"/>
       <c r="D436" t="s">
-        <v>3161</v>
+        <v>3162</v>
       </c>
       <c r="E436" t="s">
         <v>1284</v>
@@ -19321,7 +19324,7 @@
       </c>
       <c r="C437"/>
       <c r="D437" t="s">
-        <v>3162</v>
+        <v>3163</v>
       </c>
       <c r="E437" t="s">
         <v>1287</v>
@@ -19339,7 +19342,7 @@
       </c>
       <c r="C438"/>
       <c r="D438" t="s">
-        <v>3163</v>
+        <v>3164</v>
       </c>
       <c r="E438" t="s">
         <v>1290</v>
@@ -19357,7 +19360,7 @@
       </c>
       <c r="C439"/>
       <c r="D439" t="s">
-        <v>3164</v>
+        <v>3165</v>
       </c>
       <c r="E439" t="s">
         <v>1293</v>
@@ -19375,7 +19378,7 @@
       </c>
       <c r="C440"/>
       <c r="D440" t="s">
-        <v>3165</v>
+        <v>3166</v>
       </c>
       <c r="E440" t="s">
         <v>1296</v>
@@ -19393,7 +19396,7 @@
       </c>
       <c r="C441"/>
       <c r="D441" t="s">
-        <v>3166</v>
+        <v>3167</v>
       </c>
       <c r="E441" t="s">
         <v>1281</v>
@@ -19411,7 +19414,7 @@
       </c>
       <c r="C442"/>
       <c r="D442" t="s">
-        <v>3167</v>
+        <v>3168</v>
       </c>
       <c r="E442" t="s">
         <v>1301</v>
@@ -19429,7 +19432,7 @@
       </c>
       <c r="C443"/>
       <c r="D443" t="s">
-        <v>3168</v>
+        <v>3169</v>
       </c>
       <c r="E443" t="s">
         <v>1304</v>
@@ -19447,7 +19450,7 @@
       </c>
       <c r="C444"/>
       <c r="D444" t="s">
-        <v>3169</v>
+        <v>3170</v>
       </c>
       <c r="E444" t="s">
         <v>1307</v>
@@ -19465,7 +19468,7 @@
       </c>
       <c r="C445"/>
       <c r="D445" t="s">
-        <v>3170</v>
+        <v>3171</v>
       </c>
       <c r="E445" t="s">
         <v>1310</v>
@@ -19483,7 +19486,7 @@
       </c>
       <c r="C446"/>
       <c r="D446" t="s">
-        <v>3171</v>
+        <v>3172</v>
       </c>
       <c r="E446" t="s">
         <v>1313</v>
@@ -19501,7 +19504,7 @@
       </c>
       <c r="C447"/>
       <c r="D447" t="s">
-        <v>3172</v>
+        <v>3173</v>
       </c>
       <c r="E447" t="s">
         <v>1316</v>
@@ -19519,7 +19522,7 @@
       </c>
       <c r="C448"/>
       <c r="D448" t="s">
-        <v>3173</v>
+        <v>3174</v>
       </c>
       <c r="E448" t="s">
         <v>1319</v>
@@ -19537,7 +19540,7 @@
       </c>
       <c r="C449"/>
       <c r="D449" t="s">
-        <v>3174</v>
+        <v>3175</v>
       </c>
       <c r="E449" t="s">
         <v>1319</v>
@@ -19555,7 +19558,7 @@
       </c>
       <c r="C450"/>
       <c r="D450" t="s">
-        <v>3175</v>
+        <v>3176</v>
       </c>
       <c r="E450" t="s">
         <v>1324</v>
@@ -19573,7 +19576,7 @@
       </c>
       <c r="C451"/>
       <c r="D451" t="s">
-        <v>3176</v>
+        <v>3177</v>
       </c>
       <c r="E451" t="s">
         <v>1327</v>
@@ -19591,7 +19594,7 @@
       </c>
       <c r="C452"/>
       <c r="D452" t="s">
-        <v>3177</v>
+        <v>3178</v>
       </c>
       <c r="E452" t="s">
         <v>1330</v>
@@ -19609,7 +19612,7 @@
       </c>
       <c r="C453"/>
       <c r="D453" t="s">
-        <v>3178</v>
+        <v>3179</v>
       </c>
       <c r="E453" t="s">
         <v>1333</v>
@@ -19627,7 +19630,7 @@
       </c>
       <c r="C454"/>
       <c r="D454" t="s">
-        <v>3179</v>
+        <v>3180</v>
       </c>
       <c r="E454" t="s">
         <v>1336</v>
@@ -19645,7 +19648,7 @@
       </c>
       <c r="C455"/>
       <c r="D455" t="s">
-        <v>3180</v>
+        <v>3181</v>
       </c>
       <c r="E455" t="s">
         <v>1339</v>
@@ -19663,7 +19666,7 @@
       </c>
       <c r="C456"/>
       <c r="D456" t="s">
-        <v>3181</v>
+        <v>3182</v>
       </c>
       <c r="E456" t="s">
         <v>1342</v>
@@ -19681,7 +19684,7 @@
       </c>
       <c r="C457"/>
       <c r="D457" t="s">
-        <v>3182</v>
+        <v>3183</v>
       </c>
       <c r="E457" t="s">
         <v>1345</v>
@@ -19699,7 +19702,7 @@
       </c>
       <c r="C458"/>
       <c r="D458" t="s">
-        <v>3183</v>
+        <v>3184</v>
       </c>
       <c r="E458" t="s">
         <v>1348</v>
@@ -19717,7 +19720,7 @@
       </c>
       <c r="C459"/>
       <c r="D459" t="s">
-        <v>3184</v>
+        <v>3185</v>
       </c>
       <c r="E459" t="s">
         <v>1351</v>
@@ -19735,7 +19738,7 @@
       </c>
       <c r="C460"/>
       <c r="D460" t="s">
-        <v>3185</v>
+        <v>3186</v>
       </c>
       <c r="E460" t="s">
         <v>1354</v>
@@ -19753,7 +19756,7 @@
       </c>
       <c r="C461"/>
       <c r="D461" t="s">
-        <v>3186</v>
+        <v>3187</v>
       </c>
       <c r="E461" t="s">
         <v>1357</v>
@@ -19771,7 +19774,7 @@
       </c>
       <c r="C462"/>
       <c r="D462" t="s">
-        <v>3187</v>
+        <v>3188</v>
       </c>
       <c r="E462" t="s">
         <v>1360</v>
@@ -19789,7 +19792,7 @@
       </c>
       <c r="C463"/>
       <c r="D463" t="s">
-        <v>3188</v>
+        <v>3189</v>
       </c>
       <c r="E463" t="s">
         <v>1363</v>
@@ -19807,7 +19810,7 @@
       </c>
       <c r="C464"/>
       <c r="D464" t="s">
-        <v>3189</v>
+        <v>3190</v>
       </c>
       <c r="E464" t="s">
         <v>1366</v>
@@ -19825,7 +19828,7 @@
       </c>
       <c r="C465"/>
       <c r="D465" t="s">
-        <v>3190</v>
+        <v>3191</v>
       </c>
       <c r="E465" t="s">
         <v>1369</v>
@@ -19843,7 +19846,7 @@
       </c>
       <c r="C466"/>
       <c r="D466" t="s">
-        <v>3191</v>
+        <v>3192</v>
       </c>
       <c r="E466" t="s">
         <v>1372</v>
@@ -19861,7 +19864,7 @@
       </c>
       <c r="C467"/>
       <c r="D467" t="s">
-        <v>3192</v>
+        <v>3193</v>
       </c>
       <c r="E467" t="s">
         <v>1375</v>
@@ -19879,7 +19882,7 @@
       </c>
       <c r="C468"/>
       <c r="D468" t="s">
-        <v>3193</v>
+        <v>3194</v>
       </c>
       <c r="E468" t="s">
         <v>1378</v>
@@ -19897,7 +19900,7 @@
       </c>
       <c r="C469"/>
       <c r="D469" t="s">
-        <v>3194</v>
+        <v>3195</v>
       </c>
       <c r="E469" t="s">
         <v>1381</v>
@@ -19915,7 +19918,7 @@
       </c>
       <c r="C470"/>
       <c r="D470" t="s">
-        <v>3195</v>
+        <v>3196</v>
       </c>
       <c r="E470" t="s">
         <v>1384</v>
@@ -19933,7 +19936,7 @@
       </c>
       <c r="C471"/>
       <c r="D471" t="s">
-        <v>3196</v>
+        <v>3197</v>
       </c>
       <c r="E471" t="s">
         <v>1387</v>
@@ -19951,7 +19954,7 @@
       </c>
       <c r="C472"/>
       <c r="D472" t="s">
-        <v>3197</v>
+        <v>3198</v>
       </c>
       <c r="E472" t="s">
         <v>1390</v>
@@ -19969,7 +19972,7 @@
       </c>
       <c r="C473"/>
       <c r="D473" t="s">
-        <v>3198</v>
+        <v>3199</v>
       </c>
       <c r="E473" t="s">
         <v>1393</v>
@@ -19987,7 +19990,7 @@
       </c>
       <c r="C474"/>
       <c r="D474" t="s">
-        <v>3199</v>
+        <v>3200</v>
       </c>
       <c r="E474" t="s">
         <v>1396</v>
@@ -20005,7 +20008,7 @@
       </c>
       <c r="C475"/>
       <c r="D475" t="s">
-        <v>3200</v>
+        <v>3201</v>
       </c>
       <c r="E475" t="s">
         <v>1399</v>
@@ -20023,7 +20026,7 @@
       </c>
       <c r="C476"/>
       <c r="D476" t="s">
-        <v>3201</v>
+        <v>3202</v>
       </c>
       <c r="E476" t="s">
         <v>1402</v>
@@ -20041,7 +20044,7 @@
       </c>
       <c r="C477"/>
       <c r="D477" t="s">
-        <v>3202</v>
+        <v>3203</v>
       </c>
       <c r="E477" t="s">
         <v>1405</v>
@@ -20059,7 +20062,7 @@
       </c>
       <c r="C478"/>
       <c r="D478" t="s">
-        <v>3203</v>
+        <v>3204</v>
       </c>
       <c r="E478" t="s">
         <v>1408</v>
@@ -20077,7 +20080,7 @@
       </c>
       <c r="C479"/>
       <c r="D479" t="s">
-        <v>3204</v>
+        <v>3205</v>
       </c>
       <c r="E479" t="s">
         <v>1411</v>
@@ -20095,7 +20098,7 @@
       </c>
       <c r="C480"/>
       <c r="D480" t="s">
-        <v>3205</v>
+        <v>3206</v>
       </c>
       <c r="E480" t="s">
         <v>1414</v>
@@ -20113,7 +20116,7 @@
       </c>
       <c r="C481"/>
       <c r="D481" t="s">
-        <v>3206</v>
+        <v>3207</v>
       </c>
       <c r="E481" t="s">
         <v>1417</v>
@@ -20131,7 +20134,7 @@
       </c>
       <c r="C482"/>
       <c r="D482" t="s">
-        <v>3207</v>
+        <v>3208</v>
       </c>
       <c r="E482" t="s">
         <v>1420</v>
@@ -20149,7 +20152,7 @@
       </c>
       <c r="C483"/>
       <c r="D483" t="s">
-        <v>3208</v>
+        <v>3209</v>
       </c>
       <c r="E483" t="s">
         <v>1423</v>
@@ -20167,7 +20170,7 @@
       </c>
       <c r="C484"/>
       <c r="D484" t="s">
-        <v>3209</v>
+        <v>3210</v>
       </c>
       <c r="E484" t="s">
         <v>1426</v>
@@ -20185,7 +20188,7 @@
       </c>
       <c r="C485"/>
       <c r="D485" t="s">
-        <v>3210</v>
+        <v>3211</v>
       </c>
       <c r="E485" t="s">
         <v>1429</v>
@@ -20203,7 +20206,7 @@
       </c>
       <c r="C486"/>
       <c r="D486" t="s">
-        <v>3211</v>
+        <v>3212</v>
       </c>
       <c r="E486" t="s">
         <v>1432</v>
@@ -20221,7 +20224,7 @@
       </c>
       <c r="C487"/>
       <c r="D487" t="s">
-        <v>3212</v>
+        <v>3213</v>
       </c>
       <c r="E487" t="s">
         <v>1435</v>
@@ -20239,7 +20242,7 @@
       </c>
       <c r="C488"/>
       <c r="D488" t="s">
-        <v>3213</v>
+        <v>3214</v>
       </c>
       <c r="E488" t="s">
         <v>1438</v>
@@ -20257,7 +20260,7 @@
       </c>
       <c r="C489"/>
       <c r="D489" t="s">
-        <v>3214</v>
+        <v>3215</v>
       </c>
       <c r="E489" t="s">
         <v>1441</v>
@@ -20275,7 +20278,7 @@
       </c>
       <c r="C490"/>
       <c r="D490" t="s">
-        <v>3215</v>
+        <v>3216</v>
       </c>
       <c r="E490" t="s">
         <v>1444</v>
@@ -20293,7 +20296,7 @@
       </c>
       <c r="C491"/>
       <c r="D491" t="s">
-        <v>3216</v>
+        <v>3217</v>
       </c>
       <c r="E491" t="s">
         <v>1447</v>
@@ -20311,7 +20314,7 @@
       </c>
       <c r="C492"/>
       <c r="D492" t="s">
-        <v>3217</v>
+        <v>3218</v>
       </c>
       <c r="E492" t="s">
         <v>1450</v>
@@ -20329,7 +20332,7 @@
       </c>
       <c r="C493"/>
       <c r="D493" t="s">
-        <v>3218</v>
+        <v>3219</v>
       </c>
       <c r="E493" t="s">
         <v>1453</v>
@@ -20349,7 +20352,7 @@
         <v>367</v>
       </c>
       <c r="D494" t="s">
-        <v>3219</v>
+        <v>3220</v>
       </c>
       <c r="E494" t="s">
         <v>1456</v>
@@ -20369,7 +20372,7 @@
         <v>367</v>
       </c>
       <c r="D495" t="s">
-        <v>3220</v>
+        <v>3221</v>
       </c>
       <c r="E495" t="s">
         <v>1459</v>
@@ -20387,7 +20390,7 @@
       </c>
       <c r="C496"/>
       <c r="D496" t="s">
-        <v>3221</v>
+        <v>3222</v>
       </c>
       <c r="E496" t="s">
         <v>1462</v>
@@ -20405,7 +20408,7 @@
       </c>
       <c r="C497"/>
       <c r="D497" t="s">
-        <v>3222</v>
+        <v>3223</v>
       </c>
       <c r="E497" t="s">
         <v>1465</v>
@@ -20423,7 +20426,7 @@
       </c>
       <c r="C498"/>
       <c r="D498" t="s">
-        <v>3223</v>
+        <v>3224</v>
       </c>
       <c r="E498" t="s">
         <v>1468</v>
@@ -20441,7 +20444,7 @@
       </c>
       <c r="C499"/>
       <c r="D499" t="s">
-        <v>3224</v>
+        <v>3225</v>
       </c>
       <c r="E499" t="s">
         <v>1471</v>
@@ -20459,7 +20462,7 @@
       </c>
       <c r="C500"/>
       <c r="D500" t="s">
-        <v>3225</v>
+        <v>3226</v>
       </c>
       <c r="E500" t="s">
         <v>1474</v>
@@ -20477,7 +20480,7 @@
       </c>
       <c r="C501"/>
       <c r="D501" t="s">
-        <v>3226</v>
+        <v>3227</v>
       </c>
       <c r="E501" t="s">
         <v>1477</v>
@@ -20495,7 +20498,7 @@
       </c>
       <c r="C502"/>
       <c r="D502" t="s">
-        <v>3227</v>
+        <v>3228</v>
       </c>
       <c r="E502" t="s">
         <v>1480</v>
@@ -20513,7 +20516,7 @@
       </c>
       <c r="C503"/>
       <c r="D503" t="s">
-        <v>3228</v>
+        <v>3229</v>
       </c>
       <c r="E503" t="s">
         <v>1483</v>
@@ -20533,7 +20536,7 @@
         <v>1486</v>
       </c>
       <c r="D504" t="s">
-        <v>3229</v>
+        <v>3230</v>
       </c>
       <c r="E504" t="s">
         <v>1487</v>
@@ -20551,7 +20554,7 @@
       </c>
       <c r="C505"/>
       <c r="D505" t="s">
-        <v>3230</v>
+        <v>3231</v>
       </c>
       <c r="E505" t="s">
         <v>1490</v>
@@ -20569,7 +20572,7 @@
       </c>
       <c r="C506"/>
       <c r="D506" t="s">
-        <v>3231</v>
+        <v>3232</v>
       </c>
       <c r="E506" t="s">
         <v>1493</v>
@@ -20587,7 +20590,7 @@
       </c>
       <c r="C507"/>
       <c r="D507" t="s">
-        <v>2861</v>
+        <v>2862</v>
       </c>
       <c r="E507" t="s">
         <v>364</v>
@@ -20605,7 +20608,7 @@
       </c>
       <c r="C508"/>
       <c r="D508" t="s">
-        <v>3232</v>
+        <v>3233</v>
       </c>
       <c r="E508" t="s">
         <v>1497</v>
@@ -20623,7 +20626,7 @@
       </c>
       <c r="C509"/>
       <c r="D509" t="s">
-        <v>3233</v>
+        <v>3234</v>
       </c>
       <c r="E509" t="s">
         <v>1500</v>
@@ -20641,7 +20644,7 @@
       </c>
       <c r="C510"/>
       <c r="D510" t="s">
-        <v>3234</v>
+        <v>3235</v>
       </c>
       <c r="E510" t="s">
         <v>1503</v>
@@ -20659,7 +20662,7 @@
       </c>
       <c r="C511"/>
       <c r="D511" t="s">
-        <v>3235</v>
+        <v>3236</v>
       </c>
       <c r="E511" t="s">
         <v>1506</v>
@@ -20677,7 +20680,7 @@
       </c>
       <c r="C512"/>
       <c r="D512" t="s">
-        <v>3236</v>
+        <v>3237</v>
       </c>
       <c r="E512" t="s">
         <v>1509</v>
@@ -20695,7 +20698,7 @@
       </c>
       <c r="C513"/>
       <c r="D513" t="s">
-        <v>3237</v>
+        <v>3238</v>
       </c>
       <c r="E513" t="s">
         <v>1512</v>
@@ -20713,7 +20716,7 @@
       </c>
       <c r="C514"/>
       <c r="D514" t="s">
-        <v>3238</v>
+        <v>3239</v>
       </c>
       <c r="E514" t="s">
         <v>1515</v>
@@ -20731,7 +20734,7 @@
       </c>
       <c r="C515"/>
       <c r="D515" t="s">
-        <v>3239</v>
+        <v>3240</v>
       </c>
       <c r="E515" t="s">
         <v>1518</v>
@@ -20749,7 +20752,7 @@
       </c>
       <c r="C516"/>
       <c r="D516" t="s">
-        <v>3240</v>
+        <v>3241</v>
       </c>
       <c r="E516" t="s">
         <v>1521</v>
@@ -20767,7 +20770,7 @@
       </c>
       <c r="C517"/>
       <c r="D517" t="s">
-        <v>3241</v>
+        <v>3242</v>
       </c>
       <c r="E517" t="s">
         <v>1524</v>
@@ -20785,7 +20788,7 @@
       </c>
       <c r="C518"/>
       <c r="D518" t="s">
-        <v>3242</v>
+        <v>3243</v>
       </c>
       <c r="E518" t="s">
         <v>1527</v>
@@ -20803,7 +20806,7 @@
       </c>
       <c r="C519"/>
       <c r="D519" t="s">
-        <v>3243</v>
+        <v>3244</v>
       </c>
       <c r="E519" t="s">
         <v>1530</v>
@@ -20821,7 +20824,7 @@
       </c>
       <c r="C520"/>
       <c r="D520" t="s">
-        <v>3244</v>
+        <v>3245</v>
       </c>
       <c r="E520" t="s">
         <v>1533</v>
@@ -20839,7 +20842,7 @@
       </c>
       <c r="C521"/>
       <c r="D521" t="s">
-        <v>3245</v>
+        <v>3246</v>
       </c>
       <c r="E521" t="s">
         <v>1177</v>
@@ -20857,7 +20860,7 @@
       </c>
       <c r="C522"/>
       <c r="D522" t="s">
-        <v>3246</v>
+        <v>3247</v>
       </c>
       <c r="E522" t="s">
         <v>1538</v>
@@ -20875,7 +20878,7 @@
       </c>
       <c r="C523"/>
       <c r="D523" t="s">
-        <v>3247</v>
+        <v>3248</v>
       </c>
       <c r="E523" t="s">
         <v>1541</v>
@@ -20893,7 +20896,7 @@
       </c>
       <c r="C524"/>
       <c r="D524" t="s">
-        <v>3248</v>
+        <v>3249</v>
       </c>
       <c r="E524" t="s">
         <v>1544</v>
@@ -20911,7 +20914,7 @@
       </c>
       <c r="C525"/>
       <c r="D525" t="s">
-        <v>3249</v>
+        <v>3250</v>
       </c>
       <c r="E525" t="s">
         <v>1547</v>
@@ -20929,7 +20932,7 @@
       </c>
       <c r="C526"/>
       <c r="D526" t="s">
-        <v>3250</v>
+        <v>3251</v>
       </c>
       <c r="E526" t="s">
         <v>1550</v>
@@ -20947,7 +20950,7 @@
       </c>
       <c r="C527"/>
       <c r="D527" t="s">
-        <v>3251</v>
+        <v>3252</v>
       </c>
       <c r="E527" t="s">
         <v>1553</v>
@@ -20965,7 +20968,7 @@
       </c>
       <c r="C528"/>
       <c r="D528" t="s">
-        <v>3252</v>
+        <v>3253</v>
       </c>
       <c r="E528" t="s">
         <v>1556</v>
@@ -20983,7 +20986,7 @@
       </c>
       <c r="C529"/>
       <c r="D529" t="s">
-        <v>3253</v>
+        <v>3254</v>
       </c>
       <c r="E529" t="s">
         <v>1559</v>
@@ -21001,7 +21004,7 @@
       </c>
       <c r="C530"/>
       <c r="D530" t="s">
-        <v>3254</v>
+        <v>3255</v>
       </c>
       <c r="E530" t="s">
         <v>1562</v>
@@ -21019,7 +21022,7 @@
       </c>
       <c r="C531"/>
       <c r="D531" t="s">
-        <v>3255</v>
+        <v>3256</v>
       </c>
       <c r="E531" t="s">
         <v>1565</v>
@@ -21037,7 +21040,7 @@
       </c>
       <c r="C532"/>
       <c r="D532" t="s">
-        <v>3256</v>
+        <v>3257</v>
       </c>
       <c r="E532" t="s">
         <v>1568</v>
@@ -21055,7 +21058,7 @@
       </c>
       <c r="C533"/>
       <c r="D533" t="s">
-        <v>3257</v>
+        <v>3258</v>
       </c>
       <c r="E533" t="s">
         <v>1571</v>
@@ -21075,7 +21078,7 @@
         <v>1574</v>
       </c>
       <c r="D534" t="s">
-        <v>3258</v>
+        <v>3259</v>
       </c>
       <c r="E534" t="s">
         <v>1575</v>
@@ -21095,7 +21098,7 @@
         <v>1574</v>
       </c>
       <c r="D535" t="s">
-        <v>3259</v>
+        <v>3260</v>
       </c>
       <c r="E535" t="s">
         <v>1578</v>
@@ -21115,7 +21118,7 @@
         <v>1574</v>
       </c>
       <c r="D536" t="s">
-        <v>3260</v>
+        <v>3261</v>
       </c>
       <c r="E536" t="s">
         <v>1581</v>
@@ -21135,7 +21138,7 @@
         <v>1574</v>
       </c>
       <c r="D537" t="s">
-        <v>3261</v>
+        <v>3262</v>
       </c>
       <c r="E537" t="s">
         <v>1584</v>
@@ -21155,7 +21158,7 @@
         <v>1574</v>
       </c>
       <c r="D538" t="s">
-        <v>3262</v>
+        <v>3263</v>
       </c>
       <c r="E538" t="s">
         <v>1587</v>
@@ -21175,7 +21178,7 @@
         <v>1574</v>
       </c>
       <c r="D539" t="s">
-        <v>3263</v>
+        <v>3264</v>
       </c>
       <c r="E539" t="s">
         <v>1590</v>
@@ -21195,7 +21198,7 @@
         <v>1574</v>
       </c>
       <c r="D540" t="s">
-        <v>3264</v>
+        <v>3265</v>
       </c>
       <c r="E540" t="s">
         <v>1593</v>
@@ -21215,7 +21218,7 @@
         <v>1574</v>
       </c>
       <c r="D541" t="s">
-        <v>3265</v>
+        <v>3266</v>
       </c>
       <c r="E541" t="s">
         <v>1596</v>
@@ -21235,7 +21238,7 @@
         <v>1574</v>
       </c>
       <c r="D542" t="s">
-        <v>3266</v>
+        <v>3267</v>
       </c>
       <c r="E542" t="s">
         <v>1599</v>
@@ -21255,7 +21258,7 @@
         <v>1574</v>
       </c>
       <c r="D543" t="s">
-        <v>3267</v>
+        <v>3268</v>
       </c>
       <c r="E543" t="s">
         <v>1602</v>
@@ -21275,7 +21278,7 @@
         <v>1574</v>
       </c>
       <c r="D544" t="s">
-        <v>3268</v>
+        <v>3269</v>
       </c>
       <c r="E544" t="s">
         <v>1605</v>
@@ -21295,7 +21298,7 @@
         <v>1574</v>
       </c>
       <c r="D545" t="s">
-        <v>3269</v>
+        <v>3270</v>
       </c>
       <c r="E545" t="s">
         <v>1608</v>
@@ -21315,7 +21318,7 @@
         <v>1574</v>
       </c>
       <c r="D546" t="s">
-        <v>3270</v>
+        <v>3271</v>
       </c>
       <c r="E546" t="s">
         <v>1611</v>
@@ -21335,7 +21338,7 @@
         <v>1574</v>
       </c>
       <c r="D547" t="s">
-        <v>3271</v>
+        <v>3272</v>
       </c>
       <c r="E547" t="s">
         <v>1614</v>
@@ -21355,7 +21358,7 @@
         <v>1574</v>
       </c>
       <c r="D548" t="s">
-        <v>3272</v>
+        <v>3273</v>
       </c>
       <c r="E548" t="s">
         <v>1617</v>
@@ -21375,7 +21378,7 @@
         <v>1574</v>
       </c>
       <c r="D549" t="s">
-        <v>3273</v>
+        <v>3274</v>
       </c>
       <c r="E549" t="s">
         <v>1620</v>
@@ -21395,7 +21398,7 @@
         <v>1623</v>
       </c>
       <c r="D550" t="s">
-        <v>3274</v>
+        <v>3275</v>
       </c>
       <c r="E550" t="s">
         <v>1624</v>
@@ -21415,7 +21418,7 @@
         <v>1574</v>
       </c>
       <c r="D551" t="s">
-        <v>3275</v>
+        <v>3276</v>
       </c>
       <c r="E551" t="s">
         <v>1627</v>
@@ -21435,7 +21438,7 @@
         <v>1574</v>
       </c>
       <c r="D552" t="s">
-        <v>3276</v>
+        <v>3277</v>
       </c>
       <c r="E552" t="s">
         <v>1630</v>
@@ -21455,7 +21458,7 @@
         <v>1574</v>
       </c>
       <c r="D553" t="s">
-        <v>3277</v>
+        <v>3278</v>
       </c>
       <c r="E553" t="s">
         <v>1633</v>
@@ -21473,7 +21476,7 @@
       </c>
       <c r="C554"/>
       <c r="D554" t="s">
-        <v>3278</v>
+        <v>3279</v>
       </c>
       <c r="E554" t="s">
         <v>1636</v>
@@ -21491,7 +21494,7 @@
       </c>
       <c r="C555"/>
       <c r="D555" t="s">
-        <v>3279</v>
+        <v>3280</v>
       </c>
       <c r="E555" t="s">
         <v>1639</v>
@@ -21509,7 +21512,7 @@
       </c>
       <c r="C556"/>
       <c r="D556" t="s">
-        <v>3280</v>
+        <v>3281</v>
       </c>
       <c r="E556" t="s">
         <v>1642</v>
@@ -21527,7 +21530,7 @@
       </c>
       <c r="C557"/>
       <c r="D557" t="s">
-        <v>3281</v>
+        <v>3282</v>
       </c>
       <c r="E557" t="s">
         <v>1645</v>
@@ -21545,7 +21548,7 @@
       </c>
       <c r="C558"/>
       <c r="D558" t="s">
-        <v>3282</v>
+        <v>3283</v>
       </c>
       <c r="E558" t="s">
         <v>1648</v>
@@ -21563,7 +21566,7 @@
       </c>
       <c r="C559"/>
       <c r="D559" t="s">
-        <v>3283</v>
+        <v>3284</v>
       </c>
       <c r="E559" t="s">
         <v>1651</v>
@@ -21581,7 +21584,7 @@
       </c>
       <c r="C560"/>
       <c r="D560" t="s">
-        <v>3284</v>
+        <v>3285</v>
       </c>
       <c r="E560" t="s">
         <v>1654</v>
@@ -21599,7 +21602,7 @@
       </c>
       <c r="C561"/>
       <c r="D561" t="s">
-        <v>3285</v>
+        <v>3286</v>
       </c>
       <c r="E561" t="s">
         <v>1657</v>
@@ -21617,7 +21620,7 @@
       </c>
       <c r="C562"/>
       <c r="D562" t="s">
-        <v>3286</v>
+        <v>3287</v>
       </c>
       <c r="E562" t="s">
         <v>1660</v>
@@ -21635,7 +21638,7 @@
       </c>
       <c r="C563"/>
       <c r="D563" t="s">
-        <v>3287</v>
+        <v>3288</v>
       </c>
       <c r="E563" t="s">
         <v>1663</v>
@@ -21653,7 +21656,7 @@
       </c>
       <c r="C564"/>
       <c r="D564" t="s">
-        <v>3288</v>
+        <v>3289</v>
       </c>
       <c r="E564" t="s">
         <v>1666</v>
@@ -21671,7 +21674,7 @@
       </c>
       <c r="C565"/>
       <c r="D565" t="s">
-        <v>3289</v>
+        <v>3290</v>
       </c>
       <c r="E565" t="s">
         <v>1669</v>
@@ -21689,7 +21692,7 @@
       </c>
       <c r="C566"/>
       <c r="D566" t="s">
-        <v>3290</v>
+        <v>3291</v>
       </c>
       <c r="E566" t="s">
         <v>1672</v>
@@ -21707,7 +21710,7 @@
       </c>
       <c r="C567"/>
       <c r="D567" t="s">
-        <v>3291</v>
+        <v>3292</v>
       </c>
       <c r="E567" t="s">
         <v>1675</v>
@@ -21725,7 +21728,7 @@
       </c>
       <c r="C568"/>
       <c r="D568" t="s">
-        <v>2853</v>
+        <v>2854</v>
       </c>
       <c r="E568" t="s">
         <v>1678</v>
@@ -21743,7 +21746,7 @@
       </c>
       <c r="C569"/>
       <c r="D569" t="s">
-        <v>3292</v>
+        <v>3293</v>
       </c>
       <c r="E569" t="s">
         <v>1681</v>
@@ -21761,7 +21764,7 @@
       </c>
       <c r="C570"/>
       <c r="D570" t="s">
-        <v>3293</v>
+        <v>3294</v>
       </c>
       <c r="E570" t="s">
         <v>1684</v>
@@ -21779,7 +21782,7 @@
       </c>
       <c r="C571"/>
       <c r="D571" t="s">
-        <v>3294</v>
+        <v>3295</v>
       </c>
       <c r="E571" t="s">
         <v>1687</v>
@@ -21797,7 +21800,7 @@
       </c>
       <c r="C572"/>
       <c r="D572" t="s">
-        <v>3295</v>
+        <v>3296</v>
       </c>
       <c r="E572" t="s">
         <v>1690</v>
@@ -21815,7 +21818,7 @@
       </c>
       <c r="C573"/>
       <c r="D573" t="s">
-        <v>3296</v>
+        <v>3297</v>
       </c>
       <c r="E573" t="s">
         <v>1693</v>
@@ -21833,7 +21836,7 @@
       </c>
       <c r="C574"/>
       <c r="D574" t="s">
-        <v>2917</v>
+        <v>2918</v>
       </c>
       <c r="E574" t="s">
         <v>1696</v>
@@ -21851,7 +21854,7 @@
       </c>
       <c r="C575"/>
       <c r="D575" t="s">
-        <v>3297</v>
+        <v>3298</v>
       </c>
       <c r="E575" t="s">
         <v>1698</v>
@@ -21869,7 +21872,7 @@
       </c>
       <c r="C576"/>
       <c r="D576" t="s">
-        <v>3298</v>
+        <v>3299</v>
       </c>
       <c r="E576" t="s">
         <v>1701</v>
@@ -21887,7 +21890,7 @@
       </c>
       <c r="C577"/>
       <c r="D577" t="s">
-        <v>3299</v>
+        <v>3300</v>
       </c>
       <c r="E577" t="s">
         <v>1704</v>
@@ -21905,7 +21908,7 @@
       </c>
       <c r="C578"/>
       <c r="D578" t="s">
-        <v>3300</v>
+        <v>3301</v>
       </c>
       <c r="E578" t="s">
         <v>1707</v>
@@ -21923,7 +21926,7 @@
       </c>
       <c r="C579"/>
       <c r="D579" t="s">
-        <v>3301</v>
+        <v>3302</v>
       </c>
       <c r="E579" t="s">
         <v>1710</v>
@@ -21941,7 +21944,7 @@
       </c>
       <c r="C580"/>
       <c r="D580" t="s">
-        <v>3302</v>
+        <v>3303</v>
       </c>
       <c r="E580" t="s">
         <v>1713</v>
@@ -21959,7 +21962,7 @@
       </c>
       <c r="C581"/>
       <c r="D581" t="s">
-        <v>3303</v>
+        <v>3304</v>
       </c>
       <c r="E581" t="s">
         <v>1716</v>
@@ -21977,7 +21980,7 @@
       </c>
       <c r="C582"/>
       <c r="D582" t="s">
-        <v>3304</v>
+        <v>3305</v>
       </c>
       <c r="E582" t="s">
         <v>1719</v>
@@ -21995,7 +21998,7 @@
       </c>
       <c r="C583"/>
       <c r="D583" t="s">
-        <v>3305</v>
+        <v>3306</v>
       </c>
       <c r="E583" t="s">
         <v>1722</v>
@@ -22013,7 +22016,7 @@
       </c>
       <c r="C584"/>
       <c r="D584" t="s">
-        <v>3306</v>
+        <v>3307</v>
       </c>
       <c r="E584" t="s">
         <v>1725</v>
@@ -22031,7 +22034,7 @@
       </c>
       <c r="C585"/>
       <c r="D585" t="s">
-        <v>3307</v>
+        <v>3308</v>
       </c>
       <c r="E585" t="s">
         <v>1728</v>
@@ -22049,7 +22052,7 @@
       </c>
       <c r="C586"/>
       <c r="D586" t="s">
-        <v>3308</v>
+        <v>3309</v>
       </c>
       <c r="E586" t="s">
         <v>1731</v>
@@ -22067,7 +22070,7 @@
       </c>
       <c r="C587"/>
       <c r="D587" t="s">
-        <v>3309</v>
+        <v>3310</v>
       </c>
       <c r="E587" t="s">
         <v>1734</v>
@@ -22087,7 +22090,7 @@
         <v>1737</v>
       </c>
       <c r="D588" t="s">
-        <v>3310</v>
+        <v>3311</v>
       </c>
       <c r="E588" t="s">
         <v>1738</v>
@@ -22127,7 +22130,7 @@
         <v>1737</v>
       </c>
       <c r="D590" t="s">
-        <v>3311</v>
+        <v>3312</v>
       </c>
       <c r="E590" t="s">
         <v>1744</v>
@@ -22167,7 +22170,7 @@
         <v>1737</v>
       </c>
       <c r="D592" t="s">
-        <v>3312</v>
+        <v>3313</v>
       </c>
       <c r="E592" t="s">
         <v>1748</v>
@@ -22207,7 +22210,7 @@
         <v>1737</v>
       </c>
       <c r="D594" t="s">
-        <v>3313</v>
+        <v>3314</v>
       </c>
       <c r="E594" t="s">
         <v>1752</v>
@@ -22225,7 +22228,7 @@
       </c>
       <c r="C595"/>
       <c r="D595" t="s">
-        <v>3314</v>
+        <v>3315</v>
       </c>
       <c r="E595" t="s">
         <v>1755</v>
@@ -22243,7 +22246,7 @@
       </c>
       <c r="C596"/>
       <c r="D596" t="s">
-        <v>3315</v>
+        <v>3316</v>
       </c>
       <c r="E596" t="s">
         <v>1758</v>
@@ -22261,7 +22264,7 @@
       </c>
       <c r="C597"/>
       <c r="D597" t="s">
-        <v>3147</v>
+        <v>3148</v>
       </c>
       <c r="E597" t="s">
         <v>1761</v>
@@ -22279,7 +22282,7 @@
       </c>
       <c r="C598"/>
       <c r="D598" t="s">
-        <v>3316</v>
+        <v>3317</v>
       </c>
       <c r="E598" t="s">
         <v>1764</v>
@@ -22297,7 +22300,7 @@
       </c>
       <c r="C599"/>
       <c r="D599" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
       <c r="E599" t="s">
         <v>1767</v>
@@ -22315,7 +22318,7 @@
       </c>
       <c r="C600"/>
       <c r="D600" t="s">
-        <v>3318</v>
+        <v>3319</v>
       </c>
       <c r="E600" t="s">
         <v>1770</v>
@@ -22333,7 +22336,7 @@
       </c>
       <c r="C601"/>
       <c r="D601" t="s">
-        <v>3319</v>
+        <v>3320</v>
       </c>
       <c r="E601" t="s">
         <v>1773</v>
@@ -22351,7 +22354,7 @@
       </c>
       <c r="C602"/>
       <c r="D602" t="s">
-        <v>3320</v>
+        <v>3321</v>
       </c>
       <c r="E602" t="s">
         <v>1776</v>
@@ -22369,7 +22372,7 @@
       </c>
       <c r="C603"/>
       <c r="D603" t="s">
-        <v>3321</v>
+        <v>3322</v>
       </c>
       <c r="E603" t="s">
         <v>1779</v>
@@ -22387,7 +22390,7 @@
       </c>
       <c r="C604"/>
       <c r="D604" t="s">
-        <v>3322</v>
+        <v>3323</v>
       </c>
       <c r="E604" t="s">
         <v>1782</v>
@@ -22405,7 +22408,7 @@
       </c>
       <c r="C605"/>
       <c r="D605" t="s">
-        <v>3323</v>
+        <v>3324</v>
       </c>
       <c r="E605" t="s">
         <v>1785</v>
@@ -22423,7 +22426,7 @@
       </c>
       <c r="C606"/>
       <c r="D606" t="s">
-        <v>3324</v>
+        <v>3325</v>
       </c>
       <c r="E606" t="s">
         <v>1788</v>
@@ -22441,7 +22444,7 @@
       </c>
       <c r="C607"/>
       <c r="D607" t="s">
-        <v>3325</v>
+        <v>3326</v>
       </c>
       <c r="E607" t="s">
         <v>1791</v>
@@ -22459,7 +22462,7 @@
       </c>
       <c r="C608"/>
       <c r="D608" t="s">
-        <v>3326</v>
+        <v>3327</v>
       </c>
       <c r="E608" t="s">
         <v>1794</v>
@@ -22477,7 +22480,7 @@
       </c>
       <c r="C609"/>
       <c r="D609" t="s">
-        <v>3327</v>
+        <v>3328</v>
       </c>
       <c r="E609" t="s">
         <v>1797</v>
@@ -22495,7 +22498,7 @@
       </c>
       <c r="C610"/>
       <c r="D610" t="s">
-        <v>3328</v>
+        <v>3329</v>
       </c>
       <c r="E610" t="s">
         <v>1800</v>
@@ -22513,7 +22516,7 @@
       </c>
       <c r="C611"/>
       <c r="D611" t="s">
-        <v>3329</v>
+        <v>3330</v>
       </c>
       <c r="E611" t="s">
         <v>1803</v>
@@ -22531,7 +22534,7 @@
       </c>
       <c r="C612"/>
       <c r="D612" t="s">
-        <v>3330</v>
+        <v>3331</v>
       </c>
       <c r="E612" t="s">
         <v>1806</v>
@@ -22549,7 +22552,7 @@
       </c>
       <c r="C613"/>
       <c r="D613" t="s">
-        <v>3331</v>
+        <v>3332</v>
       </c>
       <c r="E613" t="s">
         <v>1809</v>
@@ -22567,7 +22570,7 @@
       </c>
       <c r="C614"/>
       <c r="D614" t="s">
-        <v>3332</v>
+        <v>3333</v>
       </c>
       <c r="E614" t="s">
         <v>1812</v>
@@ -22585,7 +22588,7 @@
       </c>
       <c r="C615"/>
       <c r="D615" t="s">
-        <v>3333</v>
+        <v>3334</v>
       </c>
       <c r="E615" t="s">
         <v>1815</v>
@@ -22603,7 +22606,7 @@
       </c>
       <c r="C616"/>
       <c r="D616" t="s">
-        <v>3334</v>
+        <v>3335</v>
       </c>
       <c r="E616" t="s">
         <v>1818</v>
@@ -22621,7 +22624,7 @@
       </c>
       <c r="C617"/>
       <c r="D617" t="s">
-        <v>3335</v>
+        <v>3336</v>
       </c>
       <c r="E617" t="s">
         <v>1821</v>
@@ -22639,7 +22642,7 @@
       </c>
       <c r="C618"/>
       <c r="D618" t="s">
-        <v>3336</v>
+        <v>3337</v>
       </c>
       <c r="E618" t="s">
         <v>1824</v>
@@ -22657,7 +22660,7 @@
       </c>
       <c r="C619"/>
       <c r="D619" t="s">
-        <v>3337</v>
+        <v>3338</v>
       </c>
       <c r="E619" t="s">
         <v>1827</v>
@@ -22671,7 +22674,7 @@
         <v>1829</v>
       </c>
       <c r="B620" t="s">
-        <v>7</v>
+        <v>2710</v>
       </c>
       <c r="C620"/>
       <c r="E620" t="s">
@@ -22686,11 +22689,11 @@
         <v>1832</v>
       </c>
       <c r="B621" t="s">
-        <v>2710</v>
+        <v>2711</v>
       </c>
       <c r="C621"/>
       <c r="D621" t="s">
-        <v>3338</v>
+        <v>3339</v>
       </c>
       <c r="E621" t="s">
         <v>1833</v>
@@ -22704,11 +22707,11 @@
         <v>1835</v>
       </c>
       <c r="B622" t="s">
-        <v>2710</v>
+        <v>2711</v>
       </c>
       <c r="C622"/>
       <c r="D622" t="s">
-        <v>3339</v>
+        <v>3340</v>
       </c>
       <c r="E622" t="s">
         <v>1836</v>
@@ -22722,11 +22725,11 @@
         <v>1838</v>
       </c>
       <c r="B623" t="s">
-        <v>2710</v>
+        <v>2711</v>
       </c>
       <c r="C623"/>
       <c r="D623" t="s">
-        <v>3340</v>
+        <v>3341</v>
       </c>
       <c r="E623" t="s">
         <v>1839</v>
@@ -22740,11 +22743,11 @@
         <v>1841</v>
       </c>
       <c r="B624" t="s">
-        <v>2710</v>
+        <v>2711</v>
       </c>
       <c r="C624"/>
       <c r="D624" t="s">
-        <v>3341</v>
+        <v>3342</v>
       </c>
       <c r="E624" t="s">
         <v>1842</v>
@@ -22762,7 +22765,7 @@
       </c>
       <c r="C625"/>
       <c r="D625" t="s">
-        <v>3342</v>
+        <v>3343</v>
       </c>
       <c r="E625" t="s">
         <v>1845</v>
@@ -22780,7 +22783,7 @@
       </c>
       <c r="C626"/>
       <c r="D626" t="s">
-        <v>3343</v>
+        <v>3344</v>
       </c>
       <c r="E626" t="s">
         <v>1848</v>
@@ -22798,7 +22801,7 @@
       </c>
       <c r="C627"/>
       <c r="D627" t="s">
-        <v>3344</v>
+        <v>3345</v>
       </c>
       <c r="E627" t="s">
         <v>1851</v>
@@ -22816,7 +22819,7 @@
       </c>
       <c r="C628"/>
       <c r="D628" t="s">
-        <v>3345</v>
+        <v>3346</v>
       </c>
       <c r="E628" t="s">
         <v>1854</v>
@@ -22834,7 +22837,7 @@
       </c>
       <c r="C629"/>
       <c r="D629" t="s">
-        <v>3346</v>
+        <v>3347</v>
       </c>
       <c r="E629" t="s">
         <v>1857</v>
@@ -22852,7 +22855,7 @@
       </c>
       <c r="C630"/>
       <c r="D630" t="s">
-        <v>3347</v>
+        <v>3348</v>
       </c>
       <c r="E630" t="s">
         <v>1860</v>
@@ -22870,7 +22873,7 @@
       </c>
       <c r="C631"/>
       <c r="D631" t="s">
-        <v>3348</v>
+        <v>3349</v>
       </c>
       <c r="E631" t="s">
         <v>1863</v>
@@ -22888,7 +22891,7 @@
       </c>
       <c r="C632"/>
       <c r="D632" t="s">
-        <v>3349</v>
+        <v>3350</v>
       </c>
       <c r="E632" t="s">
         <v>1866</v>
@@ -22906,7 +22909,7 @@
       </c>
       <c r="C633"/>
       <c r="D633" t="s">
-        <v>3350</v>
+        <v>3351</v>
       </c>
       <c r="E633" t="s">
         <v>1869</v>
@@ -22924,7 +22927,7 @@
       </c>
       <c r="C634"/>
       <c r="D634" t="s">
-        <v>3351</v>
+        <v>3352</v>
       </c>
       <c r="E634" t="s">
         <v>1872</v>
@@ -22942,7 +22945,7 @@
       </c>
       <c r="C635"/>
       <c r="D635" t="s">
-        <v>3352</v>
+        <v>3353</v>
       </c>
       <c r="E635" t="s">
         <v>1875</v>
@@ -22960,7 +22963,7 @@
       </c>
       <c r="C636"/>
       <c r="D636" t="s">
-        <v>3353</v>
+        <v>3354</v>
       </c>
       <c r="E636" t="s">
         <v>1878</v>
@@ -22978,7 +22981,7 @@
       </c>
       <c r="C637"/>
       <c r="D637" t="s">
-        <v>3354</v>
+        <v>3355</v>
       </c>
       <c r="E637" t="s">
         <v>1881</v>
@@ -22996,7 +22999,7 @@
       </c>
       <c r="C638"/>
       <c r="D638" t="s">
-        <v>3355</v>
+        <v>3356</v>
       </c>
       <c r="E638" t="s">
         <v>1884</v>
@@ -23014,7 +23017,7 @@
       </c>
       <c r="C639"/>
       <c r="D639" t="s">
-        <v>3356</v>
+        <v>3357</v>
       </c>
       <c r="E639" t="s">
         <v>1887</v>
@@ -23032,7 +23035,7 @@
       </c>
       <c r="C640"/>
       <c r="D640" t="s">
-        <v>3357</v>
+        <v>3358</v>
       </c>
       <c r="E640" t="s">
         <v>1890</v>
@@ -23050,7 +23053,7 @@
       </c>
       <c r="C641"/>
       <c r="D641" t="s">
-        <v>3358</v>
+        <v>3359</v>
       </c>
       <c r="E641" t="s">
         <v>1893</v>
@@ -23068,7 +23071,7 @@
       </c>
       <c r="C642"/>
       <c r="D642" t="s">
-        <v>3359</v>
+        <v>3360</v>
       </c>
       <c r="E642" t="s">
         <v>1896</v>
@@ -23086,7 +23089,7 @@
       </c>
       <c r="C643"/>
       <c r="D643" t="s">
-        <v>3360</v>
+        <v>3361</v>
       </c>
       <c r="E643" t="s">
         <v>1899</v>
@@ -23100,11 +23103,11 @@
         <v>1901</v>
       </c>
       <c r="B644" t="s">
-        <v>2711</v>
+        <v>2712</v>
       </c>
       <c r="C644"/>
       <c r="D644" t="s">
-        <v>3361</v>
+        <v>3362</v>
       </c>
       <c r="E644" t="s">
         <v>1902</v>
@@ -23122,7 +23125,7 @@
       </c>
       <c r="C645"/>
       <c r="D645" t="s">
-        <v>3362</v>
+        <v>3363</v>
       </c>
       <c r="E645" t="s">
         <v>1905</v>
@@ -23140,7 +23143,7 @@
       </c>
       <c r="C646"/>
       <c r="D646" t="s">
-        <v>3363</v>
+        <v>3364</v>
       </c>
       <c r="E646" t="s">
         <v>1908</v>
@@ -23158,7 +23161,7 @@
       </c>
       <c r="C647"/>
       <c r="D647" t="s">
-        <v>3364</v>
+        <v>3365</v>
       </c>
       <c r="E647" t="s">
         <v>1911</v>
@@ -23176,7 +23179,7 @@
       </c>
       <c r="C648"/>
       <c r="D648" t="s">
-        <v>3365</v>
+        <v>3366</v>
       </c>
       <c r="E648" t="s">
         <v>1914</v>
@@ -23194,7 +23197,7 @@
       </c>
       <c r="C649"/>
       <c r="D649" t="s">
-        <v>3366</v>
+        <v>3367</v>
       </c>
       <c r="E649" t="s">
         <v>1917</v>
@@ -23212,7 +23215,7 @@
       </c>
       <c r="C650"/>
       <c r="D650" t="s">
-        <v>3367</v>
+        <v>3368</v>
       </c>
       <c r="E650" t="s">
         <v>1920</v>
@@ -23230,7 +23233,7 @@
       </c>
       <c r="C651"/>
       <c r="D651" t="s">
-        <v>3368</v>
+        <v>3369</v>
       </c>
       <c r="E651" t="s">
         <v>1923</v>
@@ -23244,11 +23247,11 @@
         <v>1925</v>
       </c>
       <c r="B652" t="s">
-        <v>2712</v>
+        <v>2713</v>
       </c>
       <c r="C652"/>
       <c r="D652" t="s">
-        <v>3369</v>
+        <v>3370</v>
       </c>
       <c r="E652" t="s">
         <v>1926</v>
@@ -23262,11 +23265,11 @@
         <v>1928</v>
       </c>
       <c r="B653" t="s">
-        <v>2713</v>
+        <v>2714</v>
       </c>
       <c r="C653"/>
       <c r="D653" t="s">
-        <v>3370</v>
+        <v>3371</v>
       </c>
       <c r="E653" t="s">
         <v>1929</v>
@@ -23284,7 +23287,7 @@
       </c>
       <c r="C654"/>
       <c r="D654" t="s">
-        <v>3371</v>
+        <v>3372</v>
       </c>
       <c r="E654" t="s">
         <v>1932</v>
@@ -23302,7 +23305,7 @@
       </c>
       <c r="C655"/>
       <c r="D655" t="s">
-        <v>3372</v>
+        <v>3373</v>
       </c>
       <c r="E655" t="s">
         <v>1935</v>
@@ -23320,7 +23323,7 @@
       </c>
       <c r="C656"/>
       <c r="D656" t="s">
-        <v>3373</v>
+        <v>3374</v>
       </c>
       <c r="E656" t="s">
         <v>1938</v>
@@ -23338,7 +23341,7 @@
       </c>
       <c r="C657"/>
       <c r="D657" t="s">
-        <v>3374</v>
+        <v>3375</v>
       </c>
       <c r="E657" t="s">
         <v>1941</v>
@@ -23356,7 +23359,7 @@
       </c>
       <c r="C658"/>
       <c r="D658" t="s">
-        <v>3375</v>
+        <v>3376</v>
       </c>
       <c r="E658" t="s">
         <v>1944</v>
@@ -23374,7 +23377,7 @@
       </c>
       <c r="C659"/>
       <c r="D659" t="s">
-        <v>3376</v>
+        <v>3377</v>
       </c>
       <c r="E659" t="s">
         <v>1947</v>
@@ -23392,7 +23395,7 @@
       </c>
       <c r="C660"/>
       <c r="D660" t="s">
-        <v>3377</v>
+        <v>3378</v>
       </c>
       <c r="E660" t="s">
         <v>1950</v>
@@ -23410,7 +23413,7 @@
       </c>
       <c r="C661"/>
       <c r="D661" t="s">
-        <v>3378</v>
+        <v>3379</v>
       </c>
       <c r="E661" t="s">
         <v>1953</v>
@@ -23428,7 +23431,7 @@
       </c>
       <c r="C662"/>
       <c r="D662" t="s">
-        <v>3379</v>
+        <v>3380</v>
       </c>
       <c r="E662" t="s">
         <v>1956</v>
@@ -23446,7 +23449,7 @@
       </c>
       <c r="C663"/>
       <c r="D663" t="s">
-        <v>3380</v>
+        <v>3381</v>
       </c>
       <c r="E663" t="s">
         <v>1959</v>
@@ -23464,7 +23467,7 @@
       </c>
       <c r="C664"/>
       <c r="D664" t="s">
-        <v>3381</v>
+        <v>3382</v>
       </c>
       <c r="E664" t="s">
         <v>1962</v>
@@ -23482,7 +23485,7 @@
       </c>
       <c r="C665"/>
       <c r="D665" t="s">
-        <v>3382</v>
+        <v>3383</v>
       </c>
       <c r="E665" t="s">
         <v>1965</v>
@@ -23500,7 +23503,7 @@
       </c>
       <c r="C666"/>
       <c r="D666" t="s">
-        <v>3383</v>
+        <v>3384</v>
       </c>
       <c r="E666" t="s">
         <v>1968</v>
@@ -23518,7 +23521,7 @@
       </c>
       <c r="C667"/>
       <c r="D667" t="s">
-        <v>3384</v>
+        <v>3385</v>
       </c>
       <c r="E667" t="s">
         <v>1971</v>
@@ -23536,7 +23539,7 @@
       </c>
       <c r="C668"/>
       <c r="D668" t="s">
-        <v>3385</v>
+        <v>3386</v>
       </c>
       <c r="E668" t="s">
         <v>1974</v>
@@ -23554,7 +23557,7 @@
       </c>
       <c r="C669"/>
       <c r="D669" t="s">
-        <v>3386</v>
+        <v>3387</v>
       </c>
       <c r="E669" t="s">
         <v>1977</v>
@@ -23572,7 +23575,7 @@
       </c>
       <c r="C670"/>
       <c r="D670" t="s">
-        <v>3387</v>
+        <v>3388</v>
       </c>
       <c r="E670" t="s">
         <v>1980</v>
@@ -23590,7 +23593,7 @@
       </c>
       <c r="C671"/>
       <c r="D671" t="s">
-        <v>3388</v>
+        <v>3389</v>
       </c>
       <c r="E671" t="s">
         <v>1983</v>
@@ -23608,7 +23611,7 @@
       </c>
       <c r="C672"/>
       <c r="D672" t="s">
-        <v>3389</v>
+        <v>3390</v>
       </c>
       <c r="E672" t="s">
         <v>1986</v>
@@ -23626,7 +23629,7 @@
       </c>
       <c r="C673"/>
       <c r="D673" t="s">
-        <v>3390</v>
+        <v>3391</v>
       </c>
       <c r="E673" t="s">
         <v>1989</v>
@@ -23644,7 +23647,7 @@
       </c>
       <c r="C674"/>
       <c r="D674" t="s">
-        <v>3391</v>
+        <v>3392</v>
       </c>
       <c r="E674" t="s">
         <v>1992</v>
@@ -23662,7 +23665,7 @@
       </c>
       <c r="C675"/>
       <c r="D675" t="s">
-        <v>3392</v>
+        <v>3393</v>
       </c>
       <c r="E675" t="s">
         <v>1995</v>
@@ -23680,7 +23683,7 @@
       </c>
       <c r="C676"/>
       <c r="D676" t="s">
-        <v>3393</v>
+        <v>3394</v>
       </c>
       <c r="E676" t="s">
         <v>1998</v>
@@ -23698,7 +23701,7 @@
       </c>
       <c r="C677"/>
       <c r="D677" t="s">
-        <v>3394</v>
+        <v>3395</v>
       </c>
       <c r="E677" t="s">
         <v>2001</v>
@@ -23716,7 +23719,7 @@
       </c>
       <c r="C678"/>
       <c r="D678" t="s">
-        <v>3391</v>
+        <v>3392</v>
       </c>
       <c r="E678" t="s">
         <v>1992</v>
@@ -23734,7 +23737,7 @@
       </c>
       <c r="C679"/>
       <c r="D679" t="s">
-        <v>3395</v>
+        <v>3396</v>
       </c>
       <c r="E679" t="s">
         <v>2005</v>
@@ -23752,7 +23755,7 @@
       </c>
       <c r="C680"/>
       <c r="D680" t="s">
-        <v>3396</v>
+        <v>3397</v>
       </c>
       <c r="E680" t="s">
         <v>2008</v>
@@ -23770,7 +23773,7 @@
       </c>
       <c r="C681"/>
       <c r="D681" t="s">
-        <v>3397</v>
+        <v>3398</v>
       </c>
       <c r="E681" t="s">
         <v>2011</v>
@@ -23788,7 +23791,7 @@
       </c>
       <c r="C682"/>
       <c r="D682" t="s">
-        <v>3398</v>
+        <v>3399</v>
       </c>
       <c r="E682" t="s">
         <v>2014</v>
@@ -23806,7 +23809,7 @@
       </c>
       <c r="C683"/>
       <c r="D683" t="s">
-        <v>3399</v>
+        <v>3400</v>
       </c>
       <c r="E683" t="s">
         <v>2017</v>
@@ -23824,7 +23827,7 @@
       </c>
       <c r="C684"/>
       <c r="D684" t="s">
-        <v>3400</v>
+        <v>3401</v>
       </c>
       <c r="E684" t="s">
         <v>2020</v>
@@ -23842,7 +23845,7 @@
       </c>
       <c r="C685"/>
       <c r="D685" t="s">
-        <v>3401</v>
+        <v>3402</v>
       </c>
       <c r="E685" t="s">
         <v>2023</v>
@@ -23860,7 +23863,7 @@
       </c>
       <c r="C686"/>
       <c r="D686" t="s">
-        <v>3402</v>
+        <v>3403</v>
       </c>
       <c r="E686" t="s">
         <v>2026</v>
@@ -23878,7 +23881,7 @@
       </c>
       <c r="C687"/>
       <c r="D687" t="s">
-        <v>3403</v>
+        <v>3404</v>
       </c>
       <c r="E687" t="s">
         <v>2029</v>
@@ -23896,7 +23899,7 @@
       </c>
       <c r="C688"/>
       <c r="D688" t="s">
-        <v>3404</v>
+        <v>3405</v>
       </c>
       <c r="E688" t="s">
         <v>2032</v>
@@ -23914,7 +23917,7 @@
       </c>
       <c r="C689"/>
       <c r="D689" t="s">
-        <v>3405</v>
+        <v>3406</v>
       </c>
       <c r="E689" t="s">
         <v>2035</v>
@@ -23932,7 +23935,7 @@
       </c>
       <c r="C690"/>
       <c r="D690" t="s">
-        <v>3406</v>
+        <v>3407</v>
       </c>
       <c r="E690" t="s">
         <v>2038</v>
@@ -23950,7 +23953,7 @@
       </c>
       <c r="C691"/>
       <c r="D691" t="s">
-        <v>3407</v>
+        <v>3408</v>
       </c>
       <c r="E691" t="s">
         <v>2041</v>
@@ -23968,7 +23971,7 @@
       </c>
       <c r="C692"/>
       <c r="D692" t="s">
-        <v>3408</v>
+        <v>3409</v>
       </c>
       <c r="E692" t="s">
         <v>2044</v>
@@ -23986,7 +23989,7 @@
       </c>
       <c r="C693"/>
       <c r="D693" t="s">
-        <v>3409</v>
+        <v>3410</v>
       </c>
       <c r="E693" t="s">
         <v>2047</v>
@@ -24004,7 +24007,7 @@
       </c>
       <c r="C694"/>
       <c r="D694" t="s">
-        <v>3410</v>
+        <v>3411</v>
       </c>
       <c r="E694" t="s">
         <v>2050</v>
@@ -24022,7 +24025,7 @@
       </c>
       <c r="C695"/>
       <c r="D695" t="s">
-        <v>3411</v>
+        <v>3412</v>
       </c>
       <c r="E695" t="s">
         <v>2053</v>
@@ -24040,7 +24043,7 @@
       </c>
       <c r="C696"/>
       <c r="D696" t="s">
-        <v>3412</v>
+        <v>3413</v>
       </c>
       <c r="E696" t="s">
         <v>2056</v>
@@ -24058,7 +24061,7 @@
       </c>
       <c r="C697"/>
       <c r="D697" t="s">
-        <v>3413</v>
+        <v>3414</v>
       </c>
       <c r="E697" t="s">
         <v>2059</v>
@@ -24076,7 +24079,7 @@
       </c>
       <c r="C698"/>
       <c r="D698" t="s">
-        <v>3414</v>
+        <v>3415</v>
       </c>
       <c r="E698" t="s">
         <v>2062</v>
@@ -24094,7 +24097,7 @@
       </c>
       <c r="C699"/>
       <c r="D699" t="s">
-        <v>3415</v>
+        <v>3416</v>
       </c>
       <c r="E699" t="s">
         <v>2065</v>
@@ -24112,7 +24115,7 @@
       </c>
       <c r="C700"/>
       <c r="D700" t="s">
-        <v>3416</v>
+        <v>3417</v>
       </c>
       <c r="E700" t="s">
         <v>2068</v>
@@ -24130,7 +24133,7 @@
       </c>
       <c r="C701"/>
       <c r="D701" t="s">
-        <v>3417</v>
+        <v>3418</v>
       </c>
       <c r="E701" t="s">
         <v>2071</v>
@@ -24148,7 +24151,7 @@
       </c>
       <c r="C702"/>
       <c r="D702" t="s">
-        <v>3418</v>
+        <v>3419</v>
       </c>
       <c r="E702" t="s">
         <v>2074</v>
@@ -24166,7 +24169,7 @@
       </c>
       <c r="C703"/>
       <c r="D703" t="s">
-        <v>3419</v>
+        <v>3420</v>
       </c>
       <c r="E703" t="s">
         <v>2077</v>
@@ -24184,7 +24187,7 @@
       </c>
       <c r="C704"/>
       <c r="D704" t="s">
-        <v>3420</v>
+        <v>3421</v>
       </c>
       <c r="E704" t="s">
         <v>2080</v>
@@ -24202,7 +24205,7 @@
       </c>
       <c r="C705"/>
       <c r="D705" t="s">
-        <v>3421</v>
+        <v>3422</v>
       </c>
       <c r="E705" t="s">
         <v>2083</v>
@@ -24220,7 +24223,7 @@
       </c>
       <c r="C706"/>
       <c r="D706" t="s">
-        <v>3422</v>
+        <v>3423</v>
       </c>
       <c r="E706" t="s">
         <v>2086</v>
@@ -24238,7 +24241,7 @@
       </c>
       <c r="C707"/>
       <c r="D707" t="s">
-        <v>3423</v>
+        <v>3424</v>
       </c>
       <c r="E707" t="s">
         <v>2089</v>
@@ -24256,7 +24259,7 @@
       </c>
       <c r="C708"/>
       <c r="D708" t="s">
-        <v>3424</v>
+        <v>3425</v>
       </c>
       <c r="E708" t="s">
         <v>2091</v>
@@ -24274,7 +24277,7 @@
       </c>
       <c r="C709"/>
       <c r="D709" t="s">
-        <v>3425</v>
+        <v>3426</v>
       </c>
       <c r="E709" t="s">
         <v>2094</v>
@@ -24292,7 +24295,7 @@
       </c>
       <c r="C710"/>
       <c r="D710" t="s">
-        <v>3426</v>
+        <v>3427</v>
       </c>
       <c r="E710" t="s">
         <v>2097</v>
@@ -24310,7 +24313,7 @@
       </c>
       <c r="C711"/>
       <c r="D711" t="s">
-        <v>3427</v>
+        <v>3428</v>
       </c>
       <c r="E711" t="s">
         <v>2100</v>
@@ -24328,7 +24331,7 @@
       </c>
       <c r="C712"/>
       <c r="D712" t="s">
-        <v>3428</v>
+        <v>3429</v>
       </c>
       <c r="E712" t="s">
         <v>2103</v>
@@ -24346,7 +24349,7 @@
       </c>
       <c r="C713"/>
       <c r="D713" t="s">
-        <v>3429</v>
+        <v>3430</v>
       </c>
       <c r="E713" t="s">
         <v>2106</v>
@@ -24364,7 +24367,7 @@
       </c>
       <c r="C714"/>
       <c r="D714" t="s">
-        <v>3430</v>
+        <v>3431</v>
       </c>
       <c r="E714" t="s">
         <v>2109</v>
@@ -24382,7 +24385,7 @@
       </c>
       <c r="C715"/>
       <c r="D715" t="s">
-        <v>3431</v>
+        <v>3432</v>
       </c>
       <c r="E715" t="s">
         <v>2112</v>
@@ -24400,7 +24403,7 @@
       </c>
       <c r="C716"/>
       <c r="D716" t="s">
-        <v>3432</v>
+        <v>3433</v>
       </c>
       <c r="E716" t="s">
         <v>2115</v>
@@ -24418,7 +24421,7 @@
       </c>
       <c r="C717"/>
       <c r="D717" t="s">
-        <v>3433</v>
+        <v>3434</v>
       </c>
       <c r="E717" t="s">
         <v>2118</v>
@@ -24436,7 +24439,7 @@
       </c>
       <c r="C718"/>
       <c r="D718" t="s">
-        <v>3434</v>
+        <v>3435</v>
       </c>
       <c r="E718" t="s">
         <v>2121</v>
@@ -24454,7 +24457,7 @@
       </c>
       <c r="C719"/>
       <c r="D719" t="s">
-        <v>3435</v>
+        <v>3436</v>
       </c>
       <c r="E719" t="s">
         <v>2124</v>
@@ -24472,7 +24475,7 @@
       </c>
       <c r="C720"/>
       <c r="D720" t="s">
-        <v>3436</v>
+        <v>3437</v>
       </c>
       <c r="E720" t="s">
         <v>2127</v>
@@ -24490,7 +24493,7 @@
       </c>
       <c r="C721"/>
       <c r="D721" t="s">
-        <v>3437</v>
+        <v>3438</v>
       </c>
       <c r="E721" t="s">
         <v>2130</v>
@@ -24508,7 +24511,7 @@
       </c>
       <c r="C722"/>
       <c r="D722" t="s">
-        <v>3438</v>
+        <v>3439</v>
       </c>
       <c r="E722" t="s">
         <v>2133</v>
@@ -24526,7 +24529,7 @@
       </c>
       <c r="C723"/>
       <c r="D723" t="s">
-        <v>3439</v>
+        <v>3440</v>
       </c>
       <c r="E723" t="s">
         <v>2136</v>
@@ -24544,7 +24547,7 @@
       </c>
       <c r="C724"/>
       <c r="D724" t="s">
-        <v>3440</v>
+        <v>3441</v>
       </c>
       <c r="E724" t="s">
         <v>2139</v>
@@ -24562,7 +24565,7 @@
       </c>
       <c r="C725"/>
       <c r="D725" t="s">
-        <v>3441</v>
+        <v>3442</v>
       </c>
       <c r="E725" t="s">
         <v>2142</v>
@@ -24580,7 +24583,7 @@
       </c>
       <c r="C726"/>
       <c r="D726" t="s">
-        <v>3442</v>
+        <v>3443</v>
       </c>
       <c r="E726" t="s">
         <v>2145</v>
@@ -24598,7 +24601,7 @@
       </c>
       <c r="C727"/>
       <c r="D727" t="s">
-        <v>3443</v>
+        <v>3444</v>
       </c>
       <c r="E727" t="s">
         <v>2148</v>
@@ -24612,11 +24615,11 @@
         <v>2150</v>
       </c>
       <c r="B728" t="s">
-        <v>2714</v>
+        <v>2715</v>
       </c>
       <c r="C728"/>
       <c r="D728" t="s">
-        <v>3444</v>
+        <v>3445</v>
       </c>
       <c r="E728" t="s">
         <v>2151</v>
@@ -24634,7 +24637,7 @@
       </c>
       <c r="C729"/>
       <c r="D729" t="s">
-        <v>3445</v>
+        <v>3446</v>
       </c>
       <c r="E729" t="s">
         <v>2154</v>
@@ -24652,7 +24655,7 @@
       </c>
       <c r="C730"/>
       <c r="D730" t="s">
-        <v>3446</v>
+        <v>3447</v>
       </c>
       <c r="E730" t="s">
         <v>2157</v>
@@ -24670,7 +24673,7 @@
       </c>
       <c r="C731"/>
       <c r="D731" t="s">
-        <v>3447</v>
+        <v>3448</v>
       </c>
       <c r="E731" t="s">
         <v>2160</v>
@@ -24688,7 +24691,7 @@
       </c>
       <c r="C732"/>
       <c r="D732" t="s">
-        <v>3448</v>
+        <v>3449</v>
       </c>
       <c r="E732" t="s">
         <v>2163</v>
@@ -24706,7 +24709,7 @@
       </c>
       <c r="C733"/>
       <c r="D733" t="s">
-        <v>3449</v>
+        <v>3450</v>
       </c>
       <c r="E733" t="s">
         <v>2166</v>
@@ -24724,7 +24727,7 @@
       </c>
       <c r="C734"/>
       <c r="D734" t="s">
-        <v>3450</v>
+        <v>3451</v>
       </c>
       <c r="E734" t="s">
         <v>2169</v>
@@ -24742,7 +24745,7 @@
       </c>
       <c r="C735"/>
       <c r="D735" t="s">
-        <v>3451</v>
+        <v>3452</v>
       </c>
       <c r="E735" t="s">
         <v>2172</v>
@@ -24760,7 +24763,7 @@
       </c>
       <c r="C736"/>
       <c r="D736" t="s">
-        <v>3452</v>
+        <v>3453</v>
       </c>
       <c r="E736" t="s">
         <v>2175</v>
@@ -24778,7 +24781,7 @@
       </c>
       <c r="C737"/>
       <c r="D737" t="s">
-        <v>3453</v>
+        <v>3454</v>
       </c>
       <c r="E737" t="s">
         <v>2178</v>
@@ -24796,7 +24799,7 @@
       </c>
       <c r="C738"/>
       <c r="D738" t="s">
-        <v>3454</v>
+        <v>3455</v>
       </c>
       <c r="E738" t="s">
         <v>2181</v>
@@ -24814,7 +24817,7 @@
       </c>
       <c r="C739"/>
       <c r="D739" t="s">
-        <v>3455</v>
+        <v>3456</v>
       </c>
       <c r="E739" t="s">
         <v>2184</v>
@@ -24832,7 +24835,7 @@
       </c>
       <c r="C740"/>
       <c r="D740" t="s">
-        <v>3456</v>
+        <v>3457</v>
       </c>
       <c r="E740" t="s">
         <v>2187</v>
@@ -24850,7 +24853,7 @@
       </c>
       <c r="C741"/>
       <c r="D741" t="s">
-        <v>3457</v>
+        <v>3458</v>
       </c>
       <c r="E741" t="s">
         <v>2190</v>
@@ -24868,7 +24871,7 @@
       </c>
       <c r="C742"/>
       <c r="D742" t="s">
-        <v>3458</v>
+        <v>3459</v>
       </c>
       <c r="E742" t="s">
         <v>2193</v>
@@ -24886,7 +24889,7 @@
       </c>
       <c r="C743"/>
       <c r="D743" t="s">
-        <v>3459</v>
+        <v>3460</v>
       </c>
       <c r="E743" t="s">
         <v>2196</v>
@@ -24904,7 +24907,7 @@
       </c>
       <c r="C744"/>
       <c r="D744" t="s">
-        <v>3460</v>
+        <v>3461</v>
       </c>
       <c r="E744" t="s">
         <v>2199</v>
@@ -24922,7 +24925,7 @@
       </c>
       <c r="C745"/>
       <c r="D745" t="s">
-        <v>3461</v>
+        <v>3462</v>
       </c>
       <c r="E745" t="s">
         <v>2202</v>
@@ -24940,7 +24943,7 @@
       </c>
       <c r="C746"/>
       <c r="D746" t="s">
-        <v>3462</v>
+        <v>3463</v>
       </c>
       <c r="E746" t="s">
         <v>2205</v>
@@ -24958,7 +24961,7 @@
       </c>
       <c r="C747"/>
       <c r="D747" t="s">
-        <v>3463</v>
+        <v>3464</v>
       </c>
       <c r="E747" t="s">
         <v>2208</v>
@@ -24976,7 +24979,7 @@
       </c>
       <c r="C748"/>
       <c r="D748" t="s">
-        <v>3464</v>
+        <v>3465</v>
       </c>
       <c r="E748" t="s">
         <v>2211</v>
@@ -24994,7 +24997,7 @@
       </c>
       <c r="C749"/>
       <c r="D749" t="s">
-        <v>3465</v>
+        <v>3466</v>
       </c>
       <c r="E749" t="s">
         <v>2214</v>
@@ -25012,7 +25015,7 @@
       </c>
       <c r="C750"/>
       <c r="D750" t="s">
-        <v>3466</v>
+        <v>3467</v>
       </c>
       <c r="E750" t="s">
         <v>2217</v>
@@ -25030,7 +25033,7 @@
       </c>
       <c r="C751"/>
       <c r="D751" t="s">
-        <v>3467</v>
+        <v>3468</v>
       </c>
       <c r="E751" t="s">
         <v>2220</v>
@@ -25048,7 +25051,7 @@
       </c>
       <c r="C752"/>
       <c r="D752" t="s">
-        <v>3468</v>
+        <v>3469</v>
       </c>
       <c r="E752" t="s">
         <v>2223</v>
@@ -25066,7 +25069,7 @@
       </c>
       <c r="C753"/>
       <c r="D753" t="s">
-        <v>3469</v>
+        <v>3470</v>
       </c>
       <c r="E753" t="s">
         <v>2226</v>
@@ -25084,7 +25087,7 @@
       </c>
       <c r="C754"/>
       <c r="D754" t="s">
-        <v>3470</v>
+        <v>3471</v>
       </c>
       <c r="E754" t="s">
         <v>2229</v>
@@ -25102,7 +25105,7 @@
       </c>
       <c r="C755"/>
       <c r="D755" t="s">
-        <v>3471</v>
+        <v>3472</v>
       </c>
       <c r="E755" t="s">
         <v>2232</v>
@@ -25120,7 +25123,7 @@
       </c>
       <c r="C756"/>
       <c r="D756" t="s">
-        <v>3472</v>
+        <v>3473</v>
       </c>
       <c r="E756" t="s">
         <v>2235</v>
@@ -25138,7 +25141,7 @@
       </c>
       <c r="C757"/>
       <c r="D757" t="s">
-        <v>3473</v>
+        <v>3474</v>
       </c>
       <c r="E757" t="s">
         <v>2238</v>
@@ -25156,7 +25159,7 @@
       </c>
       <c r="C758"/>
       <c r="D758" t="s">
-        <v>3474</v>
+        <v>3475</v>
       </c>
       <c r="E758" t="s">
         <v>2241</v>
@@ -25174,7 +25177,7 @@
       </c>
       <c r="C759"/>
       <c r="D759" t="s">
-        <v>3475</v>
+        <v>3476</v>
       </c>
       <c r="E759" t="s">
         <v>2244</v>
@@ -25188,11 +25191,11 @@
         <v>2246</v>
       </c>
       <c r="B760" t="s">
-        <v>2710</v>
+        <v>2711</v>
       </c>
       <c r="C760"/>
       <c r="D760" t="s">
-        <v>3476</v>
+        <v>3477</v>
       </c>
       <c r="E760" t="s">
         <v>2247</v>
@@ -25206,11 +25209,11 @@
         <v>2249</v>
       </c>
       <c r="B761" t="s">
-        <v>2710</v>
+        <v>2711</v>
       </c>
       <c r="C761"/>
       <c r="D761" t="s">
-        <v>3477</v>
+        <v>3478</v>
       </c>
       <c r="E761" t="s">
         <v>2250</v>
@@ -25228,7 +25231,7 @@
       </c>
       <c r="C762"/>
       <c r="D762" t="s">
-        <v>3478</v>
+        <v>3479</v>
       </c>
       <c r="E762" t="s">
         <v>2253</v>
@@ -25246,7 +25249,7 @@
       </c>
       <c r="C763"/>
       <c r="D763" t="s">
-        <v>3479</v>
+        <v>3480</v>
       </c>
       <c r="E763" t="s">
         <v>2256</v>
@@ -25264,7 +25267,7 @@
       </c>
       <c r="C764"/>
       <c r="D764" t="s">
-        <v>3461</v>
+        <v>3462</v>
       </c>
       <c r="E764" t="s">
         <v>2202</v>
@@ -25278,11 +25281,11 @@
         <v>2259</v>
       </c>
       <c r="B765" t="s">
-        <v>2715</v>
+        <v>2716</v>
       </c>
       <c r="C765"/>
       <c r="D765" t="s">
-        <v>3480</v>
+        <v>3481</v>
       </c>
       <c r="E765" t="s">
         <v>2260</v>
@@ -25300,7 +25303,7 @@
       </c>
       <c r="C766"/>
       <c r="D766" t="s">
-        <v>3481</v>
+        <v>3482</v>
       </c>
       <c r="E766" t="s">
         <v>2263</v>
@@ -25318,7 +25321,7 @@
       </c>
       <c r="C767"/>
       <c r="D767" t="s">
-        <v>3482</v>
+        <v>3483</v>
       </c>
       <c r="E767" t="s">
         <v>2266</v>
@@ -25336,7 +25339,7 @@
       </c>
       <c r="C768"/>
       <c r="D768" t="s">
-        <v>3483</v>
+        <v>3484</v>
       </c>
       <c r="E768" t="s">
         <v>2269</v>
@@ -25354,7 +25357,7 @@
       </c>
       <c r="C769"/>
       <c r="D769" t="s">
-        <v>3484</v>
+        <v>3485</v>
       </c>
       <c r="E769" t="s">
         <v>2272</v>
@@ -25372,7 +25375,7 @@
       </c>
       <c r="C770"/>
       <c r="D770" t="s">
-        <v>3485</v>
+        <v>3486</v>
       </c>
       <c r="E770" t="s">
         <v>2275</v>
@@ -25390,7 +25393,7 @@
       </c>
       <c r="C771"/>
       <c r="D771" t="s">
-        <v>3486</v>
+        <v>3487</v>
       </c>
       <c r="E771" t="s">
         <v>2278</v>
@@ -25408,7 +25411,7 @@
       </c>
       <c r="C772"/>
       <c r="D772" t="s">
-        <v>3487</v>
+        <v>3488</v>
       </c>
       <c r="E772" t="s">
         <v>2281</v>
@@ -25422,11 +25425,11 @@
         <v>2283</v>
       </c>
       <c r="B773" t="s">
-        <v>2716</v>
+        <v>2717</v>
       </c>
       <c r="C773"/>
       <c r="D773" t="s">
-        <v>3488</v>
+        <v>3489</v>
       </c>
       <c r="E773" t="s">
         <v>2284</v>
@@ -25444,7 +25447,7 @@
       </c>
       <c r="C774"/>
       <c r="D774" t="s">
-        <v>3489</v>
+        <v>3490</v>
       </c>
       <c r="E774" t="s">
         <v>2287</v>
@@ -25462,7 +25465,7 @@
       </c>
       <c r="C775"/>
       <c r="D775" t="s">
-        <v>3490</v>
+        <v>3491</v>
       </c>
       <c r="E775" t="s">
         <v>2290</v>
@@ -25476,11 +25479,11 @@
         <v>2292</v>
       </c>
       <c r="B776" t="s">
-        <v>2717</v>
+        <v>2718</v>
       </c>
       <c r="C776"/>
       <c r="D776" t="s">
-        <v>3491</v>
+        <v>3492</v>
       </c>
       <c r="E776" t="s">
         <v>2293</v>
@@ -25494,13 +25497,13 @@
         <v>2295</v>
       </c>
       <c r="B777" t="s">
-        <v>2717</v>
+        <v>2718</v>
       </c>
       <c r="C777" t="s">
         <v>367</v>
       </c>
       <c r="D777" t="s">
-        <v>3492</v>
+        <v>3493</v>
       </c>
       <c r="E777" t="s">
         <v>2296</v>
@@ -25514,13 +25517,13 @@
         <v>2298</v>
       </c>
       <c r="B778" t="s">
-        <v>2718</v>
+        <v>2719</v>
       </c>
       <c r="C778" t="s">
         <v>367</v>
       </c>
       <c r="D778" t="s">
-        <v>3493</v>
+        <v>3494</v>
       </c>
       <c r="E778" t="s">
         <v>2299</v>
@@ -25534,11 +25537,11 @@
         <v>2301</v>
       </c>
       <c r="B779" t="s">
-        <v>2714</v>
+        <v>2715</v>
       </c>
       <c r="C779"/>
       <c r="D779" t="s">
-        <v>3494</v>
+        <v>3495</v>
       </c>
       <c r="E779" t="s">
         <v>2302</v>
@@ -25552,11 +25555,11 @@
         <v>2304</v>
       </c>
       <c r="B780" t="s">
-        <v>2714</v>
+        <v>2715</v>
       </c>
       <c r="C780"/>
       <c r="D780" t="s">
-        <v>3495</v>
+        <v>3496</v>
       </c>
       <c r="E780" t="s">
         <v>2305</v>
@@ -25574,7 +25577,7 @@
       </c>
       <c r="C781"/>
       <c r="D781" t="s">
-        <v>3280</v>
+        <v>3281</v>
       </c>
       <c r="E781" t="s">
         <v>1642</v>
@@ -25592,7 +25595,7 @@
       </c>
       <c r="C782"/>
       <c r="D782" t="s">
-        <v>3496</v>
+        <v>3497</v>
       </c>
       <c r="E782" t="s">
         <v>2310</v>
@@ -25606,11 +25609,11 @@
         <v>2312</v>
       </c>
       <c r="B783" t="s">
-        <v>2719</v>
+        <v>2720</v>
       </c>
       <c r="C783"/>
       <c r="D783" t="s">
-        <v>3497</v>
+        <v>3498</v>
       </c>
       <c r="E783" t="s">
         <v>2313</v>
@@ -25628,7 +25631,7 @@
       </c>
       <c r="C784"/>
       <c r="D784" t="s">
-        <v>3498</v>
+        <v>3499</v>
       </c>
       <c r="E784" t="s">
         <v>2316</v>
@@ -25646,7 +25649,7 @@
       </c>
       <c r="C785"/>
       <c r="D785" t="s">
-        <v>3499</v>
+        <v>3500</v>
       </c>
       <c r="E785" t="s">
         <v>2319</v>
@@ -25664,7 +25667,7 @@
       </c>
       <c r="C786"/>
       <c r="D786" t="s">
-        <v>3500</v>
+        <v>3501</v>
       </c>
       <c r="E786" t="s">
         <v>2322</v>
@@ -25682,7 +25685,7 @@
       </c>
       <c r="C787"/>
       <c r="D787" t="s">
-        <v>3501</v>
+        <v>3502</v>
       </c>
       <c r="E787" t="s">
         <v>2325</v>
@@ -25700,7 +25703,7 @@
       </c>
       <c r="C788"/>
       <c r="D788" t="s">
-        <v>3502</v>
+        <v>3503</v>
       </c>
       <c r="E788" t="s">
         <v>2328</v>
@@ -25714,11 +25717,11 @@
         <v>2330</v>
       </c>
       <c r="B789" t="s">
-        <v>2720</v>
+        <v>2721</v>
       </c>
       <c r="C789"/>
       <c r="D789" t="s">
-        <v>3503</v>
+        <v>3504</v>
       </c>
       <c r="E789" t="s">
         <v>2331</v>
@@ -25732,11 +25735,11 @@
         <v>2333</v>
       </c>
       <c r="B790" t="s">
-        <v>2712</v>
+        <v>2713</v>
       </c>
       <c r="C790"/>
       <c r="D790" t="s">
-        <v>3504</v>
+        <v>3505</v>
       </c>
       <c r="E790" t="s">
         <v>2334</v>
@@ -25750,11 +25753,11 @@
         <v>2336</v>
       </c>
       <c r="B791" t="s">
-        <v>2712</v>
+        <v>2713</v>
       </c>
       <c r="C791"/>
       <c r="D791" t="s">
-        <v>3505</v>
+        <v>3506</v>
       </c>
       <c r="E791" t="s">
         <v>2337</v>
@@ -25768,11 +25771,11 @@
         <v>2339</v>
       </c>
       <c r="B792" t="s">
-        <v>2712</v>
+        <v>2713</v>
       </c>
       <c r="C792"/>
       <c r="D792" t="s">
-        <v>3506</v>
+        <v>3507</v>
       </c>
       <c r="E792" t="s">
         <v>2340</v>
@@ -25790,7 +25793,7 @@
       </c>
       <c r="C793"/>
       <c r="D793" t="s">
-        <v>3507</v>
+        <v>3508</v>
       </c>
       <c r="E793" t="s">
         <v>2343</v>
@@ -25808,7 +25811,7 @@
       </c>
       <c r="C794"/>
       <c r="D794" t="s">
-        <v>3508</v>
+        <v>3509</v>
       </c>
       <c r="E794" t="s">
         <v>2346</v>
@@ -25826,7 +25829,7 @@
       </c>
       <c r="C795"/>
       <c r="D795" t="s">
-        <v>3509</v>
+        <v>3510</v>
       </c>
       <c r="E795" t="s">
         <v>2349</v>
@@ -25844,7 +25847,7 @@
       </c>
       <c r="C796"/>
       <c r="D796" t="s">
-        <v>3510</v>
+        <v>3511</v>
       </c>
       <c r="E796" t="s">
         <v>2352</v>
@@ -25862,7 +25865,7 @@
       </c>
       <c r="C797"/>
       <c r="D797" t="s">
-        <v>3511</v>
+        <v>3512</v>
       </c>
       <c r="E797" t="s">
         <v>2355</v>
@@ -25880,7 +25883,7 @@
       </c>
       <c r="C798"/>
       <c r="D798" t="s">
-        <v>3512</v>
+        <v>3513</v>
       </c>
       <c r="E798" t="s">
         <v>2358</v>
@@ -25898,7 +25901,7 @@
       </c>
       <c r="C799"/>
       <c r="D799" t="s">
-        <v>3513</v>
+        <v>3514</v>
       </c>
       <c r="E799" t="s">
         <v>2361</v>
@@ -25916,7 +25919,7 @@
       </c>
       <c r="C800"/>
       <c r="D800" t="s">
-        <v>3514</v>
+        <v>3515</v>
       </c>
       <c r="E800" t="s">
         <v>2364</v>
@@ -25934,7 +25937,7 @@
       </c>
       <c r="C801"/>
       <c r="D801" t="s">
-        <v>3515</v>
+        <v>3516</v>
       </c>
       <c r="E801" t="s">
         <v>2367</v>
@@ -25952,7 +25955,7 @@
       </c>
       <c r="C802"/>
       <c r="D802" t="s">
-        <v>3516</v>
+        <v>3517</v>
       </c>
       <c r="E802" t="s">
         <v>2370</v>
@@ -25970,7 +25973,7 @@
       </c>
       <c r="C803"/>
       <c r="D803" t="s">
-        <v>3517</v>
+        <v>3518</v>
       </c>
       <c r="E803" t="s">
         <v>2373</v>
@@ -25988,7 +25991,7 @@
       </c>
       <c r="C804"/>
       <c r="D804" t="s">
-        <v>3518</v>
+        <v>3519</v>
       </c>
       <c r="E804" t="s">
         <v>2376</v>
@@ -26002,11 +26005,11 @@
         <v>2378</v>
       </c>
       <c r="B805" t="s">
-        <v>2721</v>
+        <v>2722</v>
       </c>
       <c r="C805"/>
       <c r="D805" t="s">
-        <v>3519</v>
+        <v>3520</v>
       </c>
       <c r="E805" t="s">
         <v>2379</v>
@@ -26024,7 +26027,7 @@
       </c>
       <c r="C806"/>
       <c r="D806" t="s">
-        <v>3520</v>
+        <v>3521</v>
       </c>
       <c r="E806" t="s">
         <v>2382</v>
@@ -26042,7 +26045,7 @@
       </c>
       <c r="C807"/>
       <c r="D807" t="s">
-        <v>3521</v>
+        <v>3522</v>
       </c>
       <c r="E807" t="s">
         <v>2385</v>
@@ -26060,7 +26063,7 @@
       </c>
       <c r="C808"/>
       <c r="D808" t="s">
-        <v>3522</v>
+        <v>3523</v>
       </c>
       <c r="E808" t="s">
         <v>2388</v>
@@ -26078,7 +26081,7 @@
       </c>
       <c r="C809"/>
       <c r="D809" t="s">
-        <v>3523</v>
+        <v>3524</v>
       </c>
       <c r="E809" t="s">
         <v>2391</v>
@@ -26096,7 +26099,7 @@
       </c>
       <c r="C810"/>
       <c r="D810" t="s">
-        <v>3524</v>
+        <v>3525</v>
       </c>
       <c r="E810" t="s">
         <v>2394</v>
@@ -26114,7 +26117,7 @@
       </c>
       <c r="C811"/>
       <c r="D811" t="s">
-        <v>3525</v>
+        <v>3526</v>
       </c>
       <c r="E811" t="s">
         <v>2397</v>
@@ -26128,11 +26131,11 @@
         <v>2399</v>
       </c>
       <c r="B812" t="s">
-        <v>2722</v>
+        <v>2723</v>
       </c>
       <c r="C812"/>
       <c r="D812" t="s">
-        <v>3526</v>
+        <v>3527</v>
       </c>
       <c r="E812" t="s">
         <v>2400</v>
@@ -26146,11 +26149,11 @@
         <v>2402</v>
       </c>
       <c r="B813" t="s">
-        <v>2722</v>
+        <v>2723</v>
       </c>
       <c r="C813"/>
       <c r="D813" t="s">
-        <v>3527</v>
+        <v>3528</v>
       </c>
       <c r="E813" t="s">
         <v>2403</v>
@@ -26164,11 +26167,11 @@
         <v>2405</v>
       </c>
       <c r="B814" t="s">
-        <v>2722</v>
+        <v>2723</v>
       </c>
       <c r="C814"/>
       <c r="D814" t="s">
-        <v>3528</v>
+        <v>3529</v>
       </c>
       <c r="E814" t="s">
         <v>2406</v>
@@ -26186,7 +26189,7 @@
       </c>
       <c r="C815"/>
       <c r="D815" t="s">
-        <v>3529</v>
+        <v>3530</v>
       </c>
       <c r="E815" t="s">
         <v>2409</v>
@@ -26204,7 +26207,7 @@
       </c>
       <c r="C816"/>
       <c r="D816" t="s">
-        <v>3530</v>
+        <v>3531</v>
       </c>
       <c r="E816" t="s">
         <v>2412</v>
@@ -26222,7 +26225,7 @@
       </c>
       <c r="C817"/>
       <c r="D817" t="s">
-        <v>3531</v>
+        <v>3532</v>
       </c>
       <c r="E817" t="s">
         <v>2415</v>
@@ -26240,7 +26243,7 @@
       </c>
       <c r="C818"/>
       <c r="D818" t="s">
-        <v>3532</v>
+        <v>3533</v>
       </c>
       <c r="E818" t="s">
         <v>2418</v>
@@ -26258,7 +26261,7 @@
       </c>
       <c r="C819"/>
       <c r="D819" t="s">
-        <v>3533</v>
+        <v>3534</v>
       </c>
       <c r="E819" t="s">
         <v>2421</v>
@@ -26276,7 +26279,7 @@
       </c>
       <c r="C820"/>
       <c r="D820" t="s">
-        <v>3534</v>
+        <v>3535</v>
       </c>
       <c r="E820" t="s">
         <v>2424</v>
@@ -26290,11 +26293,11 @@
         <v>2426</v>
       </c>
       <c r="B821" t="s">
-        <v>2723</v>
+        <v>2724</v>
       </c>
       <c r="C821"/>
       <c r="D821" t="s">
-        <v>3535</v>
+        <v>3536</v>
       </c>
       <c r="E821" t="s">
         <v>2427</v>
@@ -26308,11 +26311,11 @@
         <v>2429</v>
       </c>
       <c r="B822" t="s">
-        <v>2723</v>
+        <v>2724</v>
       </c>
       <c r="C822"/>
       <c r="D822" t="s">
-        <v>3536</v>
+        <v>3537</v>
       </c>
       <c r="E822" t="s">
         <v>2430</v>
@@ -26326,11 +26329,11 @@
         <v>2432</v>
       </c>
       <c r="B823" t="s">
-        <v>2723</v>
+        <v>2724</v>
       </c>
       <c r="C823"/>
       <c r="D823" t="s">
-        <v>3537</v>
+        <v>3538</v>
       </c>
       <c r="E823" t="s">
         <v>2433</v>
@@ -26348,7 +26351,7 @@
       </c>
       <c r="C824"/>
       <c r="D824" t="s">
-        <v>3538</v>
+        <v>3539</v>
       </c>
       <c r="E824" t="s">
         <v>2436</v>
@@ -26366,7 +26369,7 @@
       </c>
       <c r="C825"/>
       <c r="D825" t="s">
-        <v>3539</v>
+        <v>3540</v>
       </c>
       <c r="E825" t="s">
         <v>2439</v>
@@ -26384,7 +26387,7 @@
       </c>
       <c r="C826"/>
       <c r="D826" t="s">
-        <v>3540</v>
+        <v>3541</v>
       </c>
       <c r="E826" t="s">
         <v>2442</v>
@@ -26402,7 +26405,7 @@
       </c>
       <c r="C827"/>
       <c r="D827" t="s">
-        <v>3541</v>
+        <v>3542</v>
       </c>
       <c r="E827" t="s">
         <v>2445</v>
@@ -26420,7 +26423,7 @@
       </c>
       <c r="C828"/>
       <c r="D828" t="s">
-        <v>3542</v>
+        <v>3543</v>
       </c>
       <c r="E828" t="s">
         <v>2448</v>
@@ -26434,11 +26437,11 @@
         <v>2450</v>
       </c>
       <c r="B829" t="s">
-        <v>2724</v>
+        <v>2725</v>
       </c>
       <c r="C829"/>
       <c r="D829" t="s">
-        <v>3543</v>
+        <v>3544</v>
       </c>
       <c r="E829" t="s">
         <v>2451</v>
@@ -26452,11 +26455,11 @@
         <v>2453</v>
       </c>
       <c r="B830" t="s">
-        <v>2725</v>
+        <v>2726</v>
       </c>
       <c r="C830"/>
       <c r="D830" t="s">
-        <v>3544</v>
+        <v>3545</v>
       </c>
       <c r="E830" t="s">
         <v>2454</v>
@@ -26474,7 +26477,7 @@
       </c>
       <c r="C831"/>
       <c r="D831" t="s">
-        <v>3545</v>
+        <v>3546</v>
       </c>
       <c r="E831" t="s">
         <v>2457</v>
@@ -26492,7 +26495,7 @@
       </c>
       <c r="C832"/>
       <c r="D832" t="s">
-        <v>3546</v>
+        <v>3547</v>
       </c>
       <c r="E832" t="s">
         <v>2460</v>
@@ -26510,7 +26513,7 @@
       </c>
       <c r="C833"/>
       <c r="D833" t="s">
-        <v>3547</v>
+        <v>3548</v>
       </c>
       <c r="E833" t="s">
         <v>2463</v>
@@ -26528,7 +26531,7 @@
       </c>
       <c r="C834"/>
       <c r="D834" t="s">
-        <v>3548</v>
+        <v>3549</v>
       </c>
       <c r="E834" t="s">
         <v>2466</v>
@@ -26546,7 +26549,7 @@
       </c>
       <c r="C835"/>
       <c r="D835" t="s">
-        <v>3549</v>
+        <v>3550</v>
       </c>
       <c r="E835" t="s">
         <v>2469</v>
@@ -26564,7 +26567,7 @@
       </c>
       <c r="C836"/>
       <c r="D836" t="s">
-        <v>3550</v>
+        <v>3551</v>
       </c>
       <c r="E836" t="s">
         <v>2472</v>
@@ -26582,7 +26585,7 @@
       </c>
       <c r="C837"/>
       <c r="D837" t="s">
-        <v>3551</v>
+        <v>3552</v>
       </c>
       <c r="E837" t="s">
         <v>2475</v>
@@ -26600,7 +26603,7 @@
       </c>
       <c r="C838"/>
       <c r="D838" t="s">
-        <v>3552</v>
+        <v>3553</v>
       </c>
       <c r="E838" t="s">
         <v>2478</v>
@@ -26614,11 +26617,11 @@
         <v>2480</v>
       </c>
       <c r="B839" t="s">
-        <v>2726</v>
+        <v>2727</v>
       </c>
       <c r="C839"/>
       <c r="D839" t="s">
-        <v>3553</v>
+        <v>3554</v>
       </c>
       <c r="E839" t="s">
         <v>2481</v>
@@ -26632,11 +26635,11 @@
         <v>2483</v>
       </c>
       <c r="B840" t="s">
-        <v>2727</v>
+        <v>2728</v>
       </c>
       <c r="C840"/>
       <c r="D840" t="s">
-        <v>3554</v>
+        <v>3555</v>
       </c>
       <c r="E840" t="s">
         <v>2484</v>
@@ -26654,7 +26657,7 @@
       </c>
       <c r="C841"/>
       <c r="D841" t="s">
-        <v>3555</v>
+        <v>3556</v>
       </c>
       <c r="E841" t="s">
         <v>2487</v>
@@ -26668,11 +26671,11 @@
         <v>2489</v>
       </c>
       <c r="B842" t="s">
-        <v>2728</v>
+        <v>2729</v>
       </c>
       <c r="C842"/>
       <c r="D842" t="s">
-        <v>3556</v>
+        <v>3557</v>
       </c>
       <c r="E842" t="s">
         <v>2490</v>
@@ -26686,11 +26689,11 @@
         <v>2492</v>
       </c>
       <c r="B843" t="s">
-        <v>2729</v>
+        <v>2730</v>
       </c>
       <c r="C843"/>
       <c r="D843" t="s">
-        <v>3557</v>
+        <v>3558</v>
       </c>
       <c r="E843" t="s">
         <v>2493</v>
@@ -26704,11 +26707,11 @@
         <v>2495</v>
       </c>
       <c r="B844" t="s">
-        <v>2728</v>
+        <v>2729</v>
       </c>
       <c r="C844"/>
       <c r="D844" t="s">
-        <v>3558</v>
+        <v>3559</v>
       </c>
       <c r="E844" t="s">
         <v>2496</v>
@@ -26722,11 +26725,11 @@
         <v>2498</v>
       </c>
       <c r="B845" t="s">
-        <v>2730</v>
+        <v>2731</v>
       </c>
       <c r="C845"/>
       <c r="D845" t="s">
-        <v>3559</v>
+        <v>3560</v>
       </c>
       <c r="E845" t="s">
         <v>2499</v>
@@ -26740,11 +26743,11 @@
         <v>2501</v>
       </c>
       <c r="B846" t="s">
-        <v>2731</v>
+        <v>2732</v>
       </c>
       <c r="C846"/>
       <c r="D846" t="s">
-        <v>3560</v>
+        <v>3561</v>
       </c>
       <c r="E846" t="s">
         <v>2502</v>
@@ -26758,11 +26761,11 @@
         <v>2504</v>
       </c>
       <c r="B847" t="s">
-        <v>2732</v>
+        <v>2733</v>
       </c>
       <c r="C847"/>
       <c r="D847" t="s">
-        <v>3561</v>
+        <v>3562</v>
       </c>
       <c r="E847" t="s">
         <v>2505</v>
@@ -26780,7 +26783,7 @@
       </c>
       <c r="C848"/>
       <c r="D848" t="s">
-        <v>3562</v>
+        <v>3563</v>
       </c>
       <c r="E848" t="s">
         <v>2508</v>
@@ -26798,7 +26801,7 @@
       </c>
       <c r="C849"/>
       <c r="D849" t="s">
-        <v>3563</v>
+        <v>3564</v>
       </c>
       <c r="E849" t="s">
         <v>2511</v>
@@ -26812,11 +26815,11 @@
         <v>2513</v>
       </c>
       <c r="B850" t="s">
-        <v>2733</v>
+        <v>2734</v>
       </c>
       <c r="C850"/>
       <c r="D850" t="s">
-        <v>3564</v>
+        <v>3565</v>
       </c>
       <c r="E850" t="s">
         <v>2514</v>
@@ -26830,11 +26833,11 @@
         <v>2516</v>
       </c>
       <c r="B851" t="s">
-        <v>2733</v>
+        <v>2734</v>
       </c>
       <c r="C851"/>
       <c r="D851" t="s">
-        <v>3565</v>
+        <v>3566</v>
       </c>
       <c r="E851" t="s">
         <v>2517</v>
@@ -26848,11 +26851,11 @@
         <v>2519</v>
       </c>
       <c r="B852" t="s">
-        <v>2734</v>
+        <v>2735</v>
       </c>
       <c r="C852"/>
       <c r="D852" t="s">
-        <v>3566</v>
+        <v>3567</v>
       </c>
       <c r="E852" t="s">
         <v>2520</v>
@@ -26870,7 +26873,7 @@
       </c>
       <c r="C853"/>
       <c r="D853" t="s">
-        <v>3567</v>
+        <v>3568</v>
       </c>
       <c r="E853" t="s">
         <v>2523</v>
@@ -26884,11 +26887,11 @@
         <v>2525</v>
       </c>
       <c r="B854" t="s">
-        <v>2735</v>
+        <v>2736</v>
       </c>
       <c r="C854"/>
       <c r="D854" t="s">
-        <v>3568</v>
+        <v>3569</v>
       </c>
       <c r="E854" t="s">
         <v>2526</v>
@@ -26902,11 +26905,11 @@
         <v>2528</v>
       </c>
       <c r="B855" t="s">
-        <v>2735</v>
+        <v>2736</v>
       </c>
       <c r="C855"/>
       <c r="D855" t="s">
-        <v>3569</v>
+        <v>3570</v>
       </c>
       <c r="E855" t="s">
         <v>2529</v>
@@ -26920,11 +26923,11 @@
         <v>2531</v>
       </c>
       <c r="B856" t="s">
-        <v>2735</v>
+        <v>2736</v>
       </c>
       <c r="C856"/>
       <c r="D856" t="s">
-        <v>3570</v>
+        <v>3571</v>
       </c>
       <c r="E856" t="s">
         <v>2532</v>
@@ -26938,11 +26941,11 @@
         <v>2534</v>
       </c>
       <c r="B857" t="s">
-        <v>2735</v>
+        <v>2736</v>
       </c>
       <c r="C857"/>
       <c r="D857" t="s">
-        <v>3571</v>
+        <v>3572</v>
       </c>
       <c r="E857" t="s">
         <v>2535</v>
@@ -26956,11 +26959,11 @@
         <v>2537</v>
       </c>
       <c r="B858" t="s">
-        <v>2735</v>
+        <v>2736</v>
       </c>
       <c r="C858"/>
       <c r="D858" t="s">
-        <v>3572</v>
+        <v>3573</v>
       </c>
       <c r="E858" t="s">
         <v>2538</v>
@@ -26974,11 +26977,11 @@
         <v>2540</v>
       </c>
       <c r="B859" t="s">
-        <v>2736</v>
+        <v>2737</v>
       </c>
       <c r="C859"/>
       <c r="D859" t="s">
-        <v>3573</v>
+        <v>3574</v>
       </c>
       <c r="E859" t="s">
         <v>2541</v>
@@ -26992,11 +26995,11 @@
         <v>2543</v>
       </c>
       <c r="B860" t="s">
-        <v>2715</v>
+        <v>2716</v>
       </c>
       <c r="C860"/>
       <c r="D860" t="s">
-        <v>3574</v>
+        <v>3575</v>
       </c>
       <c r="E860" t="s">
         <v>2544</v>
@@ -27010,11 +27013,11 @@
         <v>2546</v>
       </c>
       <c r="B861" t="s">
-        <v>2715</v>
+        <v>2716</v>
       </c>
       <c r="C861"/>
       <c r="D861" t="s">
-        <v>3574</v>
+        <v>3575</v>
       </c>
       <c r="E861" t="s">
         <v>2544</v>
@@ -27028,11 +27031,11 @@
         <v>2548</v>
       </c>
       <c r="B862" t="s">
-        <v>2737</v>
+        <v>2738</v>
       </c>
       <c r="C862"/>
       <c r="D862" t="s">
-        <v>3575</v>
+        <v>3576</v>
       </c>
       <c r="E862" t="s">
         <v>2549</v>
@@ -27046,11 +27049,11 @@
         <v>2551</v>
       </c>
       <c r="B863" t="s">
-        <v>2711</v>
+        <v>2712</v>
       </c>
       <c r="C863"/>
       <c r="D863" t="s">
-        <v>3576</v>
+        <v>3577</v>
       </c>
       <c r="E863" t="s">
         <v>2552</v>
@@ -27068,7 +27071,7 @@
       </c>
       <c r="C864"/>
       <c r="D864" t="s">
-        <v>3577</v>
+        <v>3578</v>
       </c>
       <c r="E864" t="s">
         <v>2555</v>
@@ -27086,7 +27089,7 @@
       </c>
       <c r="C865"/>
       <c r="D865" t="s">
-        <v>3578</v>
+        <v>3579</v>
       </c>
       <c r="E865" t="s">
         <v>2558</v>
@@ -27104,7 +27107,7 @@
       </c>
       <c r="C866"/>
       <c r="D866" t="s">
-        <v>3579</v>
+        <v>3580</v>
       </c>
       <c r="E866" t="s">
         <v>2561</v>
@@ -27122,7 +27125,7 @@
       </c>
       <c r="C867"/>
       <c r="D867" t="s">
-        <v>3580</v>
+        <v>3581</v>
       </c>
       <c r="E867" t="s">
         <v>2564</v>
@@ -27140,7 +27143,7 @@
       </c>
       <c r="C868"/>
       <c r="D868" t="s">
-        <v>3581</v>
+        <v>3582</v>
       </c>
       <c r="E868" t="s">
         <v>2567</v>
@@ -27154,11 +27157,11 @@
         <v>2569</v>
       </c>
       <c r="B869" t="s">
-        <v>2738</v>
+        <v>2739</v>
       </c>
       <c r="C869"/>
       <c r="D869" t="s">
-        <v>3582</v>
+        <v>3583</v>
       </c>
       <c r="E869" t="s">
         <v>2570</v>
@@ -27176,7 +27179,7 @@
       </c>
       <c r="C870"/>
       <c r="D870" t="s">
-        <v>3583</v>
+        <v>3584</v>
       </c>
       <c r="E870" t="s">
         <v>2573</v>
@@ -27190,11 +27193,11 @@
         <v>2575</v>
       </c>
       <c r="B871" t="s">
-        <v>2739</v>
+        <v>2740</v>
       </c>
       <c r="C871"/>
       <c r="D871" t="s">
-        <v>3584</v>
+        <v>3585</v>
       </c>
       <c r="E871" t="s">
         <v>2576</v>
@@ -27208,11 +27211,11 @@
         <v>2578</v>
       </c>
       <c r="B872" t="s">
-        <v>2739</v>
+        <v>2740</v>
       </c>
       <c r="C872"/>
       <c r="D872" t="s">
-        <v>3585</v>
+        <v>3586</v>
       </c>
       <c r="E872" t="s">
         <v>2579</v>
@@ -27226,11 +27229,11 @@
         <v>2581</v>
       </c>
       <c r="B873" t="s">
-        <v>2739</v>
+        <v>2740</v>
       </c>
       <c r="C873"/>
       <c r="D873" t="s">
-        <v>3158</v>
+        <v>3159</v>
       </c>
       <c r="E873" t="s">
         <v>2582</v>
@@ -27248,7 +27251,7 @@
       </c>
       <c r="C874"/>
       <c r="D874" t="s">
-        <v>3586</v>
+        <v>3587</v>
       </c>
       <c r="E874" t="s">
         <v>2584</v>
@@ -27266,7 +27269,7 @@
       </c>
       <c r="C875"/>
       <c r="D875" t="s">
-        <v>3587</v>
+        <v>3588</v>
       </c>
       <c r="E875" t="s">
         <v>2587</v>
@@ -27284,7 +27287,7 @@
       </c>
       <c r="C876"/>
       <c r="D876" t="s">
-        <v>3588</v>
+        <v>3589</v>
       </c>
       <c r="E876" t="s">
         <v>2590</v>
@@ -27302,7 +27305,7 @@
       </c>
       <c r="C877"/>
       <c r="D877" t="s">
-        <v>3589</v>
+        <v>3590</v>
       </c>
       <c r="E877" t="s">
         <v>2593</v>
@@ -27316,11 +27319,11 @@
         <v>2595</v>
       </c>
       <c r="B878" t="s">
-        <v>2740</v>
+        <v>2741</v>
       </c>
       <c r="C878"/>
       <c r="D878" t="s">
-        <v>3590</v>
+        <v>3591</v>
       </c>
       <c r="E878" t="s">
         <v>2596</v>
@@ -27334,11 +27337,11 @@
         <v>2598</v>
       </c>
       <c r="B879" t="s">
-        <v>2740</v>
+        <v>2741</v>
       </c>
       <c r="C879"/>
       <c r="D879" t="s">
-        <v>3591</v>
+        <v>3592</v>
       </c>
       <c r="E879" t="s">
         <v>2599</v>
@@ -27352,11 +27355,11 @@
         <v>2601</v>
       </c>
       <c r="B880" t="s">
-        <v>2741</v>
+        <v>2742</v>
       </c>
       <c r="C880"/>
       <c r="D880" t="s">
-        <v>3592</v>
+        <v>3593</v>
       </c>
       <c r="E880" t="s">
         <v>2602</v>
@@ -27370,11 +27373,11 @@
         <v>2604</v>
       </c>
       <c r="B881" t="s">
-        <v>2741</v>
+        <v>2742</v>
       </c>
       <c r="C881"/>
       <c r="D881" t="s">
-        <v>3593</v>
+        <v>3594</v>
       </c>
       <c r="E881" t="s">
         <v>2605</v>
@@ -27388,11 +27391,11 @@
         <v>2607</v>
       </c>
       <c r="B882" t="s">
-        <v>2741</v>
+        <v>2742</v>
       </c>
       <c r="C882"/>
       <c r="D882" t="s">
-        <v>3594</v>
+        <v>3595</v>
       </c>
       <c r="E882" t="s">
         <v>2608</v>
@@ -27406,11 +27409,11 @@
         <v>2610</v>
       </c>
       <c r="B883" t="s">
-        <v>2741</v>
+        <v>2742</v>
       </c>
       <c r="C883"/>
       <c r="D883" t="s">
-        <v>3595</v>
+        <v>3596</v>
       </c>
       <c r="E883" t="s">
         <v>2611</v>
@@ -27424,11 +27427,11 @@
         <v>2613</v>
       </c>
       <c r="B884" t="s">
-        <v>2741</v>
+        <v>2742</v>
       </c>
       <c r="C884"/>
       <c r="D884" t="s">
-        <v>3596</v>
+        <v>3597</v>
       </c>
       <c r="E884" t="s">
         <v>2614</v>
@@ -27442,11 +27445,11 @@
         <v>2616</v>
       </c>
       <c r="B885" t="s">
-        <v>2741</v>
+        <v>2742</v>
       </c>
       <c r="C885"/>
       <c r="D885" t="s">
-        <v>3597</v>
+        <v>3598</v>
       </c>
       <c r="E885" t="s">
         <v>2617</v>
@@ -27460,11 +27463,11 @@
         <v>2619</v>
       </c>
       <c r="B886" t="s">
-        <v>2741</v>
+        <v>2742</v>
       </c>
       <c r="C886"/>
       <c r="D886" t="s">
-        <v>3598</v>
+        <v>3599</v>
       </c>
       <c r="E886" t="s">
         <v>2620</v>
@@ -27482,7 +27485,7 @@
       </c>
       <c r="C887"/>
       <c r="D887" t="s">
-        <v>3599</v>
+        <v>3600</v>
       </c>
       <c r="E887" t="s">
         <v>2623</v>
@@ -27500,7 +27503,7 @@
       </c>
       <c r="C888"/>
       <c r="D888" t="s">
-        <v>3600</v>
+        <v>3601</v>
       </c>
       <c r="E888" t="s">
         <v>2626</v>
@@ -27518,7 +27521,7 @@
       </c>
       <c r="C889"/>
       <c r="D889" t="s">
-        <v>3601</v>
+        <v>3602</v>
       </c>
       <c r="E889" t="s">
         <v>2629</v>
@@ -27536,7 +27539,7 @@
       </c>
       <c r="C890"/>
       <c r="D890" t="s">
-        <v>3602</v>
+        <v>3603</v>
       </c>
       <c r="E890" t="s">
         <v>2632</v>
@@ -27554,7 +27557,7 @@
       </c>
       <c r="C891"/>
       <c r="D891" t="s">
-        <v>3603</v>
+        <v>3604</v>
       </c>
       <c r="E891" t="s">
         <v>2635</v>
@@ -27572,7 +27575,7 @@
       </c>
       <c r="C892"/>
       <c r="D892" t="s">
-        <v>3604</v>
+        <v>3605</v>
       </c>
       <c r="E892" t="s">
         <v>2638</v>
@@ -27590,7 +27593,7 @@
       </c>
       <c r="C893"/>
       <c r="D893" t="s">
-        <v>3605</v>
+        <v>3606</v>
       </c>
       <c r="E893" t="s">
         <v>2641</v>
@@ -27604,11 +27607,11 @@
         <v>2643</v>
       </c>
       <c r="B894" t="s">
-        <v>2742</v>
+        <v>2743</v>
       </c>
       <c r="C894"/>
       <c r="D894" t="s">
-        <v>3606</v>
+        <v>3607</v>
       </c>
       <c r="E894" t="s">
         <v>2644</v>
@@ -27622,11 +27625,11 @@
         <v>2646</v>
       </c>
       <c r="B895" t="s">
-        <v>2743</v>
+        <v>2744</v>
       </c>
       <c r="C895"/>
       <c r="D895" t="s">
-        <v>3607</v>
+        <v>3608</v>
       </c>
       <c r="E895" t="s">
         <v>2647</v>
@@ -27640,7 +27643,7 @@
         <v>2649</v>
       </c>
       <c r="B896" t="s">
-        <v>7</v>
+        <v>2710</v>
       </c>
       <c r="C896"/>
       <c r="E896" t="s">
@@ -27655,7 +27658,7 @@
         <v>2652</v>
       </c>
       <c r="B897" t="s">
-        <v>7</v>
+        <v>2710</v>
       </c>
       <c r="C897"/>
       <c r="E897" t="s">
@@ -27670,7 +27673,7 @@
         <v>2655</v>
       </c>
       <c r="B898" t="s">
-        <v>7</v>
+        <v>2710</v>
       </c>
       <c r="C898"/>
       <c r="E898" t="s">

--- a/Mod_Korean/Lang/KR/Game/Game.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Game.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">weather_Rain</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.33</t>
+    <t xml:space="preserve">EA 23.34 fix 3</t>
   </si>
   <si>
     <t xml:space="preserve">It begins to rain.</t>

--- a/Mod_Korean/Lang/KR/Game/Game.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Game.xlsx
@@ -6514,7 +6514,7 @@
   </si>
   <si>
     <t>나쁘지 않은 맛이다.
-나름 괜찮구네.</t>
+나름 괜찮네.</t>
   </si>
   <si>
     <t>Uh-uh, the taste is so so.
@@ -11105,7 +11105,6 @@
     <font>
       <color theme="1"/>
       <name val="Calibri"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11.0"/>
@@ -11152,18 +11151,7 @@
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00FF00"/>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-      <border/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
 </styleSheet>
 </file>
 
@@ -11379,7 +11367,6 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="6" width="16.0"/>
-    <col customWidth="1" min="7" max="26" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -21006,7 +20993,7 @@
       <c r="C535" s="1" t="s">
         <v>2136</v>
       </c>
-      <c r="D535" s="1" t="s">
+      <c r="D535" s="3" t="s">
         <v>2141</v>
       </c>
       <c r="E535" s="1" t="s">
@@ -27292,7 +27279,7 @@
       <c r="B900" s="1" t="s">
         <v>3618</v>
       </c>
-      <c r="D900" s="3" t="s">
+      <c r="D900" s="1" t="s">
         <v>3619</v>
       </c>
       <c r="E900" s="1" t="s">
@@ -27604,11 +27591,6 @@
     </row>
   </sheetData>
   <autoFilter ref="$A$2:$F$2"/>
-  <conditionalFormatting sqref="D1:D1000">
-    <cfRule type="containsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(D1))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>

--- a/Mod_Korean/Lang/KR/Game/Game.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Game.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5604" uniqueCount="3622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5605" uniqueCount="3624">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">weather_Rain</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.36</t>
+    <t xml:space="preserve">EA 23.37</t>
   </si>
   <si>
     <t xml:space="preserve">It begins to rain.</t>
@@ -119,7 +119,7 @@
     <t xml:space="preserve">welcome</t>
   </si>
   <si>
-    <t xml:space="preserve">Welcome, wanderer! Press '?' for help. Press #1 to report bugs. </t>
+    <t xml:space="preserve">Welcome, wanderer! Press '?' for help.</t>
   </si>
   <si>
     <t xml:space="preserve">endDay</t>
@@ -8412,6 +8412,9 @@
     <t xml:space="preserve">EA 23.35 fix 1</t>
   </si>
   <si>
+    <t xml:space="preserve">EA 23.36</t>
+  </si>
+  <si>
     <t xml:space="preserve">비가 내리기 시작했다.</t>
   </si>
   <si>
@@ -8434,6 +8437,9 @@
   </si>
   <si>
     <t xml:space="preserve">좋은 날씨다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Welcome, wanderer! Press '?' for help. Press #1 to report bugs. </t>
   </si>
   <si>
     <t xml:space="preserve">하루가 저물었다.</t>
@@ -11196,7 +11202,7 @@
       </c>
       <c r="C3"/>
       <c r="D3" t="s">
-        <v>2752</v>
+        <v>2753</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -11214,7 +11220,7 @@
       </c>
       <c r="C4"/>
       <c r="D4" t="s">
-        <v>2753</v>
+        <v>2754</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
@@ -11232,7 +11238,7 @@
       </c>
       <c r="C5"/>
       <c r="D5" t="s">
-        <v>2754</v>
+        <v>2755</v>
       </c>
       <c r="E5" t="s">
         <v>14</v>
@@ -11250,7 +11256,7 @@
       </c>
       <c r="C6"/>
       <c r="D6" t="s">
-        <v>2755</v>
+        <v>2756</v>
       </c>
       <c r="E6" t="s">
         <v>17</v>
@@ -11268,7 +11274,7 @@
       </c>
       <c r="C7"/>
       <c r="D7" t="s">
-        <v>2756</v>
+        <v>2757</v>
       </c>
       <c r="E7" t="s">
         <v>20</v>
@@ -11286,7 +11292,7 @@
       </c>
       <c r="C8"/>
       <c r="D8" t="s">
-        <v>2757</v>
+        <v>2758</v>
       </c>
       <c r="E8" t="s">
         <v>23</v>
@@ -11304,7 +11310,7 @@
       </c>
       <c r="C9"/>
       <c r="D9" t="s">
-        <v>2758</v>
+        <v>2759</v>
       </c>
       <c r="E9" t="s">
         <v>26</v>
@@ -11322,7 +11328,7 @@
       </c>
       <c r="C10"/>
       <c r="D10" t="s">
-        <v>2759</v>
+        <v>2760</v>
       </c>
       <c r="E10" t="s">
         <v>29</v>
@@ -11354,11 +11360,11 @@
         <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>2666</v>
+        <v>7</v>
       </c>
       <c r="C12"/>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>2761</v>
       </c>
       <c r="E12" t="s">
         <v>34</v>
@@ -11376,7 +11382,7 @@
       </c>
       <c r="C13"/>
       <c r="D13" t="s">
-        <v>2760</v>
+        <v>2762</v>
       </c>
       <c r="E13" t="s">
         <v>36</v>
@@ -11394,7 +11400,7 @@
       </c>
       <c r="C14"/>
       <c r="D14" t="s">
-        <v>2761</v>
+        <v>2763</v>
       </c>
       <c r="E14" t="s">
         <v>39</v>
@@ -11412,7 +11418,7 @@
       </c>
       <c r="C15"/>
       <c r="D15" t="s">
-        <v>2762</v>
+        <v>2764</v>
       </c>
       <c r="E15" t="s">
         <v>42</v>
@@ -11430,7 +11436,7 @@
       </c>
       <c r="C16"/>
       <c r="D16" t="s">
-        <v>2763</v>
+        <v>2765</v>
       </c>
       <c r="E16" t="s">
         <v>45</v>
@@ -11448,7 +11454,7 @@
       </c>
       <c r="C17"/>
       <c r="D17" t="s">
-        <v>2764</v>
+        <v>2766</v>
       </c>
       <c r="E17" t="s">
         <v>48</v>
@@ -11466,7 +11472,7 @@
       </c>
       <c r="C18"/>
       <c r="D18" t="s">
-        <v>2765</v>
+        <v>2767</v>
       </c>
       <c r="E18" t="s">
         <v>51</v>
@@ -11484,7 +11490,7 @@
       </c>
       <c r="C19"/>
       <c r="D19" t="s">
-        <v>2766</v>
+        <v>2768</v>
       </c>
       <c r="E19" t="s">
         <v>54</v>
@@ -11502,7 +11508,7 @@
       </c>
       <c r="C20"/>
       <c r="D20" t="s">
-        <v>2767</v>
+        <v>2769</v>
       </c>
       <c r="E20" t="s">
         <v>57</v>
@@ -11520,7 +11526,7 @@
       </c>
       <c r="C21"/>
       <c r="D21" t="s">
-        <v>2768</v>
+        <v>2770</v>
       </c>
       <c r="E21" t="s">
         <v>60</v>
@@ -11538,7 +11544,7 @@
       </c>
       <c r="C22"/>
       <c r="D22" t="s">
-        <v>2769</v>
+        <v>2771</v>
       </c>
       <c r="E22" t="s">
         <v>63</v>
@@ -11556,7 +11562,7 @@
       </c>
       <c r="C23"/>
       <c r="D23" t="s">
-        <v>2770</v>
+        <v>2772</v>
       </c>
       <c r="E23" t="s">
         <v>66</v>
@@ -11574,7 +11580,7 @@
       </c>
       <c r="C24"/>
       <c r="D24" t="s">
-        <v>2771</v>
+        <v>2773</v>
       </c>
       <c r="E24" t="s">
         <v>69</v>
@@ -11592,7 +11598,7 @@
       </c>
       <c r="C25"/>
       <c r="D25" t="s">
-        <v>2772</v>
+        <v>2774</v>
       </c>
       <c r="E25" t="s">
         <v>72</v>
@@ -11610,7 +11616,7 @@
       </c>
       <c r="C26"/>
       <c r="D26" t="s">
-        <v>2773</v>
+        <v>2775</v>
       </c>
       <c r="E26" t="s">
         <v>75</v>
@@ -11628,7 +11634,7 @@
       </c>
       <c r="C27"/>
       <c r="D27" t="s">
-        <v>2774</v>
+        <v>2776</v>
       </c>
       <c r="E27" t="s">
         <v>78</v>
@@ -11646,7 +11652,7 @@
       </c>
       <c r="C28"/>
       <c r="D28" t="s">
-        <v>2775</v>
+        <v>2777</v>
       </c>
       <c r="E28" t="s">
         <v>81</v>
@@ -11664,7 +11670,7 @@
       </c>
       <c r="C29"/>
       <c r="D29" t="s">
-        <v>2776</v>
+        <v>2778</v>
       </c>
       <c r="E29" t="s">
         <v>84</v>
@@ -11682,7 +11688,7 @@
       </c>
       <c r="C30"/>
       <c r="D30" t="s">
-        <v>2777</v>
+        <v>2779</v>
       </c>
       <c r="E30" t="s">
         <v>87</v>
@@ -11700,7 +11706,7 @@
       </c>
       <c r="C31"/>
       <c r="D31" t="s">
-        <v>2778</v>
+        <v>2780</v>
       </c>
       <c r="E31" t="s">
         <v>90</v>
@@ -11718,7 +11724,7 @@
       </c>
       <c r="C32"/>
       <c r="D32" t="s">
-        <v>2779</v>
+        <v>2781</v>
       </c>
       <c r="E32" t="s">
         <v>93</v>
@@ -11736,7 +11742,7 @@
       </c>
       <c r="C33"/>
       <c r="D33" t="s">
-        <v>2780</v>
+        <v>2782</v>
       </c>
       <c r="E33" t="s">
         <v>96</v>
@@ -11754,7 +11760,7 @@
       </c>
       <c r="C34"/>
       <c r="D34" t="s">
-        <v>2781</v>
+        <v>2783</v>
       </c>
       <c r="E34" t="s">
         <v>99</v>
@@ -11772,7 +11778,7 @@
       </c>
       <c r="C35"/>
       <c r="D35" t="s">
-        <v>2782</v>
+        <v>2784</v>
       </c>
       <c r="E35" t="s">
         <v>102</v>
@@ -11790,7 +11796,7 @@
       </c>
       <c r="C36"/>
       <c r="D36" t="s">
-        <v>2783</v>
+        <v>2785</v>
       </c>
       <c r="E36" t="s">
         <v>105</v>
@@ -11808,7 +11814,7 @@
       </c>
       <c r="C37"/>
       <c r="D37" t="s">
-        <v>2784</v>
+        <v>2786</v>
       </c>
       <c r="E37" t="s">
         <v>108</v>
@@ -11828,7 +11834,7 @@
         <v>111</v>
       </c>
       <c r="D38" t="s">
-        <v>2785</v>
+        <v>2787</v>
       </c>
       <c r="E38" t="s">
         <v>112</v>
@@ -11848,7 +11854,7 @@
         <v>111</v>
       </c>
       <c r="D39" t="s">
-        <v>2786</v>
+        <v>2788</v>
       </c>
       <c r="E39" t="s">
         <v>115</v>
@@ -11868,7 +11874,7 @@
         <v>111</v>
       </c>
       <c r="D40" t="s">
-        <v>2787</v>
+        <v>2789</v>
       </c>
       <c r="E40" t="s">
         <v>118</v>
@@ -11888,7 +11894,7 @@
         <v>111</v>
       </c>
       <c r="D41" t="s">
-        <v>2788</v>
+        <v>2790</v>
       </c>
       <c r="E41" t="s">
         <v>121</v>
@@ -11908,7 +11914,7 @@
         <v>111</v>
       </c>
       <c r="D42" t="s">
-        <v>2789</v>
+        <v>2791</v>
       </c>
       <c r="E42" t="s">
         <v>124</v>
@@ -11928,7 +11934,7 @@
         <v>111</v>
       </c>
       <c r="D43" t="s">
-        <v>2790</v>
+        <v>2792</v>
       </c>
       <c r="E43" t="s">
         <v>127</v>
@@ -11946,7 +11952,7 @@
       </c>
       <c r="C44"/>
       <c r="D44" t="s">
-        <v>2791</v>
+        <v>2793</v>
       </c>
       <c r="E44" t="s">
         <v>130</v>
@@ -11964,7 +11970,7 @@
       </c>
       <c r="C45"/>
       <c r="D45" t="s">
-        <v>2792</v>
+        <v>2794</v>
       </c>
       <c r="E45" t="s">
         <v>133</v>
@@ -11984,7 +11990,7 @@
         <v>111</v>
       </c>
       <c r="D46" t="s">
-        <v>2793</v>
+        <v>2795</v>
       </c>
       <c r="E46" t="s">
         <v>136</v>
@@ -12004,7 +12010,7 @@
         <v>111</v>
       </c>
       <c r="D47" t="s">
-        <v>2794</v>
+        <v>2796</v>
       </c>
       <c r="E47" t="s">
         <v>139</v>
@@ -12024,7 +12030,7 @@
         <v>111</v>
       </c>
       <c r="D48" t="s">
-        <v>2795</v>
+        <v>2797</v>
       </c>
       <c r="E48" t="s">
         <v>142</v>
@@ -12044,7 +12050,7 @@
         <v>111</v>
       </c>
       <c r="D49" t="s">
-        <v>2796</v>
+        <v>2798</v>
       </c>
       <c r="E49" t="s">
         <v>145</v>
@@ -12064,7 +12070,7 @@
         <v>111</v>
       </c>
       <c r="D50" t="s">
-        <v>2797</v>
+        <v>2799</v>
       </c>
       <c r="E50" t="s">
         <v>148</v>
@@ -12084,7 +12090,7 @@
         <v>111</v>
       </c>
       <c r="D51" t="s">
-        <v>2798</v>
+        <v>2800</v>
       </c>
       <c r="E51" t="s">
         <v>151</v>
@@ -12104,7 +12110,7 @@
         <v>111</v>
       </c>
       <c r="D52" t="s">
-        <v>2799</v>
+        <v>2801</v>
       </c>
       <c r="E52" t="s">
         <v>154</v>
@@ -12124,7 +12130,7 @@
         <v>111</v>
       </c>
       <c r="D53" t="s">
-        <v>2800</v>
+        <v>2802</v>
       </c>
       <c r="E53" t="s">
         <v>157</v>
@@ -12144,7 +12150,7 @@
         <v>111</v>
       </c>
       <c r="D54" t="s">
-        <v>2801</v>
+        <v>2803</v>
       </c>
       <c r="E54" t="s">
         <v>160</v>
@@ -12164,7 +12170,7 @@
         <v>111</v>
       </c>
       <c r="D55" t="s">
-        <v>2802</v>
+        <v>2804</v>
       </c>
       <c r="E55" t="s">
         <v>163</v>
@@ -12184,7 +12190,7 @@
         <v>111</v>
       </c>
       <c r="D56" t="s">
-        <v>2803</v>
+        <v>2805</v>
       </c>
       <c r="E56" t="s">
         <v>166</v>
@@ -12204,7 +12210,7 @@
         <v>111</v>
       </c>
       <c r="D57" t="s">
-        <v>2804</v>
+        <v>2806</v>
       </c>
       <c r="E57" t="s">
         <v>166</v>
@@ -12224,7 +12230,7 @@
         <v>111</v>
       </c>
       <c r="D58" t="s">
-        <v>2805</v>
+        <v>2807</v>
       </c>
       <c r="E58" t="s">
         <v>171</v>
@@ -12244,7 +12250,7 @@
         <v>111</v>
       </c>
       <c r="D59" t="s">
-        <v>2806</v>
+        <v>2808</v>
       </c>
       <c r="E59" t="s">
         <v>174</v>
@@ -12264,7 +12270,7 @@
         <v>111</v>
       </c>
       <c r="D60" t="s">
-        <v>2807</v>
+        <v>2809</v>
       </c>
       <c r="E60" t="s">
         <v>177</v>
@@ -12282,7 +12288,7 @@
       </c>
       <c r="C61"/>
       <c r="D61" t="s">
-        <v>2808</v>
+        <v>2810</v>
       </c>
       <c r="E61" t="s">
         <v>180</v>
@@ -12302,7 +12308,7 @@
         <v>111</v>
       </c>
       <c r="D62" t="s">
-        <v>2809</v>
+        <v>2811</v>
       </c>
       <c r="E62" t="s">
         <v>183</v>
@@ -12322,7 +12328,7 @@
         <v>111</v>
       </c>
       <c r="D63" t="s">
-        <v>2810</v>
+        <v>2812</v>
       </c>
       <c r="E63" t="s">
         <v>186</v>
@@ -12342,7 +12348,7 @@
         <v>111</v>
       </c>
       <c r="D64" t="s">
-        <v>2811</v>
+        <v>2813</v>
       </c>
       <c r="E64" t="s">
         <v>189</v>
@@ -12362,7 +12368,7 @@
         <v>111</v>
       </c>
       <c r="D65" t="s">
-        <v>2812</v>
+        <v>2814</v>
       </c>
       <c r="E65" t="s">
         <v>192</v>
@@ -12382,7 +12388,7 @@
         <v>111</v>
       </c>
       <c r="D66" t="s">
-        <v>2813</v>
+        <v>2815</v>
       </c>
       <c r="E66" t="s">
         <v>195</v>
@@ -12402,7 +12408,7 @@
         <v>111</v>
       </c>
       <c r="D67" t="s">
-        <v>2814</v>
+        <v>2816</v>
       </c>
       <c r="E67" t="s">
         <v>198</v>
@@ -12422,7 +12428,7 @@
         <v>111</v>
       </c>
       <c r="D68" t="s">
-        <v>2815</v>
+        <v>2817</v>
       </c>
       <c r="E68" t="s">
         <v>201</v>
@@ -12442,7 +12448,7 @@
         <v>111</v>
       </c>
       <c r="D69" t="s">
-        <v>2816</v>
+        <v>2818</v>
       </c>
       <c r="E69" t="s">
         <v>204</v>
@@ -12462,7 +12468,7 @@
         <v>111</v>
       </c>
       <c r="D70" t="s">
-        <v>2817</v>
+        <v>2819</v>
       </c>
       <c r="E70" t="s">
         <v>207</v>
@@ -12482,7 +12488,7 @@
         <v>111</v>
       </c>
       <c r="D71" t="s">
-        <v>2818</v>
+        <v>2820</v>
       </c>
       <c r="E71" t="s">
         <v>210</v>
@@ -12502,7 +12508,7 @@
         <v>111</v>
       </c>
       <c r="D72" t="s">
-        <v>2819</v>
+        <v>2821</v>
       </c>
       <c r="E72" t="s">
         <v>213</v>
@@ -12522,7 +12528,7 @@
         <v>111</v>
       </c>
       <c r="D73" t="s">
-        <v>2820</v>
+        <v>2822</v>
       </c>
       <c r="E73" t="s">
         <v>216</v>
@@ -12542,7 +12548,7 @@
         <v>111</v>
       </c>
       <c r="D74" t="s">
-        <v>2821</v>
+        <v>2823</v>
       </c>
       <c r="E74" t="s">
         <v>219</v>
@@ -12562,7 +12568,7 @@
         <v>111</v>
       </c>
       <c r="D75" t="s">
-        <v>2822</v>
+        <v>2824</v>
       </c>
       <c r="E75" t="s">
         <v>222</v>
@@ -12582,7 +12588,7 @@
         <v>111</v>
       </c>
       <c r="D76" t="s">
-        <v>2823</v>
+        <v>2825</v>
       </c>
       <c r="E76" t="s">
         <v>225</v>
@@ -12602,7 +12608,7 @@
         <v>111</v>
       </c>
       <c r="D77" t="s">
-        <v>2824</v>
+        <v>2826</v>
       </c>
       <c r="E77" t="s">
         <v>228</v>
@@ -12620,7 +12626,7 @@
       </c>
       <c r="C78"/>
       <c r="D78" t="s">
-        <v>2825</v>
+        <v>2827</v>
       </c>
       <c r="E78" t="s">
         <v>231</v>
@@ -12640,7 +12646,7 @@
         <v>111</v>
       </c>
       <c r="D79" t="s">
-        <v>2826</v>
+        <v>2828</v>
       </c>
       <c r="E79" t="s">
         <v>234</v>
@@ -12660,7 +12666,7 @@
         <v>111</v>
       </c>
       <c r="D80" t="s">
-        <v>2827</v>
+        <v>2829</v>
       </c>
       <c r="E80" t="s">
         <v>237</v>
@@ -12678,7 +12684,7 @@
       </c>
       <c r="C81"/>
       <c r="D81" t="s">
-        <v>2828</v>
+        <v>2830</v>
       </c>
       <c r="E81" t="s">
         <v>240</v>
@@ -12696,7 +12702,7 @@
       </c>
       <c r="C82"/>
       <c r="D82" t="s">
-        <v>2829</v>
+        <v>2831</v>
       </c>
       <c r="E82" t="s">
         <v>243</v>
@@ -12714,7 +12720,7 @@
       </c>
       <c r="C83"/>
       <c r="D83" t="s">
-        <v>2830</v>
+        <v>2832</v>
       </c>
       <c r="E83" t="s">
         <v>246</v>
@@ -12732,7 +12738,7 @@
       </c>
       <c r="C84"/>
       <c r="D84" t="s">
-        <v>2831</v>
+        <v>2833</v>
       </c>
       <c r="E84" t="s">
         <v>249</v>
@@ -12750,7 +12756,7 @@
       </c>
       <c r="C85"/>
       <c r="D85" t="s">
-        <v>2832</v>
+        <v>2834</v>
       </c>
       <c r="E85" t="s">
         <v>252</v>
@@ -12768,7 +12774,7 @@
       </c>
       <c r="C86"/>
       <c r="D86" t="s">
-        <v>2833</v>
+        <v>2835</v>
       </c>
       <c r="E86" t="s">
         <v>255</v>
@@ -12786,7 +12792,7 @@
       </c>
       <c r="C87"/>
       <c r="D87" t="s">
-        <v>2834</v>
+        <v>2836</v>
       </c>
       <c r="E87" t="s">
         <v>258</v>
@@ -12804,7 +12810,7 @@
       </c>
       <c r="C88"/>
       <c r="D88" t="s">
-        <v>2835</v>
+        <v>2837</v>
       </c>
       <c r="E88" t="s">
         <v>261</v>
@@ -12822,7 +12828,7 @@
       </c>
       <c r="C89"/>
       <c r="D89" t="s">
-        <v>2836</v>
+        <v>2838</v>
       </c>
       <c r="E89" t="s">
         <v>264</v>
@@ -12840,7 +12846,7 @@
       </c>
       <c r="C90"/>
       <c r="D90" t="s">
-        <v>2837</v>
+        <v>2839</v>
       </c>
       <c r="E90" t="s">
         <v>267</v>
@@ -12858,7 +12864,7 @@
       </c>
       <c r="C91"/>
       <c r="D91" t="s">
-        <v>2838</v>
+        <v>2840</v>
       </c>
       <c r="E91" t="s">
         <v>270</v>
@@ -12876,7 +12882,7 @@
       </c>
       <c r="C92"/>
       <c r="D92" t="s">
-        <v>2839</v>
+        <v>2841</v>
       </c>
       <c r="E92" t="s">
         <v>273</v>
@@ -12894,7 +12900,7 @@
       </c>
       <c r="C93"/>
       <c r="D93" t="s">
-        <v>2840</v>
+        <v>2842</v>
       </c>
       <c r="E93" t="s">
         <v>276</v>
@@ -12912,7 +12918,7 @@
       </c>
       <c r="C94"/>
       <c r="D94" t="s">
-        <v>2841</v>
+        <v>2843</v>
       </c>
       <c r="E94" t="s">
         <v>279</v>
@@ -12930,7 +12936,7 @@
       </c>
       <c r="C95"/>
       <c r="D95" t="s">
-        <v>2842</v>
+        <v>2844</v>
       </c>
       <c r="E95" t="s">
         <v>282</v>
@@ -12948,7 +12954,7 @@
       </c>
       <c r="C96"/>
       <c r="D96" t="s">
-        <v>2843</v>
+        <v>2845</v>
       </c>
       <c r="E96" t="s">
         <v>285</v>
@@ -12966,7 +12972,7 @@
       </c>
       <c r="C97"/>
       <c r="D97" t="s">
-        <v>2844</v>
+        <v>2846</v>
       </c>
       <c r="E97" t="s">
         <v>288</v>
@@ -12984,7 +12990,7 @@
       </c>
       <c r="C98"/>
       <c r="D98" t="s">
-        <v>2845</v>
+        <v>2847</v>
       </c>
       <c r="E98" t="s">
         <v>291</v>
@@ -13002,7 +13008,7 @@
       </c>
       <c r="C99"/>
       <c r="D99" t="s">
-        <v>2846</v>
+        <v>2848</v>
       </c>
       <c r="E99" t="s">
         <v>294</v>
@@ -13020,7 +13026,7 @@
       </c>
       <c r="C100"/>
       <c r="D100" t="s">
-        <v>2847</v>
+        <v>2849</v>
       </c>
       <c r="E100" t="s">
         <v>297</v>
@@ -13038,7 +13044,7 @@
       </c>
       <c r="C101"/>
       <c r="D101" t="s">
-        <v>2848</v>
+        <v>2850</v>
       </c>
       <c r="E101" t="s">
         <v>300</v>
@@ -13056,7 +13062,7 @@
       </c>
       <c r="C102"/>
       <c r="D102" t="s">
-        <v>2849</v>
+        <v>2851</v>
       </c>
       <c r="E102" t="s">
         <v>303</v>
@@ -13074,7 +13080,7 @@
       </c>
       <c r="C103"/>
       <c r="D103" t="s">
-        <v>2850</v>
+        <v>2852</v>
       </c>
       <c r="E103" t="s">
         <v>306</v>
@@ -13092,7 +13098,7 @@
       </c>
       <c r="C104"/>
       <c r="D104" t="s">
-        <v>2851</v>
+        <v>2853</v>
       </c>
       <c r="E104" t="s">
         <v>309</v>
@@ -13110,7 +13116,7 @@
       </c>
       <c r="C105"/>
       <c r="D105" t="s">
-        <v>2852</v>
+        <v>2854</v>
       </c>
       <c r="E105" t="s">
         <v>312</v>
@@ -13130,7 +13136,7 @@
         <v>315</v>
       </c>
       <c r="D106" t="s">
-        <v>2853</v>
+        <v>2855</v>
       </c>
       <c r="E106" t="s">
         <v>316</v>
@@ -13150,7 +13156,7 @@
         <v>315</v>
       </c>
       <c r="D107" t="s">
-        <v>2854</v>
+        <v>2856</v>
       </c>
       <c r="E107" t="s">
         <v>319</v>
@@ -13170,7 +13176,7 @@
         <v>315</v>
       </c>
       <c r="D108" t="s">
-        <v>2855</v>
+        <v>2857</v>
       </c>
       <c r="E108" t="s">
         <v>322</v>
@@ -13190,7 +13196,7 @@
         <v>315</v>
       </c>
       <c r="D109" t="s">
-        <v>2856</v>
+        <v>2858</v>
       </c>
       <c r="E109" t="s">
         <v>325</v>
@@ -13210,7 +13216,7 @@
         <v>315</v>
       </c>
       <c r="D110" t="s">
-        <v>2857</v>
+        <v>2859</v>
       </c>
       <c r="E110" t="s">
         <v>328</v>
@@ -13230,7 +13236,7 @@
         <v>315</v>
       </c>
       <c r="D111" t="s">
-        <v>2858</v>
+        <v>2860</v>
       </c>
       <c r="E111" t="s">
         <v>331</v>
@@ -13250,7 +13256,7 @@
         <v>315</v>
       </c>
       <c r="D112" t="s">
-        <v>2859</v>
+        <v>2861</v>
       </c>
       <c r="E112" t="s">
         <v>334</v>
@@ -13270,7 +13276,7 @@
         <v>315</v>
       </c>
       <c r="D113" t="s">
-        <v>2860</v>
+        <v>2862</v>
       </c>
       <c r="E113" t="s">
         <v>337</v>
@@ -13290,7 +13296,7 @@
         <v>315</v>
       </c>
       <c r="D114" t="s">
-        <v>2861</v>
+        <v>2863</v>
       </c>
       <c r="E114" t="s">
         <v>340</v>
@@ -13310,7 +13316,7 @@
         <v>315</v>
       </c>
       <c r="D115" t="s">
-        <v>2862</v>
+        <v>2864</v>
       </c>
       <c r="E115" t="s">
         <v>343</v>
@@ -13328,7 +13334,7 @@
       </c>
       <c r="C116"/>
       <c r="D116" t="s">
-        <v>2863</v>
+        <v>2865</v>
       </c>
       <c r="E116" t="s">
         <v>346</v>
@@ -13346,7 +13352,7 @@
       </c>
       <c r="C117"/>
       <c r="D117" t="s">
-        <v>2864</v>
+        <v>2866</v>
       </c>
       <c r="E117" t="s">
         <v>349</v>
@@ -13364,7 +13370,7 @@
       </c>
       <c r="C118"/>
       <c r="D118" t="s">
-        <v>2865</v>
+        <v>2867</v>
       </c>
       <c r="E118" t="s">
         <v>352</v>
@@ -13382,7 +13388,7 @@
       </c>
       <c r="C119"/>
       <c r="D119" t="s">
-        <v>2866</v>
+        <v>2868</v>
       </c>
       <c r="E119" t="s">
         <v>355</v>
@@ -13400,7 +13406,7 @@
       </c>
       <c r="C120"/>
       <c r="D120" t="s">
-        <v>2867</v>
+        <v>2869</v>
       </c>
       <c r="E120" t="s">
         <v>358</v>
@@ -13418,7 +13424,7 @@
       </c>
       <c r="C121"/>
       <c r="D121" t="s">
-        <v>2868</v>
+        <v>2870</v>
       </c>
       <c r="E121" t="s">
         <v>361</v>
@@ -13436,7 +13442,7 @@
       </c>
       <c r="C122"/>
       <c r="D122" t="s">
-        <v>2869</v>
+        <v>2871</v>
       </c>
       <c r="E122" t="s">
         <v>364</v>
@@ -13456,7 +13462,7 @@
         <v>367</v>
       </c>
       <c r="D123" t="s">
-        <v>2870</v>
+        <v>2872</v>
       </c>
       <c r="E123" t="s">
         <v>368</v>
@@ -13476,7 +13482,7 @@
         <v>367</v>
       </c>
       <c r="D124" t="s">
-        <v>2871</v>
+        <v>2873</v>
       </c>
       <c r="E124" t="s">
         <v>371</v>
@@ -13496,7 +13502,7 @@
         <v>367</v>
       </c>
       <c r="D125" t="s">
-        <v>2872</v>
+        <v>2874</v>
       </c>
       <c r="E125" t="s">
         <v>371</v>
@@ -13516,7 +13522,7 @@
         <v>367</v>
       </c>
       <c r="D126" t="s">
-        <v>2873</v>
+        <v>2875</v>
       </c>
       <c r="E126" t="s">
         <v>376</v>
@@ -13536,7 +13542,7 @@
         <v>367</v>
       </c>
       <c r="D127" t="s">
-        <v>2874</v>
+        <v>2876</v>
       </c>
       <c r="E127" t="s">
         <v>379</v>
@@ -13556,7 +13562,7 @@
         <v>367</v>
       </c>
       <c r="D128" t="s">
-        <v>2875</v>
+        <v>2877</v>
       </c>
       <c r="E128" t="s">
         <v>382</v>
@@ -13576,7 +13582,7 @@
         <v>367</v>
       </c>
       <c r="D129" t="s">
-        <v>2876</v>
+        <v>2878</v>
       </c>
       <c r="E129" t="s">
         <v>385</v>
@@ -13596,7 +13602,7 @@
         <v>367</v>
       </c>
       <c r="D130" t="s">
-        <v>2877</v>
+        <v>2879</v>
       </c>
       <c r="E130" t="s">
         <v>388</v>
@@ -13616,7 +13622,7 @@
         <v>367</v>
       </c>
       <c r="D131" t="s">
-        <v>2878</v>
+        <v>2880</v>
       </c>
       <c r="E131" t="s">
         <v>391</v>
@@ -13636,7 +13642,7 @@
         <v>367</v>
       </c>
       <c r="D132" t="s">
-        <v>2879</v>
+        <v>2881</v>
       </c>
       <c r="E132" t="s">
         <v>394</v>
@@ -13656,7 +13662,7 @@
         <v>367</v>
       </c>
       <c r="D133" t="s">
-        <v>2880</v>
+        <v>2882</v>
       </c>
       <c r="E133" t="s">
         <v>397</v>
@@ -13676,7 +13682,7 @@
         <v>367</v>
       </c>
       <c r="D134" t="s">
-        <v>2881</v>
+        <v>2883</v>
       </c>
       <c r="E134" t="s">
         <v>400</v>
@@ -13696,7 +13702,7 @@
         <v>367</v>
       </c>
       <c r="D135" t="s">
-        <v>2882</v>
+        <v>2884</v>
       </c>
       <c r="E135" t="s">
         <v>403</v>
@@ -13716,7 +13722,7 @@
         <v>367</v>
       </c>
       <c r="D136" t="s">
-        <v>2883</v>
+        <v>2885</v>
       </c>
       <c r="E136" t="s">
         <v>406</v>
@@ -13736,7 +13742,7 @@
         <v>367</v>
       </c>
       <c r="D137" t="s">
-        <v>2884</v>
+        <v>2886</v>
       </c>
       <c r="E137" t="s">
         <v>409</v>
@@ -13756,7 +13762,7 @@
         <v>367</v>
       </c>
       <c r="D138" t="s">
-        <v>2885</v>
+        <v>2887</v>
       </c>
       <c r="E138" t="s">
         <v>412</v>
@@ -13776,7 +13782,7 @@
         <v>367</v>
       </c>
       <c r="D139" t="s">
-        <v>2886</v>
+        <v>2888</v>
       </c>
       <c r="E139" t="s">
         <v>415</v>
@@ -13796,7 +13802,7 @@
         <v>367</v>
       </c>
       <c r="D140" t="s">
-        <v>2887</v>
+        <v>2889</v>
       </c>
       <c r="E140" t="s">
         <v>418</v>
@@ -13816,7 +13822,7 @@
         <v>367</v>
       </c>
       <c r="D141" t="s">
-        <v>2888</v>
+        <v>2890</v>
       </c>
       <c r="E141" t="s">
         <v>421</v>
@@ -13836,7 +13842,7 @@
         <v>367</v>
       </c>
       <c r="D142" t="s">
-        <v>2889</v>
+        <v>2891</v>
       </c>
       <c r="E142" t="s">
         <v>424</v>
@@ -13856,7 +13862,7 @@
         <v>367</v>
       </c>
       <c r="D143" t="s">
-        <v>2890</v>
+        <v>2892</v>
       </c>
       <c r="E143" t="s">
         <v>427</v>
@@ -13876,7 +13882,7 @@
         <v>367</v>
       </c>
       <c r="D144" t="s">
-        <v>2891</v>
+        <v>2893</v>
       </c>
       <c r="E144" t="s">
         <v>430</v>
@@ -13896,7 +13902,7 @@
         <v>367</v>
       </c>
       <c r="D145" t="s">
-        <v>2892</v>
+        <v>2894</v>
       </c>
       <c r="E145" t="s">
         <v>433</v>
@@ -13916,7 +13922,7 @@
         <v>367</v>
       </c>
       <c r="D146" t="s">
-        <v>2893</v>
+        <v>2895</v>
       </c>
       <c r="E146" t="s">
         <v>436</v>
@@ -13936,7 +13942,7 @@
         <v>367</v>
       </c>
       <c r="D147" t="s">
-        <v>2894</v>
+        <v>2896</v>
       </c>
       <c r="E147" t="s">
         <v>439</v>
@@ -13956,7 +13962,7 @@
         <v>367</v>
       </c>
       <c r="D148" t="s">
-        <v>2895</v>
+        <v>2897</v>
       </c>
       <c r="E148" t="s">
         <v>442</v>
@@ -13976,7 +13982,7 @@
         <v>367</v>
       </c>
       <c r="D149" t="s">
-        <v>2896</v>
+        <v>2898</v>
       </c>
       <c r="E149" t="s">
         <v>445</v>
@@ -13996,7 +14002,7 @@
         <v>367</v>
       </c>
       <c r="D150" t="s">
-        <v>2897</v>
+        <v>2899</v>
       </c>
       <c r="E150" t="s">
         <v>448</v>
@@ -14014,7 +14020,7 @@
       </c>
       <c r="C151"/>
       <c r="D151" t="s">
-        <v>2898</v>
+        <v>2900</v>
       </c>
       <c r="E151" t="s">
         <v>451</v>
@@ -14032,7 +14038,7 @@
       </c>
       <c r="C152"/>
       <c r="D152" t="s">
-        <v>2899</v>
+        <v>2901</v>
       </c>
       <c r="E152" t="s">
         <v>454</v>
@@ -14052,7 +14058,7 @@
         <v>367</v>
       </c>
       <c r="D153" t="s">
-        <v>2900</v>
+        <v>2902</v>
       </c>
       <c r="E153" t="s">
         <v>457</v>
@@ -14070,7 +14076,7 @@
       </c>
       <c r="C154"/>
       <c r="D154" t="s">
-        <v>2901</v>
+        <v>2903</v>
       </c>
       <c r="E154" t="s">
         <v>460</v>
@@ -14088,7 +14094,7 @@
       </c>
       <c r="C155"/>
       <c r="D155" t="s">
-        <v>2902</v>
+        <v>2904</v>
       </c>
       <c r="E155" t="s">
         <v>463</v>
@@ -14106,7 +14112,7 @@
       </c>
       <c r="C156"/>
       <c r="D156" t="s">
-        <v>2903</v>
+        <v>2905</v>
       </c>
       <c r="E156" t="s">
         <v>466</v>
@@ -14124,7 +14130,7 @@
       </c>
       <c r="C157"/>
       <c r="D157" t="s">
-        <v>2904</v>
+        <v>2906</v>
       </c>
       <c r="E157" t="s">
         <v>469</v>
@@ -14142,7 +14148,7 @@
       </c>
       <c r="C158"/>
       <c r="D158" t="s">
-        <v>2905</v>
+        <v>2907</v>
       </c>
       <c r="E158" t="s">
         <v>472</v>
@@ -14160,7 +14166,7 @@
       </c>
       <c r="C159"/>
       <c r="D159" t="s">
-        <v>2906</v>
+        <v>2908</v>
       </c>
       <c r="E159" t="s">
         <v>475</v>
@@ -14178,7 +14184,7 @@
       </c>
       <c r="C160"/>
       <c r="D160" t="s">
-        <v>2907</v>
+        <v>2909</v>
       </c>
       <c r="E160" t="s">
         <v>478</v>
@@ -14196,7 +14202,7 @@
       </c>
       <c r="C161"/>
       <c r="D161" t="s">
-        <v>2908</v>
+        <v>2910</v>
       </c>
       <c r="E161" t="s">
         <v>481</v>
@@ -14214,7 +14220,7 @@
       </c>
       <c r="C162"/>
       <c r="D162" t="s">
-        <v>2909</v>
+        <v>2911</v>
       </c>
       <c r="E162" t="s">
         <v>484</v>
@@ -14232,7 +14238,7 @@
       </c>
       <c r="C163"/>
       <c r="D163" t="s">
-        <v>2910</v>
+        <v>2912</v>
       </c>
       <c r="E163" t="s">
         <v>487</v>
@@ -14250,7 +14256,7 @@
       </c>
       <c r="C164"/>
       <c r="D164" t="s">
-        <v>2911</v>
+        <v>2913</v>
       </c>
       <c r="E164" t="s">
         <v>490</v>
@@ -14268,7 +14274,7 @@
       </c>
       <c r="C165"/>
       <c r="D165" t="s">
-        <v>2912</v>
+        <v>2914</v>
       </c>
       <c r="E165" t="s">
         <v>493</v>
@@ -14286,7 +14292,7 @@
       </c>
       <c r="C166"/>
       <c r="D166" t="s">
-        <v>2913</v>
+        <v>2915</v>
       </c>
       <c r="E166" t="s">
         <v>496</v>
@@ -14304,7 +14310,7 @@
       </c>
       <c r="C167"/>
       <c r="D167" t="s">
-        <v>2914</v>
+        <v>2916</v>
       </c>
       <c r="E167" t="s">
         <v>499</v>
@@ -14322,7 +14328,7 @@
       </c>
       <c r="C168"/>
       <c r="D168" t="s">
-        <v>2915</v>
+        <v>2917</v>
       </c>
       <c r="E168" t="s">
         <v>502</v>
@@ -14340,7 +14346,7 @@
       </c>
       <c r="C169"/>
       <c r="D169" t="s">
-        <v>2916</v>
+        <v>2918</v>
       </c>
       <c r="E169" t="s">
         <v>505</v>
@@ -14358,7 +14364,7 @@
       </c>
       <c r="C170"/>
       <c r="D170" t="s">
-        <v>2917</v>
+        <v>2919</v>
       </c>
       <c r="E170" t="s">
         <v>508</v>
@@ -14376,7 +14382,7 @@
       </c>
       <c r="C171"/>
       <c r="D171" t="s">
-        <v>2880</v>
+        <v>2882</v>
       </c>
       <c r="E171" t="s">
         <v>511</v>
@@ -14394,7 +14400,7 @@
       </c>
       <c r="C172"/>
       <c r="D172" t="s">
-        <v>2918</v>
+        <v>2920</v>
       </c>
       <c r="E172" t="s">
         <v>513</v>
@@ -14412,7 +14418,7 @@
       </c>
       <c r="C173"/>
       <c r="D173" t="s">
-        <v>2919</v>
+        <v>2921</v>
       </c>
       <c r="E173" t="s">
         <v>516</v>
@@ -14430,7 +14436,7 @@
       </c>
       <c r="C174"/>
       <c r="D174" t="s">
-        <v>2920</v>
+        <v>2922</v>
       </c>
       <c r="E174" t="s">
         <v>519</v>
@@ -14448,7 +14454,7 @@
       </c>
       <c r="C175"/>
       <c r="D175" t="s">
-        <v>2921</v>
+        <v>2923</v>
       </c>
       <c r="E175" t="s">
         <v>522</v>
@@ -14466,7 +14472,7 @@
       </c>
       <c r="C176"/>
       <c r="D176" t="s">
-        <v>2922</v>
+        <v>2924</v>
       </c>
       <c r="E176" t="s">
         <v>525</v>
@@ -14484,7 +14490,7 @@
       </c>
       <c r="C177"/>
       <c r="D177" t="s">
-        <v>2923</v>
+        <v>2925</v>
       </c>
       <c r="E177" t="s">
         <v>528</v>
@@ -14502,7 +14508,7 @@
       </c>
       <c r="C178"/>
       <c r="D178" t="s">
-        <v>2924</v>
+        <v>2926</v>
       </c>
       <c r="E178" t="s">
         <v>531</v>
@@ -14520,7 +14526,7 @@
       </c>
       <c r="C179"/>
       <c r="D179" t="s">
-        <v>2925</v>
+        <v>2927</v>
       </c>
       <c r="E179" t="s">
         <v>534</v>
@@ -14540,7 +14546,7 @@
         <v>367</v>
       </c>
       <c r="D180" t="s">
-        <v>2926</v>
+        <v>2928</v>
       </c>
       <c r="E180" t="s">
         <v>537</v>
@@ -14560,7 +14566,7 @@
         <v>367</v>
       </c>
       <c r="D181" t="s">
-        <v>2927</v>
+        <v>2929</v>
       </c>
       <c r="E181" t="s">
         <v>540</v>
@@ -14580,7 +14586,7 @@
         <v>367</v>
       </c>
       <c r="D182" t="s">
-        <v>2928</v>
+        <v>2930</v>
       </c>
       <c r="E182" t="s">
         <v>543</v>
@@ -14600,7 +14606,7 @@
         <v>367</v>
       </c>
       <c r="D183" t="s">
-        <v>2929</v>
+        <v>2931</v>
       </c>
       <c r="E183" t="s">
         <v>546</v>
@@ -14620,7 +14626,7 @@
         <v>367</v>
       </c>
       <c r="D184" t="s">
-        <v>2930</v>
+        <v>2932</v>
       </c>
       <c r="E184" t="s">
         <v>549</v>
@@ -14640,7 +14646,7 @@
         <v>367</v>
       </c>
       <c r="D185" t="s">
-        <v>2931</v>
+        <v>2933</v>
       </c>
       <c r="E185" t="s">
         <v>549</v>
@@ -14660,7 +14666,7 @@
         <v>367</v>
       </c>
       <c r="D186" t="s">
-        <v>2932</v>
+        <v>2934</v>
       </c>
       <c r="E186" t="s">
         <v>554</v>
@@ -14680,7 +14686,7 @@
         <v>367</v>
       </c>
       <c r="D187" t="s">
-        <v>2933</v>
+        <v>2935</v>
       </c>
       <c r="E187" t="s">
         <v>554</v>
@@ -14700,7 +14706,7 @@
         <v>367</v>
       </c>
       <c r="D188" t="s">
-        <v>2934</v>
+        <v>2936</v>
       </c>
       <c r="E188" t="s">
         <v>559</v>
@@ -14720,7 +14726,7 @@
         <v>367</v>
       </c>
       <c r="D189" t="s">
-        <v>2935</v>
+        <v>2937</v>
       </c>
       <c r="E189" t="s">
         <v>559</v>
@@ -14740,7 +14746,7 @@
         <v>367</v>
       </c>
       <c r="D190" t="s">
-        <v>2936</v>
+        <v>2938</v>
       </c>
       <c r="E190" t="s">
         <v>559</v>
@@ -14760,7 +14766,7 @@
         <v>367</v>
       </c>
       <c r="D191" t="s">
-        <v>2937</v>
+        <v>2939</v>
       </c>
       <c r="E191" t="s">
         <v>566</v>
@@ -14780,7 +14786,7 @@
         <v>367</v>
       </c>
       <c r="D192" t="s">
-        <v>2938</v>
+        <v>2940</v>
       </c>
       <c r="E192" t="s">
         <v>569</v>
@@ -14800,7 +14806,7 @@
         <v>367</v>
       </c>
       <c r="D193" t="s">
-        <v>2939</v>
+        <v>2941</v>
       </c>
       <c r="E193" t="s">
         <v>572</v>
@@ -14820,7 +14826,7 @@
         <v>367</v>
       </c>
       <c r="D194" t="s">
-        <v>2940</v>
+        <v>2942</v>
       </c>
       <c r="E194" t="s">
         <v>575</v>
@@ -14840,7 +14846,7 @@
         <v>367</v>
       </c>
       <c r="D195" t="s">
-        <v>2941</v>
+        <v>2943</v>
       </c>
       <c r="E195" t="s">
         <v>578</v>
@@ -14860,7 +14866,7 @@
         <v>367</v>
       </c>
       <c r="D196" t="s">
-        <v>2942</v>
+        <v>2944</v>
       </c>
       <c r="E196" t="s">
         <v>581</v>
@@ -14880,7 +14886,7 @@
         <v>367</v>
       </c>
       <c r="D197" t="s">
-        <v>2943</v>
+        <v>2945</v>
       </c>
       <c r="E197" t="s">
         <v>584</v>
@@ -14900,7 +14906,7 @@
         <v>367</v>
       </c>
       <c r="D198" t="s">
-        <v>2944</v>
+        <v>2946</v>
       </c>
       <c r="E198" t="s">
         <v>587</v>
@@ -14920,7 +14926,7 @@
         <v>367</v>
       </c>
       <c r="D199" t="s">
-        <v>2939</v>
+        <v>2941</v>
       </c>
       <c r="E199" t="s">
         <v>572</v>
@@ -14940,7 +14946,7 @@
         <v>367</v>
       </c>
       <c r="D200" t="s">
-        <v>2940</v>
+        <v>2942</v>
       </c>
       <c r="E200" t="s">
         <v>575</v>
@@ -14960,7 +14966,7 @@
         <v>367</v>
       </c>
       <c r="D201" t="s">
-        <v>2941</v>
+        <v>2943</v>
       </c>
       <c r="E201" t="s">
         <v>578</v>
@@ -14980,7 +14986,7 @@
         <v>367</v>
       </c>
       <c r="D202" t="s">
-        <v>2942</v>
+        <v>2944</v>
       </c>
       <c r="E202" t="s">
         <v>581</v>
@@ -15000,7 +15006,7 @@
         <v>367</v>
       </c>
       <c r="D203" t="s">
-        <v>2943</v>
+        <v>2945</v>
       </c>
       <c r="E203" t="s">
         <v>584</v>
@@ -15020,7 +15026,7 @@
         <v>367</v>
       </c>
       <c r="D204" t="s">
-        <v>2944</v>
+        <v>2946</v>
       </c>
       <c r="E204" t="s">
         <v>587</v>
@@ -15060,7 +15066,7 @@
         <v>367</v>
       </c>
       <c r="D206" t="s">
-        <v>2945</v>
+        <v>2947</v>
       </c>
       <c r="E206" t="s">
         <v>604</v>
@@ -15080,7 +15086,7 @@
         <v>367</v>
       </c>
       <c r="D207" t="s">
-        <v>2946</v>
+        <v>2948</v>
       </c>
       <c r="E207" t="s">
         <v>607</v>
@@ -15100,7 +15106,7 @@
         <v>367</v>
       </c>
       <c r="D208" t="s">
-        <v>2947</v>
+        <v>2949</v>
       </c>
       <c r="E208" t="s">
         <v>610</v>
@@ -15120,7 +15126,7 @@
         <v>367</v>
       </c>
       <c r="D209" t="s">
-        <v>2948</v>
+        <v>2950</v>
       </c>
       <c r="E209" t="s">
         <v>613</v>
@@ -15140,7 +15146,7 @@
         <v>367</v>
       </c>
       <c r="D210" t="s">
-        <v>2948</v>
+        <v>2950</v>
       </c>
       <c r="E210" t="s">
         <v>613</v>
@@ -15160,7 +15166,7 @@
         <v>367</v>
       </c>
       <c r="D211" t="s">
-        <v>2949</v>
+        <v>2951</v>
       </c>
       <c r="E211" t="s">
         <v>617</v>
@@ -15180,7 +15186,7 @@
         <v>367</v>
       </c>
       <c r="D212" t="s">
-        <v>2950</v>
+        <v>2952</v>
       </c>
       <c r="E212" t="s">
         <v>620</v>
@@ -15200,7 +15206,7 @@
         <v>367</v>
       </c>
       <c r="D213" t="s">
-        <v>2951</v>
+        <v>2953</v>
       </c>
       <c r="E213" t="s">
         <v>623</v>
@@ -15220,7 +15226,7 @@
         <v>367</v>
       </c>
       <c r="D214" t="s">
-        <v>2952</v>
+        <v>2954</v>
       </c>
       <c r="E214" t="s">
         <v>626</v>
@@ -15240,7 +15246,7 @@
         <v>367</v>
       </c>
       <c r="D215" t="s">
-        <v>2953</v>
+        <v>2955</v>
       </c>
       <c r="E215" t="s">
         <v>629</v>
@@ -15260,7 +15266,7 @@
         <v>367</v>
       </c>
       <c r="D216" t="s">
-        <v>2954</v>
+        <v>2956</v>
       </c>
       <c r="E216" t="s">
         <v>632</v>
@@ -15280,7 +15286,7 @@
         <v>367</v>
       </c>
       <c r="D217" t="s">
-        <v>2955</v>
+        <v>2957</v>
       </c>
       <c r="E217" t="s">
         <v>635</v>
@@ -15300,7 +15306,7 @@
         <v>367</v>
       </c>
       <c r="D218" t="s">
-        <v>2956</v>
+        <v>2958</v>
       </c>
       <c r="E218" t="s">
         <v>638</v>
@@ -15320,7 +15326,7 @@
         <v>367</v>
       </c>
       <c r="D219" t="s">
-        <v>2957</v>
+        <v>2959</v>
       </c>
       <c r="E219" t="s">
         <v>641</v>
@@ -15340,7 +15346,7 @@
         <v>367</v>
       </c>
       <c r="D220" t="s">
-        <v>2958</v>
+        <v>2960</v>
       </c>
       <c r="E220" t="s">
         <v>644</v>
@@ -15360,7 +15366,7 @@
         <v>367</v>
       </c>
       <c r="D221" t="s">
-        <v>2959</v>
+        <v>2961</v>
       </c>
       <c r="E221" t="s">
         <v>647</v>
@@ -15380,7 +15386,7 @@
         <v>367</v>
       </c>
       <c r="D222" t="s">
-        <v>2960</v>
+        <v>2962</v>
       </c>
       <c r="E222" t="s">
         <v>650</v>
@@ -15400,7 +15406,7 @@
         <v>367</v>
       </c>
       <c r="D223" t="s">
-        <v>2961</v>
+        <v>2963</v>
       </c>
       <c r="E223" t="s">
         <v>653</v>
@@ -15420,7 +15426,7 @@
         <v>367</v>
       </c>
       <c r="D224" t="s">
-        <v>2962</v>
+        <v>2964</v>
       </c>
       <c r="E224" t="s">
         <v>656</v>
@@ -15440,7 +15446,7 @@
         <v>367</v>
       </c>
       <c r="D225" t="s">
-        <v>2963</v>
+        <v>2965</v>
       </c>
       <c r="E225" t="s">
         <v>659</v>
@@ -15473,7 +15479,7 @@
         <v>367</v>
       </c>
       <c r="D227" t="s">
-        <v>2964</v>
+        <v>2966</v>
       </c>
       <c r="E227" t="s">
         <v>663</v>
@@ -15493,7 +15499,7 @@
         <v>367</v>
       </c>
       <c r="D228" t="s">
-        <v>2965</v>
+        <v>2967</v>
       </c>
       <c r="E228" t="s">
         <v>666</v>
@@ -15513,7 +15519,7 @@
         <v>367</v>
       </c>
       <c r="D229" t="s">
-        <v>2966</v>
+        <v>2968</v>
       </c>
       <c r="E229" t="s">
         <v>669</v>
@@ -15533,7 +15539,7 @@
         <v>367</v>
       </c>
       <c r="D230" t="s">
-        <v>2967</v>
+        <v>2969</v>
       </c>
       <c r="E230" t="s">
         <v>672</v>
@@ -15553,7 +15559,7 @@
         <v>367</v>
       </c>
       <c r="D231" t="s">
-        <v>2968</v>
+        <v>2970</v>
       </c>
       <c r="E231" t="s">
         <v>675</v>
@@ -15573,7 +15579,7 @@
         <v>367</v>
       </c>
       <c r="D232" t="s">
-        <v>2969</v>
+        <v>2971</v>
       </c>
       <c r="E232" t="s">
         <v>678</v>
@@ -15593,7 +15599,7 @@
         <v>367</v>
       </c>
       <c r="D233" t="s">
-        <v>2970</v>
+        <v>2972</v>
       </c>
       <c r="E233" t="s">
         <v>681</v>
@@ -15613,7 +15619,7 @@
         <v>367</v>
       </c>
       <c r="D234" t="s">
-        <v>2971</v>
+        <v>2973</v>
       </c>
       <c r="E234" t="s">
         <v>684</v>
@@ -15633,7 +15639,7 @@
         <v>367</v>
       </c>
       <c r="D235" t="s">
-        <v>2972</v>
+        <v>2974</v>
       </c>
       <c r="E235" t="s">
         <v>687</v>
@@ -15653,7 +15659,7 @@
         <v>367</v>
       </c>
       <c r="D236" t="s">
-        <v>2973</v>
+        <v>2975</v>
       </c>
       <c r="E236" t="s">
         <v>690</v>
@@ -15673,7 +15679,7 @@
         <v>367</v>
       </c>
       <c r="D237" t="s">
-        <v>2974</v>
+        <v>2976</v>
       </c>
       <c r="E237" t="s">
         <v>693</v>
@@ -15693,7 +15699,7 @@
         <v>367</v>
       </c>
       <c r="D238" t="s">
-        <v>2975</v>
+        <v>2977</v>
       </c>
       <c r="E238" t="s">
         <v>696</v>
@@ -15713,7 +15719,7 @@
         <v>367</v>
       </c>
       <c r="D239" t="s">
-        <v>2976</v>
+        <v>2978</v>
       </c>
       <c r="E239" t="s">
         <v>699</v>
@@ -15733,7 +15739,7 @@
         <v>367</v>
       </c>
       <c r="D240" t="s">
-        <v>2977</v>
+        <v>2979</v>
       </c>
       <c r="E240" t="s">
         <v>702</v>
@@ -15753,7 +15759,7 @@
         <v>367</v>
       </c>
       <c r="D241" t="s">
-        <v>2978</v>
+        <v>2980</v>
       </c>
       <c r="E241" t="s">
         <v>705</v>
@@ -15773,7 +15779,7 @@
         <v>367</v>
       </c>
       <c r="D242" t="s">
-        <v>2979</v>
+        <v>2981</v>
       </c>
       <c r="E242" t="s">
         <v>708</v>
@@ -15793,7 +15799,7 @@
         <v>367</v>
       </c>
       <c r="D243" t="s">
-        <v>2980</v>
+        <v>2982</v>
       </c>
       <c r="E243" t="s">
         <v>711</v>
@@ -15813,7 +15819,7 @@
         <v>367</v>
       </c>
       <c r="D244" t="s">
-        <v>2981</v>
+        <v>2983</v>
       </c>
       <c r="E244" t="s">
         <v>714</v>
@@ -15833,7 +15839,7 @@
         <v>367</v>
       </c>
       <c r="D245" t="s">
-        <v>2982</v>
+        <v>2984</v>
       </c>
       <c r="E245" t="s">
         <v>717</v>
@@ -15853,7 +15859,7 @@
         <v>367</v>
       </c>
       <c r="D246" t="s">
-        <v>2983</v>
+        <v>2985</v>
       </c>
       <c r="E246" t="s">
         <v>720</v>
@@ -15873,7 +15879,7 @@
         <v>367</v>
       </c>
       <c r="D247" t="s">
-        <v>2984</v>
+        <v>2986</v>
       </c>
       <c r="E247" t="s">
         <v>723</v>
@@ -15893,7 +15899,7 @@
         <v>367</v>
       </c>
       <c r="D248" t="s">
-        <v>2985</v>
+        <v>2987</v>
       </c>
       <c r="E248" t="s">
         <v>726</v>
@@ -15913,7 +15919,7 @@
         <v>367</v>
       </c>
       <c r="D249" t="s">
-        <v>2986</v>
+        <v>2988</v>
       </c>
       <c r="E249" t="s">
         <v>729</v>
@@ -15933,7 +15939,7 @@
         <v>367</v>
       </c>
       <c r="D250" t="s">
-        <v>2987</v>
+        <v>2989</v>
       </c>
       <c r="E250" t="s">
         <v>732</v>
@@ -15953,7 +15959,7 @@
         <v>367</v>
       </c>
       <c r="D251" t="s">
-        <v>2988</v>
+        <v>2990</v>
       </c>
       <c r="E251" t="s">
         <v>735</v>
@@ -15973,7 +15979,7 @@
         <v>367</v>
       </c>
       <c r="D252" t="s">
-        <v>2989</v>
+        <v>2991</v>
       </c>
       <c r="E252" t="s">
         <v>738</v>
@@ -15993,7 +15999,7 @@
         <v>367</v>
       </c>
       <c r="D253" t="s">
-        <v>2990</v>
+        <v>2992</v>
       </c>
       <c r="E253" t="s">
         <v>741</v>
@@ -16013,7 +16019,7 @@
         <v>367</v>
       </c>
       <c r="D254" t="s">
-        <v>2991</v>
+        <v>2993</v>
       </c>
       <c r="E254" t="s">
         <v>744</v>
@@ -16033,7 +16039,7 @@
         <v>367</v>
       </c>
       <c r="D255" t="s">
-        <v>2992</v>
+        <v>2994</v>
       </c>
       <c r="E255" t="s">
         <v>747</v>
@@ -16053,7 +16059,7 @@
         <v>367</v>
       </c>
       <c r="D256" t="s">
-        <v>2993</v>
+        <v>2995</v>
       </c>
       <c r="E256" t="s">
         <v>750</v>
@@ -16073,7 +16079,7 @@
         <v>367</v>
       </c>
       <c r="D257" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="E257" t="s">
         <v>753</v>
@@ -16093,7 +16099,7 @@
         <v>367</v>
       </c>
       <c r="D258" t="s">
-        <v>2995</v>
+        <v>2997</v>
       </c>
       <c r="E258" t="s">
         <v>756</v>
@@ -16113,7 +16119,7 @@
         <v>367</v>
       </c>
       <c r="D259" t="s">
-        <v>2996</v>
+        <v>2998</v>
       </c>
       <c r="E259" t="s">
         <v>759</v>
@@ -16133,7 +16139,7 @@
         <v>367</v>
       </c>
       <c r="D260" t="s">
-        <v>2997</v>
+        <v>2999</v>
       </c>
       <c r="E260" t="s">
         <v>762</v>
@@ -16153,7 +16159,7 @@
         <v>367</v>
       </c>
       <c r="D261" t="s">
-        <v>2998</v>
+        <v>3000</v>
       </c>
       <c r="E261" t="s">
         <v>765</v>
@@ -16173,7 +16179,7 @@
         <v>367</v>
       </c>
       <c r="D262" t="s">
-        <v>2999</v>
+        <v>3001</v>
       </c>
       <c r="E262" t="s">
         <v>768</v>
@@ -16193,7 +16199,7 @@
         <v>367</v>
       </c>
       <c r="D263" t="s">
-        <v>3000</v>
+        <v>3002</v>
       </c>
       <c r="E263" t="s">
         <v>771</v>
@@ -16213,7 +16219,7 @@
         <v>367</v>
       </c>
       <c r="D264" t="s">
-        <v>3001</v>
+        <v>3003</v>
       </c>
       <c r="E264" t="s">
         <v>774</v>
@@ -16233,7 +16239,7 @@
         <v>367</v>
       </c>
       <c r="D265" t="s">
-        <v>3002</v>
+        <v>3004</v>
       </c>
       <c r="E265" t="s">
         <v>777</v>
@@ -16253,7 +16259,7 @@
         <v>367</v>
       </c>
       <c r="D266" t="s">
-        <v>3003</v>
+        <v>3005</v>
       </c>
       <c r="E266" t="s">
         <v>780</v>
@@ -16273,7 +16279,7 @@
         <v>367</v>
       </c>
       <c r="D267" t="s">
-        <v>3004</v>
+        <v>3006</v>
       </c>
       <c r="E267" t="s">
         <v>783</v>
@@ -16293,7 +16299,7 @@
         <v>367</v>
       </c>
       <c r="D268" t="s">
-        <v>3005</v>
+        <v>3007</v>
       </c>
       <c r="E268" t="s">
         <v>786</v>
@@ -16313,7 +16319,7 @@
         <v>367</v>
       </c>
       <c r="D269" t="s">
-        <v>3006</v>
+        <v>3008</v>
       </c>
       <c r="E269" t="s">
         <v>789</v>
@@ -16333,7 +16339,7 @@
         <v>367</v>
       </c>
       <c r="D270" t="s">
-        <v>3007</v>
+        <v>3009</v>
       </c>
       <c r="E270" t="s">
         <v>792</v>
@@ -16353,7 +16359,7 @@
         <v>367</v>
       </c>
       <c r="D271" t="s">
-        <v>3008</v>
+        <v>3010</v>
       </c>
       <c r="E271" t="s">
         <v>795</v>
@@ -16371,7 +16377,7 @@
       </c>
       <c r="C272"/>
       <c r="D272" t="s">
-        <v>3009</v>
+        <v>3011</v>
       </c>
       <c r="E272" t="s">
         <v>798</v>
@@ -16389,7 +16395,7 @@
       </c>
       <c r="C273"/>
       <c r="D273" t="s">
-        <v>3010</v>
+        <v>3012</v>
       </c>
       <c r="E273" t="s">
         <v>801</v>
@@ -16407,7 +16413,7 @@
       </c>
       <c r="C274"/>
       <c r="D274" t="s">
-        <v>3011</v>
+        <v>3013</v>
       </c>
       <c r="E274" t="s">
         <v>804</v>
@@ -16425,7 +16431,7 @@
       </c>
       <c r="C275"/>
       <c r="D275" t="s">
-        <v>3012</v>
+        <v>3014</v>
       </c>
       <c r="E275" t="s">
         <v>807</v>
@@ -16443,7 +16449,7 @@
       </c>
       <c r="C276"/>
       <c r="D276" t="s">
-        <v>3013</v>
+        <v>3015</v>
       </c>
       <c r="E276" t="s">
         <v>810</v>
@@ -16461,7 +16467,7 @@
       </c>
       <c r="C277"/>
       <c r="D277" t="s">
-        <v>3014</v>
+        <v>3016</v>
       </c>
       <c r="E277" t="s">
         <v>813</v>
@@ -16479,7 +16485,7 @@
       </c>
       <c r="C278"/>
       <c r="D278" t="s">
-        <v>3015</v>
+        <v>3017</v>
       </c>
       <c r="E278" t="s">
         <v>816</v>
@@ -16497,7 +16503,7 @@
       </c>
       <c r="C279"/>
       <c r="D279" t="s">
-        <v>3016</v>
+        <v>3018</v>
       </c>
       <c r="E279" t="s">
         <v>819</v>
@@ -16515,7 +16521,7 @@
       </c>
       <c r="C280"/>
       <c r="D280" t="s">
-        <v>3017</v>
+        <v>3019</v>
       </c>
       <c r="E280" t="s">
         <v>822</v>
@@ -16533,7 +16539,7 @@
       </c>
       <c r="C281"/>
       <c r="D281" t="s">
-        <v>3018</v>
+        <v>3020</v>
       </c>
       <c r="E281" t="s">
         <v>825</v>
@@ -16551,7 +16557,7 @@
       </c>
       <c r="C282"/>
       <c r="D282" t="s">
-        <v>3019</v>
+        <v>3021</v>
       </c>
       <c r="E282" t="s">
         <v>828</v>
@@ -16569,7 +16575,7 @@
       </c>
       <c r="C283"/>
       <c r="D283" t="s">
-        <v>3020</v>
+        <v>3022</v>
       </c>
       <c r="E283" t="s">
         <v>831</v>
@@ -16587,7 +16593,7 @@
       </c>
       <c r="C284"/>
       <c r="D284" t="s">
-        <v>3021</v>
+        <v>3023</v>
       </c>
       <c r="E284" t="s">
         <v>834</v>
@@ -16605,7 +16611,7 @@
       </c>
       <c r="C285"/>
       <c r="D285" t="s">
-        <v>3022</v>
+        <v>3024</v>
       </c>
       <c r="E285" t="s">
         <v>837</v>
@@ -16623,7 +16629,7 @@
       </c>
       <c r="C286"/>
       <c r="D286" t="s">
-        <v>3023</v>
+        <v>3025</v>
       </c>
       <c r="E286" t="s">
         <v>840</v>
@@ -16641,7 +16647,7 @@
       </c>
       <c r="C287"/>
       <c r="D287" t="s">
-        <v>3024</v>
+        <v>3026</v>
       </c>
       <c r="E287" t="s">
         <v>843</v>
@@ -16661,7 +16667,7 @@
         <v>846</v>
       </c>
       <c r="D288" t="s">
-        <v>3025</v>
+        <v>3027</v>
       </c>
       <c r="E288" t="s">
         <v>847</v>
@@ -16681,7 +16687,7 @@
         <v>846</v>
       </c>
       <c r="D289" t="s">
-        <v>3026</v>
+        <v>3028</v>
       </c>
       <c r="E289" t="s">
         <v>850</v>
@@ -16699,7 +16705,7 @@
       </c>
       <c r="C290"/>
       <c r="D290" t="s">
-        <v>3027</v>
+        <v>3029</v>
       </c>
       <c r="E290" t="s">
         <v>853</v>
@@ -16719,7 +16725,7 @@
         <v>856</v>
       </c>
       <c r="D291" t="s">
-        <v>3028</v>
+        <v>3030</v>
       </c>
       <c r="E291" t="s">
         <v>857</v>
@@ -16737,7 +16743,7 @@
       </c>
       <c r="C292"/>
       <c r="D292" t="s">
-        <v>3029</v>
+        <v>3031</v>
       </c>
       <c r="E292" t="s">
         <v>860</v>
@@ -16755,7 +16761,7 @@
       </c>
       <c r="C293"/>
       <c r="D293" t="s">
-        <v>3030</v>
+        <v>3032</v>
       </c>
       <c r="E293" t="s">
         <v>863</v>
@@ -16773,7 +16779,7 @@
       </c>
       <c r="C294"/>
       <c r="D294" t="s">
-        <v>3031</v>
+        <v>3033</v>
       </c>
       <c r="E294" t="s">
         <v>866</v>
@@ -16791,7 +16797,7 @@
       </c>
       <c r="C295"/>
       <c r="D295" t="s">
-        <v>3032</v>
+        <v>3034</v>
       </c>
       <c r="E295" t="s">
         <v>869</v>
@@ -16809,7 +16815,7 @@
       </c>
       <c r="C296"/>
       <c r="D296" t="s">
-        <v>3033</v>
+        <v>3035</v>
       </c>
       <c r="E296" t="s">
         <v>872</v>
@@ -16827,7 +16833,7 @@
       </c>
       <c r="C297"/>
       <c r="D297" t="s">
-        <v>3034</v>
+        <v>3036</v>
       </c>
       <c r="E297" t="s">
         <v>875</v>
@@ -16845,7 +16851,7 @@
       </c>
       <c r="C298"/>
       <c r="D298" t="s">
-        <v>3035</v>
+        <v>3037</v>
       </c>
       <c r="E298" t="s">
         <v>878</v>
@@ -16863,7 +16869,7 @@
       </c>
       <c r="C299"/>
       <c r="D299" t="s">
-        <v>3036</v>
+        <v>3038</v>
       </c>
       <c r="E299" t="s">
         <v>881</v>
@@ -16881,7 +16887,7 @@
       </c>
       <c r="C300"/>
       <c r="D300" t="s">
-        <v>3037</v>
+        <v>3039</v>
       </c>
       <c r="E300" t="s">
         <v>884</v>
@@ -16899,7 +16905,7 @@
       </c>
       <c r="C301"/>
       <c r="D301" t="s">
-        <v>3038</v>
+        <v>3040</v>
       </c>
       <c r="E301" t="s">
         <v>887</v>
@@ -16917,7 +16923,7 @@
       </c>
       <c r="C302"/>
       <c r="D302" t="s">
-        <v>3039</v>
+        <v>3041</v>
       </c>
       <c r="E302" t="s">
         <v>890</v>
@@ -16935,7 +16941,7 @@
       </c>
       <c r="C303"/>
       <c r="D303" t="s">
-        <v>3040</v>
+        <v>3042</v>
       </c>
       <c r="E303" t="s">
         <v>893</v>
@@ -16953,7 +16959,7 @@
       </c>
       <c r="C304"/>
       <c r="D304" t="s">
-        <v>3041</v>
+        <v>3043</v>
       </c>
       <c r="E304" t="s">
         <v>896</v>
@@ -16971,7 +16977,7 @@
       </c>
       <c r="C305"/>
       <c r="D305" t="s">
-        <v>3042</v>
+        <v>3044</v>
       </c>
       <c r="E305" t="s">
         <v>899</v>
@@ -16989,7 +16995,7 @@
       </c>
       <c r="C306"/>
       <c r="D306" t="s">
-        <v>3043</v>
+        <v>3045</v>
       </c>
       <c r="E306" t="s">
         <v>902</v>
@@ -17007,7 +17013,7 @@
       </c>
       <c r="C307"/>
       <c r="D307" t="s">
-        <v>3044</v>
+        <v>3046</v>
       </c>
       <c r="E307" t="s">
         <v>905</v>
@@ -17025,7 +17031,7 @@
       </c>
       <c r="C308"/>
       <c r="D308" t="s">
-        <v>3045</v>
+        <v>3047</v>
       </c>
       <c r="E308" t="s">
         <v>908</v>
@@ -17043,7 +17049,7 @@
       </c>
       <c r="C309"/>
       <c r="D309" t="s">
-        <v>3046</v>
+        <v>3048</v>
       </c>
       <c r="E309" t="s">
         <v>911</v>
@@ -17061,7 +17067,7 @@
       </c>
       <c r="C310"/>
       <c r="D310" t="s">
-        <v>3047</v>
+        <v>3049</v>
       </c>
       <c r="E310" t="s">
         <v>914</v>
@@ -17079,7 +17085,7 @@
       </c>
       <c r="C311"/>
       <c r="D311" t="s">
-        <v>3048</v>
+        <v>3050</v>
       </c>
       <c r="E311" t="s">
         <v>917</v>
@@ -17097,7 +17103,7 @@
       </c>
       <c r="C312"/>
       <c r="D312" t="s">
-        <v>3049</v>
+        <v>3051</v>
       </c>
       <c r="E312" t="s">
         <v>920</v>
@@ -17115,7 +17121,7 @@
       </c>
       <c r="C313"/>
       <c r="D313" t="s">
-        <v>3050</v>
+        <v>3052</v>
       </c>
       <c r="E313" t="s">
         <v>923</v>
@@ -17133,7 +17139,7 @@
       </c>
       <c r="C314"/>
       <c r="D314" t="s">
-        <v>3051</v>
+        <v>3053</v>
       </c>
       <c r="E314" t="s">
         <v>926</v>
@@ -17151,7 +17157,7 @@
       </c>
       <c r="C315"/>
       <c r="D315" t="s">
-        <v>3052</v>
+        <v>3054</v>
       </c>
       <c r="E315" t="s">
         <v>929</v>
@@ -17169,7 +17175,7 @@
       </c>
       <c r="C316"/>
       <c r="D316" t="s">
-        <v>3053</v>
+        <v>3055</v>
       </c>
       <c r="E316" t="s">
         <v>932</v>
@@ -17187,7 +17193,7 @@
       </c>
       <c r="C317"/>
       <c r="D317" t="s">
-        <v>3054</v>
+        <v>3056</v>
       </c>
       <c r="E317" t="s">
         <v>935</v>
@@ -17205,7 +17211,7 @@
       </c>
       <c r="C318"/>
       <c r="D318" t="s">
-        <v>3055</v>
+        <v>3057</v>
       </c>
       <c r="E318" t="s">
         <v>938</v>
@@ -17223,7 +17229,7 @@
       </c>
       <c r="C319"/>
       <c r="D319" t="s">
-        <v>3056</v>
+        <v>3058</v>
       </c>
       <c r="E319" t="s">
         <v>941</v>
@@ -17241,7 +17247,7 @@
       </c>
       <c r="C320"/>
       <c r="D320" t="s">
-        <v>3057</v>
+        <v>3059</v>
       </c>
       <c r="E320" t="s">
         <v>944</v>
@@ -17259,7 +17265,7 @@
       </c>
       <c r="C321"/>
       <c r="D321" t="s">
-        <v>3058</v>
+        <v>3060</v>
       </c>
       <c r="E321" t="s">
         <v>947</v>
@@ -17277,7 +17283,7 @@
       </c>
       <c r="C322"/>
       <c r="D322" t="s">
-        <v>3059</v>
+        <v>3061</v>
       </c>
       <c r="E322" t="s">
         <v>950</v>
@@ -17295,7 +17301,7 @@
       </c>
       <c r="C323"/>
       <c r="D323" t="s">
-        <v>3060</v>
+        <v>3062</v>
       </c>
       <c r="E323" t="s">
         <v>953</v>
@@ -17313,7 +17319,7 @@
       </c>
       <c r="C324"/>
       <c r="D324" t="s">
-        <v>3061</v>
+        <v>3063</v>
       </c>
       <c r="E324" t="s">
         <v>956</v>
@@ -17331,7 +17337,7 @@
       </c>
       <c r="C325"/>
       <c r="D325" t="s">
-        <v>3062</v>
+        <v>3064</v>
       </c>
       <c r="E325" t="s">
         <v>959</v>
@@ -17349,7 +17355,7 @@
       </c>
       <c r="C326"/>
       <c r="D326" t="s">
-        <v>3063</v>
+        <v>3065</v>
       </c>
       <c r="E326" t="s">
         <v>962</v>
@@ -17367,7 +17373,7 @@
       </c>
       <c r="C327"/>
       <c r="D327" t="s">
-        <v>3064</v>
+        <v>3066</v>
       </c>
       <c r="E327" t="s">
         <v>965</v>
@@ -17385,7 +17391,7 @@
       </c>
       <c r="C328"/>
       <c r="D328" t="s">
-        <v>3065</v>
+        <v>3067</v>
       </c>
       <c r="E328" t="s">
         <v>968</v>
@@ -17403,7 +17409,7 @@
       </c>
       <c r="C329"/>
       <c r="D329" t="s">
-        <v>3066</v>
+        <v>3068</v>
       </c>
       <c r="E329" t="s">
         <v>971</v>
@@ -17421,7 +17427,7 @@
       </c>
       <c r="C330"/>
       <c r="D330" t="s">
-        <v>3066</v>
+        <v>3068</v>
       </c>
       <c r="E330" t="s">
         <v>974</v>
@@ -17439,7 +17445,7 @@
       </c>
       <c r="C331"/>
       <c r="D331" t="s">
-        <v>3067</v>
+        <v>3069</v>
       </c>
       <c r="E331" t="s">
         <v>976</v>
@@ -17457,7 +17463,7 @@
       </c>
       <c r="C332"/>
       <c r="D332" t="s">
-        <v>3068</v>
+        <v>3070</v>
       </c>
       <c r="E332" t="s">
         <v>979</v>
@@ -17475,7 +17481,7 @@
       </c>
       <c r="C333"/>
       <c r="D333" t="s">
-        <v>3069</v>
+        <v>3071</v>
       </c>
       <c r="E333" t="s">
         <v>982</v>
@@ -17493,7 +17499,7 @@
       </c>
       <c r="C334"/>
       <c r="D334" t="s">
-        <v>3070</v>
+        <v>3072</v>
       </c>
       <c r="E334" t="s">
         <v>985</v>
@@ -17511,7 +17517,7 @@
       </c>
       <c r="C335"/>
       <c r="D335" t="s">
-        <v>3071</v>
+        <v>3073</v>
       </c>
       <c r="E335" t="s">
         <v>988</v>
@@ -17529,7 +17535,7 @@
       </c>
       <c r="C336"/>
       <c r="D336" t="s">
-        <v>3072</v>
+        <v>3074</v>
       </c>
       <c r="E336" t="s">
         <v>988</v>
@@ -17547,7 +17553,7 @@
       </c>
       <c r="C337"/>
       <c r="D337" t="s">
-        <v>3073</v>
+        <v>3075</v>
       </c>
       <c r="E337" t="s">
         <v>993</v>
@@ -17565,7 +17571,7 @@
       </c>
       <c r="C338"/>
       <c r="D338" t="s">
-        <v>3074</v>
+        <v>3076</v>
       </c>
       <c r="E338" t="s">
         <v>996</v>
@@ -17583,7 +17589,7 @@
       </c>
       <c r="C339"/>
       <c r="D339" t="s">
-        <v>3075</v>
+        <v>3077</v>
       </c>
       <c r="E339" t="s">
         <v>999</v>
@@ -17601,7 +17607,7 @@
       </c>
       <c r="C340"/>
       <c r="D340" t="s">
-        <v>3076</v>
+        <v>3078</v>
       </c>
       <c r="E340" t="s">
         <v>1002</v>
@@ -17619,7 +17625,7 @@
       </c>
       <c r="C341"/>
       <c r="D341" t="s">
-        <v>3077</v>
+        <v>3079</v>
       </c>
       <c r="E341" t="s">
         <v>1005</v>
@@ -17637,7 +17643,7 @@
       </c>
       <c r="C342"/>
       <c r="D342" t="s">
-        <v>3078</v>
+        <v>3080</v>
       </c>
       <c r="E342" t="s">
         <v>1008</v>
@@ -17657,7 +17663,7 @@
         <v>1011</v>
       </c>
       <c r="D343" t="s">
-        <v>3079</v>
+        <v>3081</v>
       </c>
       <c r="E343" t="s">
         <v>1012</v>
@@ -17677,7 +17683,7 @@
         <v>1011</v>
       </c>
       <c r="D344" t="s">
-        <v>3080</v>
+        <v>3082</v>
       </c>
       <c r="E344" t="s">
         <v>1015</v>
@@ -17697,7 +17703,7 @@
         <v>1011</v>
       </c>
       <c r="D345" t="s">
-        <v>3081</v>
+        <v>3083</v>
       </c>
       <c r="E345" t="s">
         <v>1018</v>
@@ -17717,7 +17723,7 @@
         <v>1011</v>
       </c>
       <c r="D346" t="s">
-        <v>3082</v>
+        <v>3084</v>
       </c>
       <c r="E346" t="s">
         <v>1021</v>
@@ -17737,7 +17743,7 @@
         <v>1011</v>
       </c>
       <c r="D347" t="s">
-        <v>3083</v>
+        <v>3085</v>
       </c>
       <c r="E347" t="s">
         <v>1024</v>
@@ -17757,7 +17763,7 @@
         <v>1011</v>
       </c>
       <c r="D348" t="s">
-        <v>3084</v>
+        <v>3086</v>
       </c>
       <c r="E348" t="s">
         <v>1027</v>
@@ -17777,7 +17783,7 @@
         <v>1011</v>
       </c>
       <c r="D349" t="s">
-        <v>3085</v>
+        <v>3087</v>
       </c>
       <c r="E349" t="s">
         <v>1030</v>
@@ -17797,7 +17803,7 @@
         <v>1011</v>
       </c>
       <c r="D350" t="s">
-        <v>3086</v>
+        <v>3088</v>
       </c>
       <c r="E350" t="s">
         <v>1033</v>
@@ -17815,7 +17821,7 @@
       </c>
       <c r="C351"/>
       <c r="D351" t="s">
-        <v>3087</v>
+        <v>3089</v>
       </c>
       <c r="E351" t="s">
         <v>1036</v>
@@ -17833,7 +17839,7 @@
       </c>
       <c r="C352"/>
       <c r="D352" t="s">
-        <v>3088</v>
+        <v>3090</v>
       </c>
       <c r="E352" t="s">
         <v>1039</v>
@@ -17851,7 +17857,7 @@
       </c>
       <c r="C353"/>
       <c r="D353" t="s">
-        <v>3089</v>
+        <v>3091</v>
       </c>
       <c r="E353" t="s">
         <v>1042</v>
@@ -17869,7 +17875,7 @@
       </c>
       <c r="C354"/>
       <c r="D354" t="s">
-        <v>3090</v>
+        <v>3092</v>
       </c>
       <c r="E354" t="s">
         <v>1045</v>
@@ -17887,7 +17893,7 @@
       </c>
       <c r="C355"/>
       <c r="D355" t="s">
-        <v>3091</v>
+        <v>3093</v>
       </c>
       <c r="E355" t="s">
         <v>1048</v>
@@ -17905,7 +17911,7 @@
       </c>
       <c r="C356"/>
       <c r="D356" t="s">
-        <v>3092</v>
+        <v>3094</v>
       </c>
       <c r="E356" t="s">
         <v>1051</v>
@@ -17923,7 +17929,7 @@
       </c>
       <c r="C357"/>
       <c r="D357" t="s">
-        <v>3093</v>
+        <v>3095</v>
       </c>
       <c r="E357" t="s">
         <v>1054</v>
@@ -17941,7 +17947,7 @@
       </c>
       <c r="C358"/>
       <c r="D358" t="s">
-        <v>3094</v>
+        <v>3096</v>
       </c>
       <c r="E358" t="s">
         <v>1057</v>
@@ -17959,7 +17965,7 @@
       </c>
       <c r="C359"/>
       <c r="D359" t="s">
-        <v>3095</v>
+        <v>3097</v>
       </c>
       <c r="E359" t="s">
         <v>1060</v>
@@ -17977,7 +17983,7 @@
       </c>
       <c r="C360"/>
       <c r="D360" t="s">
-        <v>3096</v>
+        <v>3098</v>
       </c>
       <c r="E360" t="s">
         <v>1063</v>
@@ -17995,7 +18001,7 @@
       </c>
       <c r="C361"/>
       <c r="D361" t="s">
-        <v>3051</v>
+        <v>3053</v>
       </c>
       <c r="E361" t="s">
         <v>1066</v>
@@ -18013,7 +18019,7 @@
       </c>
       <c r="C362"/>
       <c r="D362" t="s">
-        <v>3097</v>
+        <v>3099</v>
       </c>
       <c r="E362" t="s">
         <v>1068</v>
@@ -18031,7 +18037,7 @@
       </c>
       <c r="C363"/>
       <c r="D363" t="s">
-        <v>3098</v>
+        <v>3100</v>
       </c>
       <c r="E363" t="s">
         <v>1071</v>
@@ -18049,7 +18055,7 @@
       </c>
       <c r="C364"/>
       <c r="D364" t="s">
-        <v>2869</v>
+        <v>2871</v>
       </c>
       <c r="E364" t="s">
         <v>364</v>
@@ -18067,7 +18073,7 @@
       </c>
       <c r="C365"/>
       <c r="D365" t="s">
-        <v>3099</v>
+        <v>3101</v>
       </c>
       <c r="E365" t="s">
         <v>1075</v>
@@ -18085,7 +18091,7 @@
       </c>
       <c r="C366"/>
       <c r="D366" t="s">
-        <v>3100</v>
+        <v>3102</v>
       </c>
       <c r="E366" t="s">
         <v>1078</v>
@@ -18103,7 +18109,7 @@
       </c>
       <c r="C367"/>
       <c r="D367" t="s">
-        <v>3101</v>
+        <v>3103</v>
       </c>
       <c r="E367" t="s">
         <v>1081</v>
@@ -18121,7 +18127,7 @@
       </c>
       <c r="C368"/>
       <c r="D368" t="s">
-        <v>3102</v>
+        <v>3104</v>
       </c>
       <c r="E368" t="s">
         <v>1084</v>
@@ -18139,7 +18145,7 @@
       </c>
       <c r="C369"/>
       <c r="D369" t="s">
-        <v>3103</v>
+        <v>3105</v>
       </c>
       <c r="E369" t="s">
         <v>1087</v>
@@ -18157,7 +18163,7 @@
       </c>
       <c r="C370"/>
       <c r="D370" t="s">
-        <v>3104</v>
+        <v>3106</v>
       </c>
       <c r="E370" t="s">
         <v>1090</v>
@@ -18175,7 +18181,7 @@
       </c>
       <c r="C371"/>
       <c r="D371" t="s">
-        <v>3105</v>
+        <v>3107</v>
       </c>
       <c r="E371" t="s">
         <v>1093</v>
@@ -18193,7 +18199,7 @@
       </c>
       <c r="C372"/>
       <c r="D372" t="s">
-        <v>3106</v>
+        <v>3108</v>
       </c>
       <c r="E372" t="s">
         <v>1096</v>
@@ -18211,7 +18217,7 @@
       </c>
       <c r="C373"/>
       <c r="D373" t="s">
-        <v>3107</v>
+        <v>3109</v>
       </c>
       <c r="E373" t="s">
         <v>1099</v>
@@ -18229,7 +18235,7 @@
       </c>
       <c r="C374"/>
       <c r="D374" t="s">
-        <v>3108</v>
+        <v>3110</v>
       </c>
       <c r="E374" t="s">
         <v>1102</v>
@@ -18247,7 +18253,7 @@
       </c>
       <c r="C375"/>
       <c r="D375" t="s">
-        <v>3109</v>
+        <v>3111</v>
       </c>
       <c r="E375" t="s">
         <v>1105</v>
@@ -18265,7 +18271,7 @@
       </c>
       <c r="C376"/>
       <c r="D376" t="s">
-        <v>3110</v>
+        <v>3112</v>
       </c>
       <c r="E376" t="s">
         <v>1108</v>
@@ -18283,7 +18289,7 @@
       </c>
       <c r="C377"/>
       <c r="D377" t="s">
-        <v>3111</v>
+        <v>3113</v>
       </c>
       <c r="E377" t="s">
         <v>1111</v>
@@ -18301,7 +18307,7 @@
       </c>
       <c r="C378"/>
       <c r="D378" t="s">
-        <v>3112</v>
+        <v>3114</v>
       </c>
       <c r="E378" t="s">
         <v>1114</v>
@@ -18319,7 +18325,7 @@
       </c>
       <c r="C379"/>
       <c r="D379" t="s">
-        <v>3113</v>
+        <v>3115</v>
       </c>
       <c r="E379" t="s">
         <v>1117</v>
@@ -18337,7 +18343,7 @@
       </c>
       <c r="C380"/>
       <c r="D380" t="s">
-        <v>3114</v>
+        <v>3116</v>
       </c>
       <c r="E380" t="s">
         <v>1120</v>
@@ -18355,7 +18361,7 @@
       </c>
       <c r="C381"/>
       <c r="D381" t="s">
-        <v>3115</v>
+        <v>3117</v>
       </c>
       <c r="E381" t="s">
         <v>1123</v>
@@ -18373,7 +18379,7 @@
       </c>
       <c r="C382"/>
       <c r="D382" t="s">
-        <v>3116</v>
+        <v>3118</v>
       </c>
       <c r="E382" t="s">
         <v>1126</v>
@@ -18391,7 +18397,7 @@
       </c>
       <c r="C383"/>
       <c r="D383" t="s">
-        <v>3117</v>
+        <v>3119</v>
       </c>
       <c r="E383" t="s">
         <v>1129</v>
@@ -18409,7 +18415,7 @@
       </c>
       <c r="C384"/>
       <c r="D384" t="s">
-        <v>3118</v>
+        <v>3120</v>
       </c>
       <c r="E384" t="s">
         <v>1132</v>
@@ -18427,7 +18433,7 @@
       </c>
       <c r="C385"/>
       <c r="D385" t="s">
-        <v>3119</v>
+        <v>3121</v>
       </c>
       <c r="E385" t="s">
         <v>1135</v>
@@ -18445,7 +18451,7 @@
       </c>
       <c r="C386"/>
       <c r="D386" t="s">
-        <v>3120</v>
+        <v>3122</v>
       </c>
       <c r="E386" t="s">
         <v>1138</v>
@@ -18463,7 +18469,7 @@
       </c>
       <c r="C387"/>
       <c r="D387" t="s">
-        <v>3121</v>
+        <v>3123</v>
       </c>
       <c r="E387" t="s">
         <v>1141</v>
@@ -18481,7 +18487,7 @@
       </c>
       <c r="C388"/>
       <c r="D388" t="s">
-        <v>3122</v>
+        <v>3124</v>
       </c>
       <c r="E388" t="s">
         <v>1144</v>
@@ -18499,7 +18505,7 @@
       </c>
       <c r="C389"/>
       <c r="D389" t="s">
-        <v>3123</v>
+        <v>3125</v>
       </c>
       <c r="E389" t="s">
         <v>1147</v>
@@ -18517,7 +18523,7 @@
       </c>
       <c r="C390"/>
       <c r="D390" t="s">
-        <v>3124</v>
+        <v>3126</v>
       </c>
       <c r="E390" t="s">
         <v>1150</v>
@@ -18535,7 +18541,7 @@
       </c>
       <c r="C391"/>
       <c r="D391" t="s">
-        <v>3125</v>
+        <v>3127</v>
       </c>
       <c r="E391" t="s">
         <v>1153</v>
@@ -18553,7 +18559,7 @@
       </c>
       <c r="C392"/>
       <c r="D392" t="s">
-        <v>3126</v>
+        <v>3128</v>
       </c>
       <c r="E392" t="s">
         <v>1156</v>
@@ -18571,7 +18577,7 @@
       </c>
       <c r="C393"/>
       <c r="D393" t="s">
-        <v>3127</v>
+        <v>3129</v>
       </c>
       <c r="E393" t="s">
         <v>1159</v>
@@ -18589,7 +18595,7 @@
       </c>
       <c r="C394"/>
       <c r="D394" t="s">
-        <v>3128</v>
+        <v>3130</v>
       </c>
       <c r="E394" t="s">
         <v>1162</v>
@@ -18607,7 +18613,7 @@
       </c>
       <c r="C395"/>
       <c r="D395" t="s">
-        <v>3129</v>
+        <v>3131</v>
       </c>
       <c r="E395" t="s">
         <v>1165</v>
@@ -18625,7 +18631,7 @@
       </c>
       <c r="C396"/>
       <c r="D396" t="s">
-        <v>3130</v>
+        <v>3132</v>
       </c>
       <c r="E396" t="s">
         <v>1168</v>
@@ -18643,7 +18649,7 @@
       </c>
       <c r="C397"/>
       <c r="D397" t="s">
-        <v>3131</v>
+        <v>3133</v>
       </c>
       <c r="E397" t="s">
         <v>1171</v>
@@ -18661,7 +18667,7 @@
       </c>
       <c r="C398"/>
       <c r="D398" t="s">
-        <v>3132</v>
+        <v>3134</v>
       </c>
       <c r="E398" t="s">
         <v>1174</v>
@@ -18679,7 +18685,7 @@
       </c>
       <c r="C399"/>
       <c r="D399" t="s">
-        <v>3133</v>
+        <v>3135</v>
       </c>
       <c r="E399" t="s">
         <v>1177</v>
@@ -18697,7 +18703,7 @@
       </c>
       <c r="C400"/>
       <c r="D400" t="s">
-        <v>3134</v>
+        <v>3136</v>
       </c>
       <c r="E400" t="s">
         <v>1180</v>
@@ -18715,7 +18721,7 @@
       </c>
       <c r="C401"/>
       <c r="D401" t="s">
-        <v>3135</v>
+        <v>3137</v>
       </c>
       <c r="E401" t="s">
         <v>1183</v>
@@ -18733,7 +18739,7 @@
       </c>
       <c r="C402"/>
       <c r="D402" t="s">
-        <v>3136</v>
+        <v>3138</v>
       </c>
       <c r="E402" t="s">
         <v>1186</v>
@@ -18751,7 +18757,7 @@
       </c>
       <c r="C403"/>
       <c r="D403" t="s">
-        <v>3137</v>
+        <v>3139</v>
       </c>
       <c r="E403" t="s">
         <v>1189</v>
@@ -18769,7 +18775,7 @@
       </c>
       <c r="C404"/>
       <c r="D404" t="s">
-        <v>3138</v>
+        <v>3140</v>
       </c>
       <c r="E404" t="s">
         <v>1192</v>
@@ -18787,7 +18793,7 @@
       </c>
       <c r="C405"/>
       <c r="D405" t="s">
-        <v>3139</v>
+        <v>3141</v>
       </c>
       <c r="E405" t="s">
         <v>1195</v>
@@ -18805,7 +18811,7 @@
       </c>
       <c r="C406"/>
       <c r="D406" t="s">
-        <v>3140</v>
+        <v>3142</v>
       </c>
       <c r="E406" t="s">
         <v>1198</v>
@@ -18823,7 +18829,7 @@
       </c>
       <c r="C407"/>
       <c r="D407" t="s">
-        <v>3141</v>
+        <v>3143</v>
       </c>
       <c r="E407" t="s">
         <v>1201</v>
@@ -18841,7 +18847,7 @@
       </c>
       <c r="C408"/>
       <c r="D408" t="s">
-        <v>3142</v>
+        <v>3144</v>
       </c>
       <c r="E408" t="s">
         <v>1204</v>
@@ -18859,7 +18865,7 @@
       </c>
       <c r="C409"/>
       <c r="D409" t="s">
-        <v>3143</v>
+        <v>3145</v>
       </c>
       <c r="E409" t="s">
         <v>1207</v>
@@ -18877,7 +18883,7 @@
       </c>
       <c r="C410"/>
       <c r="D410" t="s">
-        <v>3144</v>
+        <v>3146</v>
       </c>
       <c r="E410" t="s">
         <v>1210</v>
@@ -18895,7 +18901,7 @@
       </c>
       <c r="C411"/>
       <c r="D411" t="s">
-        <v>3145</v>
+        <v>3147</v>
       </c>
       <c r="E411" t="s">
         <v>1213</v>
@@ -18913,7 +18919,7 @@
       </c>
       <c r="C412"/>
       <c r="D412" t="s">
-        <v>3146</v>
+        <v>3148</v>
       </c>
       <c r="E412" t="s">
         <v>1216</v>
@@ -18931,7 +18937,7 @@
       </c>
       <c r="C413"/>
       <c r="D413" t="s">
-        <v>3147</v>
+        <v>3149</v>
       </c>
       <c r="E413" t="s">
         <v>1219</v>
@@ -18949,7 +18955,7 @@
       </c>
       <c r="C414"/>
       <c r="D414" t="s">
-        <v>3148</v>
+        <v>3150</v>
       </c>
       <c r="E414" t="s">
         <v>1222</v>
@@ -18967,7 +18973,7 @@
       </c>
       <c r="C415"/>
       <c r="D415" t="s">
-        <v>3149</v>
+        <v>3151</v>
       </c>
       <c r="E415" t="s">
         <v>1225</v>
@@ -18985,7 +18991,7 @@
       </c>
       <c r="C416"/>
       <c r="D416" t="s">
-        <v>3150</v>
+        <v>3152</v>
       </c>
       <c r="E416" t="s">
         <v>1228</v>
@@ -19003,7 +19009,7 @@
       </c>
       <c r="C417"/>
       <c r="D417" t="s">
-        <v>3151</v>
+        <v>3153</v>
       </c>
       <c r="E417" t="s">
         <v>1231</v>
@@ -19021,7 +19027,7 @@
       </c>
       <c r="C418"/>
       <c r="D418" t="s">
-        <v>3152</v>
+        <v>3154</v>
       </c>
       <c r="E418" t="s">
         <v>1234</v>
@@ -19039,7 +19045,7 @@
       </c>
       <c r="C419"/>
       <c r="D419" t="s">
-        <v>3153</v>
+        <v>3155</v>
       </c>
       <c r="E419" t="s">
         <v>1237</v>
@@ -19057,7 +19063,7 @@
       </c>
       <c r="C420"/>
       <c r="D420" t="s">
-        <v>3154</v>
+        <v>3156</v>
       </c>
       <c r="E420" t="s">
         <v>1240</v>
@@ -19075,7 +19081,7 @@
       </c>
       <c r="C421"/>
       <c r="D421" t="s">
-        <v>3155</v>
+        <v>3157</v>
       </c>
       <c r="E421" t="s">
         <v>1243</v>
@@ -19093,7 +19099,7 @@
       </c>
       <c r="C422"/>
       <c r="D422" t="s">
-        <v>3156</v>
+        <v>3158</v>
       </c>
       <c r="E422" t="s">
         <v>1243</v>
@@ -19111,7 +19117,7 @@
       </c>
       <c r="C423"/>
       <c r="D423" t="s">
-        <v>3157</v>
+        <v>3159</v>
       </c>
       <c r="E423" t="s">
         <v>1248</v>
@@ -19129,7 +19135,7 @@
       </c>
       <c r="C424"/>
       <c r="D424" t="s">
-        <v>3158</v>
+        <v>3160</v>
       </c>
       <c r="E424" t="s">
         <v>1251</v>
@@ -19147,7 +19153,7 @@
       </c>
       <c r="C425"/>
       <c r="D425" t="s">
-        <v>3159</v>
+        <v>3161</v>
       </c>
       <c r="E425" t="s">
         <v>1254</v>
@@ -19165,7 +19171,7 @@
       </c>
       <c r="C426"/>
       <c r="D426" t="s">
-        <v>3160</v>
+        <v>3162</v>
       </c>
       <c r="E426" t="s">
         <v>1257</v>
@@ -19183,7 +19189,7 @@
       </c>
       <c r="C427"/>
       <c r="D427" t="s">
-        <v>3161</v>
+        <v>3163</v>
       </c>
       <c r="E427" t="s">
         <v>1260</v>
@@ -19201,7 +19207,7 @@
       </c>
       <c r="C428"/>
       <c r="D428" t="s">
-        <v>3162</v>
+        <v>3164</v>
       </c>
       <c r="E428" t="s">
         <v>1263</v>
@@ -19219,7 +19225,7 @@
       </c>
       <c r="C429"/>
       <c r="D429" t="s">
-        <v>3163</v>
+        <v>3165</v>
       </c>
       <c r="E429" t="s">
         <v>1266</v>
@@ -19237,7 +19243,7 @@
       </c>
       <c r="C430"/>
       <c r="D430" t="s">
-        <v>3164</v>
+        <v>3166</v>
       </c>
       <c r="E430" t="s">
         <v>1269</v>
@@ -19255,7 +19261,7 @@
       </c>
       <c r="C431"/>
       <c r="D431" t="s">
-        <v>3165</v>
+        <v>3167</v>
       </c>
       <c r="E431" t="s">
         <v>1272</v>
@@ -19273,7 +19279,7 @@
       </c>
       <c r="C432"/>
       <c r="D432" t="s">
-        <v>3166</v>
+        <v>3168</v>
       </c>
       <c r="E432" t="s">
         <v>1275</v>
@@ -19291,7 +19297,7 @@
       </c>
       <c r="C433"/>
       <c r="D433" t="s">
-        <v>3167</v>
+        <v>3169</v>
       </c>
       <c r="E433" t="s">
         <v>1275</v>
@@ -19309,7 +19315,7 @@
       </c>
       <c r="C434"/>
       <c r="D434" t="s">
-        <v>3167</v>
+        <v>3169</v>
       </c>
       <c r="E434" t="s">
         <v>1275</v>
@@ -19327,7 +19333,7 @@
       </c>
       <c r="C435"/>
       <c r="D435" t="s">
-        <v>3168</v>
+        <v>3170</v>
       </c>
       <c r="E435" t="s">
         <v>1281</v>
@@ -19345,7 +19351,7 @@
       </c>
       <c r="C436"/>
       <c r="D436" t="s">
-        <v>3169</v>
+        <v>3171</v>
       </c>
       <c r="E436" t="s">
         <v>1284</v>
@@ -19363,7 +19369,7 @@
       </c>
       <c r="C437"/>
       <c r="D437" t="s">
-        <v>3170</v>
+        <v>3172</v>
       </c>
       <c r="E437" t="s">
         <v>1287</v>
@@ -19381,7 +19387,7 @@
       </c>
       <c r="C438"/>
       <c r="D438" t="s">
-        <v>3171</v>
+        <v>3173</v>
       </c>
       <c r="E438" t="s">
         <v>1290</v>
@@ -19399,7 +19405,7 @@
       </c>
       <c r="C439"/>
       <c r="D439" t="s">
-        <v>3172</v>
+        <v>3174</v>
       </c>
       <c r="E439" t="s">
         <v>1293</v>
@@ -19417,7 +19423,7 @@
       </c>
       <c r="C440"/>
       <c r="D440" t="s">
-        <v>3173</v>
+        <v>3175</v>
       </c>
       <c r="E440" t="s">
         <v>1296</v>
@@ -19435,7 +19441,7 @@
       </c>
       <c r="C441"/>
       <c r="D441" t="s">
-        <v>3174</v>
+        <v>3176</v>
       </c>
       <c r="E441" t="s">
         <v>1281</v>
@@ -19453,7 +19459,7 @@
       </c>
       <c r="C442"/>
       <c r="D442" t="s">
-        <v>3175</v>
+        <v>3177</v>
       </c>
       <c r="E442" t="s">
         <v>1301</v>
@@ -19471,7 +19477,7 @@
       </c>
       <c r="C443"/>
       <c r="D443" t="s">
-        <v>3176</v>
+        <v>3178</v>
       </c>
       <c r="E443" t="s">
         <v>1304</v>
@@ -19489,7 +19495,7 @@
       </c>
       <c r="C444"/>
       <c r="D444" t="s">
-        <v>3177</v>
+        <v>3179</v>
       </c>
       <c r="E444" t="s">
         <v>1307</v>
@@ -19507,7 +19513,7 @@
       </c>
       <c r="C445"/>
       <c r="D445" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
       <c r="E445" t="s">
         <v>1310</v>
@@ -19525,7 +19531,7 @@
       </c>
       <c r="C446"/>
       <c r="D446" t="s">
-        <v>3179</v>
+        <v>3181</v>
       </c>
       <c r="E446" t="s">
         <v>1313</v>
@@ -19543,7 +19549,7 @@
       </c>
       <c r="C447"/>
       <c r="D447" t="s">
-        <v>3180</v>
+        <v>3182</v>
       </c>
       <c r="E447" t="s">
         <v>1316</v>
@@ -19561,7 +19567,7 @@
       </c>
       <c r="C448"/>
       <c r="D448" t="s">
-        <v>3181</v>
+        <v>3183</v>
       </c>
       <c r="E448" t="s">
         <v>1319</v>
@@ -19579,7 +19585,7 @@
       </c>
       <c r="C449"/>
       <c r="D449" t="s">
-        <v>3182</v>
+        <v>3184</v>
       </c>
       <c r="E449" t="s">
         <v>1319</v>
@@ -19597,7 +19603,7 @@
       </c>
       <c r="C450"/>
       <c r="D450" t="s">
-        <v>3183</v>
+        <v>3185</v>
       </c>
       <c r="E450" t="s">
         <v>1324</v>
@@ -19615,7 +19621,7 @@
       </c>
       <c r="C451"/>
       <c r="D451" t="s">
-        <v>3184</v>
+        <v>3186</v>
       </c>
       <c r="E451" t="s">
         <v>1327</v>
@@ -19633,7 +19639,7 @@
       </c>
       <c r="C452"/>
       <c r="D452" t="s">
-        <v>3185</v>
+        <v>3187</v>
       </c>
       <c r="E452" t="s">
         <v>1330</v>
@@ -19651,7 +19657,7 @@
       </c>
       <c r="C453"/>
       <c r="D453" t="s">
-        <v>3186</v>
+        <v>3188</v>
       </c>
       <c r="E453" t="s">
         <v>1333</v>
@@ -19669,7 +19675,7 @@
       </c>
       <c r="C454"/>
       <c r="D454" t="s">
-        <v>3187</v>
+        <v>3189</v>
       </c>
       <c r="E454" t="s">
         <v>1336</v>
@@ -19687,7 +19693,7 @@
       </c>
       <c r="C455"/>
       <c r="D455" t="s">
-        <v>3188</v>
+        <v>3190</v>
       </c>
       <c r="E455" t="s">
         <v>1339</v>
@@ -19705,7 +19711,7 @@
       </c>
       <c r="C456"/>
       <c r="D456" t="s">
-        <v>3189</v>
+        <v>3191</v>
       </c>
       <c r="E456" t="s">
         <v>1342</v>
@@ -19723,7 +19729,7 @@
       </c>
       <c r="C457"/>
       <c r="D457" t="s">
-        <v>3190</v>
+        <v>3192</v>
       </c>
       <c r="E457" t="s">
         <v>1345</v>
@@ -19741,7 +19747,7 @@
       </c>
       <c r="C458"/>
       <c r="D458" t="s">
-        <v>3191</v>
+        <v>3193</v>
       </c>
       <c r="E458" t="s">
         <v>1348</v>
@@ -19759,7 +19765,7 @@
       </c>
       <c r="C459"/>
       <c r="D459" t="s">
-        <v>3192</v>
+        <v>3194</v>
       </c>
       <c r="E459" t="s">
         <v>1351</v>
@@ -19777,7 +19783,7 @@
       </c>
       <c r="C460"/>
       <c r="D460" t="s">
-        <v>3193</v>
+        <v>3195</v>
       </c>
       <c r="E460" t="s">
         <v>1354</v>
@@ -19795,7 +19801,7 @@
       </c>
       <c r="C461"/>
       <c r="D461" t="s">
-        <v>3194</v>
+        <v>3196</v>
       </c>
       <c r="E461" t="s">
         <v>1357</v>
@@ -19813,7 +19819,7 @@
       </c>
       <c r="C462"/>
       <c r="D462" t="s">
-        <v>3195</v>
+        <v>3197</v>
       </c>
       <c r="E462" t="s">
         <v>1360</v>
@@ -19831,7 +19837,7 @@
       </c>
       <c r="C463"/>
       <c r="D463" t="s">
-        <v>3196</v>
+        <v>3198</v>
       </c>
       <c r="E463" t="s">
         <v>1363</v>
@@ -19849,7 +19855,7 @@
       </c>
       <c r="C464"/>
       <c r="D464" t="s">
-        <v>3197</v>
+        <v>3199</v>
       </c>
       <c r="E464" t="s">
         <v>1366</v>
@@ -19867,7 +19873,7 @@
       </c>
       <c r="C465"/>
       <c r="D465" t="s">
-        <v>3198</v>
+        <v>3200</v>
       </c>
       <c r="E465" t="s">
         <v>1369</v>
@@ -19885,7 +19891,7 @@
       </c>
       <c r="C466"/>
       <c r="D466" t="s">
-        <v>3199</v>
+        <v>3201</v>
       </c>
       <c r="E466" t="s">
         <v>1372</v>
@@ -19903,7 +19909,7 @@
       </c>
       <c r="C467"/>
       <c r="D467" t="s">
-        <v>3200</v>
+        <v>3202</v>
       </c>
       <c r="E467" t="s">
         <v>1375</v>
@@ -19921,7 +19927,7 @@
       </c>
       <c r="C468"/>
       <c r="D468" t="s">
-        <v>3201</v>
+        <v>3203</v>
       </c>
       <c r="E468" t="s">
         <v>1378</v>
@@ -19939,7 +19945,7 @@
       </c>
       <c r="C469"/>
       <c r="D469" t="s">
-        <v>3202</v>
+        <v>3204</v>
       </c>
       <c r="E469" t="s">
         <v>1381</v>
@@ -19957,7 +19963,7 @@
       </c>
       <c r="C470"/>
       <c r="D470" t="s">
-        <v>3203</v>
+        <v>3205</v>
       </c>
       <c r="E470" t="s">
         <v>1384</v>
@@ -19975,7 +19981,7 @@
       </c>
       <c r="C471"/>
       <c r="D471" t="s">
-        <v>3204</v>
+        <v>3206</v>
       </c>
       <c r="E471" t="s">
         <v>1387</v>
@@ -19993,7 +19999,7 @@
       </c>
       <c r="C472"/>
       <c r="D472" t="s">
-        <v>3205</v>
+        <v>3207</v>
       </c>
       <c r="E472" t="s">
         <v>1390</v>
@@ -20011,7 +20017,7 @@
       </c>
       <c r="C473"/>
       <c r="D473" t="s">
-        <v>3206</v>
+        <v>3208</v>
       </c>
       <c r="E473" t="s">
         <v>1393</v>
@@ -20029,7 +20035,7 @@
       </c>
       <c r="C474"/>
       <c r="D474" t="s">
-        <v>3207</v>
+        <v>3209</v>
       </c>
       <c r="E474" t="s">
         <v>1396</v>
@@ -20047,7 +20053,7 @@
       </c>
       <c r="C475"/>
       <c r="D475" t="s">
-        <v>3208</v>
+        <v>3210</v>
       </c>
       <c r="E475" t="s">
         <v>1399</v>
@@ -20065,7 +20071,7 @@
       </c>
       <c r="C476"/>
       <c r="D476" t="s">
-        <v>3209</v>
+        <v>3211</v>
       </c>
       <c r="E476" t="s">
         <v>1402</v>
@@ -20083,7 +20089,7 @@
       </c>
       <c r="C477"/>
       <c r="D477" t="s">
-        <v>3210</v>
+        <v>3212</v>
       </c>
       <c r="E477" t="s">
         <v>1405</v>
@@ -20101,7 +20107,7 @@
       </c>
       <c r="C478"/>
       <c r="D478" t="s">
-        <v>3211</v>
+        <v>3213</v>
       </c>
       <c r="E478" t="s">
         <v>1408</v>
@@ -20119,7 +20125,7 @@
       </c>
       <c r="C479"/>
       <c r="D479" t="s">
-        <v>3212</v>
+        <v>3214</v>
       </c>
       <c r="E479" t="s">
         <v>1411</v>
@@ -20137,7 +20143,7 @@
       </c>
       <c r="C480"/>
       <c r="D480" t="s">
-        <v>3213</v>
+        <v>3215</v>
       </c>
       <c r="E480" t="s">
         <v>1414</v>
@@ -20155,7 +20161,7 @@
       </c>
       <c r="C481"/>
       <c r="D481" t="s">
-        <v>3214</v>
+        <v>3216</v>
       </c>
       <c r="E481" t="s">
         <v>1417</v>
@@ -20173,7 +20179,7 @@
       </c>
       <c r="C482"/>
       <c r="D482" t="s">
-        <v>3215</v>
+        <v>3217</v>
       </c>
       <c r="E482" t="s">
         <v>1420</v>
@@ -20191,7 +20197,7 @@
       </c>
       <c r="C483"/>
       <c r="D483" t="s">
-        <v>3216</v>
+        <v>3218</v>
       </c>
       <c r="E483" t="s">
         <v>1423</v>
@@ -20209,7 +20215,7 @@
       </c>
       <c r="C484"/>
       <c r="D484" t="s">
-        <v>3217</v>
+        <v>3219</v>
       </c>
       <c r="E484" t="s">
         <v>1426</v>
@@ -20227,7 +20233,7 @@
       </c>
       <c r="C485"/>
       <c r="D485" t="s">
-        <v>3218</v>
+        <v>3220</v>
       </c>
       <c r="E485" t="s">
         <v>1429</v>
@@ -20245,7 +20251,7 @@
       </c>
       <c r="C486"/>
       <c r="D486" t="s">
-        <v>3219</v>
+        <v>3221</v>
       </c>
       <c r="E486" t="s">
         <v>1432</v>
@@ -20263,7 +20269,7 @@
       </c>
       <c r="C487"/>
       <c r="D487" t="s">
-        <v>3220</v>
+        <v>3222</v>
       </c>
       <c r="E487" t="s">
         <v>1435</v>
@@ -20281,7 +20287,7 @@
       </c>
       <c r="C488"/>
       <c r="D488" t="s">
-        <v>3221</v>
+        <v>3223</v>
       </c>
       <c r="E488" t="s">
         <v>1438</v>
@@ -20299,7 +20305,7 @@
       </c>
       <c r="C489"/>
       <c r="D489" t="s">
-        <v>3222</v>
+        <v>3224</v>
       </c>
       <c r="E489" t="s">
         <v>1441</v>
@@ -20317,7 +20323,7 @@
       </c>
       <c r="C490"/>
       <c r="D490" t="s">
-        <v>3223</v>
+        <v>3225</v>
       </c>
       <c r="E490" t="s">
         <v>1444</v>
@@ -20335,7 +20341,7 @@
       </c>
       <c r="C491"/>
       <c r="D491" t="s">
-        <v>3224</v>
+        <v>3226</v>
       </c>
       <c r="E491" t="s">
         <v>1447</v>
@@ -20353,7 +20359,7 @@
       </c>
       <c r="C492"/>
       <c r="D492" t="s">
-        <v>3225</v>
+        <v>3227</v>
       </c>
       <c r="E492" t="s">
         <v>1450</v>
@@ -20371,7 +20377,7 @@
       </c>
       <c r="C493"/>
       <c r="D493" t="s">
-        <v>3226</v>
+        <v>3228</v>
       </c>
       <c r="E493" t="s">
         <v>1453</v>
@@ -20391,7 +20397,7 @@
         <v>367</v>
       </c>
       <c r="D494" t="s">
-        <v>3227</v>
+        <v>3229</v>
       </c>
       <c r="E494" t="s">
         <v>1456</v>
@@ -20411,7 +20417,7 @@
         <v>367</v>
       </c>
       <c r="D495" t="s">
-        <v>3228</v>
+        <v>3230</v>
       </c>
       <c r="E495" t="s">
         <v>1459</v>
@@ -20429,7 +20435,7 @@
       </c>
       <c r="C496"/>
       <c r="D496" t="s">
-        <v>3229</v>
+        <v>3231</v>
       </c>
       <c r="E496" t="s">
         <v>1462</v>
@@ -20447,7 +20453,7 @@
       </c>
       <c r="C497"/>
       <c r="D497" t="s">
-        <v>3230</v>
+        <v>3232</v>
       </c>
       <c r="E497" t="s">
         <v>1465</v>
@@ -20465,7 +20471,7 @@
       </c>
       <c r="C498"/>
       <c r="D498" t="s">
-        <v>3231</v>
+        <v>3233</v>
       </c>
       <c r="E498" t="s">
         <v>1468</v>
@@ -20483,7 +20489,7 @@
       </c>
       <c r="C499"/>
       <c r="D499" t="s">
-        <v>3232</v>
+        <v>3234</v>
       </c>
       <c r="E499" t="s">
         <v>1471</v>
@@ -20501,7 +20507,7 @@
       </c>
       <c r="C500"/>
       <c r="D500" t="s">
-        <v>3233</v>
+        <v>3235</v>
       </c>
       <c r="E500" t="s">
         <v>1474</v>
@@ -20519,7 +20525,7 @@
       </c>
       <c r="C501"/>
       <c r="D501" t="s">
-        <v>3234</v>
+        <v>3236</v>
       </c>
       <c r="E501" t="s">
         <v>1477</v>
@@ -20537,7 +20543,7 @@
       </c>
       <c r="C502"/>
       <c r="D502" t="s">
-        <v>3235</v>
+        <v>3237</v>
       </c>
       <c r="E502" t="s">
         <v>1480</v>
@@ -20555,7 +20561,7 @@
       </c>
       <c r="C503"/>
       <c r="D503" t="s">
-        <v>3236</v>
+        <v>3238</v>
       </c>
       <c r="E503" t="s">
         <v>1483</v>
@@ -20575,7 +20581,7 @@
         <v>1486</v>
       </c>
       <c r="D504" t="s">
-        <v>3237</v>
+        <v>3239</v>
       </c>
       <c r="E504" t="s">
         <v>1487</v>
@@ -20593,7 +20599,7 @@
       </c>
       <c r="C505"/>
       <c r="D505" t="s">
-        <v>3238</v>
+        <v>3240</v>
       </c>
       <c r="E505" t="s">
         <v>1490</v>
@@ -20611,7 +20617,7 @@
       </c>
       <c r="C506"/>
       <c r="D506" t="s">
-        <v>3239</v>
+        <v>3241</v>
       </c>
       <c r="E506" t="s">
         <v>1493</v>
@@ -20629,7 +20635,7 @@
       </c>
       <c r="C507"/>
       <c r="D507" t="s">
-        <v>2869</v>
+        <v>2871</v>
       </c>
       <c r="E507" t="s">
         <v>364</v>
@@ -20647,7 +20653,7 @@
       </c>
       <c r="C508"/>
       <c r="D508" t="s">
-        <v>3240</v>
+        <v>3242</v>
       </c>
       <c r="E508" t="s">
         <v>1497</v>
@@ -20665,7 +20671,7 @@
       </c>
       <c r="C509"/>
       <c r="D509" t="s">
-        <v>3241</v>
+        <v>3243</v>
       </c>
       <c r="E509" t="s">
         <v>1500</v>
@@ -20683,7 +20689,7 @@
       </c>
       <c r="C510"/>
       <c r="D510" t="s">
-        <v>3242</v>
+        <v>3244</v>
       </c>
       <c r="E510" t="s">
         <v>1503</v>
@@ -20701,7 +20707,7 @@
       </c>
       <c r="C511"/>
       <c r="D511" t="s">
-        <v>3243</v>
+        <v>3245</v>
       </c>
       <c r="E511" t="s">
         <v>1506</v>
@@ -20719,7 +20725,7 @@
       </c>
       <c r="C512"/>
       <c r="D512" t="s">
-        <v>3244</v>
+        <v>3246</v>
       </c>
       <c r="E512" t="s">
         <v>1509</v>
@@ -20737,7 +20743,7 @@
       </c>
       <c r="C513"/>
       <c r="D513" t="s">
-        <v>3245</v>
+        <v>3247</v>
       </c>
       <c r="E513" t="s">
         <v>1512</v>
@@ -20755,7 +20761,7 @@
       </c>
       <c r="C514"/>
       <c r="D514" t="s">
-        <v>3246</v>
+        <v>3248</v>
       </c>
       <c r="E514" t="s">
         <v>1515</v>
@@ -20773,7 +20779,7 @@
       </c>
       <c r="C515"/>
       <c r="D515" t="s">
-        <v>3247</v>
+        <v>3249</v>
       </c>
       <c r="E515" t="s">
         <v>1518</v>
@@ -20791,7 +20797,7 @@
       </c>
       <c r="C516"/>
       <c r="D516" t="s">
-        <v>3248</v>
+        <v>3250</v>
       </c>
       <c r="E516" t="s">
         <v>1521</v>
@@ -20809,7 +20815,7 @@
       </c>
       <c r="C517"/>
       <c r="D517" t="s">
-        <v>3249</v>
+        <v>3251</v>
       </c>
       <c r="E517" t="s">
         <v>1524</v>
@@ -20827,7 +20833,7 @@
       </c>
       <c r="C518"/>
       <c r="D518" t="s">
-        <v>3250</v>
+        <v>3252</v>
       </c>
       <c r="E518" t="s">
         <v>1527</v>
@@ -20845,7 +20851,7 @@
       </c>
       <c r="C519"/>
       <c r="D519" t="s">
-        <v>3251</v>
+        <v>3253</v>
       </c>
       <c r="E519" t="s">
         <v>1530</v>
@@ -20863,7 +20869,7 @@
       </c>
       <c r="C520"/>
       <c r="D520" t="s">
-        <v>3252</v>
+        <v>3254</v>
       </c>
       <c r="E520" t="s">
         <v>1533</v>
@@ -20881,7 +20887,7 @@
       </c>
       <c r="C521"/>
       <c r="D521" t="s">
-        <v>3253</v>
+        <v>3255</v>
       </c>
       <c r="E521" t="s">
         <v>1177</v>
@@ -20899,7 +20905,7 @@
       </c>
       <c r="C522"/>
       <c r="D522" t="s">
-        <v>3254</v>
+        <v>3256</v>
       </c>
       <c r="E522" t="s">
         <v>1538</v>
@@ -20917,7 +20923,7 @@
       </c>
       <c r="C523"/>
       <c r="D523" t="s">
-        <v>3255</v>
+        <v>3257</v>
       </c>
       <c r="E523" t="s">
         <v>1541</v>
@@ -20935,7 +20941,7 @@
       </c>
       <c r="C524"/>
       <c r="D524" t="s">
-        <v>3256</v>
+        <v>3258</v>
       </c>
       <c r="E524" t="s">
         <v>1544</v>
@@ -20953,7 +20959,7 @@
       </c>
       <c r="C525"/>
       <c r="D525" t="s">
-        <v>3257</v>
+        <v>3259</v>
       </c>
       <c r="E525" t="s">
         <v>1547</v>
@@ -20971,7 +20977,7 @@
       </c>
       <c r="C526"/>
       <c r="D526" t="s">
-        <v>3258</v>
+        <v>3260</v>
       </c>
       <c r="E526" t="s">
         <v>1550</v>
@@ -20989,7 +20995,7 @@
       </c>
       <c r="C527"/>
       <c r="D527" t="s">
-        <v>3259</v>
+        <v>3261</v>
       </c>
       <c r="E527" t="s">
         <v>1553</v>
@@ -21007,7 +21013,7 @@
       </c>
       <c r="C528"/>
       <c r="D528" t="s">
-        <v>3260</v>
+        <v>3262</v>
       </c>
       <c r="E528" t="s">
         <v>1556</v>
@@ -21025,7 +21031,7 @@
       </c>
       <c r="C529"/>
       <c r="D529" t="s">
-        <v>3261</v>
+        <v>3263</v>
       </c>
       <c r="E529" t="s">
         <v>1559</v>
@@ -21043,7 +21049,7 @@
       </c>
       <c r="C530"/>
       <c r="D530" t="s">
-        <v>3262</v>
+        <v>3264</v>
       </c>
       <c r="E530" t="s">
         <v>1562</v>
@@ -21061,7 +21067,7 @@
       </c>
       <c r="C531"/>
       <c r="D531" t="s">
-        <v>3263</v>
+        <v>3265</v>
       </c>
       <c r="E531" t="s">
         <v>1565</v>
@@ -21079,7 +21085,7 @@
       </c>
       <c r="C532"/>
       <c r="D532" t="s">
-        <v>3264</v>
+        <v>3266</v>
       </c>
       <c r="E532" t="s">
         <v>1568</v>
@@ -21097,7 +21103,7 @@
       </c>
       <c r="C533"/>
       <c r="D533" t="s">
-        <v>3265</v>
+        <v>3267</v>
       </c>
       <c r="E533" t="s">
         <v>1571</v>
@@ -21117,7 +21123,7 @@
         <v>1574</v>
       </c>
       <c r="D534" t="s">
-        <v>3266</v>
+        <v>3268</v>
       </c>
       <c r="E534" t="s">
         <v>1575</v>
@@ -21137,7 +21143,7 @@
         <v>1574</v>
       </c>
       <c r="D535" t="s">
-        <v>3267</v>
+        <v>3269</v>
       </c>
       <c r="E535" t="s">
         <v>1578</v>
@@ -21157,7 +21163,7 @@
         <v>1574</v>
       </c>
       <c r="D536" t="s">
-        <v>3268</v>
+        <v>3270</v>
       </c>
       <c r="E536" t="s">
         <v>1581</v>
@@ -21177,7 +21183,7 @@
         <v>1574</v>
       </c>
       <c r="D537" t="s">
-        <v>3269</v>
+        <v>3271</v>
       </c>
       <c r="E537" t="s">
         <v>1584</v>
@@ -21197,7 +21203,7 @@
         <v>1574</v>
       </c>
       <c r="D538" t="s">
-        <v>3270</v>
+        <v>3272</v>
       </c>
       <c r="E538" t="s">
         <v>1587</v>
@@ -21217,7 +21223,7 @@
         <v>1574</v>
       </c>
       <c r="D539" t="s">
-        <v>3271</v>
+        <v>3273</v>
       </c>
       <c r="E539" t="s">
         <v>1590</v>
@@ -21237,7 +21243,7 @@
         <v>1574</v>
       </c>
       <c r="D540" t="s">
-        <v>3272</v>
+        <v>3274</v>
       </c>
       <c r="E540" t="s">
         <v>1593</v>
@@ -21257,7 +21263,7 @@
         <v>1574</v>
       </c>
       <c r="D541" t="s">
-        <v>3273</v>
+        <v>3275</v>
       </c>
       <c r="E541" t="s">
         <v>1596</v>
@@ -21277,7 +21283,7 @@
         <v>1574</v>
       </c>
       <c r="D542" t="s">
-        <v>3274</v>
+        <v>3276</v>
       </c>
       <c r="E542" t="s">
         <v>1599</v>
@@ -21297,7 +21303,7 @@
         <v>1574</v>
       </c>
       <c r="D543" t="s">
-        <v>3275</v>
+        <v>3277</v>
       </c>
       <c r="E543" t="s">
         <v>1602</v>
@@ -21317,7 +21323,7 @@
         <v>1574</v>
       </c>
       <c r="D544" t="s">
-        <v>3276</v>
+        <v>3278</v>
       </c>
       <c r="E544" t="s">
         <v>1605</v>
@@ -21337,7 +21343,7 @@
         <v>1574</v>
       </c>
       <c r="D545" t="s">
-        <v>3277</v>
+        <v>3279</v>
       </c>
       <c r="E545" t="s">
         <v>1608</v>
@@ -21357,7 +21363,7 @@
         <v>1574</v>
       </c>
       <c r="D546" t="s">
-        <v>3278</v>
+        <v>3280</v>
       </c>
       <c r="E546" t="s">
         <v>1611</v>
@@ -21377,7 +21383,7 @@
         <v>1574</v>
       </c>
       <c r="D547" t="s">
-        <v>3279</v>
+        <v>3281</v>
       </c>
       <c r="E547" t="s">
         <v>1614</v>
@@ -21397,7 +21403,7 @@
         <v>1574</v>
       </c>
       <c r="D548" t="s">
-        <v>3280</v>
+        <v>3282</v>
       </c>
       <c r="E548" t="s">
         <v>1617</v>
@@ -21417,7 +21423,7 @@
         <v>1574</v>
       </c>
       <c r="D549" t="s">
-        <v>3281</v>
+        <v>3283</v>
       </c>
       <c r="E549" t="s">
         <v>1620</v>
@@ -21437,7 +21443,7 @@
         <v>1623</v>
       </c>
       <c r="D550" t="s">
-        <v>3282</v>
+        <v>3284</v>
       </c>
       <c r="E550" t="s">
         <v>1624</v>
@@ -21457,7 +21463,7 @@
         <v>1574</v>
       </c>
       <c r="D551" t="s">
-        <v>3283</v>
+        <v>3285</v>
       </c>
       <c r="E551" t="s">
         <v>1627</v>
@@ -21477,7 +21483,7 @@
         <v>1574</v>
       </c>
       <c r="D552" t="s">
-        <v>3284</v>
+        <v>3286</v>
       </c>
       <c r="E552" t="s">
         <v>1630</v>
@@ -21497,7 +21503,7 @@
         <v>1574</v>
       </c>
       <c r="D553" t="s">
-        <v>3285</v>
+        <v>3287</v>
       </c>
       <c r="E553" t="s">
         <v>1633</v>
@@ -21515,7 +21521,7 @@
       </c>
       <c r="C554"/>
       <c r="D554" t="s">
-        <v>3286</v>
+        <v>3288</v>
       </c>
       <c r="E554" t="s">
         <v>1636</v>
@@ -21533,7 +21539,7 @@
       </c>
       <c r="C555"/>
       <c r="D555" t="s">
-        <v>3287</v>
+        <v>3289</v>
       </c>
       <c r="E555" t="s">
         <v>1639</v>
@@ -21551,7 +21557,7 @@
       </c>
       <c r="C556"/>
       <c r="D556" t="s">
-        <v>3288</v>
+        <v>3290</v>
       </c>
       <c r="E556" t="s">
         <v>1642</v>
@@ -21569,7 +21575,7 @@
       </c>
       <c r="C557"/>
       <c r="D557" t="s">
-        <v>3289</v>
+        <v>3291</v>
       </c>
       <c r="E557" t="s">
         <v>1645</v>
@@ -21587,7 +21593,7 @@
       </c>
       <c r="C558"/>
       <c r="D558" t="s">
-        <v>3290</v>
+        <v>3292</v>
       </c>
       <c r="E558" t="s">
         <v>1648</v>
@@ -21605,7 +21611,7 @@
       </c>
       <c r="C559"/>
       <c r="D559" t="s">
-        <v>3291</v>
+        <v>3293</v>
       </c>
       <c r="E559" t="s">
         <v>1651</v>
@@ -21623,7 +21629,7 @@
       </c>
       <c r="C560"/>
       <c r="D560" t="s">
-        <v>3292</v>
+        <v>3294</v>
       </c>
       <c r="E560" t="s">
         <v>1654</v>
@@ -21641,7 +21647,7 @@
       </c>
       <c r="C561"/>
       <c r="D561" t="s">
-        <v>3293</v>
+        <v>3295</v>
       </c>
       <c r="E561" t="s">
         <v>1657</v>
@@ -21659,7 +21665,7 @@
       </c>
       <c r="C562"/>
       <c r="D562" t="s">
-        <v>3294</v>
+        <v>3296</v>
       </c>
       <c r="E562" t="s">
         <v>1660</v>
@@ -21677,7 +21683,7 @@
       </c>
       <c r="C563"/>
       <c r="D563" t="s">
-        <v>3295</v>
+        <v>3297</v>
       </c>
       <c r="E563" t="s">
         <v>1663</v>
@@ -21695,7 +21701,7 @@
       </c>
       <c r="C564"/>
       <c r="D564" t="s">
-        <v>3296</v>
+        <v>3298</v>
       </c>
       <c r="E564" t="s">
         <v>1666</v>
@@ -21713,7 +21719,7 @@
       </c>
       <c r="C565"/>
       <c r="D565" t="s">
-        <v>3297</v>
+        <v>3299</v>
       </c>
       <c r="E565" t="s">
         <v>1669</v>
@@ -21731,7 +21737,7 @@
       </c>
       <c r="C566"/>
       <c r="D566" t="s">
-        <v>3298</v>
+        <v>3300</v>
       </c>
       <c r="E566" t="s">
         <v>1672</v>
@@ -21749,7 +21755,7 @@
       </c>
       <c r="C567"/>
       <c r="D567" t="s">
-        <v>3299</v>
+        <v>3301</v>
       </c>
       <c r="E567" t="s">
         <v>1675</v>
@@ -21767,7 +21773,7 @@
       </c>
       <c r="C568"/>
       <c r="D568" t="s">
-        <v>2861</v>
+        <v>2863</v>
       </c>
       <c r="E568" t="s">
         <v>1678</v>
@@ -21785,7 +21791,7 @@
       </c>
       <c r="C569"/>
       <c r="D569" t="s">
-        <v>3300</v>
+        <v>3302</v>
       </c>
       <c r="E569" t="s">
         <v>1681</v>
@@ -21803,7 +21809,7 @@
       </c>
       <c r="C570"/>
       <c r="D570" t="s">
-        <v>3301</v>
+        <v>3303</v>
       </c>
       <c r="E570" t="s">
         <v>1684</v>
@@ -21821,7 +21827,7 @@
       </c>
       <c r="C571"/>
       <c r="D571" t="s">
-        <v>3302</v>
+        <v>3304</v>
       </c>
       <c r="E571" t="s">
         <v>1687</v>
@@ -21839,7 +21845,7 @@
       </c>
       <c r="C572"/>
       <c r="D572" t="s">
-        <v>3303</v>
+        <v>3305</v>
       </c>
       <c r="E572" t="s">
         <v>1690</v>
@@ -21857,7 +21863,7 @@
       </c>
       <c r="C573"/>
       <c r="D573" t="s">
-        <v>3304</v>
+        <v>3306</v>
       </c>
       <c r="E573" t="s">
         <v>1693</v>
@@ -21875,7 +21881,7 @@
       </c>
       <c r="C574"/>
       <c r="D574" t="s">
-        <v>2925</v>
+        <v>2927</v>
       </c>
       <c r="E574" t="s">
         <v>1696</v>
@@ -21893,7 +21899,7 @@
       </c>
       <c r="C575"/>
       <c r="D575" t="s">
-        <v>3305</v>
+        <v>3307</v>
       </c>
       <c r="E575" t="s">
         <v>1698</v>
@@ -21911,7 +21917,7 @@
       </c>
       <c r="C576"/>
       <c r="D576" t="s">
-        <v>3306</v>
+        <v>3308</v>
       </c>
       <c r="E576" t="s">
         <v>1701</v>
@@ -21929,7 +21935,7 @@
       </c>
       <c r="C577"/>
       <c r="D577" t="s">
-        <v>3307</v>
+        <v>3309</v>
       </c>
       <c r="E577" t="s">
         <v>1704</v>
@@ -21947,7 +21953,7 @@
       </c>
       <c r="C578"/>
       <c r="D578" t="s">
-        <v>3308</v>
+        <v>3310</v>
       </c>
       <c r="E578" t="s">
         <v>1707</v>
@@ -21965,7 +21971,7 @@
       </c>
       <c r="C579"/>
       <c r="D579" t="s">
-        <v>3309</v>
+        <v>3311</v>
       </c>
       <c r="E579" t="s">
         <v>1710</v>
@@ -21983,7 +21989,7 @@
       </c>
       <c r="C580"/>
       <c r="D580" t="s">
-        <v>3310</v>
+        <v>3312</v>
       </c>
       <c r="E580" t="s">
         <v>1713</v>
@@ -22001,7 +22007,7 @@
       </c>
       <c r="C581"/>
       <c r="D581" t="s">
-        <v>3311</v>
+        <v>3313</v>
       </c>
       <c r="E581" t="s">
         <v>1716</v>
@@ -22019,7 +22025,7 @@
       </c>
       <c r="C582"/>
       <c r="D582" t="s">
-        <v>3312</v>
+        <v>3314</v>
       </c>
       <c r="E582" t="s">
         <v>1719</v>
@@ -22037,7 +22043,7 @@
       </c>
       <c r="C583"/>
       <c r="D583" t="s">
-        <v>3313</v>
+        <v>3315</v>
       </c>
       <c r="E583" t="s">
         <v>1722</v>
@@ -22055,7 +22061,7 @@
       </c>
       <c r="C584"/>
       <c r="D584" t="s">
-        <v>3314</v>
+        <v>3316</v>
       </c>
       <c r="E584" t="s">
         <v>1725</v>
@@ -22073,7 +22079,7 @@
       </c>
       <c r="C585"/>
       <c r="D585" t="s">
-        <v>3315</v>
+        <v>3317</v>
       </c>
       <c r="E585" t="s">
         <v>1728</v>
@@ -22091,7 +22097,7 @@
       </c>
       <c r="C586"/>
       <c r="D586" t="s">
-        <v>3316</v>
+        <v>3318</v>
       </c>
       <c r="E586" t="s">
         <v>1731</v>
@@ -22109,7 +22115,7 @@
       </c>
       <c r="C587"/>
       <c r="D587" t="s">
-        <v>3317</v>
+        <v>3319</v>
       </c>
       <c r="E587" t="s">
         <v>1734</v>
@@ -22129,7 +22135,7 @@
         <v>1737</v>
       </c>
       <c r="D588" t="s">
-        <v>3318</v>
+        <v>3320</v>
       </c>
       <c r="E588" t="s">
         <v>1738</v>
@@ -22169,7 +22175,7 @@
         <v>1737</v>
       </c>
       <c r="D590" t="s">
-        <v>3319</v>
+        <v>3321</v>
       </c>
       <c r="E590" t="s">
         <v>1744</v>
@@ -22209,7 +22215,7 @@
         <v>1737</v>
       </c>
       <c r="D592" t="s">
-        <v>3320</v>
+        <v>3322</v>
       </c>
       <c r="E592" t="s">
         <v>1748</v>
@@ -22249,7 +22255,7 @@
         <v>1737</v>
       </c>
       <c r="D594" t="s">
-        <v>3321</v>
+        <v>3323</v>
       </c>
       <c r="E594" t="s">
         <v>1752</v>
@@ -22267,7 +22273,7 @@
       </c>
       <c r="C595"/>
       <c r="D595" t="s">
-        <v>3322</v>
+        <v>3324</v>
       </c>
       <c r="E595" t="s">
         <v>1755</v>
@@ -22285,7 +22291,7 @@
       </c>
       <c r="C596"/>
       <c r="D596" t="s">
-        <v>3323</v>
+        <v>3325</v>
       </c>
       <c r="E596" t="s">
         <v>1758</v>
@@ -22303,7 +22309,7 @@
       </c>
       <c r="C597"/>
       <c r="D597" t="s">
-        <v>3155</v>
+        <v>3157</v>
       </c>
       <c r="E597" t="s">
         <v>1761</v>
@@ -22321,7 +22327,7 @@
       </c>
       <c r="C598"/>
       <c r="D598" t="s">
-        <v>3324</v>
+        <v>3326</v>
       </c>
       <c r="E598" t="s">
         <v>1764</v>
@@ -22339,7 +22345,7 @@
       </c>
       <c r="C599"/>
       <c r="D599" t="s">
-        <v>3325</v>
+        <v>3327</v>
       </c>
       <c r="E599" t="s">
         <v>1767</v>
@@ -22357,7 +22363,7 @@
       </c>
       <c r="C600"/>
       <c r="D600" t="s">
-        <v>3326</v>
+        <v>3328</v>
       </c>
       <c r="E600" t="s">
         <v>1770</v>
@@ -22375,7 +22381,7 @@
       </c>
       <c r="C601"/>
       <c r="D601" t="s">
-        <v>3327</v>
+        <v>3329</v>
       </c>
       <c r="E601" t="s">
         <v>1773</v>
@@ -22393,7 +22399,7 @@
       </c>
       <c r="C602"/>
       <c r="D602" t="s">
-        <v>3328</v>
+        <v>3330</v>
       </c>
       <c r="E602" t="s">
         <v>1776</v>
@@ -22411,7 +22417,7 @@
       </c>
       <c r="C603"/>
       <c r="D603" t="s">
-        <v>3329</v>
+        <v>3331</v>
       </c>
       <c r="E603" t="s">
         <v>1779</v>
@@ -22429,7 +22435,7 @@
       </c>
       <c r="C604"/>
       <c r="D604" t="s">
-        <v>3330</v>
+        <v>3332</v>
       </c>
       <c r="E604" t="s">
         <v>1782</v>
@@ -22447,7 +22453,7 @@
       </c>
       <c r="C605"/>
       <c r="D605" t="s">
-        <v>3331</v>
+        <v>3333</v>
       </c>
       <c r="E605" t="s">
         <v>1785</v>
@@ -22465,7 +22471,7 @@
       </c>
       <c r="C606"/>
       <c r="D606" t="s">
-        <v>3332</v>
+        <v>3334</v>
       </c>
       <c r="E606" t="s">
         <v>1788</v>
@@ -22483,7 +22489,7 @@
       </c>
       <c r="C607"/>
       <c r="D607" t="s">
-        <v>3333</v>
+        <v>3335</v>
       </c>
       <c r="E607" t="s">
         <v>1791</v>
@@ -22501,7 +22507,7 @@
       </c>
       <c r="C608"/>
       <c r="D608" t="s">
-        <v>3334</v>
+        <v>3336</v>
       </c>
       <c r="E608" t="s">
         <v>1794</v>
@@ -22519,7 +22525,7 @@
       </c>
       <c r="C609"/>
       <c r="D609" t="s">
-        <v>3335</v>
+        <v>3337</v>
       </c>
       <c r="E609" t="s">
         <v>1797</v>
@@ -22537,7 +22543,7 @@
       </c>
       <c r="C610"/>
       <c r="D610" t="s">
-        <v>3336</v>
+        <v>3338</v>
       </c>
       <c r="E610" t="s">
         <v>1800</v>
@@ -22555,7 +22561,7 @@
       </c>
       <c r="C611"/>
       <c r="D611" t="s">
-        <v>3337</v>
+        <v>3339</v>
       </c>
       <c r="E611" t="s">
         <v>1803</v>
@@ -22573,7 +22579,7 @@
       </c>
       <c r="C612"/>
       <c r="D612" t="s">
-        <v>3338</v>
+        <v>3340</v>
       </c>
       <c r="E612" t="s">
         <v>1806</v>
@@ -22591,7 +22597,7 @@
       </c>
       <c r="C613"/>
       <c r="D613" t="s">
-        <v>3339</v>
+        <v>3341</v>
       </c>
       <c r="E613" t="s">
         <v>1809</v>
@@ -22609,7 +22615,7 @@
       </c>
       <c r="C614"/>
       <c r="D614" t="s">
-        <v>3340</v>
+        <v>3342</v>
       </c>
       <c r="E614" t="s">
         <v>1812</v>
@@ -22627,7 +22633,7 @@
       </c>
       <c r="C615"/>
       <c r="D615" t="s">
-        <v>3341</v>
+        <v>3343</v>
       </c>
       <c r="E615" t="s">
         <v>1815</v>
@@ -22645,7 +22651,7 @@
       </c>
       <c r="C616"/>
       <c r="D616" t="s">
-        <v>3342</v>
+        <v>3344</v>
       </c>
       <c r="E616" t="s">
         <v>1818</v>
@@ -22663,7 +22669,7 @@
       </c>
       <c r="C617"/>
       <c r="D617" t="s">
-        <v>3343</v>
+        <v>3345</v>
       </c>
       <c r="E617" t="s">
         <v>1821</v>
@@ -22681,7 +22687,7 @@
       </c>
       <c r="C618"/>
       <c r="D618" t="s">
-        <v>3344</v>
+        <v>3346</v>
       </c>
       <c r="E618" t="s">
         <v>1824</v>
@@ -22699,7 +22705,7 @@
       </c>
       <c r="C619"/>
       <c r="D619" t="s">
-        <v>3345</v>
+        <v>3347</v>
       </c>
       <c r="E619" t="s">
         <v>1827</v>
@@ -22717,7 +22723,7 @@
       </c>
       <c r="C620"/>
       <c r="D620" t="s">
-        <v>3346</v>
+        <v>3348</v>
       </c>
       <c r="E620" t="s">
         <v>1830</v>
@@ -22735,7 +22741,7 @@
       </c>
       <c r="C621"/>
       <c r="D621" t="s">
-        <v>3347</v>
+        <v>3349</v>
       </c>
       <c r="E621" t="s">
         <v>1833</v>
@@ -22753,7 +22759,7 @@
       </c>
       <c r="C622"/>
       <c r="D622" t="s">
-        <v>3348</v>
+        <v>3350</v>
       </c>
       <c r="E622" t="s">
         <v>1836</v>
@@ -22771,7 +22777,7 @@
       </c>
       <c r="C623"/>
       <c r="D623" t="s">
-        <v>3349</v>
+        <v>3351</v>
       </c>
       <c r="E623" t="s">
         <v>1839</v>
@@ -22789,7 +22795,7 @@
       </c>
       <c r="C624"/>
       <c r="D624" t="s">
-        <v>3350</v>
+        <v>3352</v>
       </c>
       <c r="E624" t="s">
         <v>1842</v>
@@ -22807,7 +22813,7 @@
       </c>
       <c r="C625"/>
       <c r="D625" t="s">
-        <v>3351</v>
+        <v>3353</v>
       </c>
       <c r="E625" t="s">
         <v>1845</v>
@@ -22825,7 +22831,7 @@
       </c>
       <c r="C626"/>
       <c r="D626" t="s">
-        <v>3352</v>
+        <v>3354</v>
       </c>
       <c r="E626" t="s">
         <v>1848</v>
@@ -22843,7 +22849,7 @@
       </c>
       <c r="C627"/>
       <c r="D627" t="s">
-        <v>3353</v>
+        <v>3355</v>
       </c>
       <c r="E627" t="s">
         <v>1851</v>
@@ -22861,7 +22867,7 @@
       </c>
       <c r="C628"/>
       <c r="D628" t="s">
-        <v>3354</v>
+        <v>3356</v>
       </c>
       <c r="E628" t="s">
         <v>1854</v>
@@ -22879,7 +22885,7 @@
       </c>
       <c r="C629"/>
       <c r="D629" t="s">
-        <v>3355</v>
+        <v>3357</v>
       </c>
       <c r="E629" t="s">
         <v>1857</v>
@@ -22897,7 +22903,7 @@
       </c>
       <c r="C630"/>
       <c r="D630" t="s">
-        <v>3356</v>
+        <v>3358</v>
       </c>
       <c r="E630" t="s">
         <v>1860</v>
@@ -22915,7 +22921,7 @@
       </c>
       <c r="C631"/>
       <c r="D631" t="s">
-        <v>3357</v>
+        <v>3359</v>
       </c>
       <c r="E631" t="s">
         <v>1863</v>
@@ -22933,7 +22939,7 @@
       </c>
       <c r="C632"/>
       <c r="D632" t="s">
-        <v>3358</v>
+        <v>3360</v>
       </c>
       <c r="E632" t="s">
         <v>1866</v>
@@ -22951,7 +22957,7 @@
       </c>
       <c r="C633"/>
       <c r="D633" t="s">
-        <v>3359</v>
+        <v>3361</v>
       </c>
       <c r="E633" t="s">
         <v>1869</v>
@@ -22969,7 +22975,7 @@
       </c>
       <c r="C634"/>
       <c r="D634" t="s">
-        <v>3360</v>
+        <v>3362</v>
       </c>
       <c r="E634" t="s">
         <v>1872</v>
@@ -22987,7 +22993,7 @@
       </c>
       <c r="C635"/>
       <c r="D635" t="s">
-        <v>3361</v>
+        <v>3363</v>
       </c>
       <c r="E635" t="s">
         <v>1875</v>
@@ -23005,7 +23011,7 @@
       </c>
       <c r="C636"/>
       <c r="D636" t="s">
-        <v>3362</v>
+        <v>3364</v>
       </c>
       <c r="E636" t="s">
         <v>1878</v>
@@ -23023,7 +23029,7 @@
       </c>
       <c r="C637"/>
       <c r="D637" t="s">
-        <v>3363</v>
+        <v>3365</v>
       </c>
       <c r="E637" t="s">
         <v>1881</v>
@@ -23041,7 +23047,7 @@
       </c>
       <c r="C638"/>
       <c r="D638" t="s">
-        <v>3364</v>
+        <v>3366</v>
       </c>
       <c r="E638" t="s">
         <v>1884</v>
@@ -23059,7 +23065,7 @@
       </c>
       <c r="C639"/>
       <c r="D639" t="s">
-        <v>3365</v>
+        <v>3367</v>
       </c>
       <c r="E639" t="s">
         <v>1887</v>
@@ -23077,7 +23083,7 @@
       </c>
       <c r="C640"/>
       <c r="D640" t="s">
-        <v>3366</v>
+        <v>3368</v>
       </c>
       <c r="E640" t="s">
         <v>1890</v>
@@ -23095,7 +23101,7 @@
       </c>
       <c r="C641"/>
       <c r="D641" t="s">
-        <v>3367</v>
+        <v>3369</v>
       </c>
       <c r="E641" t="s">
         <v>1893</v>
@@ -23113,7 +23119,7 @@
       </c>
       <c r="C642"/>
       <c r="D642" t="s">
-        <v>3368</v>
+        <v>3370</v>
       </c>
       <c r="E642" t="s">
         <v>1896</v>
@@ -23131,7 +23137,7 @@
       </c>
       <c r="C643"/>
       <c r="D643" t="s">
-        <v>3369</v>
+        <v>3371</v>
       </c>
       <c r="E643" t="s">
         <v>1899</v>
@@ -23149,7 +23155,7 @@
       </c>
       <c r="C644"/>
       <c r="D644" t="s">
-        <v>3370</v>
+        <v>3372</v>
       </c>
       <c r="E644" t="s">
         <v>1902</v>
@@ -23167,7 +23173,7 @@
       </c>
       <c r="C645"/>
       <c r="D645" t="s">
-        <v>3371</v>
+        <v>3373</v>
       </c>
       <c r="E645" t="s">
         <v>1905</v>
@@ -23185,7 +23191,7 @@
       </c>
       <c r="C646"/>
       <c r="D646" t="s">
-        <v>3372</v>
+        <v>3374</v>
       </c>
       <c r="E646" t="s">
         <v>1908</v>
@@ -23203,7 +23209,7 @@
       </c>
       <c r="C647"/>
       <c r="D647" t="s">
-        <v>3373</v>
+        <v>3375</v>
       </c>
       <c r="E647" t="s">
         <v>1911</v>
@@ -23221,7 +23227,7 @@
       </c>
       <c r="C648"/>
       <c r="D648" t="s">
-        <v>3374</v>
+        <v>3376</v>
       </c>
       <c r="E648" t="s">
         <v>1914</v>
@@ -23239,7 +23245,7 @@
       </c>
       <c r="C649"/>
       <c r="D649" t="s">
-        <v>3375</v>
+        <v>3377</v>
       </c>
       <c r="E649" t="s">
         <v>1917</v>
@@ -23257,7 +23263,7 @@
       </c>
       <c r="C650"/>
       <c r="D650" t="s">
-        <v>3376</v>
+        <v>3378</v>
       </c>
       <c r="E650" t="s">
         <v>1920</v>
@@ -23275,7 +23281,7 @@
       </c>
       <c r="C651"/>
       <c r="D651" t="s">
-        <v>3377</v>
+        <v>3379</v>
       </c>
       <c r="E651" t="s">
         <v>1923</v>
@@ -23293,7 +23299,7 @@
       </c>
       <c r="C652"/>
       <c r="D652" t="s">
-        <v>3378</v>
+        <v>3380</v>
       </c>
       <c r="E652" t="s">
         <v>1926</v>
@@ -23311,7 +23317,7 @@
       </c>
       <c r="C653"/>
       <c r="D653" t="s">
-        <v>3379</v>
+        <v>3381</v>
       </c>
       <c r="E653" t="s">
         <v>1929</v>
@@ -23329,7 +23335,7 @@
       </c>
       <c r="C654"/>
       <c r="D654" t="s">
-        <v>3380</v>
+        <v>3382</v>
       </c>
       <c r="E654" t="s">
         <v>1932</v>
@@ -23347,7 +23353,7 @@
       </c>
       <c r="C655"/>
       <c r="D655" t="s">
-        <v>3381</v>
+        <v>3383</v>
       </c>
       <c r="E655" t="s">
         <v>1935</v>
@@ -23365,7 +23371,7 @@
       </c>
       <c r="C656"/>
       <c r="D656" t="s">
-        <v>3382</v>
+        <v>3384</v>
       </c>
       <c r="E656" t="s">
         <v>1938</v>
@@ -23383,7 +23389,7 @@
       </c>
       <c r="C657"/>
       <c r="D657" t="s">
-        <v>3383</v>
+        <v>3385</v>
       </c>
       <c r="E657" t="s">
         <v>1941</v>
@@ -23401,7 +23407,7 @@
       </c>
       <c r="C658"/>
       <c r="D658" t="s">
-        <v>3384</v>
+        <v>3386</v>
       </c>
       <c r="E658" t="s">
         <v>1944</v>
@@ -23419,7 +23425,7 @@
       </c>
       <c r="C659"/>
       <c r="D659" t="s">
-        <v>3385</v>
+        <v>3387</v>
       </c>
       <c r="E659" t="s">
         <v>1947</v>
@@ -23437,7 +23443,7 @@
       </c>
       <c r="C660"/>
       <c r="D660" t="s">
-        <v>3386</v>
+        <v>3388</v>
       </c>
       <c r="E660" t="s">
         <v>1950</v>
@@ -23455,7 +23461,7 @@
       </c>
       <c r="C661"/>
       <c r="D661" t="s">
-        <v>3387</v>
+        <v>3389</v>
       </c>
       <c r="E661" t="s">
         <v>1953</v>
@@ -23473,7 +23479,7 @@
       </c>
       <c r="C662"/>
       <c r="D662" t="s">
-        <v>3388</v>
+        <v>3390</v>
       </c>
       <c r="E662" t="s">
         <v>1956</v>
@@ -23491,7 +23497,7 @@
       </c>
       <c r="C663"/>
       <c r="D663" t="s">
-        <v>3389</v>
+        <v>3391</v>
       </c>
       <c r="E663" t="s">
         <v>1959</v>
@@ -23509,7 +23515,7 @@
       </c>
       <c r="C664"/>
       <c r="D664" t="s">
-        <v>3390</v>
+        <v>3392</v>
       </c>
       <c r="E664" t="s">
         <v>1962</v>
@@ -23527,7 +23533,7 @@
       </c>
       <c r="C665"/>
       <c r="D665" t="s">
-        <v>3391</v>
+        <v>3393</v>
       </c>
       <c r="E665" t="s">
         <v>1965</v>
@@ -23545,7 +23551,7 @@
       </c>
       <c r="C666"/>
       <c r="D666" t="s">
-        <v>3392</v>
+        <v>3394</v>
       </c>
       <c r="E666" t="s">
         <v>1968</v>
@@ -23563,7 +23569,7 @@
       </c>
       <c r="C667"/>
       <c r="D667" t="s">
-        <v>3393</v>
+        <v>3395</v>
       </c>
       <c r="E667" t="s">
         <v>1971</v>
@@ -23581,7 +23587,7 @@
       </c>
       <c r="C668"/>
       <c r="D668" t="s">
-        <v>3394</v>
+        <v>3396</v>
       </c>
       <c r="E668" t="s">
         <v>1974</v>
@@ -23599,7 +23605,7 @@
       </c>
       <c r="C669"/>
       <c r="D669" t="s">
-        <v>3395</v>
+        <v>3397</v>
       </c>
       <c r="E669" t="s">
         <v>1977</v>
@@ -23617,7 +23623,7 @@
       </c>
       <c r="C670"/>
       <c r="D670" t="s">
-        <v>3396</v>
+        <v>3398</v>
       </c>
       <c r="E670" t="s">
         <v>1980</v>
@@ -23635,7 +23641,7 @@
       </c>
       <c r="C671"/>
       <c r="D671" t="s">
-        <v>3397</v>
+        <v>3399</v>
       </c>
       <c r="E671" t="s">
         <v>1983</v>
@@ -23653,7 +23659,7 @@
       </c>
       <c r="C672"/>
       <c r="D672" t="s">
-        <v>3398</v>
+        <v>3400</v>
       </c>
       <c r="E672" t="s">
         <v>1986</v>
@@ -23671,7 +23677,7 @@
       </c>
       <c r="C673"/>
       <c r="D673" t="s">
-        <v>3399</v>
+        <v>3401</v>
       </c>
       <c r="E673" t="s">
         <v>1989</v>
@@ -23689,7 +23695,7 @@
       </c>
       <c r="C674"/>
       <c r="D674" t="s">
-        <v>3400</v>
+        <v>3402</v>
       </c>
       <c r="E674" t="s">
         <v>1992</v>
@@ -23707,7 +23713,7 @@
       </c>
       <c r="C675"/>
       <c r="D675" t="s">
-        <v>3401</v>
+        <v>3403</v>
       </c>
       <c r="E675" t="s">
         <v>1995</v>
@@ -23725,7 +23731,7 @@
       </c>
       <c r="C676"/>
       <c r="D676" t="s">
-        <v>3402</v>
+        <v>3404</v>
       </c>
       <c r="E676" t="s">
         <v>1998</v>
@@ -23743,7 +23749,7 @@
       </c>
       <c r="C677"/>
       <c r="D677" t="s">
-        <v>3403</v>
+        <v>3405</v>
       </c>
       <c r="E677" t="s">
         <v>2001</v>
@@ -23761,7 +23767,7 @@
       </c>
       <c r="C678"/>
       <c r="D678" t="s">
-        <v>3400</v>
+        <v>3402</v>
       </c>
       <c r="E678" t="s">
         <v>1992</v>
@@ -23779,7 +23785,7 @@
       </c>
       <c r="C679"/>
       <c r="D679" t="s">
-        <v>3404</v>
+        <v>3406</v>
       </c>
       <c r="E679" t="s">
         <v>2005</v>
@@ -23797,7 +23803,7 @@
       </c>
       <c r="C680"/>
       <c r="D680" t="s">
-        <v>3405</v>
+        <v>3407</v>
       </c>
       <c r="E680" t="s">
         <v>2008</v>
@@ -23815,7 +23821,7 @@
       </c>
       <c r="C681"/>
       <c r="D681" t="s">
-        <v>3406</v>
+        <v>3408</v>
       </c>
       <c r="E681" t="s">
         <v>2011</v>
@@ -23833,7 +23839,7 @@
       </c>
       <c r="C682"/>
       <c r="D682" t="s">
-        <v>3407</v>
+        <v>3409</v>
       </c>
       <c r="E682" t="s">
         <v>2014</v>
@@ -23851,7 +23857,7 @@
       </c>
       <c r="C683"/>
       <c r="D683" t="s">
-        <v>3408</v>
+        <v>3410</v>
       </c>
       <c r="E683" t="s">
         <v>2017</v>
@@ -23869,7 +23875,7 @@
       </c>
       <c r="C684"/>
       <c r="D684" t="s">
-        <v>3409</v>
+        <v>3411</v>
       </c>
       <c r="E684" t="s">
         <v>2020</v>
@@ -23887,7 +23893,7 @@
       </c>
       <c r="C685"/>
       <c r="D685" t="s">
-        <v>3410</v>
+        <v>3412</v>
       </c>
       <c r="E685" t="s">
         <v>2023</v>
@@ -23905,7 +23911,7 @@
       </c>
       <c r="C686"/>
       <c r="D686" t="s">
-        <v>3411</v>
+        <v>3413</v>
       </c>
       <c r="E686" t="s">
         <v>2026</v>
@@ -23923,7 +23929,7 @@
       </c>
       <c r="C687"/>
       <c r="D687" t="s">
-        <v>3412</v>
+        <v>3414</v>
       </c>
       <c r="E687" t="s">
         <v>2029</v>
@@ -23941,7 +23947,7 @@
       </c>
       <c r="C688"/>
       <c r="D688" t="s">
-        <v>3413</v>
+        <v>3415</v>
       </c>
       <c r="E688" t="s">
         <v>2032</v>
@@ -23959,7 +23965,7 @@
       </c>
       <c r="C689"/>
       <c r="D689" t="s">
-        <v>3414</v>
+        <v>3416</v>
       </c>
       <c r="E689" t="s">
         <v>2035</v>
@@ -23977,7 +23983,7 @@
       </c>
       <c r="C690"/>
       <c r="D690" t="s">
-        <v>3415</v>
+        <v>3417</v>
       </c>
       <c r="E690" t="s">
         <v>2038</v>
@@ -23995,7 +24001,7 @@
       </c>
       <c r="C691"/>
       <c r="D691" t="s">
-        <v>3416</v>
+        <v>3418</v>
       </c>
       <c r="E691" t="s">
         <v>2041</v>
@@ -24013,7 +24019,7 @@
       </c>
       <c r="C692"/>
       <c r="D692" t="s">
-        <v>3417</v>
+        <v>3419</v>
       </c>
       <c r="E692" t="s">
         <v>2044</v>
@@ -24031,7 +24037,7 @@
       </c>
       <c r="C693"/>
       <c r="D693" t="s">
-        <v>3418</v>
+        <v>3420</v>
       </c>
       <c r="E693" t="s">
         <v>2047</v>
@@ -24049,7 +24055,7 @@
       </c>
       <c r="C694"/>
       <c r="D694" t="s">
-        <v>3419</v>
+        <v>3421</v>
       </c>
       <c r="E694" t="s">
         <v>2050</v>
@@ -24067,7 +24073,7 @@
       </c>
       <c r="C695"/>
       <c r="D695" t="s">
-        <v>3420</v>
+        <v>3422</v>
       </c>
       <c r="E695" t="s">
         <v>2053</v>
@@ -24085,7 +24091,7 @@
       </c>
       <c r="C696"/>
       <c r="D696" t="s">
-        <v>3421</v>
+        <v>3423</v>
       </c>
       <c r="E696" t="s">
         <v>2056</v>
@@ -24103,7 +24109,7 @@
       </c>
       <c r="C697"/>
       <c r="D697" t="s">
-        <v>3422</v>
+        <v>3424</v>
       </c>
       <c r="E697" t="s">
         <v>2059</v>
@@ -24121,7 +24127,7 @@
       </c>
       <c r="C698"/>
       <c r="D698" t="s">
-        <v>3423</v>
+        <v>3425</v>
       </c>
       <c r="E698" t="s">
         <v>2062</v>
@@ -24139,7 +24145,7 @@
       </c>
       <c r="C699"/>
       <c r="D699" t="s">
-        <v>3424</v>
+        <v>3426</v>
       </c>
       <c r="E699" t="s">
         <v>2065</v>
@@ -24157,7 +24163,7 @@
       </c>
       <c r="C700"/>
       <c r="D700" t="s">
-        <v>3425</v>
+        <v>3427</v>
       </c>
       <c r="E700" t="s">
         <v>2068</v>
@@ -24175,7 +24181,7 @@
       </c>
       <c r="C701"/>
       <c r="D701" t="s">
-        <v>3426</v>
+        <v>3428</v>
       </c>
       <c r="E701" t="s">
         <v>2071</v>
@@ -24193,7 +24199,7 @@
       </c>
       <c r="C702"/>
       <c r="D702" t="s">
-        <v>3427</v>
+        <v>3429</v>
       </c>
       <c r="E702" t="s">
         <v>2074</v>
@@ -24211,7 +24217,7 @@
       </c>
       <c r="C703"/>
       <c r="D703" t="s">
-        <v>3428</v>
+        <v>3430</v>
       </c>
       <c r="E703" t="s">
         <v>2077</v>
@@ -24229,7 +24235,7 @@
       </c>
       <c r="C704"/>
       <c r="D704" t="s">
-        <v>3429</v>
+        <v>3431</v>
       </c>
       <c r="E704" t="s">
         <v>2080</v>
@@ -24247,7 +24253,7 @@
       </c>
       <c r="C705"/>
       <c r="D705" t="s">
-        <v>3430</v>
+        <v>3432</v>
       </c>
       <c r="E705" t="s">
         <v>2083</v>
@@ -24265,7 +24271,7 @@
       </c>
       <c r="C706"/>
       <c r="D706" t="s">
-        <v>3431</v>
+        <v>3433</v>
       </c>
       <c r="E706" t="s">
         <v>2086</v>
@@ -24283,7 +24289,7 @@
       </c>
       <c r="C707"/>
       <c r="D707" t="s">
-        <v>3432</v>
+        <v>3434</v>
       </c>
       <c r="E707" t="s">
         <v>2089</v>
@@ -24301,7 +24307,7 @@
       </c>
       <c r="C708"/>
       <c r="D708" t="s">
-        <v>3433</v>
+        <v>3435</v>
       </c>
       <c r="E708" t="s">
         <v>2091</v>
@@ -24319,7 +24325,7 @@
       </c>
       <c r="C709"/>
       <c r="D709" t="s">
-        <v>3434</v>
+        <v>3436</v>
       </c>
       <c r="E709" t="s">
         <v>2094</v>
@@ -24337,7 +24343,7 @@
       </c>
       <c r="C710"/>
       <c r="D710" t="s">
-        <v>3435</v>
+        <v>3437</v>
       </c>
       <c r="E710" t="s">
         <v>2097</v>
@@ -24355,7 +24361,7 @@
       </c>
       <c r="C711"/>
       <c r="D711" t="s">
-        <v>3436</v>
+        <v>3438</v>
       </c>
       <c r="E711" t="s">
         <v>2100</v>
@@ -24373,7 +24379,7 @@
       </c>
       <c r="C712"/>
       <c r="D712" t="s">
-        <v>3437</v>
+        <v>3439</v>
       </c>
       <c r="E712" t="s">
         <v>2103</v>
@@ -24391,7 +24397,7 @@
       </c>
       <c r="C713"/>
       <c r="D713" t="s">
-        <v>3438</v>
+        <v>3440</v>
       </c>
       <c r="E713" t="s">
         <v>2106</v>
@@ -24409,7 +24415,7 @@
       </c>
       <c r="C714"/>
       <c r="D714" t="s">
-        <v>3439</v>
+        <v>3441</v>
       </c>
       <c r="E714" t="s">
         <v>2109</v>
@@ -24427,7 +24433,7 @@
       </c>
       <c r="C715"/>
       <c r="D715" t="s">
-        <v>3440</v>
+        <v>3442</v>
       </c>
       <c r="E715" t="s">
         <v>2112</v>
@@ -24445,7 +24451,7 @@
       </c>
       <c r="C716"/>
       <c r="D716" t="s">
-        <v>3441</v>
+        <v>3443</v>
       </c>
       <c r="E716" t="s">
         <v>2115</v>
@@ -24463,7 +24469,7 @@
       </c>
       <c r="C717"/>
       <c r="D717" t="s">
-        <v>3442</v>
+        <v>3444</v>
       </c>
       <c r="E717" t="s">
         <v>2118</v>
@@ -24481,7 +24487,7 @@
       </c>
       <c r="C718"/>
       <c r="D718" t="s">
-        <v>3443</v>
+        <v>3445</v>
       </c>
       <c r="E718" t="s">
         <v>2121</v>
@@ -24499,7 +24505,7 @@
       </c>
       <c r="C719"/>
       <c r="D719" t="s">
-        <v>3444</v>
+        <v>3446</v>
       </c>
       <c r="E719" t="s">
         <v>2124</v>
@@ -24517,7 +24523,7 @@
       </c>
       <c r="C720"/>
       <c r="D720" t="s">
-        <v>3445</v>
+        <v>3447</v>
       </c>
       <c r="E720" t="s">
         <v>2127</v>
@@ -24535,7 +24541,7 @@
       </c>
       <c r="C721"/>
       <c r="D721" t="s">
-        <v>3446</v>
+        <v>3448</v>
       </c>
       <c r="E721" t="s">
         <v>2130</v>
@@ -24553,7 +24559,7 @@
       </c>
       <c r="C722"/>
       <c r="D722" t="s">
-        <v>3447</v>
+        <v>3449</v>
       </c>
       <c r="E722" t="s">
         <v>2133</v>
@@ -24571,7 +24577,7 @@
       </c>
       <c r="C723"/>
       <c r="D723" t="s">
-        <v>3448</v>
+        <v>3450</v>
       </c>
       <c r="E723" t="s">
         <v>2136</v>
@@ -24589,7 +24595,7 @@
       </c>
       <c r="C724"/>
       <c r="D724" t="s">
-        <v>3449</v>
+        <v>3451</v>
       </c>
       <c r="E724" t="s">
         <v>2139</v>
@@ -24607,7 +24613,7 @@
       </c>
       <c r="C725"/>
       <c r="D725" t="s">
-        <v>3450</v>
+        <v>3452</v>
       </c>
       <c r="E725" t="s">
         <v>2142</v>
@@ -24625,7 +24631,7 @@
       </c>
       <c r="C726"/>
       <c r="D726" t="s">
-        <v>3451</v>
+        <v>3453</v>
       </c>
       <c r="E726" t="s">
         <v>2145</v>
@@ -24643,7 +24649,7 @@
       </c>
       <c r="C727"/>
       <c r="D727" t="s">
-        <v>3452</v>
+        <v>3454</v>
       </c>
       <c r="E727" t="s">
         <v>2148</v>
@@ -24661,7 +24667,7 @@
       </c>
       <c r="C728"/>
       <c r="D728" t="s">
-        <v>3453</v>
+        <v>3455</v>
       </c>
       <c r="E728" t="s">
         <v>2151</v>
@@ -24679,7 +24685,7 @@
       </c>
       <c r="C729"/>
       <c r="D729" t="s">
-        <v>3454</v>
+        <v>3456</v>
       </c>
       <c r="E729" t="s">
         <v>2154</v>
@@ -24697,7 +24703,7 @@
       </c>
       <c r="C730"/>
       <c r="D730" t="s">
-        <v>3455</v>
+        <v>3457</v>
       </c>
       <c r="E730" t="s">
         <v>2157</v>
@@ -24715,7 +24721,7 @@
       </c>
       <c r="C731"/>
       <c r="D731" t="s">
-        <v>3456</v>
+        <v>3458</v>
       </c>
       <c r="E731" t="s">
         <v>2160</v>
@@ -24733,7 +24739,7 @@
       </c>
       <c r="C732"/>
       <c r="D732" t="s">
-        <v>3457</v>
+        <v>3459</v>
       </c>
       <c r="E732" t="s">
         <v>2163</v>
@@ -24751,7 +24757,7 @@
       </c>
       <c r="C733"/>
       <c r="D733" t="s">
-        <v>3458</v>
+        <v>3460</v>
       </c>
       <c r="E733" t="s">
         <v>2166</v>
@@ -24769,7 +24775,7 @@
       </c>
       <c r="C734"/>
       <c r="D734" t="s">
-        <v>3459</v>
+        <v>3461</v>
       </c>
       <c r="E734" t="s">
         <v>2169</v>
@@ -24787,7 +24793,7 @@
       </c>
       <c r="C735"/>
       <c r="D735" t="s">
-        <v>3460</v>
+        <v>3462</v>
       </c>
       <c r="E735" t="s">
         <v>2172</v>
@@ -24805,7 +24811,7 @@
       </c>
       <c r="C736"/>
       <c r="D736" t="s">
-        <v>3461</v>
+        <v>3463</v>
       </c>
       <c r="E736" t="s">
         <v>2175</v>
@@ -24823,7 +24829,7 @@
       </c>
       <c r="C737"/>
       <c r="D737" t="s">
-        <v>3462</v>
+        <v>3464</v>
       </c>
       <c r="E737" t="s">
         <v>2178</v>
@@ -24841,7 +24847,7 @@
       </c>
       <c r="C738"/>
       <c r="D738" t="s">
-        <v>3463</v>
+        <v>3465</v>
       </c>
       <c r="E738" t="s">
         <v>2181</v>
@@ -24859,7 +24865,7 @@
       </c>
       <c r="C739"/>
       <c r="D739" t="s">
-        <v>3464</v>
+        <v>3466</v>
       </c>
       <c r="E739" t="s">
         <v>2184</v>
@@ -24877,7 +24883,7 @@
       </c>
       <c r="C740"/>
       <c r="D740" t="s">
-        <v>3465</v>
+        <v>3467</v>
       </c>
       <c r="E740" t="s">
         <v>2187</v>
@@ -24895,7 +24901,7 @@
       </c>
       <c r="C741"/>
       <c r="D741" t="s">
-        <v>3466</v>
+        <v>3468</v>
       </c>
       <c r="E741" t="s">
         <v>2190</v>
@@ -24913,7 +24919,7 @@
       </c>
       <c r="C742"/>
       <c r="D742" t="s">
-        <v>3467</v>
+        <v>3469</v>
       </c>
       <c r="E742" t="s">
         <v>2193</v>
@@ -24931,7 +24937,7 @@
       </c>
       <c r="C743"/>
       <c r="D743" t="s">
-        <v>3468</v>
+        <v>3470</v>
       </c>
       <c r="E743" t="s">
         <v>2196</v>
@@ -24949,7 +24955,7 @@
       </c>
       <c r="C744"/>
       <c r="D744" t="s">
-        <v>3469</v>
+        <v>3471</v>
       </c>
       <c r="E744" t="s">
         <v>2199</v>
@@ -24967,7 +24973,7 @@
       </c>
       <c r="C745"/>
       <c r="D745" t="s">
-        <v>3470</v>
+        <v>3472</v>
       </c>
       <c r="E745" t="s">
         <v>2202</v>
@@ -24985,7 +24991,7 @@
       </c>
       <c r="C746"/>
       <c r="D746" t="s">
-        <v>3471</v>
+        <v>3473</v>
       </c>
       <c r="E746" t="s">
         <v>2205</v>
@@ -25003,7 +25009,7 @@
       </c>
       <c r="C747"/>
       <c r="D747" t="s">
-        <v>3472</v>
+        <v>3474</v>
       </c>
       <c r="E747" t="s">
         <v>2208</v>
@@ -25021,7 +25027,7 @@
       </c>
       <c r="C748"/>
       <c r="D748" t="s">
-        <v>3473</v>
+        <v>3475</v>
       </c>
       <c r="E748" t="s">
         <v>2211</v>
@@ -25039,7 +25045,7 @@
       </c>
       <c r="C749"/>
       <c r="D749" t="s">
-        <v>3474</v>
+        <v>3476</v>
       </c>
       <c r="E749" t="s">
         <v>2214</v>
@@ -25057,7 +25063,7 @@
       </c>
       <c r="C750"/>
       <c r="D750" t="s">
-        <v>3475</v>
+        <v>3477</v>
       </c>
       <c r="E750" t="s">
         <v>2217</v>
@@ -25075,7 +25081,7 @@
       </c>
       <c r="C751"/>
       <c r="D751" t="s">
-        <v>3476</v>
+        <v>3478</v>
       </c>
       <c r="E751" t="s">
         <v>2220</v>
@@ -25093,7 +25099,7 @@
       </c>
       <c r="C752"/>
       <c r="D752" t="s">
-        <v>3477</v>
+        <v>3479</v>
       </c>
       <c r="E752" t="s">
         <v>2223</v>
@@ -25111,7 +25117,7 @@
       </c>
       <c r="C753"/>
       <c r="D753" t="s">
-        <v>3478</v>
+        <v>3480</v>
       </c>
       <c r="E753" t="s">
         <v>2226</v>
@@ -25129,7 +25135,7 @@
       </c>
       <c r="C754"/>
       <c r="D754" t="s">
-        <v>3479</v>
+        <v>3481</v>
       </c>
       <c r="E754" t="s">
         <v>2229</v>
@@ -25147,7 +25153,7 @@
       </c>
       <c r="C755"/>
       <c r="D755" t="s">
-        <v>3480</v>
+        <v>3482</v>
       </c>
       <c r="E755" t="s">
         <v>2232</v>
@@ -25165,7 +25171,7 @@
       </c>
       <c r="C756"/>
       <c r="D756" t="s">
-        <v>3481</v>
+        <v>3483</v>
       </c>
       <c r="E756" t="s">
         <v>2235</v>
@@ -25183,7 +25189,7 @@
       </c>
       <c r="C757"/>
       <c r="D757" t="s">
-        <v>3482</v>
+        <v>3484</v>
       </c>
       <c r="E757" t="s">
         <v>2238</v>
@@ -25201,7 +25207,7 @@
       </c>
       <c r="C758"/>
       <c r="D758" t="s">
-        <v>3483</v>
+        <v>3485</v>
       </c>
       <c r="E758" t="s">
         <v>2241</v>
@@ -25219,7 +25225,7 @@
       </c>
       <c r="C759"/>
       <c r="D759" t="s">
-        <v>3484</v>
+        <v>3486</v>
       </c>
       <c r="E759" t="s">
         <v>2244</v>
@@ -25237,7 +25243,7 @@
       </c>
       <c r="C760"/>
       <c r="D760" t="s">
-        <v>3485</v>
+        <v>3487</v>
       </c>
       <c r="E760" t="s">
         <v>2247</v>
@@ -25255,7 +25261,7 @@
       </c>
       <c r="C761"/>
       <c r="D761" t="s">
-        <v>3486</v>
+        <v>3488</v>
       </c>
       <c r="E761" t="s">
         <v>2250</v>
@@ -25273,7 +25279,7 @@
       </c>
       <c r="C762"/>
       <c r="D762" t="s">
-        <v>3487</v>
+        <v>3489</v>
       </c>
       <c r="E762" t="s">
         <v>2253</v>
@@ -25291,7 +25297,7 @@
       </c>
       <c r="C763"/>
       <c r="D763" t="s">
-        <v>3488</v>
+        <v>3490</v>
       </c>
       <c r="E763" t="s">
         <v>2256</v>
@@ -25309,7 +25315,7 @@
       </c>
       <c r="C764"/>
       <c r="D764" t="s">
-        <v>3470</v>
+        <v>3472</v>
       </c>
       <c r="E764" t="s">
         <v>2202</v>
@@ -25327,7 +25333,7 @@
       </c>
       <c r="C765"/>
       <c r="D765" t="s">
-        <v>3489</v>
+        <v>3491</v>
       </c>
       <c r="E765" t="s">
         <v>2260</v>
@@ -25345,7 +25351,7 @@
       </c>
       <c r="C766"/>
       <c r="D766" t="s">
-        <v>3490</v>
+        <v>3492</v>
       </c>
       <c r="E766" t="s">
         <v>2263</v>
@@ -25363,7 +25369,7 @@
       </c>
       <c r="C767"/>
       <c r="D767" t="s">
-        <v>3491</v>
+        <v>3493</v>
       </c>
       <c r="E767" t="s">
         <v>2266</v>
@@ -25381,7 +25387,7 @@
       </c>
       <c r="C768"/>
       <c r="D768" t="s">
-        <v>3492</v>
+        <v>3494</v>
       </c>
       <c r="E768" t="s">
         <v>2269</v>
@@ -25399,7 +25405,7 @@
       </c>
       <c r="C769"/>
       <c r="D769" t="s">
-        <v>3493</v>
+        <v>3495</v>
       </c>
       <c r="E769" t="s">
         <v>2272</v>
@@ -25417,7 +25423,7 @@
       </c>
       <c r="C770"/>
       <c r="D770" t="s">
-        <v>3494</v>
+        <v>3496</v>
       </c>
       <c r="E770" t="s">
         <v>2275</v>
@@ -25435,7 +25441,7 @@
       </c>
       <c r="C771"/>
       <c r="D771" t="s">
-        <v>3495</v>
+        <v>3497</v>
       </c>
       <c r="E771" t="s">
         <v>2278</v>
@@ -25453,7 +25459,7 @@
       </c>
       <c r="C772"/>
       <c r="D772" t="s">
-        <v>3496</v>
+        <v>3498</v>
       </c>
       <c r="E772" t="s">
         <v>2281</v>
@@ -25471,7 +25477,7 @@
       </c>
       <c r="C773"/>
       <c r="D773" t="s">
-        <v>3497</v>
+        <v>3499</v>
       </c>
       <c r="E773" t="s">
         <v>2284</v>
@@ -25489,7 +25495,7 @@
       </c>
       <c r="C774"/>
       <c r="D774" t="s">
-        <v>3498</v>
+        <v>3500</v>
       </c>
       <c r="E774" t="s">
         <v>2287</v>
@@ -25507,7 +25513,7 @@
       </c>
       <c r="C775"/>
       <c r="D775" t="s">
-        <v>3499</v>
+        <v>3501</v>
       </c>
       <c r="E775" t="s">
         <v>2290</v>
@@ -25525,7 +25531,7 @@
       </c>
       <c r="C776"/>
       <c r="D776" t="s">
-        <v>3500</v>
+        <v>3502</v>
       </c>
       <c r="E776" t="s">
         <v>2293</v>
@@ -25545,7 +25551,7 @@
         <v>367</v>
       </c>
       <c r="D777" t="s">
-        <v>3501</v>
+        <v>3503</v>
       </c>
       <c r="E777" t="s">
         <v>2296</v>
@@ -25565,7 +25571,7 @@
         <v>367</v>
       </c>
       <c r="D778" t="s">
-        <v>3502</v>
+        <v>3504</v>
       </c>
       <c r="E778" t="s">
         <v>2299</v>
@@ -25583,7 +25589,7 @@
       </c>
       <c r="C779"/>
       <c r="D779" t="s">
-        <v>3503</v>
+        <v>3505</v>
       </c>
       <c r="E779" t="s">
         <v>2302</v>
@@ -25601,7 +25607,7 @@
       </c>
       <c r="C780"/>
       <c r="D780" t="s">
-        <v>3504</v>
+        <v>3506</v>
       </c>
       <c r="E780" t="s">
         <v>2305</v>
@@ -25619,7 +25625,7 @@
       </c>
       <c r="C781"/>
       <c r="D781" t="s">
-        <v>3288</v>
+        <v>3290</v>
       </c>
       <c r="E781" t="s">
         <v>1642</v>
@@ -25637,7 +25643,7 @@
       </c>
       <c r="C782"/>
       <c r="D782" t="s">
-        <v>3505</v>
+        <v>3507</v>
       </c>
       <c r="E782" t="s">
         <v>2310</v>
@@ -25655,7 +25661,7 @@
       </c>
       <c r="C783"/>
       <c r="D783" t="s">
-        <v>3506</v>
+        <v>3508</v>
       </c>
       <c r="E783" t="s">
         <v>2313</v>
@@ -25673,7 +25679,7 @@
       </c>
       <c r="C784"/>
       <c r="D784" t="s">
-        <v>3507</v>
+        <v>3509</v>
       </c>
       <c r="E784" t="s">
         <v>2316</v>
@@ -25691,7 +25697,7 @@
       </c>
       <c r="C785"/>
       <c r="D785" t="s">
-        <v>3508</v>
+        <v>3510</v>
       </c>
       <c r="E785" t="s">
         <v>2319</v>
@@ -25709,7 +25715,7 @@
       </c>
       <c r="C786"/>
       <c r="D786" t="s">
-        <v>3509</v>
+        <v>3511</v>
       </c>
       <c r="E786" t="s">
         <v>2322</v>
@@ -25727,7 +25733,7 @@
       </c>
       <c r="C787"/>
       <c r="D787" t="s">
-        <v>3510</v>
+        <v>3512</v>
       </c>
       <c r="E787" t="s">
         <v>2325</v>
@@ -25745,7 +25751,7 @@
       </c>
       <c r="C788"/>
       <c r="D788" t="s">
-        <v>3511</v>
+        <v>3513</v>
       </c>
       <c r="E788" t="s">
         <v>2328</v>
@@ -25763,7 +25769,7 @@
       </c>
       <c r="C789"/>
       <c r="D789" t="s">
-        <v>3512</v>
+        <v>3514</v>
       </c>
       <c r="E789" t="s">
         <v>2331</v>
@@ -25781,7 +25787,7 @@
       </c>
       <c r="C790"/>
       <c r="D790" t="s">
-        <v>3513</v>
+        <v>3515</v>
       </c>
       <c r="E790" t="s">
         <v>2334</v>
@@ -25799,7 +25805,7 @@
       </c>
       <c r="C791"/>
       <c r="D791" t="s">
-        <v>3514</v>
+        <v>3516</v>
       </c>
       <c r="E791" t="s">
         <v>2337</v>
@@ -25817,7 +25823,7 @@
       </c>
       <c r="C792"/>
       <c r="D792" t="s">
-        <v>3515</v>
+        <v>3517</v>
       </c>
       <c r="E792" t="s">
         <v>2340</v>
@@ -25835,7 +25841,7 @@
       </c>
       <c r="C793"/>
       <c r="D793" t="s">
-        <v>3516</v>
+        <v>3518</v>
       </c>
       <c r="E793" t="s">
         <v>2343</v>
@@ -25853,7 +25859,7 @@
       </c>
       <c r="C794"/>
       <c r="D794" t="s">
-        <v>3517</v>
+        <v>3519</v>
       </c>
       <c r="E794" t="s">
         <v>2346</v>
@@ -25871,7 +25877,7 @@
       </c>
       <c r="C795"/>
       <c r="D795" t="s">
-        <v>3518</v>
+        <v>3520</v>
       </c>
       <c r="E795" t="s">
         <v>2349</v>
@@ -25889,7 +25895,7 @@
       </c>
       <c r="C796"/>
       <c r="D796" t="s">
-        <v>3519</v>
+        <v>3521</v>
       </c>
       <c r="E796" t="s">
         <v>2352</v>
@@ -25907,7 +25913,7 @@
       </c>
       <c r="C797"/>
       <c r="D797" t="s">
-        <v>3520</v>
+        <v>3522</v>
       </c>
       <c r="E797" t="s">
         <v>2355</v>
@@ -25925,7 +25931,7 @@
       </c>
       <c r="C798"/>
       <c r="D798" t="s">
-        <v>3521</v>
+        <v>3523</v>
       </c>
       <c r="E798" t="s">
         <v>2358</v>
@@ -25943,7 +25949,7 @@
       </c>
       <c r="C799"/>
       <c r="D799" t="s">
-        <v>3522</v>
+        <v>3524</v>
       </c>
       <c r="E799" t="s">
         <v>2361</v>
@@ -25961,7 +25967,7 @@
       </c>
       <c r="C800"/>
       <c r="D800" t="s">
-        <v>3523</v>
+        <v>3525</v>
       </c>
       <c r="E800" t="s">
         <v>2364</v>
@@ -25979,7 +25985,7 @@
       </c>
       <c r="C801"/>
       <c r="D801" t="s">
-        <v>3524</v>
+        <v>3526</v>
       </c>
       <c r="E801" t="s">
         <v>2367</v>
@@ -25997,7 +26003,7 @@
       </c>
       <c r="C802"/>
       <c r="D802" t="s">
-        <v>3525</v>
+        <v>3527</v>
       </c>
       <c r="E802" t="s">
         <v>2370</v>
@@ -26015,7 +26021,7 @@
       </c>
       <c r="C803"/>
       <c r="D803" t="s">
-        <v>3526</v>
+        <v>3528</v>
       </c>
       <c r="E803" t="s">
         <v>2373</v>
@@ -26033,7 +26039,7 @@
       </c>
       <c r="C804"/>
       <c r="D804" t="s">
-        <v>3527</v>
+        <v>3529</v>
       </c>
       <c r="E804" t="s">
         <v>2376</v>
@@ -26051,7 +26057,7 @@
       </c>
       <c r="C805"/>
       <c r="D805" t="s">
-        <v>3528</v>
+        <v>3530</v>
       </c>
       <c r="E805" t="s">
         <v>2379</v>
@@ -26069,7 +26075,7 @@
       </c>
       <c r="C806"/>
       <c r="D806" t="s">
-        <v>3529</v>
+        <v>3531</v>
       </c>
       <c r="E806" t="s">
         <v>2382</v>
@@ -26087,7 +26093,7 @@
       </c>
       <c r="C807"/>
       <c r="D807" t="s">
-        <v>3530</v>
+        <v>3532</v>
       </c>
       <c r="E807" t="s">
         <v>2385</v>
@@ -26105,7 +26111,7 @@
       </c>
       <c r="C808"/>
       <c r="D808" t="s">
-        <v>3531</v>
+        <v>3533</v>
       </c>
       <c r="E808" t="s">
         <v>2388</v>
@@ -26123,7 +26129,7 @@
       </c>
       <c r="C809"/>
       <c r="D809" t="s">
-        <v>3532</v>
+        <v>3534</v>
       </c>
       <c r="E809" t="s">
         <v>2391</v>
@@ -26141,7 +26147,7 @@
       </c>
       <c r="C810"/>
       <c r="D810" t="s">
-        <v>3533</v>
+        <v>3535</v>
       </c>
       <c r="E810" t="s">
         <v>2394</v>
@@ -26159,7 +26165,7 @@
       </c>
       <c r="C811"/>
       <c r="D811" t="s">
-        <v>3534</v>
+        <v>3536</v>
       </c>
       <c r="E811" t="s">
         <v>2397</v>
@@ -26177,7 +26183,7 @@
       </c>
       <c r="C812"/>
       <c r="D812" t="s">
-        <v>3535</v>
+        <v>3537</v>
       </c>
       <c r="E812" t="s">
         <v>2400</v>
@@ -26195,7 +26201,7 @@
       </c>
       <c r="C813"/>
       <c r="D813" t="s">
-        <v>3536</v>
+        <v>3538</v>
       </c>
       <c r="E813" t="s">
         <v>2403</v>
@@ -26213,7 +26219,7 @@
       </c>
       <c r="C814"/>
       <c r="D814" t="s">
-        <v>3537</v>
+        <v>3539</v>
       </c>
       <c r="E814" t="s">
         <v>2406</v>
@@ -26231,7 +26237,7 @@
       </c>
       <c r="C815"/>
       <c r="D815" t="s">
-        <v>3538</v>
+        <v>3540</v>
       </c>
       <c r="E815" t="s">
         <v>2409</v>
@@ -26249,7 +26255,7 @@
       </c>
       <c r="C816"/>
       <c r="D816" t="s">
-        <v>3539</v>
+        <v>3541</v>
       </c>
       <c r="E816" t="s">
         <v>2412</v>
@@ -26267,7 +26273,7 @@
       </c>
       <c r="C817"/>
       <c r="D817" t="s">
-        <v>3540</v>
+        <v>3542</v>
       </c>
       <c r="E817" t="s">
         <v>2415</v>
@@ -26285,7 +26291,7 @@
       </c>
       <c r="C818"/>
       <c r="D818" t="s">
-        <v>3541</v>
+        <v>3543</v>
       </c>
       <c r="E818" t="s">
         <v>2418</v>
@@ -26303,7 +26309,7 @@
       </c>
       <c r="C819"/>
       <c r="D819" t="s">
-        <v>3542</v>
+        <v>3544</v>
       </c>
       <c r="E819" t="s">
         <v>2421</v>
@@ -26321,7 +26327,7 @@
       </c>
       <c r="C820"/>
       <c r="D820" t="s">
-        <v>3543</v>
+        <v>3545</v>
       </c>
       <c r="E820" t="s">
         <v>2424</v>
@@ -26339,7 +26345,7 @@
       </c>
       <c r="C821"/>
       <c r="D821" t="s">
-        <v>3544</v>
+        <v>3546</v>
       </c>
       <c r="E821" t="s">
         <v>2427</v>
@@ -26357,7 +26363,7 @@
       </c>
       <c r="C822"/>
       <c r="D822" t="s">
-        <v>3545</v>
+        <v>3547</v>
       </c>
       <c r="E822" t="s">
         <v>2430</v>
@@ -26375,7 +26381,7 @@
       </c>
       <c r="C823"/>
       <c r="D823" t="s">
-        <v>3546</v>
+        <v>3548</v>
       </c>
       <c r="E823" t="s">
         <v>2433</v>
@@ -26393,7 +26399,7 @@
       </c>
       <c r="C824"/>
       <c r="D824" t="s">
-        <v>3547</v>
+        <v>3549</v>
       </c>
       <c r="E824" t="s">
         <v>2436</v>
@@ -26411,7 +26417,7 @@
       </c>
       <c r="C825"/>
       <c r="D825" t="s">
-        <v>3548</v>
+        <v>3550</v>
       </c>
       <c r="E825" t="s">
         <v>2439</v>
@@ -26429,7 +26435,7 @@
       </c>
       <c r="C826"/>
       <c r="D826" t="s">
-        <v>3549</v>
+        <v>3551</v>
       </c>
       <c r="E826" t="s">
         <v>2442</v>
@@ -26447,7 +26453,7 @@
       </c>
       <c r="C827"/>
       <c r="D827" t="s">
-        <v>3550</v>
+        <v>3552</v>
       </c>
       <c r="E827" t="s">
         <v>2445</v>
@@ -26465,7 +26471,7 @@
       </c>
       <c r="C828"/>
       <c r="D828" t="s">
-        <v>3551</v>
+        <v>3553</v>
       </c>
       <c r="E828" t="s">
         <v>2448</v>
@@ -26483,7 +26489,7 @@
       </c>
       <c r="C829"/>
       <c r="D829" t="s">
-        <v>3552</v>
+        <v>3554</v>
       </c>
       <c r="E829" t="s">
         <v>2451</v>
@@ -26501,7 +26507,7 @@
       </c>
       <c r="C830"/>
       <c r="D830" t="s">
-        <v>3553</v>
+        <v>3555</v>
       </c>
       <c r="E830" t="s">
         <v>2454</v>
@@ -26519,7 +26525,7 @@
       </c>
       <c r="C831"/>
       <c r="D831" t="s">
-        <v>3554</v>
+        <v>3556</v>
       </c>
       <c r="E831" t="s">
         <v>2457</v>
@@ -26537,7 +26543,7 @@
       </c>
       <c r="C832"/>
       <c r="D832" t="s">
-        <v>3555</v>
+        <v>3557</v>
       </c>
       <c r="E832" t="s">
         <v>2460</v>
@@ -26555,7 +26561,7 @@
       </c>
       <c r="C833"/>
       <c r="D833" t="s">
-        <v>3556</v>
+        <v>3558</v>
       </c>
       <c r="E833" t="s">
         <v>2463</v>
@@ -26573,7 +26579,7 @@
       </c>
       <c r="C834"/>
       <c r="D834" t="s">
-        <v>3557</v>
+        <v>3559</v>
       </c>
       <c r="E834" t="s">
         <v>2466</v>
@@ -26591,7 +26597,7 @@
       </c>
       <c r="C835"/>
       <c r="D835" t="s">
-        <v>3558</v>
+        <v>3560</v>
       </c>
       <c r="E835" t="s">
         <v>2469</v>
@@ -26609,7 +26615,7 @@
       </c>
       <c r="C836"/>
       <c r="D836" t="s">
-        <v>3559</v>
+        <v>3561</v>
       </c>
       <c r="E836" t="s">
         <v>2472</v>
@@ -26627,7 +26633,7 @@
       </c>
       <c r="C837"/>
       <c r="D837" t="s">
-        <v>3560</v>
+        <v>3562</v>
       </c>
       <c r="E837" t="s">
         <v>2475</v>
@@ -26645,7 +26651,7 @@
       </c>
       <c r="C838"/>
       <c r="D838" t="s">
-        <v>3561</v>
+        <v>3563</v>
       </c>
       <c r="E838" t="s">
         <v>2478</v>
@@ -26663,7 +26669,7 @@
       </c>
       <c r="C839"/>
       <c r="D839" t="s">
-        <v>3562</v>
+        <v>3564</v>
       </c>
       <c r="E839" t="s">
         <v>2481</v>
@@ -26681,7 +26687,7 @@
       </c>
       <c r="C840"/>
       <c r="D840" t="s">
-        <v>3563</v>
+        <v>3565</v>
       </c>
       <c r="E840" t="s">
         <v>2484</v>
@@ -26699,7 +26705,7 @@
       </c>
       <c r="C841"/>
       <c r="D841" t="s">
-        <v>3564</v>
+        <v>3566</v>
       </c>
       <c r="E841" t="s">
         <v>2487</v>
@@ -26717,7 +26723,7 @@
       </c>
       <c r="C842"/>
       <c r="D842" t="s">
-        <v>3565</v>
+        <v>3567</v>
       </c>
       <c r="E842" t="s">
         <v>2490</v>
@@ -26735,7 +26741,7 @@
       </c>
       <c r="C843"/>
       <c r="D843" t="s">
-        <v>3566</v>
+        <v>3568</v>
       </c>
       <c r="E843" t="s">
         <v>2493</v>
@@ -26753,7 +26759,7 @@
       </c>
       <c r="C844"/>
       <c r="D844" t="s">
-        <v>3567</v>
+        <v>3569</v>
       </c>
       <c r="E844" t="s">
         <v>2496</v>
@@ -26771,7 +26777,7 @@
       </c>
       <c r="C845"/>
       <c r="D845" t="s">
-        <v>3568</v>
+        <v>3570</v>
       </c>
       <c r="E845" t="s">
         <v>2499</v>
@@ -26789,7 +26795,7 @@
       </c>
       <c r="C846"/>
       <c r="D846" t="s">
-        <v>3569</v>
+        <v>3571</v>
       </c>
       <c r="E846" t="s">
         <v>2502</v>
@@ -26807,7 +26813,7 @@
       </c>
       <c r="C847"/>
       <c r="D847" t="s">
-        <v>3570</v>
+        <v>3572</v>
       </c>
       <c r="E847" t="s">
         <v>2505</v>
@@ -26825,7 +26831,7 @@
       </c>
       <c r="C848"/>
       <c r="D848" t="s">
-        <v>3571</v>
+        <v>3573</v>
       </c>
       <c r="E848" t="s">
         <v>2508</v>
@@ -26843,7 +26849,7 @@
       </c>
       <c r="C849"/>
       <c r="D849" t="s">
-        <v>3572</v>
+        <v>3574</v>
       </c>
       <c r="E849" t="s">
         <v>2511</v>
@@ -26861,7 +26867,7 @@
       </c>
       <c r="C850"/>
       <c r="D850" t="s">
-        <v>3573</v>
+        <v>3575</v>
       </c>
       <c r="E850" t="s">
         <v>2514</v>
@@ -26879,7 +26885,7 @@
       </c>
       <c r="C851"/>
       <c r="D851" t="s">
-        <v>3574</v>
+        <v>3576</v>
       </c>
       <c r="E851" t="s">
         <v>2517</v>
@@ -26897,7 +26903,7 @@
       </c>
       <c r="C852"/>
       <c r="D852" t="s">
-        <v>3575</v>
+        <v>3577</v>
       </c>
       <c r="E852" t="s">
         <v>2520</v>
@@ -26915,7 +26921,7 @@
       </c>
       <c r="C853"/>
       <c r="D853" t="s">
-        <v>3576</v>
+        <v>3578</v>
       </c>
       <c r="E853" t="s">
         <v>2523</v>
@@ -26933,7 +26939,7 @@
       </c>
       <c r="C854"/>
       <c r="D854" t="s">
-        <v>3577</v>
+        <v>3579</v>
       </c>
       <c r="E854" t="s">
         <v>2526</v>
@@ -26951,7 +26957,7 @@
       </c>
       <c r="C855"/>
       <c r="D855" t="s">
-        <v>3578</v>
+        <v>3580</v>
       </c>
       <c r="E855" t="s">
         <v>2529</v>
@@ -26969,7 +26975,7 @@
       </c>
       <c r="C856"/>
       <c r="D856" t="s">
-        <v>3579</v>
+        <v>3581</v>
       </c>
       <c r="E856" t="s">
         <v>2532</v>
@@ -26987,7 +26993,7 @@
       </c>
       <c r="C857"/>
       <c r="D857" t="s">
-        <v>3580</v>
+        <v>3582</v>
       </c>
       <c r="E857" t="s">
         <v>2535</v>
@@ -27005,7 +27011,7 @@
       </c>
       <c r="C858"/>
       <c r="D858" t="s">
-        <v>3581</v>
+        <v>3583</v>
       </c>
       <c r="E858" t="s">
         <v>2538</v>
@@ -27023,7 +27029,7 @@
       </c>
       <c r="C859"/>
       <c r="D859" t="s">
-        <v>3582</v>
+        <v>3584</v>
       </c>
       <c r="E859" t="s">
         <v>2541</v>
@@ -27041,7 +27047,7 @@
       </c>
       <c r="C860"/>
       <c r="D860" t="s">
-        <v>3583</v>
+        <v>3585</v>
       </c>
       <c r="E860" t="s">
         <v>2544</v>
@@ -27059,7 +27065,7 @@
       </c>
       <c r="C861"/>
       <c r="D861" t="s">
-        <v>3583</v>
+        <v>3585</v>
       </c>
       <c r="E861" t="s">
         <v>2544</v>
@@ -27077,7 +27083,7 @@
       </c>
       <c r="C862"/>
       <c r="D862" t="s">
-        <v>3584</v>
+        <v>3586</v>
       </c>
       <c r="E862" t="s">
         <v>2549</v>
@@ -27095,7 +27101,7 @@
       </c>
       <c r="C863"/>
       <c r="D863" t="s">
-        <v>3585</v>
+        <v>3587</v>
       </c>
       <c r="E863" t="s">
         <v>2552</v>
@@ -27113,7 +27119,7 @@
       </c>
       <c r="C864"/>
       <c r="D864" t="s">
-        <v>3586</v>
+        <v>3588</v>
       </c>
       <c r="E864" t="s">
         <v>2555</v>
@@ -27131,7 +27137,7 @@
       </c>
       <c r="C865"/>
       <c r="D865" t="s">
-        <v>3587</v>
+        <v>3589</v>
       </c>
       <c r="E865" t="s">
         <v>2558</v>
@@ -27149,7 +27155,7 @@
       </c>
       <c r="C866"/>
       <c r="D866" t="s">
-        <v>3588</v>
+        <v>3590</v>
       </c>
       <c r="E866" t="s">
         <v>2561</v>
@@ -27167,7 +27173,7 @@
       </c>
       <c r="C867"/>
       <c r="D867" t="s">
-        <v>3589</v>
+        <v>3591</v>
       </c>
       <c r="E867" t="s">
         <v>2564</v>
@@ -27185,7 +27191,7 @@
       </c>
       <c r="C868"/>
       <c r="D868" t="s">
-        <v>3590</v>
+        <v>3592</v>
       </c>
       <c r="E868" t="s">
         <v>2567</v>
@@ -27203,7 +27209,7 @@
       </c>
       <c r="C869"/>
       <c r="D869" t="s">
-        <v>3591</v>
+        <v>3593</v>
       </c>
       <c r="E869" t="s">
         <v>2570</v>
@@ -27221,7 +27227,7 @@
       </c>
       <c r="C870"/>
       <c r="D870" t="s">
-        <v>3592</v>
+        <v>3594</v>
       </c>
       <c r="E870" t="s">
         <v>2573</v>
@@ -27239,7 +27245,7 @@
       </c>
       <c r="C871"/>
       <c r="D871" t="s">
-        <v>3593</v>
+        <v>3595</v>
       </c>
       <c r="E871" t="s">
         <v>2576</v>
@@ -27257,7 +27263,7 @@
       </c>
       <c r="C872"/>
       <c r="D872" t="s">
-        <v>3594</v>
+        <v>3596</v>
       </c>
       <c r="E872" t="s">
         <v>2579</v>
@@ -27275,7 +27281,7 @@
       </c>
       <c r="C873"/>
       <c r="D873" t="s">
-        <v>3166</v>
+        <v>3168</v>
       </c>
       <c r="E873" t="s">
         <v>2582</v>
@@ -27293,7 +27299,7 @@
       </c>
       <c r="C874"/>
       <c r="D874" t="s">
-        <v>3595</v>
+        <v>3597</v>
       </c>
       <c r="E874" t="s">
         <v>2584</v>
@@ -27311,7 +27317,7 @@
       </c>
       <c r="C875"/>
       <c r="D875" t="s">
-        <v>3596</v>
+        <v>3598</v>
       </c>
       <c r="E875" t="s">
         <v>2587</v>
@@ -27329,7 +27335,7 @@
       </c>
       <c r="C876"/>
       <c r="D876" t="s">
-        <v>3597</v>
+        <v>3599</v>
       </c>
       <c r="E876" t="s">
         <v>2590</v>
@@ -27347,7 +27353,7 @@
       </c>
       <c r="C877"/>
       <c r="D877" t="s">
-        <v>3598</v>
+        <v>3600</v>
       </c>
       <c r="E877" t="s">
         <v>2593</v>
@@ -27365,7 +27371,7 @@
       </c>
       <c r="C878"/>
       <c r="D878" t="s">
-        <v>3599</v>
+        <v>3601</v>
       </c>
       <c r="E878" t="s">
         <v>2596</v>
@@ -27383,7 +27389,7 @@
       </c>
       <c r="C879"/>
       <c r="D879" t="s">
-        <v>3600</v>
+        <v>3602</v>
       </c>
       <c r="E879" t="s">
         <v>2599</v>
@@ -27401,7 +27407,7 @@
       </c>
       <c r="C880"/>
       <c r="D880" t="s">
-        <v>3601</v>
+        <v>3603</v>
       </c>
       <c r="E880" t="s">
         <v>2602</v>
@@ -27419,7 +27425,7 @@
       </c>
       <c r="C881"/>
       <c r="D881" t="s">
-        <v>3602</v>
+        <v>3604</v>
       </c>
       <c r="E881" t="s">
         <v>2605</v>
@@ -27437,7 +27443,7 @@
       </c>
       <c r="C882"/>
       <c r="D882" t="s">
-        <v>3603</v>
+        <v>3605</v>
       </c>
       <c r="E882" t="s">
         <v>2608</v>
@@ -27455,7 +27461,7 @@
       </c>
       <c r="C883"/>
       <c r="D883" t="s">
-        <v>3604</v>
+        <v>3606</v>
       </c>
       <c r="E883" t="s">
         <v>2611</v>
@@ -27473,7 +27479,7 @@
       </c>
       <c r="C884"/>
       <c r="D884" t="s">
-        <v>3605</v>
+        <v>3607</v>
       </c>
       <c r="E884" t="s">
         <v>2614</v>
@@ -27491,7 +27497,7 @@
       </c>
       <c r="C885"/>
       <c r="D885" t="s">
-        <v>3606</v>
+        <v>3608</v>
       </c>
       <c r="E885" t="s">
         <v>2617</v>
@@ -27509,7 +27515,7 @@
       </c>
       <c r="C886"/>
       <c r="D886" t="s">
-        <v>3607</v>
+        <v>3609</v>
       </c>
       <c r="E886" t="s">
         <v>2620</v>
@@ -27527,7 +27533,7 @@
       </c>
       <c r="C887"/>
       <c r="D887" t="s">
-        <v>3608</v>
+        <v>3610</v>
       </c>
       <c r="E887" t="s">
         <v>2623</v>
@@ -27545,7 +27551,7 @@
       </c>
       <c r="C888"/>
       <c r="D888" t="s">
-        <v>3609</v>
+        <v>3611</v>
       </c>
       <c r="E888" t="s">
         <v>2626</v>
@@ -27563,7 +27569,7 @@
       </c>
       <c r="C889"/>
       <c r="D889" t="s">
-        <v>3610</v>
+        <v>3612</v>
       </c>
       <c r="E889" t="s">
         <v>2629</v>
@@ -27581,7 +27587,7 @@
       </c>
       <c r="C890"/>
       <c r="D890" t="s">
-        <v>3611</v>
+        <v>3613</v>
       </c>
       <c r="E890" t="s">
         <v>2632</v>
@@ -27599,7 +27605,7 @@
       </c>
       <c r="C891"/>
       <c r="D891" t="s">
-        <v>3612</v>
+        <v>3614</v>
       </c>
       <c r="E891" t="s">
         <v>2635</v>
@@ -27617,7 +27623,7 @@
       </c>
       <c r="C892"/>
       <c r="D892" t="s">
-        <v>3613</v>
+        <v>3615</v>
       </c>
       <c r="E892" t="s">
         <v>2638</v>
@@ -27635,7 +27641,7 @@
       </c>
       <c r="C893"/>
       <c r="D893" t="s">
-        <v>3614</v>
+        <v>3616</v>
       </c>
       <c r="E893" t="s">
         <v>2641</v>
@@ -27653,7 +27659,7 @@
       </c>
       <c r="C894"/>
       <c r="D894" t="s">
-        <v>3615</v>
+        <v>3617</v>
       </c>
       <c r="E894" t="s">
         <v>2644</v>
@@ -27671,7 +27677,7 @@
       </c>
       <c r="C895"/>
       <c r="D895" t="s">
-        <v>3616</v>
+        <v>3618</v>
       </c>
       <c r="E895" t="s">
         <v>2647</v>
@@ -27689,7 +27695,7 @@
       </c>
       <c r="C896"/>
       <c r="D896" t="s">
-        <v>3617</v>
+        <v>3619</v>
       </c>
       <c r="E896" t="s">
         <v>2650</v>
@@ -27707,7 +27713,7 @@
       </c>
       <c r="C897"/>
       <c r="D897" t="s">
-        <v>3618</v>
+        <v>3620</v>
       </c>
       <c r="E897" t="s">
         <v>2653</v>
@@ -27725,7 +27731,7 @@
       </c>
       <c r="C898"/>
       <c r="D898" t="s">
-        <v>3619</v>
+        <v>3621</v>
       </c>
       <c r="E898" t="s">
         <v>2656</v>
@@ -27743,7 +27749,7 @@
       </c>
       <c r="C899"/>
       <c r="D899" t="s">
-        <v>3620</v>
+        <v>3622</v>
       </c>
       <c r="E899" t="s">
         <v>2659</v>
@@ -27757,11 +27763,11 @@
         <v>2661</v>
       </c>
       <c r="B900" t="s">
-        <v>7</v>
+        <v>2752</v>
       </c>
       <c r="C900"/>
       <c r="D900" t="s">
-        <v>3621</v>
+        <v>3623</v>
       </c>
       <c r="E900" t="s">
         <v>2662</v>

--- a/Mod_Korean/Lang/KR/Game/Game.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Game.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5605" uniqueCount="3624">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5604" uniqueCount="3624">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">weather_Rain</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.37</t>
+    <t xml:space="preserve">EA 23.38</t>
   </si>
   <si>
     <t xml:space="preserve">It begins to rain.</t>
@@ -8154,7 +8154,7 @@
     <t xml:space="preserve">Beta 22.76</t>
   </si>
   <si>
-    <t xml:space="preserve">Beta 22.9</t>
+    <t xml:space="preserve">EA 23.37</t>
   </si>
   <si>
     <t xml:space="preserve">Alpha 18.1</t>
@@ -11360,7 +11360,7 @@
         <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>2666</v>
       </c>
       <c r="C12"/>
       <c r="D12" t="s">

--- a/Mod_Korean/Lang/KR/Game/Game.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Game.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">weather_Rain</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.38</t>
+    <t xml:space="preserve">EA 23.38 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">It begins to rain.</t>

--- a/Mod_Korean/Lang/KR/Game/Game.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Game.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">weather_Rain</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.38 fix 1</t>
+    <t xml:space="preserve">EA 23.39</t>
   </si>
   <si>
     <t xml:space="preserve">It begins to rain.</t>

--- a/Mod_Korean/Lang/KR/Game/Game.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Game.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">weather_Rain</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.39</t>
+    <t xml:space="preserve">EA 23.40 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">It begins to rain.</t>

--- a/Mod_Korean/Lang/KR/Game/Game.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Game.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">weather_Rain</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.42</t>
+    <t xml:space="preserve">EA 23.44 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">It begins to rain.</t>

--- a/Mod_Korean/Lang/KR/Game/Game.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Game.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">weather_Rain</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.44 fix 1</t>
+    <t xml:space="preserve">EA 23.45</t>
   </si>
   <si>
     <t xml:space="preserve">It begins to rain.</t>

--- a/Mod_Korean/Lang/KR/Game/Game.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Game.xlsx
@@ -1636,7 +1636,7 @@
     <t xml:space="preserve">castGaze</t>
   </si>
   <si>
-    <t xml:space="preserve">#1은(는) #3을(를) 매섭게 노려보았다.</t>
+    <t xml:space="preserve">#1은(는) #3 매섭게 노려보았다.</t>
   </si>
   <si>
     <t xml:space="preserve">#1 gaze(s)#3.</t>
@@ -11371,16 +11371,17 @@
   <dimension ref="A1:F902"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A541" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="2" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="I554" activeCellId="0" sqref="I554"/>
+      <selection pane="bottomLeft" activeCell="M131" activeCellId="0" sqref="M131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.9609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="1" width="14.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="49.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="14.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="30.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="26.1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Mod_Korean/Lang/KR/Game/Game.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Game.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">weather_Rain</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.54</t>
+    <t xml:space="preserve">EA 23.55 fix 2</t>
   </si>
   <si>
     <t xml:space="preserve">It begins to rain.</t>

--- a/Mod_Korean/Lang/KR/Game/Game.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Game.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">weather_Rain</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.66 fix 1</t>
+    <t xml:space="preserve">EA 23.67</t>
   </si>
   <si>
     <t xml:space="preserve">It begins to rain.</t>

--- a/Mod_Korean/Lang/KR/Game/Game.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Game.xlsx
@@ -3022,7 +3022,7 @@
     <t xml:space="preserve">dead_in</t>
   </si>
   <si>
-    <t xml:space="preserve">#1에서</t>
+    <t xml:space="preserve"> #1에서</t>
   </si>
   <si>
     <t xml:space="preserve"> in #1</t>
@@ -3034,7 +3034,7 @@
     <t xml:space="preserve">dead_by</t>
   </si>
   <si>
-    <t xml:space="preserve">#1은(는) #2 #3에게 살해당했다.</t>
+    <t xml:space="preserve">#1은(는)#2 #3에게 살해당했다.</t>
   </si>
   <si>
     <t xml:space="preserve">#1 were/was killed by #3#2.</t>
@@ -3046,7 +3046,7 @@
     <t xml:space="preserve">dead</t>
   </si>
   <si>
-    <t xml:space="preserve">#1은(는) #2 목숨을 잃었다.</t>
+    <t xml:space="preserve">#1은(는)#2 목숨을 잃었다.</t>
   </si>
   <si>
     <t xml:space="preserve">#1 died#2.</t>
@@ -3058,7 +3058,7 @@
     <t xml:space="preserve">dead_attack</t>
   </si>
   <si>
-    <t xml:space="preserve">#1은(는) #2 살해당했다.</t>
+    <t xml:space="preserve">#1은(는)#2 살해당했다.</t>
   </si>
   <si>
     <t xml:space="preserve">#1 were/was killed#2.</t>
@@ -3070,7 +3070,7 @@
     <t xml:space="preserve">dead_eleFire</t>
   </si>
   <si>
-    <t xml:space="preserve">#1은(는) #2 불타서 잿더미가 되었다.</t>
+    <t xml:space="preserve">#1은(는)#2 불타서 잿더미가 되었다.</t>
   </si>
   <si>
     <t xml:space="preserve">#1 were/was burnt to ashes#2.</t>
@@ -3082,7 +3082,7 @@
     <t xml:space="preserve">dead_eleCold</t>
   </si>
   <si>
-    <t xml:space="preserve">#1은(는) #2 얼음 조각상이 되었다.</t>
+    <t xml:space="preserve">#1은(는)#2 얼음 조각상이 되었다.</t>
   </si>
   <si>
     <t xml:space="preserve">#1 were/was frozen and turned into an ice sculpture#2.</t>
@@ -3094,7 +3094,7 @@
     <t xml:space="preserve">dead_eleLightning</t>
   </si>
   <si>
-    <t xml:space="preserve">#1은(는) #2 전격에 맞아 죽었다.</t>
+    <t xml:space="preserve">#1은(는)#2 전격에 맞아 죽었다.</t>
   </si>
   <si>
     <t xml:space="preserve">#1 were/was struck by lightning and died#2.</t>
@@ -3106,7 +3106,7 @@
     <t xml:space="preserve">dead_eleDarkness</t>
   </si>
   <si>
-    <t xml:space="preserve">#1은(는) #2 어둠에 삼켜져 죽었다.</t>
+    <t xml:space="preserve">#1은(는)#2 어둠에 삼켜져 죽었다.</t>
   </si>
   <si>
     <t xml:space="preserve">#1 were/was consumed by darkness#2.</t>
@@ -3118,7 +3118,7 @@
     <t xml:space="preserve">dead_eleHoly</t>
   </si>
   <si>
-    <t xml:space="preserve">#1은(는) #2 승천했다.</t>
+    <t xml:space="preserve">#1은(는)#2 승천했다.</t>
   </si>
   <si>
     <t xml:space="preserve">#1 went to heaven#2.</t>
@@ -3130,7 +3130,7 @@
     <t xml:space="preserve">dead_eleMind</t>
   </si>
   <si>
-    <t xml:space="preserve">#1은(는) #2 발광해서 죽었다.
+    <t xml:space="preserve">#1은(는)#2 발광해서 죽었다.
 #1은(는) 미쳐서 자결했다.</t>
   </si>
   <si>
@@ -3145,7 +3145,7 @@
     <t xml:space="preserve">dead_elePoison</t>
   </si>
   <si>
-    <t xml:space="preserve">#1은(는) #2 독에 중독되어 죽었다.</t>
+    <t xml:space="preserve">#1은(는)#2 독에 중독되어 죽었다.</t>
   </si>
   <si>
     <t xml:space="preserve">#1 were/was poisoned to death#2.</t>
@@ -3157,7 +3157,7 @@
     <t xml:space="preserve">dead_eleNether</t>
   </si>
   <si>
-    <t xml:space="preserve">#1은(는) #2 저승으로 떨어졌다.</t>
+    <t xml:space="preserve">#1은(는)#2 저승으로 떨어졌다.</t>
   </si>
   <si>
     <t xml:space="preserve">#1 went to hell#2.</t>
@@ -3169,7 +3169,7 @@
     <t xml:space="preserve">dead_eleSound</t>
   </si>
   <si>
-    <t xml:space="preserve">#1은(는) #2 몽롱해져 죽었다.</t>
+    <t xml:space="preserve">#1은(는)#2 몽롱해져 죽었다.</t>
   </si>
   <si>
     <t xml:space="preserve">#1 resonated and broke up#2.</t>
@@ -3181,7 +3181,7 @@
     <t xml:space="preserve">dead_eleNerve</t>
   </si>
   <si>
-    <t xml:space="preserve">#1은(는) #2 신경쇠약으로 죽었다.</t>
+    <t xml:space="preserve">#1은(는)#2 신경쇠약으로 죽었다.</t>
   </si>
   <si>
     <t xml:space="preserve">#1 died from neurofibroma#2.</t>
@@ -3193,7 +3193,7 @@
     <t xml:space="preserve">dead_eleChaos</t>
   </si>
   <si>
-    <t xml:space="preserve">#1은(는) #2 혼돈의 소용돌이에 흡수되었다.</t>
+    <t xml:space="preserve">#1은(는)#2 혼돈의 소용돌이에 흡수되었다.</t>
   </si>
   <si>
     <t xml:space="preserve">#1 were/was drawn into a chaotic vortex#2.</t>
@@ -3205,7 +3205,7 @@
     <t xml:space="preserve">dead_eleAcid</t>
   </si>
   <si>
-    <t xml:space="preserve">#1은(는) #2 산에 녹아서 죽었다.</t>
+    <t xml:space="preserve">#1은(는)#2 산에 녹아서 죽었다.</t>
   </si>
   <si>
     <t xml:space="preserve">#1 melted#2.</t>
@@ -3217,7 +3217,7 @@
     <t xml:space="preserve">dead_eleCut</t>
   </si>
   <si>
-    <t xml:space="preserve">#1은(는) #2 채썰렸다.</t>
+    <t xml:space="preserve">#1은(는)#2 채썰렸다.</t>
   </si>
   <si>
     <t xml:space="preserve">#1 were/was cut into thin strips#2.</t>
@@ -3229,7 +3229,7 @@
     <t xml:space="preserve">dead_eleMagic</t>
   </si>
   <si>
-    <t xml:space="preserve">#1은(는) #2 폐인이 되었다.</t>
+    <t xml:space="preserve">#1은(는)#2 폐인이 되었다.</t>
   </si>
   <si>
     <t xml:space="preserve">#1 were/was ruined#2.</t>
@@ -3241,7 +3241,7 @@
     <t xml:space="preserve">dead_eleEther</t>
   </si>
   <si>
-    <t xml:space="preserve">#1은(는) #2 에테르의 흐름에 익사했다.</t>
+    <t xml:space="preserve">#1은(는)#2 에테르의 흐름에 익사했다.</t>
   </si>
   <si>
     <t xml:space="preserve">#1 were/was down in ether#2.</t>
@@ -3253,7 +3253,7 @@
     <t xml:space="preserve">dead_mana</t>
   </si>
   <si>
-    <t xml:space="preserve">#1은(는) #2 마나의 반동으로 죽었다.</t>
+    <t xml:space="preserve">#1은(는)#2 마나의 반동으로 죽었다.</t>
   </si>
   <si>
     <t xml:space="preserve">#1 died from over-casting#2.</t>
@@ -3265,7 +3265,7 @@
     <t xml:space="preserve">dead_Hunger</t>
   </si>
   <si>
-    <t xml:space="preserve">#1은(는) #2 아사했다.</t>
+    <t xml:space="preserve">#1은(는)#2 아사했다.</t>
   </si>
   <si>
     <t xml:space="preserve">#1 were/was starved to death#2.</t>
@@ -3277,7 +3277,7 @@
     <t xml:space="preserve">dead_Fatigue</t>
   </si>
   <si>
-    <t xml:space="preserve">#1은(는) #2 과로사했다.</t>
+    <t xml:space="preserve">#1은(는)#2 과로사했다.</t>
   </si>
   <si>
     <t xml:space="preserve">#1 died from overwork#2.</t>
@@ -3292,7 +3292,7 @@
     <t xml:space="preserve">EA 23.24 fix 4</t>
   </si>
   <si>
-    <t xml:space="preserve">#1은(는) #2 목을 매달았다.</t>
+    <t xml:space="preserve">#1은(는)#2 목을 매달았다.</t>
   </si>
   <si>
     <t xml:space="preserve">#1 hanged #himself#2.</t>
@@ -3304,7 +3304,7 @@
     <t xml:space="preserve">dead_Wrath</t>
   </si>
   <si>
-    <t xml:space="preserve">#1은(는) #2 #3의 분노를 사 죽었다.</t>
+    <t xml:space="preserve">#1은(는)#2 #3의 분노를 사 죽었다.</t>
   </si>
   <si>
     <t xml:space="preserve">#1 perished#2 after incurring #3's wrath.</t>
@@ -3316,7 +3316,7 @@
     <t xml:space="preserve">dead_Burden</t>
   </si>
   <si>
-    <t xml:space="preserve">#1은(는) #2 짐에 짓눌려서 죽었다.</t>
+    <t xml:space="preserve">#1은(는)#2 짐에 짓눌려서 죽었다.</t>
   </si>
   <si>
     <t xml:space="preserve">#1 were/was squashed by #his luggage#2.</t>
@@ -3328,7 +3328,7 @@
     <t xml:space="preserve">dead_Fall</t>
   </si>
   <si>
-    <t xml:space="preserve">#1은(는) #2 추락해서 죽었다.</t>
+    <t xml:space="preserve">#1은(는)#2 추락해서 죽었다.</t>
   </si>
   <si>
     <t xml:space="preserve">#1 fell to #his death#2.</t>
@@ -3340,7 +3340,7 @@
     <t xml:space="preserve">dead_BurdenStairs</t>
   </si>
   <si>
-    <t xml:space="preserve">#1은(는) #2 계단에서 굴러 떨어져 죽었다.</t>
+    <t xml:space="preserve">#1은(는)#2 계단에서 굴러 떨어져 죽었다.</t>
   </si>
   <si>
     <t xml:space="preserve">#1 tumbled down the staircase and died#2.</t>
@@ -3352,7 +3352,7 @@
     <t xml:space="preserve">dead_BurdenFallDown</t>
   </si>
   <si>
-    <t xml:space="preserve">#1은(는) #2 넘어져서 죽었다.</t>
+    <t xml:space="preserve">#1은(는)#2 넘어져서 죽었다.</t>
   </si>
   <si>
     <t xml:space="preserve">#1 fell and died#2.</t>
@@ -3556,7 +3556,7 @@
     <t xml:space="preserve">spellbookCrumble</t>
   </si>
   <si>
-    <t xml:space="preserve">#1은(는) 가루가 되어서 무너져 버렸다.</t>
+    <t xml:space="preserve">#1은(는) 가루가 되어서 바스러졌다.</t>
   </si>
   <si>
     <t xml:space="preserve">#1 fall(s) apart.</t>
@@ -11459,7 +11459,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -11470,6 +11470,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -11689,9 +11693,9 @@
   <dimension ref="A1:F916"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A653" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="2" topLeftCell="A235" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G662" activeCellId="0" sqref="G662"/>
+      <selection pane="bottomLeft" activeCell="I252" activeCellId="0" sqref="I252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.62109375" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12437,7 +12441,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="285.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="270.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
         <v>176</v>
       </c>
@@ -14186,7 +14190,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="240.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="195.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
         <v>564</v>
       </c>
@@ -16463,7 +16467,7 @@
       <c r="C255" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="D255" s="3" t="s">
+      <c r="D255" s="4" t="s">
         <v>1019</v>
       </c>
       <c r="E255" s="3" t="s">
@@ -21349,7 +21353,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="537" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="537" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A537" s="1" t="s">
         <v>2151</v>
       </c>
@@ -21389,7 +21393,7 @@
         <v>2159</v>
       </c>
     </row>
-    <row r="539" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="539" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A539" s="1" t="s">
         <v>2160</v>
       </c>
@@ -21469,7 +21473,7 @@
         <v>2175</v>
       </c>
     </row>
-    <row r="543" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="543" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A543" s="1" t="s">
         <v>2176</v>
       </c>
@@ -21489,7 +21493,7 @@
         <v>2179</v>
       </c>
     </row>
-    <row r="544" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="544" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A544" s="1" t="s">
         <v>2180</v>
       </c>
@@ -21749,7 +21753,7 @@
         <v>2232</v>
       </c>
     </row>
-    <row r="557" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="557" customFormat="false" ht="150.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A557" s="1" t="s">
         <v>2233</v>
       </c>
@@ -23436,7 +23440,7 @@
         <v>2620</v>
       </c>
     </row>
-    <row r="655" customFormat="false" ht="225.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="655" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A655" s="1" t="s">
         <v>2621</v>
       </c>
@@ -24405,7 +24409,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="712" customFormat="false" ht="150.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="712" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A712" s="1" t="s">
         <v>2847</v>
       </c>
@@ -24592,7 +24596,7 @@
         <v>2890</v>
       </c>
     </row>
-    <row r="723" customFormat="false" ht="165.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="723" customFormat="false" ht="150.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A723" s="1" t="s">
         <v>2891</v>
       </c>
@@ -24966,7 +24970,7 @@
         <v>2979</v>
       </c>
     </row>
-    <row r="745" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="745" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A745" s="1" t="s">
         <v>2980</v>
       </c>
